--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14507,7 +14507,7 @@
         <v>986</v>
       </c>
       <c r="N177" t="n">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="O177" t="n">
         <v>131</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38660</v>
+        <v>38662</v>
       </c>
     </row>
     <row r="178">
@@ -14594,7 +14594,9 @@
       <c r="M178" t="n">
         <v>995</v>
       </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>832</v>
+      </c>
       <c r="O178" t="n">
         <v>131</v>
       </c>
@@ -14635,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38943</v>
+        <v>38946</v>
       </c>
     </row>
     <row r="179">
@@ -14672,14 +14674,18 @@
       <c r="M179" t="n">
         <v>998</v>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>835</v>
+      </c>
       <c r="O179" t="n">
         <v>131</v>
       </c>
       <c r="P179" t="n">
         <v>100</v>
       </c>
-      <c r="Q179" t="inlineStr"/>
+      <c r="Q179" t="n">
+        <v>1202</v>
+      </c>
       <c r="R179" t="n">
         <v>160</v>
       </c>
@@ -14709,7 +14715,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39092</v>
+        <v>39113</v>
       </c>
     </row>
     <row r="180">
@@ -14724,7 +14730,9 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>1487</v>
+      </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -14734,13 +14742,17 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>160</v>
+      </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="n">
         <v>459</v>
       </c>
       <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
+      <c r="V180" t="n">
+        <v>3500</v>
+      </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr"/>
@@ -14749,7 +14761,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>39101</v>
+        <v>39153</v>
       </c>
     </row>
   </sheetData>
@@ -28758,7 +28770,9 @@
       <c r="P179" t="n">
         <v>0</v>
       </c>
-      <c r="Q179" t="inlineStr"/>
+      <c r="Q179" t="n">
+        <v>41</v>
+      </c>
       <c r="R179" t="n">
         <v>8</v>
       </c>
@@ -28803,7 +28817,9 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>85</v>
+      </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -28813,13 +28829,17 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>8</v>
+      </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="n">
         <v>25</v>
       </c>
       <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
+      <c r="V180" t="n">
+        <v>350</v>
+      </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr"/>
@@ -41796,14 +41816,18 @@
       <c r="M179" t="n">
         <v>7</v>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
       <c r="O179" t="n">
         <v>0</v>
       </c>
       <c r="P179" t="n">
         <v>1</v>
       </c>
-      <c r="Q179" t="inlineStr"/>
+      <c r="Q179" t="n">
+        <v>9</v>
+      </c>
       <c r="R179" t="n">
         <v>3</v>
       </c>
@@ -41831,7 +41855,7 @@
         <v>30</v>
       </c>
       <c r="AB179" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180">
@@ -41846,7 +41870,9 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -41856,11 +41882,15 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>5</v>
+      </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr"/>
@@ -41869,7 +41899,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -53565,12 +53595,16 @@
       <c r="M179" t="n">
         <v>4</v>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
       <c r="O179" t="n">
         <v>0</v>
       </c>
       <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
+      <c r="Q179" t="n">
+        <v>1</v>
+      </c>
       <c r="R179" t="n">
         <v>0</v>
       </c>
@@ -53605,7 +53639,9 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -53615,18 +53651,22 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -62750,10 +62790,14 @@
       </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
+      <c r="Q179" t="n">
+        <v>4</v>
+      </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
@@ -62800,7 +62844,9 @@
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr"/>
@@ -72535,7 +72581,9 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>160</v>
+      </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -72551,7 +72599,9 @@
         <v>404</v>
       </c>
       <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
+      <c r="V180" t="n">
+        <v>925</v>
+      </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14745,11 +14745,15 @@
       <c r="R180" t="n">
         <v>160</v>
       </c>
-      <c r="S180" t="inlineStr"/>
+      <c r="S180" t="n">
+        <v>643</v>
+      </c>
       <c r="T180" t="n">
         <v>459</v>
       </c>
-      <c r="U180" t="inlineStr"/>
+      <c r="U180" t="n">
+        <v>551</v>
+      </c>
       <c r="V180" t="n">
         <v>3500</v>
       </c>
@@ -14761,7 +14765,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>39153</v>
+        <v>39158</v>
       </c>
     </row>
   </sheetData>
@@ -28832,11 +28836,15 @@
       <c r="R180" t="n">
         <v>8</v>
       </c>
-      <c r="S180" t="inlineStr"/>
+      <c r="S180" t="n">
+        <v>18</v>
+      </c>
       <c r="T180" t="n">
         <v>25</v>
       </c>
-      <c r="U180" t="inlineStr"/>
+      <c r="U180" t="n">
+        <v>19</v>
+      </c>
       <c r="V180" t="n">
         <v>350</v>
       </c>
@@ -41885,9 +41893,13 @@
       <c r="R180" t="n">
         <v>5</v>
       </c>
-      <c r="S180" t="inlineStr"/>
+      <c r="S180" t="n">
+        <v>2</v>
+      </c>
       <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr"/>
+      <c r="U180" t="n">
+        <v>4</v>
+      </c>
       <c r="V180" t="n">
         <v>0</v>
       </c>
@@ -53656,7 +53668,9 @@
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr"/>
+      <c r="U180" t="n">
+        <v>1</v>
+      </c>
       <c r="V180" t="n">
         <v>0</v>
       </c>
@@ -72598,7 +72612,9 @@
       <c r="T180" t="n">
         <v>404</v>
       </c>
-      <c r="U180" t="inlineStr"/>
+      <c r="U180" t="n">
+        <v>78</v>
+      </c>
       <c r="V180" t="n">
         <v>925</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14725,19 +14725,27 @@
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" t="n">
+        <v>25</v>
+      </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>1169</v>
+      </c>
       <c r="H180" t="n">
         <v>1487</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>157</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1004</v>
+      </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
@@ -14765,7 +14773,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>39158</v>
+        <v>39169</v>
       </c>
     </row>
   </sheetData>
@@ -28816,19 +28824,27 @@
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>53</v>
+      </c>
       <c r="H180" t="n">
         <v>85</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>13</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>21</v>
+      </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
@@ -41877,15 +41893,21 @@
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>8</v>
+      </c>
       <c r="H180" t="n">
         <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>8</v>
+      </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
@@ -41911,7 +41933,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -53650,7 +53672,9 @@
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
@@ -53658,7 +53682,9 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>3</v>
+      </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
@@ -53680,7 +53706,7 @@
       <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -72594,7 +72620,9 @@
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>1039</v>
+      </c>
       <c r="H180" t="n">
         <v>160</v>
       </c>
@@ -72626,7 +72654,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>6588</v>
+        <v>6591</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14729,7 +14729,9 @@
         <v>25</v>
       </c>
       <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>2373</v>
+      </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>1169</v>
@@ -14773,7 +14775,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>39169</v>
+        <v>39190</v>
       </c>
     </row>
   </sheetData>
@@ -28828,7 +28830,9 @@
         <v>0</v>
       </c>
       <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>98</v>
+      </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>53</v>
@@ -41891,7 +41895,9 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>5</v>
+      </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>8</v>
@@ -41933,7 +41939,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -53670,7 +53676,9 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>2</v>
+      </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>0</v>
@@ -53706,7 +53714,7 @@
       <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -62867,7 +62875,9 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
@@ -62893,7 +62903,7 @@
       <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14385,7 +14385,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
@@ -14461,7 +14461,7 @@
         <v>5168</v>
       </c>
       <c r="AB176" t="n">
-        <v>38400</v>
+        <v>38399</v>
       </c>
     </row>
     <row r="177">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C177" t="n">
         <v>25</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38662</v>
+        <v>38661</v>
       </c>
     </row>
     <row r="178">
@@ -14559,7 +14559,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C178" t="n">
         <v>25</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38946</v>
+        <v>38945</v>
       </c>
     </row>
     <row r="179">
@@ -14646,7 +14646,9 @@
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="n">
+        <v>1896</v>
+      </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
@@ -14715,7 +14717,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39113</v>
+        <v>39127</v>
       </c>
     </row>
     <row r="180">
@@ -14732,7 +14734,9 @@
       <c r="E180" t="n">
         <v>2373</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>1001</v>
+      </c>
       <c r="G180" t="n">
         <v>1169</v>
       </c>
@@ -14775,7 +14779,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>39190</v>
+        <v>39213</v>
       </c>
     </row>
   </sheetData>
@@ -28751,7 +28755,9 @@
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="n">
+        <v>51</v>
+      </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
@@ -28833,7 +28839,9 @@
       <c r="E180" t="n">
         <v>98</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>35</v>
+      </c>
       <c r="G180" t="n">
         <v>53</v>
       </c>
@@ -41898,7 +41906,9 @@
       <c r="E180" t="n">
         <v>5</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
       <c r="G180" t="n">
         <v>8</v>
       </c>
@@ -53679,7 +53689,9 @@
       <c r="E180" t="n">
         <v>2</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
@@ -62878,7 +62890,9 @@
       <c r="E180" t="n">
         <v>1</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
@@ -72629,7 +72643,9 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>914</v>
+      </c>
       <c r="G180" t="n">
         <v>1039</v>
       </c>
@@ -72664,7 +72680,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>6591</v>
+        <v>6599</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14777,9 +14777,11 @@
       <c r="Z180" t="n">
         <v>323</v>
       </c>
-      <c r="AA180" t="inlineStr"/>
+      <c r="AA180" t="n">
+        <v>5463</v>
+      </c>
       <c r="AB180" t="n">
-        <v>39213</v>
+        <v>39296</v>
       </c>
     </row>
   </sheetData>
@@ -28882,9 +28884,11 @@
       <c r="Z180" t="n">
         <v>9</v>
       </c>
-      <c r="AA180" t="inlineStr"/>
+      <c r="AA180" t="n">
+        <v>140</v>
+      </c>
       <c r="AB180" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
   </sheetData>
@@ -41947,9 +41951,11 @@
       <c r="Z180" t="n">
         <v>0</v>
       </c>
-      <c r="AA180" t="inlineStr"/>
+      <c r="AA180" t="n">
+        <v>25</v>
+      </c>
       <c r="AB180" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -62915,9 +62921,11 @@
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="inlineStr"/>
-      <c r="AA180" t="inlineStr"/>
+      <c r="AA180" t="n">
+        <v>7</v>
+      </c>
       <c r="AB180" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -1640,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="I20" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J20" t="n">
         <v>8</v>
@@ -1685,7 +1685,7 @@
         <v>218</v>
       </c>
       <c r="AB20" t="n">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="21">
@@ -1706,7 +1706,7 @@
         <v>40</v>
       </c>
       <c r="I21" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J21" t="n">
         <v>10</v>
@@ -1753,7 +1753,7 @@
         <v>250</v>
       </c>
       <c r="AB21" t="n">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="22">
@@ -1782,7 +1782,7 @@
         <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J22" t="n">
         <v>10</v>
@@ -1827,7 +1827,7 @@
         <v>326</v>
       </c>
       <c r="AB22" t="n">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="23">
@@ -1854,7 +1854,7 @@
         <v>59</v>
       </c>
       <c r="I23" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J23" t="n">
         <v>12</v>
@@ -1901,7 +1901,7 @@
         <v>429</v>
       </c>
       <c r="AB23" t="n">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="24">
@@ -1930,7 +1930,7 @@
         <v>86</v>
       </c>
       <c r="I24" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J24" t="n">
         <v>14</v>
@@ -1981,7 +1981,7 @@
         <v>568</v>
       </c>
       <c r="AB24" t="n">
-        <v>4806</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="25">
@@ -2010,7 +2010,7 @@
         <v>111</v>
       </c>
       <c r="I25" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J25" t="n">
         <v>16</v>
@@ -2059,7 +2059,7 @@
         <v>679</v>
       </c>
       <c r="AB25" t="n">
-        <v>5793</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="26">
@@ -2086,7 +2086,7 @@
         <v>145</v>
       </c>
       <c r="I26" t="n">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J26" t="n">
         <v>20</v>
@@ -2139,7 +2139,7 @@
         <v>711</v>
       </c>
       <c r="AB26" t="n">
-        <v>7020</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="27">
@@ -2164,7 +2164,7 @@
         <v>167</v>
       </c>
       <c r="I27" t="n">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="J27" t="n">
         <v>25</v>
@@ -2213,7 +2213,7 @@
         <v>919</v>
       </c>
       <c r="AB27" t="n">
-        <v>7910</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="28">
@@ -2238,7 +2238,7 @@
         <v>202</v>
       </c>
       <c r="I28" t="n">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J28" t="n">
         <v>29</v>
@@ -2285,7 +2285,7 @@
         <v>978</v>
       </c>
       <c r="AB28" t="n">
-        <v>8504</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="29">
@@ -2314,7 +2314,7 @@
         <v>226</v>
       </c>
       <c r="I29" t="n">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="J29" t="n">
         <v>31</v>
@@ -2369,7 +2369,7 @@
         <v>1067</v>
       </c>
       <c r="AB29" t="n">
-        <v>9744</v>
+        <v>9742</v>
       </c>
     </row>
     <row r="30">
@@ -2400,7 +2400,7 @@
         <v>255</v>
       </c>
       <c r="I30" t="n">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="J30" t="n">
         <v>33</v>
@@ -2457,7 +2457,7 @@
         <v>1213</v>
       </c>
       <c r="AB30" t="n">
-        <v>10848</v>
+        <v>10845</v>
       </c>
     </row>
     <row r="31">
@@ -2488,7 +2488,7 @@
         <v>293</v>
       </c>
       <c r="I31" t="n">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="J31" t="n">
         <v>40</v>
@@ -2541,7 +2541,7 @@
         <v>1358</v>
       </c>
       <c r="AB31" t="n">
-        <v>11988</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="32">
@@ -2572,7 +2572,7 @@
         <v>309</v>
       </c>
       <c r="I32" t="n">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="J32" t="n">
         <v>43</v>
@@ -2629,7 +2629,7 @@
         <v>1490</v>
       </c>
       <c r="AB32" t="n">
-        <v>13079</v>
+        <v>13076</v>
       </c>
     </row>
     <row r="33">
@@ -2660,7 +2660,7 @@
         <v>369</v>
       </c>
       <c r="I33" t="n">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="J33" t="n">
         <v>47</v>
@@ -2717,7 +2717,7 @@
         <v>1617</v>
       </c>
       <c r="AB33" t="n">
-        <v>14382</v>
+        <v>14379</v>
       </c>
     </row>
     <row r="34">
@@ -2746,7 +2746,7 @@
         <v>421</v>
       </c>
       <c r="I34" t="n">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="J34" t="n">
         <v>47</v>
@@ -2801,7 +2801,7 @@
         <v>1691</v>
       </c>
       <c r="AB34" t="n">
-        <v>15223</v>
+        <v>15220</v>
       </c>
     </row>
     <row r="35">
@@ -2828,7 +2828,7 @@
         <v>442</v>
       </c>
       <c r="I35" t="n">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="J35" t="n">
         <v>50</v>
@@ -2883,7 +2883,7 @@
         <v>1723</v>
       </c>
       <c r="AB35" t="n">
-        <v>15825</v>
+        <v>15822</v>
       </c>
     </row>
     <row r="36">
@@ -2914,7 +2914,7 @@
         <v>477</v>
       </c>
       <c r="I36" t="n">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="J36" t="n">
         <v>51</v>
@@ -2969,7 +2969,7 @@
         <v>1849</v>
       </c>
       <c r="AB36" t="n">
-        <v>16945</v>
+        <v>16942</v>
       </c>
     </row>
     <row r="37">
@@ -3000,7 +3000,7 @@
         <v>491</v>
       </c>
       <c r="I37" t="n">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="J37" t="n">
         <v>53</v>
@@ -3057,7 +3057,7 @@
         <v>1937</v>
       </c>
       <c r="AB37" t="n">
-        <v>17870</v>
+        <v>17867</v>
       </c>
     </row>
     <row r="38">
@@ -3086,7 +3086,7 @@
         <v>525</v>
       </c>
       <c r="I38" t="n">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="J38" t="n">
         <v>56</v>
@@ -3143,7 +3143,7 @@
         <v>2126</v>
       </c>
       <c r="AB38" t="n">
-        <v>18934</v>
+        <v>18930</v>
       </c>
     </row>
     <row r="39">
@@ -3174,7 +3174,7 @@
         <v>550</v>
       </c>
       <c r="I39" t="n">
-        <v>3467</v>
+        <v>3461</v>
       </c>
       <c r="J39" t="n">
         <v>58</v>
@@ -3231,7 +3231,7 @@
         <v>2290</v>
       </c>
       <c r="AB39" t="n">
-        <v>20028</v>
+        <v>20022</v>
       </c>
     </row>
     <row r="40">
@@ -3262,7 +3262,7 @@
         <v>588</v>
       </c>
       <c r="I40" t="n">
-        <v>3675</v>
+        <v>3669</v>
       </c>
       <c r="J40" t="n">
         <v>59</v>
@@ -3319,7 +3319,7 @@
         <v>2418</v>
       </c>
       <c r="AB40" t="n">
-        <v>21004</v>
+        <v>20998</v>
       </c>
     </row>
     <row r="41">
@@ -3348,7 +3348,7 @@
         <v>638</v>
       </c>
       <c r="I41" t="n">
-        <v>3813</v>
+        <v>3807</v>
       </c>
       <c r="J41" t="n">
         <v>61</v>
@@ -3403,7 +3403,7 @@
         <v>2451</v>
       </c>
       <c r="AB41" t="n">
-        <v>21580</v>
+        <v>21574</v>
       </c>
     </row>
     <row r="42">
@@ -3430,7 +3430,7 @@
         <v>669</v>
       </c>
       <c r="I42" t="n">
-        <v>3900</v>
+        <v>3894</v>
       </c>
       <c r="J42" t="n">
         <v>63</v>
@@ -3485,7 +3485,7 @@
         <v>2481</v>
       </c>
       <c r="AB42" t="n">
-        <v>21984</v>
+        <v>21978</v>
       </c>
     </row>
     <row r="43">
@@ -3516,7 +3516,7 @@
         <v>689</v>
       </c>
       <c r="I43" t="n">
-        <v>4020</v>
+        <v>4014</v>
       </c>
       <c r="J43" t="n">
         <v>63</v>
@@ -3573,7 +3573,7 @@
         <v>2595</v>
       </c>
       <c r="AB43" t="n">
-        <v>22728</v>
+        <v>22722</v>
       </c>
     </row>
     <row r="44">
@@ -3604,7 +3604,7 @@
         <v>729</v>
       </c>
       <c r="I44" t="n">
-        <v>4194</v>
+        <v>4187</v>
       </c>
       <c r="J44" t="n">
         <v>63</v>
@@ -3661,7 +3661,7 @@
         <v>2678</v>
       </c>
       <c r="AB44" t="n">
-        <v>23395</v>
+        <v>23388</v>
       </c>
     </row>
     <row r="45">
@@ -3692,7 +3692,7 @@
         <v>756</v>
       </c>
       <c r="I45" t="n">
-        <v>4339</v>
+        <v>4330</v>
       </c>
       <c r="J45" t="n">
         <v>64</v>
@@ -3749,7 +3749,7 @@
         <v>2772</v>
       </c>
       <c r="AB45" t="n">
-        <v>24078</v>
+        <v>24069</v>
       </c>
     </row>
     <row r="46">
@@ -3780,7 +3780,7 @@
         <v>786</v>
       </c>
       <c r="I46" t="n">
-        <v>4432</v>
+        <v>4423</v>
       </c>
       <c r="J46" t="n">
         <v>67</v>
@@ -3837,7 +3837,7 @@
         <v>2869</v>
       </c>
       <c r="AB46" t="n">
-        <v>24747</v>
+        <v>24738</v>
       </c>
     </row>
     <row r="47">
@@ -3866,7 +3866,7 @@
         <v>796</v>
       </c>
       <c r="I47" t="n">
-        <v>4479</v>
+        <v>4470</v>
       </c>
       <c r="J47" t="n">
         <v>76</v>
@@ -3921,7 +3921,7 @@
         <v>2909</v>
       </c>
       <c r="AB47" t="n">
-        <v>25199</v>
+        <v>25190</v>
       </c>
     </row>
     <row r="48">
@@ -3952,7 +3952,7 @@
         <v>834</v>
       </c>
       <c r="I48" t="n">
-        <v>4537</v>
+        <v>4528</v>
       </c>
       <c r="J48" t="n">
         <v>91</v>
@@ -4007,7 +4007,7 @@
         <v>2967</v>
       </c>
       <c r="AB48" t="n">
-        <v>25671</v>
+        <v>25662</v>
       </c>
     </row>
     <row r="49">
@@ -4034,7 +4034,7 @@
         <v>846</v>
       </c>
       <c r="I49" t="n">
-        <v>4567</v>
+        <v>4558</v>
       </c>
       <c r="J49" t="n">
         <v>91</v>
@@ -4089,7 +4089,7 @@
         <v>2984</v>
       </c>
       <c r="AB49" t="n">
-        <v>25951</v>
+        <v>25942</v>
       </c>
     </row>
     <row r="50">
@@ -4120,7 +4120,7 @@
         <v>859</v>
       </c>
       <c r="I50" t="n">
-        <v>4616</v>
+        <v>4606</v>
       </c>
       <c r="J50" t="n">
         <v>92</v>
@@ -4175,7 +4175,7 @@
         <v>3001</v>
       </c>
       <c r="AB50" t="n">
-        <v>26200</v>
+        <v>26190</v>
       </c>
     </row>
     <row r="51">
@@ -4206,7 +4206,7 @@
         <v>879</v>
       </c>
       <c r="I51" t="n">
-        <v>4680</v>
+        <v>4669</v>
       </c>
       <c r="J51" t="n">
         <v>105</v>
@@ -4263,7 +4263,7 @@
         <v>3048</v>
       </c>
       <c r="AB51" t="n">
-        <v>26533</v>
+        <v>26522</v>
       </c>
     </row>
     <row r="52">
@@ -4294,7 +4294,7 @@
         <v>890</v>
       </c>
       <c r="I52" t="n">
-        <v>4752</v>
+        <v>4738</v>
       </c>
       <c r="J52" t="n">
         <v>105</v>
@@ -4351,7 +4351,7 @@
         <v>3095</v>
       </c>
       <c r="AB52" t="n">
-        <v>26859</v>
+        <v>26845</v>
       </c>
     </row>
     <row r="53">
@@ -4382,7 +4382,7 @@
         <v>907</v>
       </c>
       <c r="I53" t="n">
-        <v>4826</v>
+        <v>4811</v>
       </c>
       <c r="J53" t="n">
         <v>106</v>
@@ -4439,7 +4439,7 @@
         <v>3130</v>
       </c>
       <c r="AB53" t="n">
-        <v>27167</v>
+        <v>27152</v>
       </c>
     </row>
     <row r="54">
@@ -4470,7 +4470,7 @@
         <v>930</v>
       </c>
       <c r="I54" t="n">
-        <v>4873</v>
+        <v>4858</v>
       </c>
       <c r="J54" t="n">
         <v>108</v>
@@ -4527,7 +4527,7 @@
         <v>3153</v>
       </c>
       <c r="AB54" t="n">
-        <v>27477</v>
+        <v>27462</v>
       </c>
     </row>
     <row r="55">
@@ -4554,7 +4554,7 @@
         <v>956</v>
       </c>
       <c r="I55" t="n">
-        <v>4926</v>
+        <v>4910</v>
       </c>
       <c r="J55" t="n">
         <v>111</v>
@@ -4609,7 +4609,7 @@
         <v>3192</v>
       </c>
       <c r="AB55" t="n">
-        <v>27759</v>
+        <v>27743</v>
       </c>
     </row>
     <row r="56">
@@ -4638,7 +4638,7 @@
         <v>980</v>
       </c>
       <c r="I56" t="n">
-        <v>4937</v>
+        <v>4921</v>
       </c>
       <c r="J56" t="n">
         <v>111</v>
@@ -4693,7 +4693,7 @@
         <v>3219</v>
       </c>
       <c r="AB56" t="n">
-        <v>27936</v>
+        <v>27920</v>
       </c>
     </row>
     <row r="57">
@@ -4724,7 +4724,7 @@
         <v>989</v>
       </c>
       <c r="I57" t="n">
-        <v>4969</v>
+        <v>4953</v>
       </c>
       <c r="J57" t="n">
         <v>114</v>
@@ -4781,7 +4781,7 @@
         <v>3235</v>
       </c>
       <c r="AB57" t="n">
-        <v>28142</v>
+        <v>28126</v>
       </c>
     </row>
     <row r="58">
@@ -4812,7 +4812,7 @@
         <v>995</v>
       </c>
       <c r="I58" t="n">
-        <v>5009</v>
+        <v>4993</v>
       </c>
       <c r="J58" t="n">
         <v>115</v>
@@ -4869,7 +4869,7 @@
         <v>3260</v>
       </c>
       <c r="AB58" t="n">
-        <v>28313</v>
+        <v>28297</v>
       </c>
     </row>
     <row r="59">
@@ -4900,7 +4900,7 @@
         <v>1006</v>
       </c>
       <c r="I59" t="n">
-        <v>5042</v>
+        <v>5026</v>
       </c>
       <c r="J59" t="n">
         <v>117</v>
@@ -4957,7 +4957,7 @@
         <v>3300</v>
       </c>
       <c r="AB59" t="n">
-        <v>28522</v>
+        <v>28506</v>
       </c>
     </row>
     <row r="60">
@@ -4988,7 +4988,7 @@
         <v>1014</v>
       </c>
       <c r="I60" t="n">
-        <v>5080</v>
+        <v>5064</v>
       </c>
       <c r="J60" t="n">
         <v>117</v>
@@ -5045,7 +5045,7 @@
         <v>3317</v>
       </c>
       <c r="AB60" t="n">
-        <v>28745</v>
+        <v>28729</v>
       </c>
     </row>
     <row r="61">
@@ -5076,7 +5076,7 @@
         <v>1021</v>
       </c>
       <c r="I61" t="n">
-        <v>5101</v>
+        <v>5085</v>
       </c>
       <c r="J61" t="n">
         <v>117</v>
@@ -5133,7 +5133,7 @@
         <v>3345</v>
       </c>
       <c r="AB61" t="n">
-        <v>28934</v>
+        <v>28918</v>
       </c>
     </row>
     <row r="62">
@@ -5160,7 +5160,7 @@
         <v>1029</v>
       </c>
       <c r="I62" t="n">
-        <v>5121</v>
+        <v>5104</v>
       </c>
       <c r="J62" t="n">
         <v>120</v>
@@ -5215,7 +5215,7 @@
         <v>3376</v>
       </c>
       <c r="AB62" t="n">
-        <v>29080</v>
+        <v>29063</v>
       </c>
     </row>
     <row r="63">
@@ -5240,7 +5240,7 @@
         <v>1033</v>
       </c>
       <c r="I63" t="n">
-        <v>5126</v>
+        <v>5109</v>
       </c>
       <c r="J63" t="n">
         <v>120</v>
@@ -5295,7 +5295,7 @@
         <v>3379</v>
       </c>
       <c r="AB63" t="n">
-        <v>29156</v>
+        <v>29139</v>
       </c>
     </row>
     <row r="64">
@@ -5326,7 +5326,7 @@
         <v>1040</v>
       </c>
       <c r="I64" t="n">
-        <v>5146</v>
+        <v>5128</v>
       </c>
       <c r="J64" t="n">
         <v>121</v>
@@ -5383,7 +5383,7 @@
         <v>3397</v>
       </c>
       <c r="AB64" t="n">
-        <v>29328</v>
+        <v>29310</v>
       </c>
     </row>
     <row r="65">
@@ -5414,7 +5414,7 @@
         <v>1044</v>
       </c>
       <c r="I65" t="n">
-        <v>5166</v>
+        <v>5148</v>
       </c>
       <c r="J65" t="n">
         <v>121</v>
@@ -5471,7 +5471,7 @@
         <v>3412</v>
       </c>
       <c r="AB65" t="n">
-        <v>29456</v>
+        <v>29438</v>
       </c>
     </row>
     <row r="66">
@@ -5502,7 +5502,7 @@
         <v>1057</v>
       </c>
       <c r="I66" t="n">
-        <v>5184</v>
+        <v>5166</v>
       </c>
       <c r="J66" t="n">
         <v>122</v>
@@ -5559,7 +5559,7 @@
         <v>3441</v>
       </c>
       <c r="AB66" t="n">
-        <v>29598</v>
+        <v>29580</v>
       </c>
     </row>
     <row r="67">
@@ -5590,7 +5590,7 @@
         <v>1070</v>
       </c>
       <c r="I67" t="n">
-        <v>5195</v>
+        <v>5177</v>
       </c>
       <c r="J67" t="n">
         <v>122</v>
@@ -5647,7 +5647,7 @@
         <v>3452</v>
       </c>
       <c r="AB67" t="n">
-        <v>29745</v>
+        <v>29727</v>
       </c>
     </row>
     <row r="68">
@@ -5678,7 +5678,7 @@
         <v>1078</v>
       </c>
       <c r="I68" t="n">
-        <v>5214</v>
+        <v>5196</v>
       </c>
       <c r="J68" t="n">
         <v>122</v>
@@ -5735,7 +5735,7 @@
         <v>3465</v>
       </c>
       <c r="AB68" t="n">
-        <v>29871</v>
+        <v>29853</v>
       </c>
     </row>
     <row r="69">
@@ -5764,7 +5764,7 @@
         <v>1092</v>
       </c>
       <c r="I69" t="n">
-        <v>5219</v>
+        <v>5201</v>
       </c>
       <c r="J69" t="n">
         <v>122</v>
@@ -5817,7 +5817,7 @@
         <v>3468</v>
       </c>
       <c r="AB69" t="n">
-        <v>29939</v>
+        <v>29921</v>
       </c>
     </row>
     <row r="70">
@@ -5846,7 +5846,7 @@
         <v>1097</v>
       </c>
       <c r="I70" t="n">
-        <v>5225</v>
+        <v>5207</v>
       </c>
       <c r="J70" t="n">
         <v>122</v>
@@ -5899,7 +5899,7 @@
         <v>3472</v>
       </c>
       <c r="AB70" t="n">
-        <v>29999</v>
+        <v>29981</v>
       </c>
     </row>
     <row r="71">
@@ -5930,7 +5930,7 @@
         <v>1102</v>
       </c>
       <c r="I71" t="n">
-        <v>5231</v>
+        <v>5213</v>
       </c>
       <c r="J71" t="n">
         <v>122</v>
@@ -5987,7 +5987,7 @@
         <v>3474</v>
       </c>
       <c r="AB71" t="n">
-        <v>30061</v>
+        <v>30043</v>
       </c>
     </row>
     <row r="72">
@@ -6018,7 +6018,7 @@
         <v>1104</v>
       </c>
       <c r="I72" t="n">
-        <v>5240</v>
+        <v>5222</v>
       </c>
       <c r="J72" t="n">
         <v>122</v>
@@ -6075,7 +6075,7 @@
         <v>3490</v>
       </c>
       <c r="AB72" t="n">
-        <v>30124</v>
+        <v>30106</v>
       </c>
     </row>
     <row r="73">
@@ -6106,7 +6106,7 @@
         <v>1107</v>
       </c>
       <c r="I73" t="n">
-        <v>5247</v>
+        <v>5229</v>
       </c>
       <c r="J73" t="n">
         <v>125</v>
@@ -6163,7 +6163,7 @@
         <v>3505</v>
       </c>
       <c r="AB73" t="n">
-        <v>30207</v>
+        <v>30189</v>
       </c>
     </row>
     <row r="74">
@@ -6192,7 +6192,7 @@
         <v>1115</v>
       </c>
       <c r="I74" t="n">
-        <v>5254</v>
+        <v>5236</v>
       </c>
       <c r="J74" t="n">
         <v>125</v>
@@ -6249,7 +6249,7 @@
         <v>3515</v>
       </c>
       <c r="AB74" t="n">
-        <v>30276</v>
+        <v>30258</v>
       </c>
     </row>
     <row r="75">
@@ -6278,7 +6278,7 @@
         <v>1117</v>
       </c>
       <c r="I75" t="n">
-        <v>5260</v>
+        <v>5242</v>
       </c>
       <c r="J75" t="n">
         <v>125</v>
@@ -6335,7 +6335,7 @@
         <v>3525</v>
       </c>
       <c r="AB75" t="n">
-        <v>30342</v>
+        <v>30324</v>
       </c>
     </row>
     <row r="76">
@@ -6364,7 +6364,7 @@
         <v>1121</v>
       </c>
       <c r="I76" t="n">
-        <v>5269</v>
+        <v>5251</v>
       </c>
       <c r="J76" t="n">
         <v>126</v>
@@ -6415,7 +6415,7 @@
         <v>3530</v>
       </c>
       <c r="AB76" t="n">
-        <v>30386</v>
+        <v>30368</v>
       </c>
     </row>
     <row r="77">
@@ -6442,7 +6442,7 @@
         <v>1126</v>
       </c>
       <c r="I77" t="n">
-        <v>5270</v>
+        <v>5252</v>
       </c>
       <c r="J77" t="n">
         <v>126</v>
@@ -6491,7 +6491,7 @@
         <v>3533</v>
       </c>
       <c r="AB77" t="n">
-        <v>30418</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="78">
@@ -6522,7 +6522,7 @@
         <v>1129</v>
       </c>
       <c r="I78" t="n">
-        <v>5275</v>
+        <v>5257</v>
       </c>
       <c r="J78" t="n">
         <v>127</v>
@@ -6579,7 +6579,7 @@
         <v>3538</v>
       </c>
       <c r="AB78" t="n">
-        <v>30482</v>
+        <v>30464</v>
       </c>
     </row>
     <row r="79">
@@ -6610,7 +6610,7 @@
         <v>1138</v>
       </c>
       <c r="I79" t="n">
-        <v>5285</v>
+        <v>5267</v>
       </c>
       <c r="J79" t="n">
         <v>127</v>
@@ -6667,7 +6667,7 @@
         <v>3540</v>
       </c>
       <c r="AB79" t="n">
-        <v>30530</v>
+        <v>30512</v>
       </c>
     </row>
     <row r="80">
@@ -6694,7 +6694,7 @@
         <v>1141</v>
       </c>
       <c r="I80" t="n">
-        <v>5289</v>
+        <v>5271</v>
       </c>
       <c r="J80" t="n">
         <v>127</v>
@@ -6751,7 +6751,7 @@
         <v>3546</v>
       </c>
       <c r="AB80" t="n">
-        <v>30571</v>
+        <v>30553</v>
       </c>
     </row>
     <row r="81">
@@ -6780,7 +6780,7 @@
         <v>1143</v>
       </c>
       <c r="I81" t="n">
-        <v>5296</v>
+        <v>5278</v>
       </c>
       <c r="J81" t="n">
         <v>128</v>
@@ -6837,7 +6837,7 @@
         <v>3551</v>
       </c>
       <c r="AB81" t="n">
-        <v>30612</v>
+        <v>30594</v>
       </c>
     </row>
     <row r="82">
@@ -6866,7 +6866,7 @@
         <v>1145</v>
       </c>
       <c r="I82" t="n">
-        <v>5301</v>
+        <v>5283</v>
       </c>
       <c r="J82" t="n">
         <v>128</v>
@@ -6921,7 +6921,7 @@
         <v>3553</v>
       </c>
       <c r="AB82" t="n">
-        <v>30657</v>
+        <v>30639</v>
       </c>
     </row>
     <row r="83">
@@ -6948,7 +6948,7 @@
         <v>1146</v>
       </c>
       <c r="I83" t="n">
-        <v>5303</v>
+        <v>5285</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -6997,7 +6997,7 @@
         <v>3558</v>
       </c>
       <c r="AB83" t="n">
-        <v>30687</v>
+        <v>30669</v>
       </c>
     </row>
     <row r="84">
@@ -7022,7 +7022,7 @@
         <v>1147</v>
       </c>
       <c r="I84" t="n">
-        <v>5304</v>
+        <v>5286</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -7071,7 +7071,7 @@
         <v>3560</v>
       </c>
       <c r="AB84" t="n">
-        <v>30703</v>
+        <v>30685</v>
       </c>
     </row>
     <row r="85">
@@ -7100,7 +7100,7 @@
         <v>1147</v>
       </c>
       <c r="I85" t="n">
-        <v>5305</v>
+        <v>5287</v>
       </c>
       <c r="J85" t="n">
         <v>128</v>
@@ -7157,7 +7157,7 @@
         <v>3564</v>
       </c>
       <c r="AB85" t="n">
-        <v>30737</v>
+        <v>30719</v>
       </c>
     </row>
     <row r="86">
@@ -7184,7 +7184,7 @@
         <v>1147</v>
       </c>
       <c r="I86" t="n">
-        <v>5307</v>
+        <v>5289</v>
       </c>
       <c r="J86" t="n">
         <v>128</v>
@@ -7241,7 +7241,7 @@
         <v>3568</v>
       </c>
       <c r="AB86" t="n">
-        <v>30765</v>
+        <v>30747</v>
       </c>
     </row>
     <row r="87">
@@ -7272,7 +7272,7 @@
         <v>1152</v>
       </c>
       <c r="I87" t="n">
-        <v>5314</v>
+        <v>5296</v>
       </c>
       <c r="J87" t="n">
         <v>128</v>
@@ -7329,7 +7329,7 @@
         <v>3571</v>
       </c>
       <c r="AB87" t="n">
-        <v>30803</v>
+        <v>30785</v>
       </c>
     </row>
     <row r="88">
@@ -7356,7 +7356,7 @@
         <v>1152</v>
       </c>
       <c r="I88" t="n">
-        <v>5319</v>
+        <v>5301</v>
       </c>
       <c r="J88" t="n">
         <v>128</v>
@@ -7407,7 +7407,7 @@
         <v>3572</v>
       </c>
       <c r="AB88" t="n">
-        <v>30830</v>
+        <v>30812</v>
       </c>
     </row>
     <row r="89">
@@ -7436,7 +7436,7 @@
         <v>1152</v>
       </c>
       <c r="I89" t="n">
-        <v>5321</v>
+        <v>5303</v>
       </c>
       <c r="J89" t="n">
         <v>128</v>
@@ -7487,7 +7487,7 @@
         <v>3574</v>
       </c>
       <c r="AB89" t="n">
-        <v>30850</v>
+        <v>30832</v>
       </c>
     </row>
     <row r="90">
@@ -7512,7 +7512,7 @@
         <v>1154</v>
       </c>
       <c r="I90" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -7559,7 +7559,7 @@
         <v>3576</v>
       </c>
       <c r="AB90" t="n">
-        <v>30870</v>
+        <v>30852</v>
       </c>
     </row>
     <row r="91">
@@ -7586,7 +7586,7 @@
         <v>1155</v>
       </c>
       <c r="I91" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
@@ -7633,7 +7633,7 @@
         <v>3577</v>
       </c>
       <c r="AB91" t="n">
-        <v>30880</v>
+        <v>30862</v>
       </c>
     </row>
     <row r="92">
@@ -7664,7 +7664,7 @@
         <v>1156</v>
       </c>
       <c r="I92" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="J92" t="n">
         <v>128</v>
@@ -7721,7 +7721,7 @@
         <v>3579</v>
       </c>
       <c r="AB92" t="n">
-        <v>30887</v>
+        <v>30869</v>
       </c>
     </row>
     <row r="93">
@@ -7748,7 +7748,7 @@
         <v>1156</v>
       </c>
       <c r="I93" t="n">
-        <v>5326</v>
+        <v>5308</v>
       </c>
       <c r="J93" t="n">
         <v>128</v>
@@ -7805,7 +7805,7 @@
         <v>3585</v>
       </c>
       <c r="AB93" t="n">
-        <v>30909</v>
+        <v>30891</v>
       </c>
     </row>
     <row r="94">
@@ -7836,7 +7836,7 @@
         <v>1157</v>
       </c>
       <c r="I94" t="n">
-        <v>5329</v>
+        <v>5311</v>
       </c>
       <c r="J94" t="n">
         <v>128</v>
@@ -7893,7 +7893,7 @@
         <v>3588</v>
       </c>
       <c r="AB94" t="n">
-        <v>30923</v>
+        <v>30905</v>
       </c>
     </row>
     <row r="95">
@@ -7922,7 +7922,7 @@
         <v>1158</v>
       </c>
       <c r="I95" t="n">
-        <v>5331</v>
+        <v>5313</v>
       </c>
       <c r="J95" t="n">
         <v>128</v>
@@ -7979,7 +7979,7 @@
         <v>3593</v>
       </c>
       <c r="AB95" t="n">
-        <v>30942</v>
+        <v>30924</v>
       </c>
     </row>
     <row r="96">
@@ -8010,7 +8010,7 @@
         <v>1159</v>
       </c>
       <c r="I96" t="n">
-        <v>5335</v>
+        <v>5317</v>
       </c>
       <c r="J96" t="n">
         <v>128</v>
@@ -8067,7 +8067,7 @@
         <v>3599</v>
       </c>
       <c r="AB96" t="n">
-        <v>30972</v>
+        <v>30954</v>
       </c>
     </row>
     <row r="97">
@@ -8092,7 +8092,7 @@
         <v>1159</v>
       </c>
       <c r="I97" t="n">
-        <v>5340</v>
+        <v>5322</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
@@ -8139,7 +8139,7 @@
         <v>3605</v>
       </c>
       <c r="AB97" t="n">
-        <v>31013</v>
+        <v>30995</v>
       </c>
     </row>
     <row r="98">
@@ -8164,7 +8164,7 @@
         <v>1159</v>
       </c>
       <c r="I98" t="n">
-        <v>5340</v>
+        <v>5322</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -8211,7 +8211,7 @@
         <v>3605</v>
       </c>
       <c r="AB98" t="n">
-        <v>31020</v>
+        <v>31002</v>
       </c>
     </row>
     <row r="99">
@@ -8238,7 +8238,7 @@
         <v>1159</v>
       </c>
       <c r="I99" t="n">
-        <v>5341</v>
+        <v>5323</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
@@ -8285,7 +8285,7 @@
         <v>3605</v>
       </c>
       <c r="AB99" t="n">
-        <v>31026</v>
+        <v>31008</v>
       </c>
     </row>
     <row r="100">
@@ -8314,7 +8314,7 @@
         <v>1161</v>
       </c>
       <c r="I100" t="n">
-        <v>5344</v>
+        <v>5326</v>
       </c>
       <c r="J100" t="n">
         <v>128</v>
@@ -8369,7 +8369,7 @@
         <v>3607</v>
       </c>
       <c r="AB100" t="n">
-        <v>31043</v>
+        <v>31025</v>
       </c>
     </row>
     <row r="101">
@@ -8400,7 +8400,7 @@
         <v>1162</v>
       </c>
       <c r="I101" t="n">
-        <v>5346</v>
+        <v>5328</v>
       </c>
       <c r="J101" t="n">
         <v>128</v>
@@ -8455,7 +8455,7 @@
         <v>3610</v>
       </c>
       <c r="AB101" t="n">
-        <v>31062</v>
+        <v>31044</v>
       </c>
     </row>
     <row r="102">
@@ -8484,7 +8484,7 @@
         <v>1164</v>
       </c>
       <c r="I102" t="n">
-        <v>5347</v>
+        <v>5329</v>
       </c>
       <c r="J102" t="n">
         <v>128</v>
@@ -8537,7 +8537,7 @@
         <v>3618</v>
       </c>
       <c r="AB102" t="n">
-        <v>31085</v>
+        <v>31067</v>
       </c>
     </row>
     <row r="103">
@@ -8566,7 +8566,7 @@
         <v>1166</v>
       </c>
       <c r="I103" t="n">
-        <v>5348</v>
+        <v>5330</v>
       </c>
       <c r="J103" t="n">
         <v>128</v>
@@ -8619,7 +8619,7 @@
         <v>3624</v>
       </c>
       <c r="AB103" t="n">
-        <v>31106</v>
+        <v>31088</v>
       </c>
     </row>
     <row r="104">
@@ -8644,7 +8644,7 @@
         <v>1166</v>
       </c>
       <c r="I104" t="n">
-        <v>5351</v>
+        <v>5333</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -8687,7 +8687,7 @@
         <v>3628</v>
       </c>
       <c r="AB104" t="n">
-        <v>31118</v>
+        <v>31100</v>
       </c>
     </row>
     <row r="105">
@@ -8712,7 +8712,7 @@
         <v>1168</v>
       </c>
       <c r="I105" t="n">
-        <v>5351</v>
+        <v>5333</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
@@ -8757,7 +8757,7 @@
         <v>3628</v>
       </c>
       <c r="AB105" t="n">
-        <v>31126</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="106">
@@ -8786,7 +8786,7 @@
         <v>1172</v>
       </c>
       <c r="I106" t="n">
-        <v>5352</v>
+        <v>5334</v>
       </c>
       <c r="J106" t="n">
         <v>128</v>
@@ -8839,7 +8839,7 @@
         <v>3628</v>
       </c>
       <c r="AB106" t="n">
-        <v>31144</v>
+        <v>31126</v>
       </c>
     </row>
     <row r="107">
@@ -8868,7 +8868,7 @@
         <v>1172</v>
       </c>
       <c r="I107" t="n">
-        <v>5352</v>
+        <v>5334</v>
       </c>
       <c r="J107" t="n">
         <v>128</v>
@@ -8921,7 +8921,7 @@
         <v>3628</v>
       </c>
       <c r="AB107" t="n">
-        <v>31154</v>
+        <v>31136</v>
       </c>
     </row>
     <row r="108">
@@ -8950,7 +8950,7 @@
         <v>1174</v>
       </c>
       <c r="I108" t="n">
-        <v>5354</v>
+        <v>5336</v>
       </c>
       <c r="J108" t="n">
         <v>128</v>
@@ -9003,7 +9003,7 @@
         <v>3631</v>
       </c>
       <c r="AB108" t="n">
-        <v>31171</v>
+        <v>31153</v>
       </c>
     </row>
     <row r="109">
@@ -9030,7 +9030,7 @@
         <v>1175</v>
       </c>
       <c r="I109" t="n">
-        <v>5354</v>
+        <v>5336</v>
       </c>
       <c r="J109" t="n">
         <v>128</v>
@@ -9079,7 +9079,7 @@
         <v>3633</v>
       </c>
       <c r="AB109" t="n">
-        <v>31193</v>
+        <v>31175</v>
       </c>
     </row>
     <row r="110">
@@ -9110,7 +9110,7 @@
         <v>1175</v>
       </c>
       <c r="I110" t="n">
-        <v>5358</v>
+        <v>5340</v>
       </c>
       <c r="J110" t="n">
         <v>128</v>
@@ -9157,7 +9157,7 @@
         <v>3635</v>
       </c>
       <c r="AB110" t="n">
-        <v>31221</v>
+        <v>31203</v>
       </c>
     </row>
     <row r="111">
@@ -9182,7 +9182,7 @@
         <v>1179</v>
       </c>
       <c r="I111" t="n">
-        <v>5358</v>
+        <v>5340</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
@@ -9225,7 +9225,7 @@
         <v>3638</v>
       </c>
       <c r="AB111" t="n">
-        <v>31231</v>
+        <v>31213</v>
       </c>
     </row>
     <row r="112">
@@ -9250,7 +9250,7 @@
         <v>1181</v>
       </c>
       <c r="I112" t="n">
-        <v>5358</v>
+        <v>5340</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
@@ -9297,7 +9297,7 @@
         <v>3643</v>
       </c>
       <c r="AB112" t="n">
-        <v>31247</v>
+        <v>31229</v>
       </c>
     </row>
     <row r="113">
@@ -9324,7 +9324,7 @@
         <v>1181</v>
       </c>
       <c r="I113" t="n">
-        <v>5360</v>
+        <v>5342</v>
       </c>
       <c r="J113" t="n">
         <v>128</v>
@@ -9375,7 +9375,7 @@
         <v>3650</v>
       </c>
       <c r="AB113" t="n">
-        <v>31270</v>
+        <v>31252</v>
       </c>
     </row>
     <row r="114">
@@ -9402,7 +9402,7 @@
         <v>1182</v>
       </c>
       <c r="I114" t="n">
-        <v>5360</v>
+        <v>5342</v>
       </c>
       <c r="J114" t="n">
         <v>128</v>
@@ -9455,7 +9455,7 @@
         <v>3657</v>
       </c>
       <c r="AB114" t="n">
-        <v>31297</v>
+        <v>31279</v>
       </c>
     </row>
     <row r="115">
@@ -9482,7 +9482,7 @@
         <v>1183</v>
       </c>
       <c r="I115" t="n">
-        <v>5361</v>
+        <v>5343</v>
       </c>
       <c r="J115" t="n">
         <v>128</v>
@@ -9537,7 +9537,7 @@
         <v>3667</v>
       </c>
       <c r="AB115" t="n">
-        <v>31332</v>
+        <v>31314</v>
       </c>
     </row>
     <row r="116">
@@ -9562,7 +9562,7 @@
         <v>1185</v>
       </c>
       <c r="I116" t="n">
-        <v>5361</v>
+        <v>5343</v>
       </c>
       <c r="J116" t="n">
         <v>128</v>
@@ -9615,7 +9615,7 @@
         <v>3672</v>
       </c>
       <c r="AB116" t="n">
-        <v>31346</v>
+        <v>31328</v>
       </c>
     </row>
     <row r="117">
@@ -9644,7 +9644,7 @@
         <v>1186</v>
       </c>
       <c r="I117" t="n">
-        <v>5365</v>
+        <v>5347</v>
       </c>
       <c r="J117" t="n">
         <v>128</v>
@@ -9697,7 +9697,7 @@
         <v>3673</v>
       </c>
       <c r="AB117" t="n">
-        <v>31375</v>
+        <v>31357</v>
       </c>
     </row>
     <row r="118">
@@ -9720,7 +9720,7 @@
         <v>1191</v>
       </c>
       <c r="I118" t="n">
-        <v>5369</v>
+        <v>5351</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
@@ -9765,7 +9765,7 @@
         <v>3680</v>
       </c>
       <c r="AB118" t="n">
-        <v>31400</v>
+        <v>31382</v>
       </c>
     </row>
     <row r="119">
@@ -9788,7 +9788,7 @@
         <v>1191</v>
       </c>
       <c r="I119" t="n">
-        <v>5369</v>
+        <v>5351</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
@@ -9833,7 +9833,7 @@
         <v>3685</v>
       </c>
       <c r="AB119" t="n">
-        <v>31415</v>
+        <v>31397</v>
       </c>
     </row>
     <row r="120">
@@ -9860,7 +9860,7 @@
         <v>1191</v>
       </c>
       <c r="I120" t="n">
-        <v>5370</v>
+        <v>5352</v>
       </c>
       <c r="J120" t="n">
         <v>128</v>
@@ -9915,7 +9915,7 @@
         <v>3688</v>
       </c>
       <c r="AB120" t="n">
-        <v>31450</v>
+        <v>31432</v>
       </c>
     </row>
     <row r="121">
@@ -9942,7 +9942,7 @@
         <v>1195</v>
       </c>
       <c r="I121" t="n">
-        <v>5374</v>
+        <v>5356</v>
       </c>
       <c r="J121" t="n">
         <v>128</v>
@@ -9997,7 +9997,7 @@
         <v>3692</v>
       </c>
       <c r="AB121" t="n">
-        <v>31480</v>
+        <v>31462</v>
       </c>
     </row>
     <row r="122">
@@ -10024,7 +10024,7 @@
         <v>1203</v>
       </c>
       <c r="I122" t="n">
-        <v>5376</v>
+        <v>5358</v>
       </c>
       <c r="J122" t="n">
         <v>129</v>
@@ -10079,7 +10079,7 @@
         <v>3708</v>
       </c>
       <c r="AB122" t="n">
-        <v>31545</v>
+        <v>31527</v>
       </c>
     </row>
     <row r="123">
@@ -10106,7 +10106,7 @@
         <v>1206</v>
       </c>
       <c r="I123" t="n">
-        <v>5378</v>
+        <v>5360</v>
       </c>
       <c r="J123" t="n">
         <v>129</v>
@@ -10161,7 +10161,7 @@
         <v>3715</v>
       </c>
       <c r="AB123" t="n">
-        <v>31584</v>
+        <v>31566</v>
       </c>
     </row>
     <row r="124">
@@ -10192,7 +10192,7 @@
         <v>1211</v>
       </c>
       <c r="I124" t="n">
-        <v>5381</v>
+        <v>5363</v>
       </c>
       <c r="J124" t="n">
         <v>129</v>
@@ -10249,7 +10249,7 @@
         <v>3734</v>
       </c>
       <c r="AB124" t="n">
-        <v>31657</v>
+        <v>31639</v>
       </c>
     </row>
     <row r="125">
@@ -10274,7 +10274,7 @@
         <v>1215</v>
       </c>
       <c r="I125" t="n">
-        <v>5381</v>
+        <v>5363</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
@@ -10319,7 +10319,7 @@
         <v>3746</v>
       </c>
       <c r="AB125" t="n">
-        <v>31692</v>
+        <v>31674</v>
       </c>
     </row>
     <row r="126">
@@ -10344,7 +10344,7 @@
         <v>1220</v>
       </c>
       <c r="I126" t="n">
-        <v>5382</v>
+        <v>5364</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -10389,7 +10389,7 @@
         <v>3757</v>
       </c>
       <c r="AB126" t="n">
-        <v>31727</v>
+        <v>31709</v>
       </c>
     </row>
     <row r="127">
@@ -10418,7 +10418,7 @@
         <v>1220</v>
       </c>
       <c r="I127" t="n">
-        <v>5388</v>
+        <v>5370</v>
       </c>
       <c r="J127" t="n">
         <v>129</v>
@@ -10475,7 +10475,7 @@
         <v>3766</v>
       </c>
       <c r="AB127" t="n">
-        <v>31813</v>
+        <v>31795</v>
       </c>
     </row>
     <row r="128">
@@ -10504,7 +10504,7 @@
         <v>1220</v>
       </c>
       <c r="I128" t="n">
-        <v>5392</v>
+        <v>5374</v>
       </c>
       <c r="J128" t="n">
         <v>129</v>
@@ -10561,7 +10561,7 @@
         <v>3794</v>
       </c>
       <c r="AB128" t="n">
-        <v>31915</v>
+        <v>31897</v>
       </c>
     </row>
     <row r="129">
@@ -10592,7 +10592,7 @@
         <v>1231</v>
       </c>
       <c r="I129" t="n">
-        <v>5393</v>
+        <v>5375</v>
       </c>
       <c r="J129" t="n">
         <v>129</v>
@@ -10649,7 +10649,7 @@
         <v>3842</v>
       </c>
       <c r="AB129" t="n">
-        <v>32047</v>
+        <v>32029</v>
       </c>
     </row>
     <row r="130">
@@ -10678,7 +10678,7 @@
         <v>1238</v>
       </c>
       <c r="I130" t="n">
-        <v>5398</v>
+        <v>5380</v>
       </c>
       <c r="J130" t="n">
         <v>129</v>
@@ -10735,7 +10735,7 @@
         <v>3898</v>
       </c>
       <c r="AB130" t="n">
-        <v>32191</v>
+        <v>32173</v>
       </c>
     </row>
     <row r="131">
@@ -10764,7 +10764,7 @@
         <v>1243</v>
       </c>
       <c r="I131" t="n">
-        <v>5400</v>
+        <v>5382</v>
       </c>
       <c r="J131" t="n">
         <v>129</v>
@@ -10819,7 +10819,7 @@
         <v>3921</v>
       </c>
       <c r="AB131" t="n">
-        <v>32293</v>
+        <v>32275</v>
       </c>
     </row>
     <row r="132">
@@ -10844,7 +10844,7 @@
         <v>1246</v>
       </c>
       <c r="I132" t="n">
-        <v>5403</v>
+        <v>5385</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
@@ -10887,7 +10887,7 @@
         <v>3934</v>
       </c>
       <c r="AB132" t="n">
-        <v>32335</v>
+        <v>32317</v>
       </c>
     </row>
     <row r="133">
@@ -10912,7 +10912,7 @@
         <v>1251</v>
       </c>
       <c r="I133" t="n">
-        <v>5405</v>
+        <v>5387</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
@@ -10961,7 +10961,7 @@
         <v>3942</v>
       </c>
       <c r="AB133" t="n">
-        <v>32388</v>
+        <v>32370</v>
       </c>
     </row>
     <row r="134">
@@ -10992,7 +10992,7 @@
         <v>1253</v>
       </c>
       <c r="I134" t="n">
-        <v>5411</v>
+        <v>5393</v>
       </c>
       <c r="J134" t="n">
         <v>129</v>
@@ -11047,7 +11047,7 @@
         <v>3961</v>
       </c>
       <c r="AB134" t="n">
-        <v>32476</v>
+        <v>32458</v>
       </c>
     </row>
     <row r="135">
@@ -11076,7 +11076,7 @@
         <v>1255</v>
       </c>
       <c r="I135" t="n">
-        <v>5415</v>
+        <v>5397</v>
       </c>
       <c r="J135" t="n">
         <v>130</v>
@@ -11133,7 +11133,7 @@
         <v>3987</v>
       </c>
       <c r="AB135" t="n">
-        <v>32568</v>
+        <v>32550</v>
       </c>
     </row>
     <row r="136">
@@ -11162,7 +11162,7 @@
         <v>1258</v>
       </c>
       <c r="I136" t="n">
-        <v>5419</v>
+        <v>5401</v>
       </c>
       <c r="J136" t="n">
         <v>130</v>
@@ -11217,7 +11217,7 @@
         <v>4010</v>
       </c>
       <c r="AB136" t="n">
-        <v>32669</v>
+        <v>32651</v>
       </c>
     </row>
     <row r="137">
@@ -11246,7 +11246,7 @@
         <v>1259</v>
       </c>
       <c r="I137" t="n">
-        <v>5427</v>
+        <v>5409</v>
       </c>
       <c r="J137" t="n">
         <v>131</v>
@@ -11303,7 +11303,7 @@
         <v>4029</v>
       </c>
       <c r="AB137" t="n">
-        <v>32761</v>
+        <v>32743</v>
       </c>
     </row>
     <row r="138">
@@ -11334,7 +11334,7 @@
         <v>1263</v>
       </c>
       <c r="I138" t="n">
-        <v>5435</v>
+        <v>5417</v>
       </c>
       <c r="J138" t="n">
         <v>131</v>
@@ -11387,7 +11387,7 @@
         <v>4049</v>
       </c>
       <c r="AB138" t="n">
-        <v>32861</v>
+        <v>32843</v>
       </c>
     </row>
     <row r="139">
@@ -11412,7 +11412,7 @@
         <v>1266</v>
       </c>
       <c r="I139" t="n">
-        <v>5439</v>
+        <v>5421</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
@@ -11455,7 +11455,7 @@
         <v>4060</v>
       </c>
       <c r="AB139" t="n">
-        <v>32916</v>
+        <v>32898</v>
       </c>
     </row>
     <row r="140">
@@ -11480,7 +11480,7 @@
         <v>1271</v>
       </c>
       <c r="I140" t="n">
-        <v>5441</v>
+        <v>5423</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
@@ -11525,7 +11525,7 @@
         <v>4078</v>
       </c>
       <c r="AB140" t="n">
-        <v>32977</v>
+        <v>32959</v>
       </c>
     </row>
     <row r="141">
@@ -11556,7 +11556,7 @@
         <v>1274</v>
       </c>
       <c r="I141" t="n">
-        <v>5447</v>
+        <v>5429</v>
       </c>
       <c r="J141" t="n">
         <v>131</v>
@@ -11613,7 +11613,7 @@
         <v>4095</v>
       </c>
       <c r="AB141" t="n">
-        <v>33085</v>
+        <v>33067</v>
       </c>
     </row>
     <row r="142">
@@ -11644,7 +11644,7 @@
         <v>1274</v>
       </c>
       <c r="I142" t="n">
-        <v>5458</v>
+        <v>5440</v>
       </c>
       <c r="J142" t="n">
         <v>131</v>
@@ -11699,7 +11699,7 @@
         <v>4122</v>
       </c>
       <c r="AB142" t="n">
-        <v>33204</v>
+        <v>33186</v>
       </c>
     </row>
     <row r="143">
@@ -11728,7 +11728,7 @@
         <v>1278</v>
       </c>
       <c r="I143" t="n">
-        <v>5477</v>
+        <v>5459</v>
       </c>
       <c r="J143" t="n">
         <v>133</v>
@@ -11785,7 +11785,7 @@
         <v>4154</v>
       </c>
       <c r="AB143" t="n">
-        <v>33344</v>
+        <v>33326</v>
       </c>
     </row>
     <row r="144">
@@ -11814,7 +11814,7 @@
         <v>1282</v>
       </c>
       <c r="I144" t="n">
-        <v>5491</v>
+        <v>5473</v>
       </c>
       <c r="J144" t="n">
         <v>135</v>
@@ -11871,7 +11871,7 @@
         <v>4169</v>
       </c>
       <c r="AB144" t="n">
-        <v>33446</v>
+        <v>33428</v>
       </c>
     </row>
     <row r="145">
@@ -11902,7 +11902,7 @@
         <v>1284</v>
       </c>
       <c r="I145" t="n">
-        <v>5504</v>
+        <v>5486</v>
       </c>
       <c r="J145" t="n">
         <v>136</v>
@@ -11955,7 +11955,7 @@
         <v>4198</v>
       </c>
       <c r="AB145" t="n">
-        <v>33564</v>
+        <v>33546</v>
       </c>
     </row>
     <row r="146">
@@ -11980,7 +11980,7 @@
         <v>1292</v>
       </c>
       <c r="I146" t="n">
-        <v>5517</v>
+        <v>5499</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
@@ -12021,7 +12021,7 @@
         <v>4213</v>
       </c>
       <c r="AB146" t="n">
-        <v>33624</v>
+        <v>33606</v>
       </c>
     </row>
     <row r="147">
@@ -12046,7 +12046,7 @@
         <v>1297</v>
       </c>
       <c r="I147" t="n">
-        <v>5521</v>
+        <v>5503</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
@@ -12089,7 +12089,7 @@
         <v>4226</v>
       </c>
       <c r="AB147" t="n">
-        <v>33672</v>
+        <v>33654</v>
       </c>
     </row>
     <row r="148">
@@ -12120,7 +12120,7 @@
         <v>1304</v>
       </c>
       <c r="I148" t="n">
-        <v>5538</v>
+        <v>5520</v>
       </c>
       <c r="J148" t="n">
         <v>136</v>
@@ -12177,7 +12177,7 @@
         <v>4241</v>
       </c>
       <c r="AB148" t="n">
-        <v>33791</v>
+        <v>33773</v>
       </c>
     </row>
     <row r="149">
@@ -12208,7 +12208,7 @@
         <v>1305</v>
       </c>
       <c r="I149" t="n">
-        <v>5568</v>
+        <v>5550</v>
       </c>
       <c r="J149" t="n">
         <v>137</v>
@@ -12263,7 +12263,7 @@
         <v>4279</v>
       </c>
       <c r="AB149" t="n">
-        <v>33931</v>
+        <v>33913</v>
       </c>
     </row>
     <row r="150">
@@ -12292,7 +12292,7 @@
         <v>1311</v>
       </c>
       <c r="I150" t="n">
-        <v>5596</v>
+        <v>5578</v>
       </c>
       <c r="J150" t="n">
         <v>138</v>
@@ -12347,7 +12347,7 @@
         <v>4306</v>
       </c>
       <c r="AB150" t="n">
-        <v>34055</v>
+        <v>34037</v>
       </c>
     </row>
     <row r="151">
@@ -12376,7 +12376,7 @@
         <v>1312</v>
       </c>
       <c r="I151" t="n">
-        <v>5641</v>
+        <v>5623</v>
       </c>
       <c r="J151" t="n">
         <v>138</v>
@@ -12433,7 +12433,7 @@
         <v>4330</v>
       </c>
       <c r="AB151" t="n">
-        <v>34214</v>
+        <v>34196</v>
       </c>
     </row>
     <row r="152">
@@ -12464,7 +12464,7 @@
         <v>1315</v>
       </c>
       <c r="I152" t="n">
-        <v>5682</v>
+        <v>5664</v>
       </c>
       <c r="J152" t="n">
         <v>138</v>
@@ -12521,7 +12521,7 @@
         <v>4353</v>
       </c>
       <c r="AB152" t="n">
-        <v>34353</v>
+        <v>34335</v>
       </c>
     </row>
     <row r="153">
@@ -12544,7 +12544,7 @@
         <v>1319</v>
       </c>
       <c r="I153" t="n">
-        <v>5723</v>
+        <v>5705</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
@@ -12585,7 +12585,7 @@
         <v>4367</v>
       </c>
       <c r="AB153" t="n">
-        <v>34441</v>
+        <v>34423</v>
       </c>
     </row>
     <row r="154">
@@ -12610,7 +12610,7 @@
         <v>1320</v>
       </c>
       <c r="I154" t="n">
-        <v>5734</v>
+        <v>5716</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
@@ -12653,7 +12653,7 @@
         <v>4373</v>
       </c>
       <c r="AB154" t="n">
-        <v>34488</v>
+        <v>34470</v>
       </c>
     </row>
     <row r="155">
@@ -12684,7 +12684,7 @@
         <v>1321</v>
       </c>
       <c r="I155" t="n">
-        <v>5795</v>
+        <v>5777</v>
       </c>
       <c r="J155" t="n">
         <v>138</v>
@@ -12739,7 +12739,7 @@
         <v>4393</v>
       </c>
       <c r="AB155" t="n">
-        <v>34649</v>
+        <v>34631</v>
       </c>
     </row>
     <row r="156">
@@ -12768,7 +12768,7 @@
         <v>1325</v>
       </c>
       <c r="I156" t="n">
-        <v>5839</v>
+        <v>5821</v>
       </c>
       <c r="J156" t="n">
         <v>138</v>
@@ -12825,7 +12825,7 @@
         <v>4418</v>
       </c>
       <c r="AB156" t="n">
-        <v>34814</v>
+        <v>34796</v>
       </c>
     </row>
     <row r="157">
@@ -12856,7 +12856,7 @@
         <v>1332</v>
       </c>
       <c r="I157" t="n">
-        <v>5899</v>
+        <v>5881</v>
       </c>
       <c r="J157" t="n">
         <v>138</v>
@@ -12913,7 +12913,7 @@
         <v>4463</v>
       </c>
       <c r="AB157" t="n">
-        <v>35041</v>
+        <v>35023</v>
       </c>
     </row>
     <row r="158">
@@ -12944,7 +12944,7 @@
         <v>1342</v>
       </c>
       <c r="I158" t="n">
-        <v>5953</v>
+        <v>5935</v>
       </c>
       <c r="J158" t="n">
         <v>139</v>
@@ -13001,7 +13001,7 @@
         <v>4493</v>
       </c>
       <c r="AB158" t="n">
-        <v>35257</v>
+        <v>35239</v>
       </c>
     </row>
     <row r="159">
@@ -13032,7 +13032,7 @@
         <v>1350</v>
       </c>
       <c r="I159" t="n">
-        <v>5985</v>
+        <v>5967</v>
       </c>
       <c r="J159" t="n">
         <v>141</v>
@@ -13089,7 +13089,7 @@
         <v>4524</v>
       </c>
       <c r="AB159" t="n">
-        <v>35415</v>
+        <v>35397</v>
       </c>
     </row>
     <row r="160">
@@ -13116,7 +13116,7 @@
         <v>1353</v>
       </c>
       <c r="I160" t="n">
-        <v>6014</v>
+        <v>5996</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
@@ -13159,7 +13159,7 @@
         <v>4547</v>
       </c>
       <c r="AB160" t="n">
-        <v>35558</v>
+        <v>35540</v>
       </c>
     </row>
     <row r="161">
@@ -13186,7 +13186,7 @@
         <v>1358</v>
       </c>
       <c r="I161" t="n">
-        <v>6036</v>
+        <v>6018</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
@@ -13227,7 +13227,7 @@
         <v>4558</v>
       </c>
       <c r="AB161" t="n">
-        <v>35638</v>
+        <v>35620</v>
       </c>
     </row>
     <row r="162">
@@ -13258,7 +13258,7 @@
         <v>1360</v>
       </c>
       <c r="I162" t="n">
-        <v>6070</v>
+        <v>6052</v>
       </c>
       <c r="J162" t="n">
         <v>141</v>
@@ -13315,7 +13315,7 @@
         <v>4570</v>
       </c>
       <c r="AB162" t="n">
-        <v>35763</v>
+        <v>35745</v>
       </c>
     </row>
     <row r="163">
@@ -13344,7 +13344,7 @@
         <v>1360</v>
       </c>
       <c r="I163" t="n">
-        <v>6102</v>
+        <v>6084</v>
       </c>
       <c r="J163" t="n">
         <v>142</v>
@@ -13401,7 +13401,7 @@
         <v>4588</v>
       </c>
       <c r="AB163" t="n">
-        <v>35894</v>
+        <v>35876</v>
       </c>
     </row>
     <row r="164">
@@ -13432,7 +13432,7 @@
         <v>1368</v>
       </c>
       <c r="I164" t="n">
-        <v>6133</v>
+        <v>6115</v>
       </c>
       <c r="J164" t="n">
         <v>144</v>
@@ -13489,7 +13489,7 @@
         <v>4639</v>
       </c>
       <c r="AB164" t="n">
-        <v>36096</v>
+        <v>36078</v>
       </c>
     </row>
     <row r="165">
@@ -13518,7 +13518,7 @@
         <v>1373</v>
       </c>
       <c r="I165" t="n">
-        <v>6168</v>
+        <v>6150</v>
       </c>
       <c r="J165" t="n">
         <v>145</v>
@@ -13575,7 +13575,7 @@
         <v>4674</v>
       </c>
       <c r="AB165" t="n">
-        <v>36261</v>
+        <v>36243</v>
       </c>
     </row>
     <row r="166">
@@ -13606,7 +13606,7 @@
         <v>1377</v>
       </c>
       <c r="I166" t="n">
-        <v>6213</v>
+        <v>6195</v>
       </c>
       <c r="J166" t="n">
         <v>145</v>
@@ -13663,7 +13663,7 @@
         <v>4706</v>
       </c>
       <c r="AB166" t="n">
-        <v>36428</v>
+        <v>36410</v>
       </c>
     </row>
     <row r="167">
@@ -13690,7 +13690,7 @@
         <v>1378</v>
       </c>
       <c r="I167" t="n">
-        <v>6239</v>
+        <v>6221</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
@@ -13733,7 +13733,7 @@
         <v>4747</v>
       </c>
       <c r="AB167" t="n">
-        <v>36549</v>
+        <v>36531</v>
       </c>
     </row>
     <row r="168">
@@ -13760,7 +13760,7 @@
         <v>1384</v>
       </c>
       <c r="I168" t="n">
-        <v>6272</v>
+        <v>6254</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
@@ -13803,7 +13803,7 @@
         <v>4763</v>
       </c>
       <c r="AB168" t="n">
-        <v>36639</v>
+        <v>36621</v>
       </c>
     </row>
     <row r="169">
@@ -13834,7 +13834,7 @@
         <v>1389</v>
       </c>
       <c r="I169" t="n">
-        <v>6308</v>
+        <v>6290</v>
       </c>
       <c r="J169" t="n">
         <v>146</v>
@@ -13891,7 +13891,7 @@
         <v>4802</v>
       </c>
       <c r="AB169" t="n">
-        <v>36833</v>
+        <v>36815</v>
       </c>
     </row>
     <row r="170">
@@ -13920,7 +13920,7 @@
         <v>1393</v>
       </c>
       <c r="I170" t="n">
-        <v>6364</v>
+        <v>6346</v>
       </c>
       <c r="J170" t="n">
         <v>147</v>
@@ -13977,7 +13977,7 @@
         <v>4866</v>
       </c>
       <c r="AB170" t="n">
-        <v>37097</v>
+        <v>37079</v>
       </c>
     </row>
     <row r="171">
@@ -14006,7 +14006,7 @@
         <v>1401</v>
       </c>
       <c r="I171" t="n">
-        <v>6396</v>
+        <v>6378</v>
       </c>
       <c r="J171" t="n">
         <v>149</v>
@@ -14063,7 +14063,7 @@
         <v>4918</v>
       </c>
       <c r="AB171" t="n">
-        <v>37326</v>
+        <v>37308</v>
       </c>
     </row>
     <row r="172">
@@ -14092,7 +14092,7 @@
         <v>1405</v>
       </c>
       <c r="I172" t="n">
-        <v>6439</v>
+        <v>6421</v>
       </c>
       <c r="J172" t="n">
         <v>150</v>
@@ -14149,7 +14149,7 @@
         <v>4974</v>
       </c>
       <c r="AB172" t="n">
-        <v>37601</v>
+        <v>37583</v>
       </c>
     </row>
     <row r="173">
@@ -14180,7 +14180,7 @@
         <v>1408</v>
       </c>
       <c r="I173" t="n">
-        <v>6469</v>
+        <v>6452</v>
       </c>
       <c r="J173" t="n">
         <v>150</v>
@@ -14228,7 +14228,7 @@
         <v>6306</v>
       </c>
       <c r="Y173" t="n">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="Z173" t="n">
         <v>312</v>
@@ -14237,7 +14237,7 @@
         <v>5034</v>
       </c>
       <c r="AB173" t="n">
-        <v>37835</v>
+        <v>37819</v>
       </c>
     </row>
     <row r="174">
@@ -14264,7 +14264,7 @@
         <v>1418</v>
       </c>
       <c r="I174" t="n">
-        <v>6496</v>
+        <v>6479</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
@@ -14296,7 +14296,7 @@
         <v>6331</v>
       </c>
       <c r="Y174" t="n">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="Z174" t="n">
         <v>312</v>
@@ -14305,7 +14305,7 @@
         <v>5095</v>
       </c>
       <c r="AB174" t="n">
-        <v>38042</v>
+        <v>38026</v>
       </c>
     </row>
     <row r="175">
@@ -14332,7 +14332,7 @@
         <v>1425</v>
       </c>
       <c r="I175" t="n">
-        <v>6515</v>
+        <v>6498</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
@@ -14375,7 +14375,7 @@
         <v>5124</v>
       </c>
       <c r="AB175" t="n">
-        <v>38173</v>
+        <v>38156</v>
       </c>
     </row>
     <row r="176">
@@ -14404,7 +14404,7 @@
         <v>1428</v>
       </c>
       <c r="I176" t="n">
-        <v>6558</v>
+        <v>6540</v>
       </c>
       <c r="J176" t="n">
         <v>151</v>
@@ -14461,7 +14461,7 @@
         <v>5168</v>
       </c>
       <c r="AB176" t="n">
-        <v>38399</v>
+        <v>38381</v>
       </c>
     </row>
     <row r="177">
@@ -14492,7 +14492,7 @@
         <v>1434</v>
       </c>
       <c r="I177" t="n">
-        <v>6596</v>
+        <v>6580</v>
       </c>
       <c r="J177" t="n">
         <v>153</v>
@@ -14540,7 +14540,7 @@
         <v>6422</v>
       </c>
       <c r="Y177" t="n">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="Z177" t="n">
         <v>317</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38661</v>
+        <v>38646</v>
       </c>
     </row>
     <row r="178">
@@ -14580,7 +14580,7 @@
         <v>1451</v>
       </c>
       <c r="I178" t="n">
-        <v>6620</v>
+        <v>6610</v>
       </c>
       <c r="J178" t="n">
         <v>154</v>
@@ -14628,7 +14628,7 @@
         <v>6448</v>
       </c>
       <c r="Y178" t="n">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="Z178" t="n">
         <v>319</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38945</v>
+        <v>38938</v>
       </c>
     </row>
     <row r="179">
@@ -14663,7 +14663,9 @@
       <c r="H179" t="n">
         <v>1464</v>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>6647</v>
+      </c>
       <c r="J179" t="n">
         <v>156</v>
       </c>
@@ -14708,7 +14710,7 @@
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="n">
-        <v>2261</v>
+        <v>2269</v>
       </c>
       <c r="Z179" t="n">
         <v>321</v>
@@ -14717,7 +14719,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39127</v>
+        <v>39162</v>
       </c>
     </row>
     <row r="180">
@@ -14730,7 +14732,9 @@
       <c r="C180" t="n">
         <v>25</v>
       </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>127</v>
+      </c>
       <c r="E180" t="n">
         <v>2373</v>
       </c>
@@ -14748,7 +14752,9 @@
         <v>157</v>
       </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>264</v>
+      </c>
       <c r="M180" t="n">
         <v>1004</v>
       </c>
@@ -14771,9 +14777,13 @@
       <c r="V180" t="n">
         <v>3500</v>
       </c>
-      <c r="W180" t="inlineStr"/>
+      <c r="W180" t="n">
+        <v>129</v>
+      </c>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
+      <c r="Y180" t="n">
+        <v>2269</v>
+      </c>
       <c r="Z180" t="n">
         <v>323</v>
       </c>
@@ -14781,7 +14791,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39296</v>
+        <v>39334</v>
       </c>
     </row>
   </sheetData>
@@ -28345,7 +28355,7 @@
         <v>426</v>
       </c>
       <c r="Y173" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z173" t="n">
         <v>9</v>
@@ -28354,7 +28364,7 @@
         <v>139</v>
       </c>
       <c r="AB173" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="174">
@@ -28413,7 +28423,7 @@
         <v>427</v>
       </c>
       <c r="Y174" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z174" t="n">
         <v>9</v>
@@ -28422,7 +28432,7 @@
         <v>139</v>
       </c>
       <c r="AB174" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="175">
@@ -28483,7 +28493,7 @@
         <v>428</v>
       </c>
       <c r="Y175" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z175" t="n">
         <v>9</v>
@@ -28492,7 +28502,7 @@
         <v>139</v>
       </c>
       <c r="AB175" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="176">
@@ -28567,7 +28577,7 @@
         <v>429</v>
       </c>
       <c r="Y176" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z176" t="n">
         <v>9</v>
@@ -28576,7 +28586,7 @@
         <v>139</v>
       </c>
       <c r="AB176" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="177">
@@ -28653,7 +28663,7 @@
         <v>429</v>
       </c>
       <c r="Y177" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z177" t="n">
         <v>9</v>
@@ -28662,7 +28672,7 @@
         <v>139</v>
       </c>
       <c r="AB177" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="178">
@@ -28739,7 +28749,7 @@
         <v>429</v>
       </c>
       <c r="Y178" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z178" t="n">
         <v>9</v>
@@ -28748,7 +28758,7 @@
         <v>139</v>
       </c>
       <c r="AB178" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="179">
@@ -28774,14 +28784,18 @@
       <c r="H179" t="n">
         <v>85</v>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>297</v>
+      </c>
       <c r="J179" t="n">
         <v>13</v>
       </c>
       <c r="K179" t="n">
         <v>50</v>
       </c>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>7</v>
+      </c>
       <c r="M179" t="n">
         <v>21</v>
       </c>
@@ -28815,7 +28829,7 @@
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z179" t="n">
         <v>9</v>
@@ -28824,7 +28838,7 @@
         <v>139</v>
       </c>
       <c r="AB179" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="180">
@@ -28837,7 +28851,9 @@
       <c r="C180" t="n">
         <v>0</v>
       </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>3</v>
+      </c>
       <c r="E180" t="n">
         <v>98</v>
       </c>
@@ -28855,7 +28871,9 @@
         <v>13</v>
       </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>7</v>
+      </c>
       <c r="M180" t="n">
         <v>21</v>
       </c>
@@ -28878,9 +28896,13 @@
       <c r="V180" t="n">
         <v>350</v>
       </c>
-      <c r="W180" t="inlineStr"/>
+      <c r="W180" t="n">
+        <v>7</v>
+      </c>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
+      <c r="Y180" t="n">
+        <v>154</v>
+      </c>
       <c r="Z180" t="n">
         <v>9</v>
       </c>
@@ -28888,7 +28910,7 @@
         <v>140</v>
       </c>
       <c r="AB180" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -41906,7 +41928,9 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>2</v>
+      </c>
       <c r="E180" t="n">
         <v>5</v>
       </c>
@@ -41924,14 +41948,18 @@
         <v>0</v>
       </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
       <c r="M180" t="n">
         <v>8</v>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
+      <c r="Q180" t="n">
+        <v>9</v>
+      </c>
       <c r="R180" t="n">
         <v>5</v>
       </c>
@@ -41945,9 +41973,13 @@
       <c r="V180" t="n">
         <v>0</v>
       </c>
-      <c r="W180" t="inlineStr"/>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
+      <c r="Y180" t="n">
+        <v>8</v>
+      </c>
       <c r="Z180" t="n">
         <v>0</v>
       </c>
@@ -41955,7 +41987,7 @@
         <v>25</v>
       </c>
       <c r="AB180" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -53691,7 +53723,9 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
       <c r="E180" t="n">
         <v>2</v>
       </c>
@@ -53707,14 +53741,18 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
       <c r="M180" t="n">
         <v>3</v>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
+      <c r="Q180" t="n">
+        <v>1</v>
+      </c>
       <c r="R180" t="n">
         <v>0</v>
       </c>
@@ -53728,7 +53766,9 @@
       </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
+      <c r="Y180" t="n">
+        <v>1</v>
+      </c>
       <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
@@ -62909,7 +62949,9 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
+      <c r="Q180" t="n">
+        <v>4</v>
+      </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
@@ -62919,7 +62961,9 @@
       </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
+      <c r="Y180" t="n">
+        <v>1</v>
+      </c>
       <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="n">
         <v>7</v>
@@ -72680,9 +72724,13 @@
       <c r="V180" t="n">
         <v>925</v>
       </c>
-      <c r="W180" t="inlineStr"/>
+      <c r="W180" t="n">
+        <v>115</v>
+      </c>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
+      <c r="Y180" t="n">
+        <v>315</v>
+      </c>
       <c r="Z180" t="n">
         <v>287</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14759,7 +14759,9 @@
         <v>1004</v>
       </c>
       <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
+      <c r="O180" t="n">
+        <v>131</v>
+      </c>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
@@ -28878,7 +28880,9 @@
         <v>21</v>
       </c>
       <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
+      <c r="O180" t="n">
+        <v>3</v>
+      </c>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
@@ -41955,7 +41959,9 @@
         <v>8</v>
       </c>
       <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="n">
         <v>9</v>
@@ -53748,7 +53754,9 @@
         <v>3</v>
       </c>
       <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="n">
         <v>1</v>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14762,7 +14762,9 @@
       <c r="O180" t="n">
         <v>131</v>
       </c>
-      <c r="P180" t="inlineStr"/>
+      <c r="P180" t="n">
+        <v>101</v>
+      </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
         <v>160</v>
@@ -14793,7 +14795,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39334</v>
+        <v>39335</v>
       </c>
     </row>
   </sheetData>
@@ -28883,7 +28885,9 @@
       <c r="O180" t="n">
         <v>3</v>
       </c>
-      <c r="P180" t="inlineStr"/>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
         <v>8</v>
@@ -41962,7 +41966,9 @@
       <c r="O180" t="n">
         <v>0</v>
       </c>
-      <c r="P180" t="inlineStr"/>
+      <c r="P180" t="n">
+        <v>1</v>
+      </c>
       <c r="Q180" t="n">
         <v>9</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14751,7 +14751,9 @@
       <c r="J180" t="n">
         <v>157</v>
       </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>973</v>
+      </c>
       <c r="L180" t="n">
         <v>264</v>
       </c>
@@ -14795,7 +14797,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39335</v>
+        <v>39337</v>
       </c>
     </row>
   </sheetData>
@@ -28874,7 +28876,9 @@
       <c r="J180" t="n">
         <v>13</v>
       </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>50</v>
+      </c>
       <c r="L180" t="n">
         <v>7</v>
       </c>
@@ -41955,7 +41959,9 @@
       <c r="J180" t="n">
         <v>0</v>
       </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
       <c r="L180" t="n">
         <v>0</v>
       </c>
@@ -53752,7 +53758,9 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
       <c r="L180" t="n">
         <v>0</v>
       </c>
@@ -62957,7 +62965,9 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14800,6 +14800,42 @@
         <v>39337</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="n">
+        <v>39337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -14811,7 +14847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28925,6 +28961,42 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -28936,7 +29008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42008,6 +42080,42 @@
         <v>110</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="n">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -42019,7 +42127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53797,6 +53905,42 @@
         <v>15</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -53808,7 +53952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62996,6 +63140,42 @@
         <v>16</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -63007,7 +63187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72763,6 +72943,42 @@
         <v>6599</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="n">
+        <v>6599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -72774,7 +72990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB180"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79600,6 +79816,42 @@
         <v>64284</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="n">
+        <v>64284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14809,9 +14809,13 @@
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>2382</v>
+      </c>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>1179</v>
+      </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -14833,7 +14837,7 @@
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>39337</v>
+        <v>39356</v>
       </c>
     </row>
   </sheetData>
@@ -28970,9 +28974,13 @@
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>98</v>
+      </c>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>53</v>
+      </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -72954,7 +72962,9 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>1049</v>
+      </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -72976,7 +72986,7 @@
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>6599</v>
+        <v>6609</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14835,9 +14835,11 @@
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
+      <c r="AA181" t="n">
+        <v>5507</v>
+      </c>
       <c r="AB181" t="n">
-        <v>39356</v>
+        <v>39400</v>
       </c>
     </row>
   </sheetData>
@@ -29000,7 +29002,9 @@
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
+      <c r="AA181" t="n">
+        <v>140</v>
+      </c>
       <c r="AB181" t="n">
         <v>2000</v>
       </c>
@@ -42119,9 +42123,11 @@
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
+      <c r="AA181" t="n">
+        <v>23</v>
+      </c>
       <c r="AB181" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -63179,7 +63185,9 @@
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
+      <c r="AA181" t="n">
+        <v>7</v>
+      </c>
       <c r="AB181" t="n">
         <v>16</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14819,7 +14819,9 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>979</v>
+      </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
@@ -14839,7 +14841,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39400</v>
+        <v>39406</v>
       </c>
     </row>
   </sheetData>
@@ -28986,7 +28988,9 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>50</v>
+      </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
@@ -42107,7 +42111,9 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
@@ -53934,7 +53940,9 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
@@ -63169,7 +63177,9 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14844,6 +14844,42 @@
         <v>39406</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="n">
+        <v>39406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -14855,7 +14891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29013,6 +29049,42 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -29024,7 +29096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42136,6 +42208,42 @@
         <v>108</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="n">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -42147,7 +42255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53963,6 +54071,42 @@
         <v>15</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -53974,7 +54118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63202,6 +63346,42 @@
         <v>16</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -63213,7 +63393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73007,6 +73187,42 @@
         <v>6609</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="n">
+        <v>6609</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -73018,7 +73234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79880,6 +80096,42 @@
         <v>64284</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-23</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="n">
+        <v>64284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14853,9 +14853,13 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>2397</v>
+      </c>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>1183</v>
+      </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -14877,7 +14881,7 @@
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>39406</v>
+        <v>39425</v>
       </c>
     </row>
   </sheetData>
@@ -29058,9 +29062,13 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>99</v>
+      </c>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>53</v>
+      </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -29082,7 +29090,7 @@
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
   </sheetData>
@@ -73198,7 +73206,9 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>1059</v>
+      </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -73220,7 +73230,7 @@
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>6609</v>
+        <v>6619</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14879,9 +14879,11 @@
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
+      <c r="AA182" t="n">
+        <v>5549</v>
+      </c>
       <c r="AB182" t="n">
-        <v>39425</v>
+        <v>39467</v>
       </c>
     </row>
   </sheetData>
@@ -29088,7 +29090,9 @@
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
+      <c r="AA182" t="n">
+        <v>140</v>
+      </c>
       <c r="AB182" t="n">
         <v>2001</v>
       </c>
@@ -42247,9 +42251,11 @@
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
+      <c r="AA182" t="n">
+        <v>25</v>
+      </c>
       <c r="AB182" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -63385,9 +63391,11 @@
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
+      <c r="AA182" t="n">
+        <v>6</v>
+      </c>
       <c r="AB182" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14816,7 +14816,9 @@
       <c r="G181" t="n">
         <v>1179</v>
       </c>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>1516</v>
+      </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
@@ -14830,7 +14832,9 @@
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
+      <c r="T181" t="n">
+        <v>460</v>
+      </c>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
@@ -14841,7 +14845,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39406</v>
+        <v>39436</v>
       </c>
     </row>
     <row r="182">
@@ -14860,7 +14864,9 @@
       <c r="G182" t="n">
         <v>1183</v>
       </c>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>1550</v>
+      </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -14869,10 +14875,14 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
+      <c r="Q182" t="n">
+        <v>1217</v>
+      </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr"/>
+      <c r="T182" t="n">
+        <v>460</v>
+      </c>
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
@@ -14883,7 +14893,47 @@
         <v>5549</v>
       </c>
       <c r="AB182" t="n">
-        <v>39467</v>
+        <v>39546</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>1561</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="n">
+        <v>464</v>
+      </c>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="n">
+        <v>39561</v>
       </c>
     </row>
   </sheetData>
@@ -14897,7 +14947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29027,7 +29077,9 @@
       <c r="G181" t="n">
         <v>53</v>
       </c>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>85</v>
+      </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
@@ -29041,7 +29093,9 @@
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
+      <c r="T181" t="n">
+        <v>25</v>
+      </c>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
@@ -29071,7 +29125,9 @@
       <c r="G182" t="n">
         <v>53</v>
       </c>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>85</v>
+      </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -29080,10 +29136,14 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
+      <c r="Q182" t="n">
+        <v>41</v>
+      </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr"/>
+      <c r="T182" t="n">
+        <v>25</v>
+      </c>
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
@@ -29094,6 +29154,46 @@
         <v>140</v>
       </c>
       <c r="AB182" t="n">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>85</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="n">
+        <v>25</v>
+      </c>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="n">
         <v>2001</v>
       </c>
     </row>
@@ -29108,7 +29208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42192,7 +42292,9 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
@@ -42217,7 +42319,7 @@
         <v>23</v>
       </c>
       <c r="AB181" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="182">
@@ -42232,7 +42334,9 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -42241,7 +42345,9 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
+      <c r="Q182" t="n">
+        <v>9</v>
+      </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
@@ -42255,7 +42361,45 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>110</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="n">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -42269,7 +42413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54059,7 +54203,9 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
@@ -54082,7 +54228,7 @@
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
@@ -54097,7 +54243,9 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -54106,7 +54254,9 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
+      <c r="Q182" t="n">
+        <v>1</v>
+      </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
@@ -54118,7 +54268,45 @@
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -54132,7 +54320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63381,7 +63569,9 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
+      <c r="Q182" t="n">
+        <v>4</v>
+      </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
@@ -63398,6 +63588,42 @@
         <v>15</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -63409,7 +63635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73179,7 +73405,9 @@
       <c r="G181" t="n">
         <v>1049</v>
       </c>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>160</v>
+      </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -73191,7 +73419,9 @@
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
+      <c r="T181" t="n">
+        <v>404</v>
+      </c>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
@@ -73217,7 +73447,9 @@
       <c r="G182" t="n">
         <v>1059</v>
       </c>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>160</v>
+      </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -73229,7 +73461,9 @@
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr"/>
+      <c r="T182" t="n">
+        <v>404</v>
+      </c>
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
@@ -73239,6 +73473,46 @@
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
         <v>6619</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>160</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="n">
+        <v>409</v>
+      </c>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="n">
+        <v>6624</v>
       </c>
     </row>
   </sheetData>
@@ -73252,7 +73526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB182"/>
+  <dimension ref="A1:AB183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80150,6 +80424,42 @@
         <v>64284</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-24</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="n">
+        <v>64284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14926,14 +14926,16 @@
         <v>464</v>
       </c>
       <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
+      <c r="V183" t="n">
+        <v>3512</v>
+      </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>39561</v>
+        <v>39573</v>
       </c>
     </row>
   </sheetData>
@@ -29187,7 +29189,9 @@
         <v>25</v>
       </c>
       <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
+      <c r="V183" t="n">
+        <v>350</v>
+      </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
@@ -42392,14 +42396,16 @@
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
+      <c r="V183" t="n">
+        <v>1</v>
+      </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -54299,7 +54305,9 @@
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
+      <c r="V183" t="n">
+        <v>0</v>
+      </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
@@ -63614,7 +63622,9 @@
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
+      <c r="V183" t="n">
+        <v>0</v>
+      </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
@@ -73505,14 +73515,16 @@
         <v>409</v>
       </c>
       <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
+      <c r="V183" t="n">
+        <v>926</v>
+      </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6624</v>
+        <v>6625</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14679,7 +14679,7 @@
         <v>998</v>
       </c>
       <c r="N179" t="n">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="O179" t="n">
         <v>131</v>
@@ -14719,7 +14719,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39162</v>
+        <v>39166</v>
       </c>
     </row>
     <row r="180">
@@ -14760,7 +14760,9 @@
       <c r="M180" t="n">
         <v>1004</v>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>842</v>
+      </c>
       <c r="O180" t="n">
         <v>131</v>
       </c>
@@ -14797,7 +14799,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39337</v>
+        <v>39344</v>
       </c>
     </row>
     <row r="181">
@@ -14835,7 +14837,9 @@
       <c r="T181" t="n">
         <v>460</v>
       </c>
-      <c r="U181" t="inlineStr"/>
+      <c r="U181" t="n">
+        <v>557</v>
+      </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
@@ -14845,7 +14849,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39436</v>
+        <v>39449</v>
       </c>
     </row>
     <row r="182">
@@ -14883,7 +14887,9 @@
       <c r="T182" t="n">
         <v>460</v>
       </c>
-      <c r="U182" t="inlineStr"/>
+      <c r="U182" t="n">
+        <v>557</v>
+      </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
@@ -14893,7 +14899,7 @@
         <v>5549</v>
       </c>
       <c r="AB182" t="n">
-        <v>39546</v>
+        <v>39559</v>
       </c>
     </row>
     <row r="183">
@@ -14907,12 +14913,16 @@
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>1185</v>
+      </c>
       <c r="H183" t="n">
         <v>1561</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>161</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
@@ -14920,12 +14930,18 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>161</v>
+      </c>
+      <c r="S183" t="n">
+        <v>651</v>
+      </c>
       <c r="T183" t="n">
         <v>464</v>
       </c>
-      <c r="U183" t="inlineStr"/>
+      <c r="U183" t="n">
+        <v>558</v>
+      </c>
       <c r="V183" t="n">
         <v>3512</v>
       </c>
@@ -14935,7 +14951,7 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>39573</v>
+        <v>39602</v>
       </c>
     </row>
   </sheetData>
@@ -28689,7 +28705,9 @@
       <c r="M176" t="n">
         <v>21</v>
       </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>84</v>
+      </c>
       <c r="O176" t="n">
         <v>3</v>
       </c>
@@ -28775,7 +28793,9 @@
       <c r="M177" t="n">
         <v>21</v>
       </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>84</v>
+      </c>
       <c r="O177" t="n">
         <v>3</v>
       </c>
@@ -28861,7 +28881,9 @@
       <c r="M178" t="n">
         <v>21</v>
       </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>84</v>
+      </c>
       <c r="O178" t="n">
         <v>3</v>
       </c>
@@ -28943,7 +28965,9 @@
       <c r="M179" t="n">
         <v>21</v>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>84</v>
+      </c>
       <c r="O179" t="n">
         <v>3</v>
       </c>
@@ -29098,7 +29122,9 @@
       <c r="T181" t="n">
         <v>25</v>
       </c>
-      <c r="U181" t="inlineStr"/>
+      <c r="U181" t="n">
+        <v>19</v>
+      </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
@@ -29146,7 +29172,9 @@
       <c r="T182" t="n">
         <v>25</v>
       </c>
-      <c r="U182" t="inlineStr"/>
+      <c r="U182" t="n">
+        <v>19</v>
+      </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
@@ -29170,12 +29198,16 @@
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>53</v>
+      </c>
       <c r="H183" t="n">
         <v>85</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>13</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
@@ -29183,12 +29215,18 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>8</v>
+      </c>
+      <c r="S183" t="n">
+        <v>18</v>
+      </c>
       <c r="T183" t="n">
         <v>25</v>
       </c>
-      <c r="U183" t="inlineStr"/>
+      <c r="U183" t="n">
+        <v>19</v>
+      </c>
       <c r="V183" t="n">
         <v>350</v>
       </c>
@@ -42244,7 +42282,9 @@
       <c r="M180" t="n">
         <v>8</v>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
       <c r="O180" t="n">
         <v>0</v>
       </c>
@@ -42306,14 +42346,18 @@
       </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
+      <c r="U181" t="n">
+        <v>4</v>
+      </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
@@ -42346,7 +42390,9 @@
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
@@ -42355,7 +42401,9 @@
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
-      <c r="U182" t="inlineStr"/>
+      <c r="U182" t="n">
+        <v>4</v>
+      </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
@@ -42384,7 +42432,9 @@
         <v>3</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
@@ -42392,10 +42442,16 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>3</v>
+      </c>
       <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
+      <c r="U183" t="n">
+        <v>4</v>
+      </c>
       <c r="V183" t="n">
         <v>1</v>
       </c>
@@ -42405,7 +42461,7 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -54167,7 +54223,9 @@
       <c r="M180" t="n">
         <v>3</v>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
       <c r="O180" t="n">
         <v>0</v>
       </c>
@@ -54219,14 +54277,18 @@
       </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr"/>
+      <c r="U181" t="n">
+        <v>1</v>
+      </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
@@ -54257,7 +54319,9 @@
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
@@ -54266,7 +54330,9 @@
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
-      <c r="U182" t="inlineStr"/>
+      <c r="U182" t="n">
+        <v>1</v>
+      </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
@@ -54301,10 +54367,14 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
+      <c r="U183" t="n">
+        <v>1</v>
+      </c>
       <c r="V183" t="n">
         <v>0</v>
       </c>
@@ -63490,7 +63560,9 @@
       </c>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
       <c r="Q180" t="n">
@@ -63536,7 +63608,9 @@
       </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
@@ -63574,7 +63648,9 @@
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
@@ -73432,7 +73508,9 @@
       <c r="T181" t="n">
         <v>404</v>
       </c>
-      <c r="U181" t="inlineStr"/>
+      <c r="U181" t="n">
+        <v>78</v>
+      </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
@@ -73474,7 +73552,9 @@
       <c r="T182" t="n">
         <v>404</v>
       </c>
-      <c r="U182" t="inlineStr"/>
+      <c r="U182" t="n">
+        <v>78</v>
+      </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
@@ -73496,7 +73576,9 @@
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>1066</v>
+      </c>
       <c r="H183" t="n">
         <v>160</v>
       </c>
@@ -73514,7 +73596,9 @@
       <c r="T183" t="n">
         <v>409</v>
       </c>
-      <c r="U183" t="inlineStr"/>
+      <c r="U183" t="n">
+        <v>78</v>
+      </c>
       <c r="V183" t="n">
         <v>926</v>
       </c>
@@ -73524,7 +73608,7 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6625</v>
+        <v>6632</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14873,7 +14873,9 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>979</v>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
@@ -14925,7 +14927,9 @@
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1013</v>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
@@ -14951,7 +14955,7 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>39602</v>
+        <v>39611</v>
       </c>
     </row>
   </sheetData>
@@ -29158,7 +29162,9 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>50</v>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
@@ -29210,7 +29216,9 @@
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>21</v>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
@@ -42387,7 +42395,9 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
@@ -42437,7 +42447,9 @@
       </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>8</v>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
@@ -54316,7 +54328,9 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
@@ -54362,7 +54376,9 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>3</v>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
@@ -63645,7 +63661,9 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14913,7 +14913,9 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>2409</v>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
         <v>1185</v>
@@ -14955,7 +14957,7 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>39611</v>
+        <v>39623</v>
       </c>
     </row>
   </sheetData>
@@ -29202,7 +29204,9 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>99</v>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
         <v>53</v>
@@ -42435,7 +42439,9 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>4</v>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
@@ -42473,7 +42479,7 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -54366,7 +54372,9 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
@@ -54400,7 +54408,7 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -63699,7 +63707,9 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14728,7 +14728,9 @@
           <t>2020-08-21</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
+      <c r="B180" t="n">
+        <v>1913</v>
+      </c>
       <c r="C180" t="n">
         <v>25</v>
       </c>
@@ -14799,7 +14801,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39344</v>
+        <v>39361</v>
       </c>
     </row>
     <row r="181">
@@ -14808,13 +14810,17 @@
           <t>2020-08-22</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr"/>
+      <c r="B181" t="n">
+        <v>1932</v>
+      </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="n">
         <v>2382</v>
       </c>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1006</v>
+      </c>
       <c r="G181" t="n">
         <v>1179</v>
       </c>
@@ -14844,12 +14850,14 @@
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>323</v>
+      </c>
       <c r="AA181" t="n">
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39449</v>
+        <v>39490</v>
       </c>
     </row>
     <row r="182">
@@ -14858,13 +14866,17 @@
           <t>2020-08-23</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr"/>
+      <c r="B182" t="n">
+        <v>1947</v>
+      </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="n">
         <v>2397</v>
       </c>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>1008</v>
+      </c>
       <c r="G182" t="n">
         <v>1183</v>
       </c>
@@ -14896,12 +14908,14 @@
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
-      <c r="Z182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>323</v>
+      </c>
       <c r="AA182" t="n">
         <v>5549</v>
       </c>
       <c r="AB182" t="n">
-        <v>39559</v>
+        <v>39617</v>
       </c>
     </row>
     <row r="183">
@@ -14911,12 +14925,18 @@
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="C183" t="n">
+        <v>25</v>
+      </c>
+      <c r="D183" t="n">
+        <v>130</v>
+      </c>
       <c r="E183" t="n">
         <v>2409</v>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>1009</v>
+      </c>
       <c r="G183" t="n">
         <v>1185</v>
       </c>
@@ -14954,10 +14974,12 @@
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
-      <c r="Z183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>334</v>
+      </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>39623</v>
+        <v>39696</v>
       </c>
     </row>
   </sheetData>
@@ -29021,7 +29043,9 @@
           <t>2020-08-21</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
+      <c r="B180" t="n">
+        <v>51</v>
+      </c>
       <c r="C180" t="n">
         <v>0</v>
       </c>
@@ -29099,13 +29123,17 @@
           <t>2020-08-22</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr"/>
+      <c r="B181" t="n">
+        <v>51</v>
+      </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="n">
         <v>98</v>
       </c>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>35</v>
+      </c>
       <c r="G181" t="n">
         <v>53</v>
       </c>
@@ -29135,7 +29163,9 @@
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>9</v>
+      </c>
       <c r="AA181" t="n">
         <v>140</v>
       </c>
@@ -29149,13 +29179,17 @@
           <t>2020-08-23</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr"/>
+      <c r="B182" t="n">
+        <v>51</v>
+      </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="n">
         <v>99</v>
       </c>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>35</v>
+      </c>
       <c r="G182" t="n">
         <v>53</v>
       </c>
@@ -29187,7 +29221,9 @@
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
-      <c r="Z182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>9</v>
+      </c>
       <c r="AA182" t="n">
         <v>140</v>
       </c>
@@ -29202,12 +29238,18 @@
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3</v>
+      </c>
       <c r="E183" t="n">
         <v>99</v>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>35</v>
+      </c>
       <c r="G183" t="n">
         <v>53</v>
       </c>
@@ -29245,7 +29287,9 @@
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
-      <c r="Z183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>9</v>
+      </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
         <v>2001</v>
@@ -42346,7 +42390,9 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
         <v>3</v>
@@ -42374,7 +42420,9 @@
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
       <c r="AA181" t="n">
         <v>23</v>
       </c>
@@ -42392,7 +42440,9 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
         <v>3</v>
@@ -42422,7 +42472,9 @@
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
-      <c r="Z182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>0</v>
+      </c>
       <c r="AA182" t="n">
         <v>25</v>
       </c>
@@ -42438,11 +42490,15 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
       <c r="E183" t="n">
         <v>4</v>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
         <v>3</v>
@@ -42476,10 +42532,12 @@
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
-      <c r="Z183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>3</v>
+      </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -54283,7 +54341,9 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
         <v>1</v>
@@ -54327,7 +54387,9 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
         <v>1</v>
@@ -54371,11 +54433,15 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
       <c r="E183" t="n">
         <v>1</v>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
         <v>1</v>
@@ -63622,7 +63688,9 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
@@ -63664,7 +63732,9 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
@@ -63710,7 +63780,9 @@
       <c r="E183" t="n">
         <v>1</v>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
@@ -73515,7 +73587,9 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>918</v>
+      </c>
       <c r="G181" t="n">
         <v>1049</v>
       </c>
@@ -73543,10 +73617,12 @@
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>287</v>
+      </c>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>6609</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="182">
@@ -73559,7 +73635,9 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>920</v>
+      </c>
       <c r="G182" t="n">
         <v>1059</v>
       </c>
@@ -73587,10 +73665,12 @@
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="inlineStr"/>
-      <c r="Z182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>287</v>
+      </c>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>6619</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="183">
@@ -73603,7 +73683,9 @@
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>924</v>
+      </c>
       <c r="G183" t="n">
         <v>1066</v>
       </c>
@@ -73633,10 +73715,12 @@
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
-      <c r="Z183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>287</v>
+      </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6632</v>
+        <v>6642</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -12856,7 +12856,7 @@
         <v>1332</v>
       </c>
       <c r="I157" t="n">
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="J157" t="n">
         <v>138</v>
@@ -12913,7 +12913,7 @@
         <v>4463</v>
       </c>
       <c r="AB157" t="n">
-        <v>35023</v>
+        <v>35024</v>
       </c>
     </row>
     <row r="158">
@@ -12944,7 +12944,7 @@
         <v>1342</v>
       </c>
       <c r="I158" t="n">
-        <v>5935</v>
+        <v>5936</v>
       </c>
       <c r="J158" t="n">
         <v>139</v>
@@ -13001,7 +13001,7 @@
         <v>4493</v>
       </c>
       <c r="AB158" t="n">
-        <v>35239</v>
+        <v>35240</v>
       </c>
     </row>
     <row r="159">
@@ -13032,7 +13032,7 @@
         <v>1350</v>
       </c>
       <c r="I159" t="n">
-        <v>5967</v>
+        <v>5968</v>
       </c>
       <c r="J159" t="n">
         <v>141</v>
@@ -13089,7 +13089,7 @@
         <v>4524</v>
       </c>
       <c r="AB159" t="n">
-        <v>35397</v>
+        <v>35398</v>
       </c>
     </row>
     <row r="160">
@@ -13116,7 +13116,7 @@
         <v>1353</v>
       </c>
       <c r="I160" t="n">
-        <v>5996</v>
+        <v>5997</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
@@ -13159,7 +13159,7 @@
         <v>4547</v>
       </c>
       <c r="AB160" t="n">
-        <v>35540</v>
+        <v>35541</v>
       </c>
     </row>
     <row r="161">
@@ -13186,7 +13186,7 @@
         <v>1358</v>
       </c>
       <c r="I161" t="n">
-        <v>6018</v>
+        <v>6019</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
@@ -13227,7 +13227,7 @@
         <v>4558</v>
       </c>
       <c r="AB161" t="n">
-        <v>35620</v>
+        <v>35621</v>
       </c>
     </row>
     <row r="162">
@@ -13258,7 +13258,7 @@
         <v>1360</v>
       </c>
       <c r="I162" t="n">
-        <v>6052</v>
+        <v>6054</v>
       </c>
       <c r="J162" t="n">
         <v>141</v>
@@ -13315,7 +13315,7 @@
         <v>4570</v>
       </c>
       <c r="AB162" t="n">
-        <v>35745</v>
+        <v>35747</v>
       </c>
     </row>
     <row r="163">
@@ -13344,7 +13344,7 @@
         <v>1360</v>
       </c>
       <c r="I163" t="n">
-        <v>6084</v>
+        <v>6086</v>
       </c>
       <c r="J163" t="n">
         <v>142</v>
@@ -13401,7 +13401,7 @@
         <v>4588</v>
       </c>
       <c r="AB163" t="n">
-        <v>35876</v>
+        <v>35878</v>
       </c>
     </row>
     <row r="164">
@@ -13432,7 +13432,7 @@
         <v>1368</v>
       </c>
       <c r="I164" t="n">
-        <v>6115</v>
+        <v>6117</v>
       </c>
       <c r="J164" t="n">
         <v>144</v>
@@ -13489,7 +13489,7 @@
         <v>4639</v>
       </c>
       <c r="AB164" t="n">
-        <v>36078</v>
+        <v>36080</v>
       </c>
     </row>
     <row r="165">
@@ -13518,7 +13518,7 @@
         <v>1373</v>
       </c>
       <c r="I165" t="n">
-        <v>6150</v>
+        <v>6152</v>
       </c>
       <c r="J165" t="n">
         <v>145</v>
@@ -13575,7 +13575,7 @@
         <v>4674</v>
       </c>
       <c r="AB165" t="n">
-        <v>36243</v>
+        <v>36245</v>
       </c>
     </row>
     <row r="166">
@@ -13606,7 +13606,7 @@
         <v>1377</v>
       </c>
       <c r="I166" t="n">
-        <v>6195</v>
+        <v>6197</v>
       </c>
       <c r="J166" t="n">
         <v>145</v>
@@ -13663,7 +13663,7 @@
         <v>4706</v>
       </c>
       <c r="AB166" t="n">
-        <v>36410</v>
+        <v>36412</v>
       </c>
     </row>
     <row r="167">
@@ -13690,7 +13690,7 @@
         <v>1378</v>
       </c>
       <c r="I167" t="n">
-        <v>6221</v>
+        <v>6223</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
@@ -13733,7 +13733,7 @@
         <v>4747</v>
       </c>
       <c r="AB167" t="n">
-        <v>36531</v>
+        <v>36533</v>
       </c>
     </row>
     <row r="168">
@@ -13760,7 +13760,7 @@
         <v>1384</v>
       </c>
       <c r="I168" t="n">
-        <v>6254</v>
+        <v>6256</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
@@ -13803,7 +13803,7 @@
         <v>4763</v>
       </c>
       <c r="AB168" t="n">
-        <v>36621</v>
+        <v>36623</v>
       </c>
     </row>
     <row r="169">
@@ -13834,7 +13834,7 @@
         <v>1389</v>
       </c>
       <c r="I169" t="n">
-        <v>6290</v>
+        <v>6292</v>
       </c>
       <c r="J169" t="n">
         <v>146</v>
@@ -13891,7 +13891,7 @@
         <v>4802</v>
       </c>
       <c r="AB169" t="n">
-        <v>36815</v>
+        <v>36817</v>
       </c>
     </row>
     <row r="170">
@@ -13920,7 +13920,7 @@
         <v>1393</v>
       </c>
       <c r="I170" t="n">
-        <v>6346</v>
+        <v>6348</v>
       </c>
       <c r="J170" t="n">
         <v>147</v>
@@ -13977,7 +13977,7 @@
         <v>4866</v>
       </c>
       <c r="AB170" t="n">
-        <v>37079</v>
+        <v>37081</v>
       </c>
     </row>
     <row r="171">
@@ -14006,7 +14006,7 @@
         <v>1401</v>
       </c>
       <c r="I171" t="n">
-        <v>6378</v>
+        <v>6380</v>
       </c>
       <c r="J171" t="n">
         <v>149</v>
@@ -14063,7 +14063,7 @@
         <v>4918</v>
       </c>
       <c r="AB171" t="n">
-        <v>37308</v>
+        <v>37310</v>
       </c>
     </row>
     <row r="172">
@@ -14092,7 +14092,7 @@
         <v>1405</v>
       </c>
       <c r="I172" t="n">
-        <v>6421</v>
+        <v>6423</v>
       </c>
       <c r="J172" t="n">
         <v>150</v>
@@ -14149,7 +14149,7 @@
         <v>4974</v>
       </c>
       <c r="AB172" t="n">
-        <v>37583</v>
+        <v>37585</v>
       </c>
     </row>
     <row r="173">
@@ -14180,7 +14180,7 @@
         <v>1408</v>
       </c>
       <c r="I173" t="n">
-        <v>6452</v>
+        <v>6453</v>
       </c>
       <c r="J173" t="n">
         <v>150</v>
@@ -14237,7 +14237,7 @@
         <v>5034</v>
       </c>
       <c r="AB173" t="n">
-        <v>37819</v>
+        <v>37820</v>
       </c>
     </row>
     <row r="174">
@@ -14264,7 +14264,7 @@
         <v>1418</v>
       </c>
       <c r="I174" t="n">
-        <v>6479</v>
+        <v>6480</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
@@ -14305,7 +14305,7 @@
         <v>5095</v>
       </c>
       <c r="AB174" t="n">
-        <v>38026</v>
+        <v>38027</v>
       </c>
     </row>
     <row r="175">
@@ -14332,7 +14332,7 @@
         <v>1425</v>
       </c>
       <c r="I175" t="n">
-        <v>6498</v>
+        <v>6499</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
@@ -14375,7 +14375,7 @@
         <v>5124</v>
       </c>
       <c r="AB175" t="n">
-        <v>38156</v>
+        <v>38157</v>
       </c>
     </row>
     <row r="176">
@@ -14404,7 +14404,7 @@
         <v>1428</v>
       </c>
       <c r="I176" t="n">
-        <v>6540</v>
+        <v>6541</v>
       </c>
       <c r="J176" t="n">
         <v>151</v>
@@ -14461,7 +14461,7 @@
         <v>5168</v>
       </c>
       <c r="AB176" t="n">
-        <v>38381</v>
+        <v>38382</v>
       </c>
     </row>
     <row r="177">
@@ -14492,7 +14492,7 @@
         <v>1434</v>
       </c>
       <c r="I177" t="n">
-        <v>6580</v>
+        <v>6581</v>
       </c>
       <c r="J177" t="n">
         <v>153</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38646</v>
+        <v>38647</v>
       </c>
     </row>
     <row r="178">
@@ -14580,7 +14580,7 @@
         <v>1451</v>
       </c>
       <c r="I178" t="n">
-        <v>6610</v>
+        <v>6611</v>
       </c>
       <c r="J178" t="n">
         <v>154</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38938</v>
+        <v>38939</v>
       </c>
     </row>
     <row r="179">
@@ -14664,7 +14664,7 @@
         <v>1464</v>
       </c>
       <c r="I179" t="n">
-        <v>6647</v>
+        <v>6651</v>
       </c>
       <c r="J179" t="n">
         <v>156</v>
@@ -14719,7 +14719,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39166</v>
+        <v>39170</v>
       </c>
     </row>
     <row r="180">
@@ -14749,7 +14749,9 @@
       <c r="H180" t="n">
         <v>1487</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>6691</v>
+      </c>
       <c r="J180" t="n">
         <v>157</v>
       </c>
@@ -14801,7 +14803,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39361</v>
+        <v>39405</v>
       </c>
     </row>
     <row r="181">
@@ -14827,7 +14829,9 @@
       <c r="H181" t="n">
         <v>1516</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>6706</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>979</v>
@@ -14857,7 +14861,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39490</v>
+        <v>39549</v>
       </c>
     </row>
     <row r="182">
@@ -14883,7 +14887,9 @@
       <c r="H182" t="n">
         <v>1550</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>6728</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>979</v>
@@ -14915,7 +14921,7 @@
         <v>5549</v>
       </c>
       <c r="AB182" t="n">
-        <v>39617</v>
+        <v>39698</v>
       </c>
     </row>
     <row r="183">
@@ -14979,7 +14985,7 @@
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>39696</v>
+        <v>39777</v>
       </c>
     </row>
   </sheetData>
@@ -29064,7 +29070,9 @@
       <c r="H180" t="n">
         <v>85</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>297</v>
+      </c>
       <c r="J180" t="n">
         <v>13</v>
       </c>
@@ -29140,7 +29148,9 @@
       <c r="H181" t="n">
         <v>85</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>297</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>50</v>
@@ -29196,7 +29206,9 @@
       <c r="H182" t="n">
         <v>85</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>297</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>50</v>
@@ -42325,7 +42337,9 @@
       <c r="H180" t="n">
         <v>2</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>16</v>
+      </c>
       <c r="J180" t="n">
         <v>0</v>
       </c>
@@ -42377,7 +42391,7 @@
         <v>25</v>
       </c>
       <c r="AB180" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181">
@@ -42393,11 +42407,15 @@
       <c r="F181" t="n">
         <v>1</v>
       </c>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>7</v>
+      </c>
       <c r="H181" t="n">
         <v>3</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>16</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>1</v>
@@ -42427,7 +42445,7 @@
         <v>23</v>
       </c>
       <c r="AB181" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="182">
@@ -42443,11 +42461,15 @@
       <c r="F182" t="n">
         <v>1</v>
       </c>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>7</v>
+      </c>
       <c r="H182" t="n">
         <v>3</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>16</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>1</v>
@@ -42479,7 +42501,7 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183">
@@ -42499,7 +42521,9 @@
       <c r="F183" t="n">
         <v>1</v>
       </c>
-      <c r="G183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>7</v>
+      </c>
       <c r="H183" t="n">
         <v>3</v>
       </c>
@@ -42537,7 +42561,7 @@
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -54288,7 +54312,9 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
         <v>0</v>
@@ -54344,11 +54370,15 @@
       <c r="F181" t="n">
         <v>1</v>
       </c>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
       <c r="H181" t="n">
         <v>1</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>0</v>
@@ -54374,7 +54404,7 @@
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182">
@@ -54390,11 +54420,15 @@
       <c r="F182" t="n">
         <v>1</v>
       </c>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>0</v>
@@ -54442,7 +54476,9 @@
       <c r="F183" t="n">
         <v>1</v>
       </c>
-      <c r="G183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
       <c r="H183" t="n">
         <v>1</v>
       </c>
@@ -73542,7 +73578,9 @@
       <c r="H180" t="n">
         <v>160</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>968</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
@@ -73574,7 +73612,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>6599</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="181">
@@ -73622,7 +73660,7 @@
       </c>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>6613</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="182">
@@ -73670,7 +73708,7 @@
       </c>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>6625</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="183">
@@ -73720,7 +73758,7 @@
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6642</v>
+        <v>6645</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14836,10 +14836,14 @@
       <c r="K181" t="n">
         <v>979</v>
       </c>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>264</v>
+      </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
+      <c r="O181" t="n">
+        <v>131</v>
+      </c>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
@@ -14894,10 +14898,14 @@
       <c r="K182" t="n">
         <v>979</v>
       </c>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>265</v>
+      </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
+      <c r="O182" t="n">
+        <v>131</v>
+      </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
         <v>1217</v>
@@ -14921,7 +14929,7 @@
         <v>5549</v>
       </c>
       <c r="AB182" t="n">
-        <v>39698</v>
+        <v>39699</v>
       </c>
     </row>
     <row r="183">
@@ -14954,13 +14962,19 @@
         <v>161</v>
       </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>266</v>
+      </c>
       <c r="M183" t="n">
         <v>1013</v>
       </c>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
+      <c r="O183" t="n">
+        <v>131</v>
+      </c>
+      <c r="P183" t="n">
+        <v>101</v>
+      </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
         <v>161</v>
@@ -14977,7 +14991,9 @@
       <c r="V183" t="n">
         <v>3512</v>
       </c>
-      <c r="W183" t="inlineStr"/>
+      <c r="W183" t="n">
+        <v>132</v>
+      </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="n">
@@ -14985,7 +15001,7 @@
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>39777</v>
+        <v>39782</v>
       </c>
     </row>
   </sheetData>
@@ -29155,10 +29171,14 @@
       <c r="K181" t="n">
         <v>50</v>
       </c>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>7</v>
+      </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
+      <c r="O181" t="n">
+        <v>3</v>
+      </c>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
@@ -29213,10 +29233,14 @@
       <c r="K182" t="n">
         <v>50</v>
       </c>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>7</v>
+      </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
+      <c r="O182" t="n">
+        <v>3</v>
+      </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
         <v>41</v>
@@ -29273,13 +29297,19 @@
         <v>13</v>
       </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>7</v>
+      </c>
       <c r="M183" t="n">
         <v>21</v>
       </c>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
+      <c r="O183" t="n">
+        <v>3</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
         <v>8</v>
@@ -29296,7 +29326,9 @@
       <c r="V183" t="n">
         <v>350</v>
       </c>
-      <c r="W183" t="inlineStr"/>
+      <c r="W183" t="n">
+        <v>7</v>
+      </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="n">
@@ -42420,12 +42452,16 @@
       <c r="K181" t="n">
         <v>1</v>
       </c>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
         <v>0</v>
       </c>
-      <c r="O181" t="inlineStr"/>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
@@ -42474,12 +42510,16 @@
       <c r="K182" t="n">
         <v>1</v>
       </c>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
         <v>0</v>
       </c>
-      <c r="O182" t="inlineStr"/>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
         <v>9</v>
@@ -42501,7 +42541,7 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="183">
@@ -42532,13 +42572,19 @@
         <v>0</v>
       </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
       <c r="M183" t="n">
         <v>8</v>
       </c>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>1</v>
+      </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
         <v>2</v>
@@ -42553,7 +42599,9 @@
       <c r="V183" t="n">
         <v>1</v>
       </c>
-      <c r="W183" t="inlineStr"/>
+      <c r="W183" t="n">
+        <v>0</v>
+      </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="n">
@@ -42561,7 +42609,7 @@
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -54383,12 +54431,16 @@
       <c r="K181" t="n">
         <v>0</v>
       </c>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="n">
         <v>0</v>
       </c>
-      <c r="O181" t="inlineStr"/>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
@@ -54433,12 +54485,16 @@
       <c r="K182" t="n">
         <v>0</v>
       </c>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
         <v>0</v>
       </c>
-      <c r="O182" t="inlineStr"/>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
         <v>1</v>
@@ -54485,12 +54541,16 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
       <c r="M183" t="n">
         <v>3</v>
       </c>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
@@ -73750,7 +73810,9 @@
       <c r="V183" t="n">
         <v>926</v>
       </c>
-      <c r="W183" t="inlineStr"/>
+      <c r="W183" t="n">
+        <v>115</v>
+      </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="n">

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14710,7 +14710,7 @@
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="n">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="Z179" t="n">
         <v>321</v>
@@ -14719,7 +14719,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39170</v>
+        <v>39173</v>
       </c>
     </row>
     <row r="180">
@@ -14794,7 +14794,7 @@
       </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="n">
-        <v>2269</v>
+        <v>2289</v>
       </c>
       <c r="Z180" t="n">
         <v>323</v>
@@ -14803,7 +14803,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39405</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="181">
@@ -14857,7 +14857,9 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
+      <c r="Y181" t="n">
+        <v>2299</v>
+      </c>
       <c r="Z181" t="n">
         <v>323</v>
       </c>
@@ -14865,7 +14867,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39549</v>
+        <v>39579</v>
       </c>
     </row>
     <row r="182">
@@ -14921,7 +14923,9 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
+      <c r="Y182" t="n">
+        <v>2301</v>
+      </c>
       <c r="Z182" t="n">
         <v>323</v>
       </c>
@@ -14929,7 +14933,7 @@
         <v>5549</v>
       </c>
       <c r="AB182" t="n">
-        <v>39699</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="183">
@@ -14995,13 +14999,15 @@
         <v>132</v>
       </c>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
+      <c r="Y183" t="n">
+        <v>2301</v>
+      </c>
       <c r="Z183" t="n">
         <v>334</v>
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>39782</v>
+        <v>39814</v>
       </c>
     </row>
   </sheetData>
@@ -29192,7 +29198,9 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
+      <c r="Y181" t="n">
+        <v>154</v>
+      </c>
       <c r="Z181" t="n">
         <v>9</v>
       </c>
@@ -29256,7 +29264,9 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
+      <c r="Y182" t="n">
+        <v>154</v>
+      </c>
       <c r="Z182" t="n">
         <v>9</v>
       </c>
@@ -29330,7 +29340,9 @@
         <v>7</v>
       </c>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
+      <c r="Y183" t="n">
+        <v>154</v>
+      </c>
       <c r="Z183" t="n">
         <v>9</v>
       </c>
@@ -40618,7 +40630,7 @@
         <v>10</v>
       </c>
       <c r="Y156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z156" t="n">
         <v>0</v>
@@ -40627,7 +40639,7 @@
         <v>25</v>
       </c>
       <c r="AB156" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157">
@@ -40698,7 +40710,7 @@
         <v>14</v>
       </c>
       <c r="Y157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z157" t="n">
         <v>0</v>
@@ -40707,7 +40719,7 @@
         <v>27</v>
       </c>
       <c r="AB157" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="158">
@@ -40776,7 +40788,7 @@
         <v>12</v>
       </c>
       <c r="Y158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z158" t="n">
         <v>0</v>
@@ -40785,7 +40797,7 @@
         <v>27</v>
       </c>
       <c r="AB158" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159">
@@ -40856,7 +40868,7 @@
         <v>11</v>
       </c>
       <c r="Y159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z159" t="n">
         <v>2</v>
@@ -40865,7 +40877,7 @@
         <v>34</v>
       </c>
       <c r="AB159" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160">
@@ -40918,7 +40930,7 @@
         <v>13</v>
       </c>
       <c r="Y160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z160" t="n">
         <v>2</v>
@@ -40927,7 +40939,7 @@
         <v>36</v>
       </c>
       <c r="AB160" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161">
@@ -40978,7 +40990,7 @@
         <v>16</v>
       </c>
       <c r="Y161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z161" t="n">
         <v>2</v>
@@ -40987,7 +40999,7 @@
         <v>36</v>
       </c>
       <c r="AB161" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162">
@@ -41058,7 +41070,7 @@
         <v>16</v>
       </c>
       <c r="Y162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z162" t="n">
         <v>2</v>
@@ -41067,7 +41079,7 @@
         <v>36</v>
       </c>
       <c r="AB162" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
@@ -41136,7 +41148,7 @@
         <v>14</v>
       </c>
       <c r="Y163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z163" t="n">
         <v>2</v>
@@ -41145,7 +41157,7 @@
         <v>35</v>
       </c>
       <c r="AB163" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164">
@@ -41216,7 +41228,7 @@
         <v>14</v>
       </c>
       <c r="Y164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z164" t="n">
         <v>2</v>
@@ -41225,7 +41237,7 @@
         <v>29</v>
       </c>
       <c r="AB164" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165">
@@ -41294,7 +41306,7 @@
         <v>10</v>
       </c>
       <c r="Y165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z165" t="n">
         <v>1</v>
@@ -41303,7 +41315,7 @@
         <v>25</v>
       </c>
       <c r="AB165" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166">
@@ -41374,7 +41386,7 @@
         <v>10</v>
       </c>
       <c r="Y166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z166" t="n">
         <v>0</v>
@@ -41383,7 +41395,7 @@
         <v>25</v>
       </c>
       <c r="AB166" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="167">
@@ -41436,7 +41448,7 @@
         <v>11</v>
       </c>
       <c r="Y167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z167" t="n">
         <v>0</v>
@@ -41445,7 +41457,7 @@
         <v>26</v>
       </c>
       <c r="AB167" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168">
@@ -41496,7 +41508,7 @@
         <v>11</v>
       </c>
       <c r="Y168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z168" t="n">
         <v>0</v>
@@ -41505,7 +41517,7 @@
         <v>28</v>
       </c>
       <c r="AB168" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169">
@@ -41576,7 +41588,7 @@
         <v>11</v>
       </c>
       <c r="Y169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z169" t="n">
         <v>2</v>
@@ -41585,7 +41597,7 @@
         <v>27</v>
       </c>
       <c r="AB169" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="170">
@@ -41654,7 +41666,7 @@
         <v>11</v>
       </c>
       <c r="Y170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z170" t="n">
         <v>0</v>
@@ -41663,7 +41675,7 @@
         <v>27</v>
       </c>
       <c r="AB170" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="171">
@@ -41734,7 +41746,7 @@
         <v>11</v>
       </c>
       <c r="Y171" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z171" t="n">
         <v>1</v>
@@ -41743,7 +41755,7 @@
         <v>27</v>
       </c>
       <c r="AB171" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="172">
@@ -41814,7 +41826,7 @@
         <v>11</v>
       </c>
       <c r="Y172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z172" t="n">
         <v>0</v>
@@ -41823,7 +41835,7 @@
         <v>27</v>
       </c>
       <c r="AB172" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="173">
@@ -42334,7 +42346,7 @@
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z179" t="n">
         <v>0</v>
@@ -42343,7 +42355,7 @@
         <v>30</v>
       </c>
       <c r="AB179" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="180">
@@ -42414,7 +42426,7 @@
       </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z180" t="n">
         <v>0</v>
@@ -42423,7 +42435,7 @@
         <v>25</v>
       </c>
       <c r="AB180" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="181">
@@ -42473,7 +42485,9 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
+      <c r="Y181" t="n">
+        <v>9</v>
+      </c>
       <c r="Z181" t="n">
         <v>0</v>
       </c>
@@ -42481,7 +42495,7 @@
         <v>23</v>
       </c>
       <c r="AB181" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="182">
@@ -42533,7 +42547,9 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
+      <c r="Y182" t="n">
+        <v>9</v>
+      </c>
       <c r="Z182" t="n">
         <v>0</v>
       </c>
@@ -42541,7 +42557,7 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183">
@@ -42603,13 +42619,15 @@
         <v>0</v>
       </c>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
+      <c r="Y183" t="n">
+        <v>9</v>
+      </c>
       <c r="Z183" t="n">
         <v>3</v>
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -54452,7 +54470,9 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
+      <c r="Y181" t="n">
+        <v>1</v>
+      </c>
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
@@ -54508,7 +54528,9 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
+      <c r="Y182" t="n">
+        <v>1</v>
+      </c>
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
@@ -54566,7 +54588,9 @@
       </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
+      <c r="Y183" t="n">
+        <v>1</v>
+      </c>
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
@@ -63809,7 +63833,9 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
+      <c r="Y181" t="n">
+        <v>1</v>
+      </c>
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="n">
         <v>7</v>
@@ -63855,7 +63881,9 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
+      <c r="Y182" t="n">
+        <v>1</v>
+      </c>
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="n">
         <v>6</v>
@@ -63899,7 +63927,9 @@
       </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
+      <c r="Y183" t="n">
+        <v>1</v>
+      </c>
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
@@ -73714,7 +73744,9 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
+      <c r="Y181" t="n">
+        <v>315</v>
+      </c>
       <c r="Z181" t="n">
         <v>287</v>
       </c>
@@ -73762,7 +73794,9 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
+      <c r="Y182" t="n">
+        <v>315</v>
+      </c>
       <c r="Z182" t="n">
         <v>287</v>
       </c>
@@ -73814,7 +73848,9 @@
         <v>115</v>
       </c>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
+      <c r="Y183" t="n">
+        <v>315</v>
+      </c>
       <c r="Z183" t="n">
         <v>287</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -1640,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="I20" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J20" t="n">
         <v>8</v>
@@ -1685,7 +1685,7 @@
         <v>218</v>
       </c>
       <c r="AB20" t="n">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="21">
@@ -1706,7 +1706,7 @@
         <v>40</v>
       </c>
       <c r="I21" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J21" t="n">
         <v>10</v>
@@ -1753,7 +1753,7 @@
         <v>250</v>
       </c>
       <c r="AB21" t="n">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="22">
@@ -1782,7 +1782,7 @@
         <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J22" t="n">
         <v>10</v>
@@ -1827,7 +1827,7 @@
         <v>326</v>
       </c>
       <c r="AB22" t="n">
-        <v>2958</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="23">
@@ -1854,7 +1854,7 @@
         <v>59</v>
       </c>
       <c r="I23" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J23" t="n">
         <v>12</v>
@@ -1901,7 +1901,7 @@
         <v>429</v>
       </c>
       <c r="AB23" t="n">
-        <v>3726</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="24">
@@ -1930,7 +1930,7 @@
         <v>86</v>
       </c>
       <c r="I24" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J24" t="n">
         <v>14</v>
@@ -1981,7 +1981,7 @@
         <v>568</v>
       </c>
       <c r="AB24" t="n">
-        <v>4805</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="25">
@@ -2010,7 +2010,7 @@
         <v>111</v>
       </c>
       <c r="I25" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="J25" t="n">
         <v>16</v>
@@ -2059,7 +2059,7 @@
         <v>679</v>
       </c>
       <c r="AB25" t="n">
-        <v>5792</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="26">
@@ -2086,7 +2086,7 @@
         <v>145</v>
       </c>
       <c r="I26" t="n">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="J26" t="n">
         <v>20</v>
@@ -2139,7 +2139,7 @@
         <v>711</v>
       </c>
       <c r="AB26" t="n">
-        <v>7019</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="27">
@@ -2164,7 +2164,7 @@
         <v>167</v>
       </c>
       <c r="I27" t="n">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="J27" t="n">
         <v>25</v>
@@ -2213,7 +2213,7 @@
         <v>919</v>
       </c>
       <c r="AB27" t="n">
-        <v>7909</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="28">
@@ -2238,7 +2238,7 @@
         <v>202</v>
       </c>
       <c r="I28" t="n">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="J28" t="n">
         <v>29</v>
@@ -2285,7 +2285,7 @@
         <v>978</v>
       </c>
       <c r="AB28" t="n">
-        <v>8503</v>
+        <v>8504</v>
       </c>
     </row>
     <row r="29">
@@ -2314,7 +2314,7 @@
         <v>226</v>
       </c>
       <c r="I29" t="n">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="J29" t="n">
         <v>31</v>
@@ -2369,7 +2369,7 @@
         <v>1067</v>
       </c>
       <c r="AB29" t="n">
-        <v>9742</v>
+        <v>9744</v>
       </c>
     </row>
     <row r="30">
@@ -2400,7 +2400,7 @@
         <v>255</v>
       </c>
       <c r="I30" t="n">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="J30" t="n">
         <v>33</v>
@@ -2457,7 +2457,7 @@
         <v>1213</v>
       </c>
       <c r="AB30" t="n">
-        <v>10845</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="31">
@@ -2488,7 +2488,7 @@
         <v>293</v>
       </c>
       <c r="I31" t="n">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="J31" t="n">
         <v>40</v>
@@ -2541,7 +2541,7 @@
         <v>1358</v>
       </c>
       <c r="AB31" t="n">
-        <v>11985</v>
+        <v>11988</v>
       </c>
     </row>
     <row r="32">
@@ -2572,7 +2572,7 @@
         <v>309</v>
       </c>
       <c r="I32" t="n">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="J32" t="n">
         <v>43</v>
@@ -2629,7 +2629,7 @@
         <v>1490</v>
       </c>
       <c r="AB32" t="n">
-        <v>13076</v>
+        <v>13079</v>
       </c>
     </row>
     <row r="33">
@@ -2660,7 +2660,7 @@
         <v>369</v>
       </c>
       <c r="I33" t="n">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="J33" t="n">
         <v>47</v>
@@ -2717,7 +2717,7 @@
         <v>1617</v>
       </c>
       <c r="AB33" t="n">
-        <v>14379</v>
+        <v>14382</v>
       </c>
     </row>
     <row r="34">
@@ -2746,7 +2746,7 @@
         <v>421</v>
       </c>
       <c r="I34" t="n">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="J34" t="n">
         <v>47</v>
@@ -2801,7 +2801,7 @@
         <v>1691</v>
       </c>
       <c r="AB34" t="n">
-        <v>15220</v>
+        <v>15223</v>
       </c>
     </row>
     <row r="35">
@@ -2828,7 +2828,7 @@
         <v>442</v>
       </c>
       <c r="I35" t="n">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="J35" t="n">
         <v>50</v>
@@ -2883,7 +2883,7 @@
         <v>1723</v>
       </c>
       <c r="AB35" t="n">
-        <v>15822</v>
+        <v>15825</v>
       </c>
     </row>
     <row r="36">
@@ -2914,7 +2914,7 @@
         <v>477</v>
       </c>
       <c r="I36" t="n">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="J36" t="n">
         <v>51</v>
@@ -2969,7 +2969,7 @@
         <v>1849</v>
       </c>
       <c r="AB36" t="n">
-        <v>16942</v>
+        <v>16945</v>
       </c>
     </row>
     <row r="37">
@@ -3000,7 +3000,7 @@
         <v>491</v>
       </c>
       <c r="I37" t="n">
-        <v>2998</v>
+        <v>3001</v>
       </c>
       <c r="J37" t="n">
         <v>53</v>
@@ -3057,7 +3057,7 @@
         <v>1937</v>
       </c>
       <c r="AB37" t="n">
-        <v>17867</v>
+        <v>17870</v>
       </c>
     </row>
     <row r="38">
@@ -3086,7 +3086,7 @@
         <v>525</v>
       </c>
       <c r="I38" t="n">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="J38" t="n">
         <v>56</v>
@@ -3143,7 +3143,7 @@
         <v>2126</v>
       </c>
       <c r="AB38" t="n">
-        <v>18930</v>
+        <v>18934</v>
       </c>
     </row>
     <row r="39">
@@ -3174,7 +3174,7 @@
         <v>550</v>
       </c>
       <c r="I39" t="n">
-        <v>3461</v>
+        <v>3467</v>
       </c>
       <c r="J39" t="n">
         <v>58</v>
@@ -3231,7 +3231,7 @@
         <v>2290</v>
       </c>
       <c r="AB39" t="n">
-        <v>20022</v>
+        <v>20028</v>
       </c>
     </row>
     <row r="40">
@@ -3262,7 +3262,7 @@
         <v>588</v>
       </c>
       <c r="I40" t="n">
-        <v>3669</v>
+        <v>3675</v>
       </c>
       <c r="J40" t="n">
         <v>59</v>
@@ -3319,7 +3319,7 @@
         <v>2418</v>
       </c>
       <c r="AB40" t="n">
-        <v>20998</v>
+        <v>21004</v>
       </c>
     </row>
     <row r="41">
@@ -3348,7 +3348,7 @@
         <v>638</v>
       </c>
       <c r="I41" t="n">
-        <v>3807</v>
+        <v>3813</v>
       </c>
       <c r="J41" t="n">
         <v>61</v>
@@ -3403,7 +3403,7 @@
         <v>2451</v>
       </c>
       <c r="AB41" t="n">
-        <v>21574</v>
+        <v>21580</v>
       </c>
     </row>
     <row r="42">
@@ -3430,7 +3430,7 @@
         <v>669</v>
       </c>
       <c r="I42" t="n">
-        <v>3894</v>
+        <v>3900</v>
       </c>
       <c r="J42" t="n">
         <v>63</v>
@@ -3485,7 +3485,7 @@
         <v>2481</v>
       </c>
       <c r="AB42" t="n">
-        <v>21978</v>
+        <v>21984</v>
       </c>
     </row>
     <row r="43">
@@ -3516,7 +3516,7 @@
         <v>689</v>
       </c>
       <c r="I43" t="n">
-        <v>4014</v>
+        <v>4020</v>
       </c>
       <c r="J43" t="n">
         <v>63</v>
@@ -3573,7 +3573,7 @@
         <v>2595</v>
       </c>
       <c r="AB43" t="n">
-        <v>22722</v>
+        <v>22728</v>
       </c>
     </row>
     <row r="44">
@@ -3604,7 +3604,7 @@
         <v>729</v>
       </c>
       <c r="I44" t="n">
-        <v>4187</v>
+        <v>4194</v>
       </c>
       <c r="J44" t="n">
         <v>63</v>
@@ -3661,7 +3661,7 @@
         <v>2678</v>
       </c>
       <c r="AB44" t="n">
-        <v>23388</v>
+        <v>23395</v>
       </c>
     </row>
     <row r="45">
@@ -3692,7 +3692,7 @@
         <v>756</v>
       </c>
       <c r="I45" t="n">
-        <v>4330</v>
+        <v>4339</v>
       </c>
       <c r="J45" t="n">
         <v>64</v>
@@ -3749,7 +3749,7 @@
         <v>2772</v>
       </c>
       <c r="AB45" t="n">
-        <v>24069</v>
+        <v>24078</v>
       </c>
     </row>
     <row r="46">
@@ -3780,7 +3780,7 @@
         <v>786</v>
       </c>
       <c r="I46" t="n">
-        <v>4423</v>
+        <v>4432</v>
       </c>
       <c r="J46" t="n">
         <v>67</v>
@@ -3837,7 +3837,7 @@
         <v>2869</v>
       </c>
       <c r="AB46" t="n">
-        <v>24738</v>
+        <v>24747</v>
       </c>
     </row>
     <row r="47">
@@ -3866,7 +3866,7 @@
         <v>796</v>
       </c>
       <c r="I47" t="n">
-        <v>4470</v>
+        <v>4479</v>
       </c>
       <c r="J47" t="n">
         <v>76</v>
@@ -3921,7 +3921,7 @@
         <v>2909</v>
       </c>
       <c r="AB47" t="n">
-        <v>25190</v>
+        <v>25199</v>
       </c>
     </row>
     <row r="48">
@@ -3952,7 +3952,7 @@
         <v>834</v>
       </c>
       <c r="I48" t="n">
-        <v>4528</v>
+        <v>4537</v>
       </c>
       <c r="J48" t="n">
         <v>91</v>
@@ -4007,7 +4007,7 @@
         <v>2967</v>
       </c>
       <c r="AB48" t="n">
-        <v>25662</v>
+        <v>25671</v>
       </c>
     </row>
     <row r="49">
@@ -4034,7 +4034,7 @@
         <v>846</v>
       </c>
       <c r="I49" t="n">
-        <v>4558</v>
+        <v>4567</v>
       </c>
       <c r="J49" t="n">
         <v>91</v>
@@ -4089,7 +4089,7 @@
         <v>2984</v>
       </c>
       <c r="AB49" t="n">
-        <v>25942</v>
+        <v>25951</v>
       </c>
     </row>
     <row r="50">
@@ -4120,7 +4120,7 @@
         <v>859</v>
       </c>
       <c r="I50" t="n">
-        <v>4606</v>
+        <v>4616</v>
       </c>
       <c r="J50" t="n">
         <v>92</v>
@@ -4175,7 +4175,7 @@
         <v>3001</v>
       </c>
       <c r="AB50" t="n">
-        <v>26190</v>
+        <v>26200</v>
       </c>
     </row>
     <row r="51">
@@ -4206,7 +4206,7 @@
         <v>879</v>
       </c>
       <c r="I51" t="n">
-        <v>4669</v>
+        <v>4680</v>
       </c>
       <c r="J51" t="n">
         <v>105</v>
@@ -4263,7 +4263,7 @@
         <v>3048</v>
       </c>
       <c r="AB51" t="n">
-        <v>26522</v>
+        <v>26533</v>
       </c>
     </row>
     <row r="52">
@@ -4294,7 +4294,7 @@
         <v>890</v>
       </c>
       <c r="I52" t="n">
-        <v>4738</v>
+        <v>4752</v>
       </c>
       <c r="J52" t="n">
         <v>105</v>
@@ -4351,7 +4351,7 @@
         <v>3095</v>
       </c>
       <c r="AB52" t="n">
-        <v>26845</v>
+        <v>26859</v>
       </c>
     </row>
     <row r="53">
@@ -4382,7 +4382,7 @@
         <v>907</v>
       </c>
       <c r="I53" t="n">
-        <v>4811</v>
+        <v>4826</v>
       </c>
       <c r="J53" t="n">
         <v>106</v>
@@ -4439,7 +4439,7 @@
         <v>3130</v>
       </c>
       <c r="AB53" t="n">
-        <v>27152</v>
+        <v>27167</v>
       </c>
     </row>
     <row r="54">
@@ -4470,7 +4470,7 @@
         <v>930</v>
       </c>
       <c r="I54" t="n">
-        <v>4858</v>
+        <v>4873</v>
       </c>
       <c r="J54" t="n">
         <v>108</v>
@@ -4527,7 +4527,7 @@
         <v>3153</v>
       </c>
       <c r="AB54" t="n">
-        <v>27462</v>
+        <v>27477</v>
       </c>
     </row>
     <row r="55">
@@ -4554,7 +4554,7 @@
         <v>956</v>
       </c>
       <c r="I55" t="n">
-        <v>4910</v>
+        <v>4926</v>
       </c>
       <c r="J55" t="n">
         <v>111</v>
@@ -4609,7 +4609,7 @@
         <v>3192</v>
       </c>
       <c r="AB55" t="n">
-        <v>27743</v>
+        <v>27759</v>
       </c>
     </row>
     <row r="56">
@@ -4638,7 +4638,7 @@
         <v>980</v>
       </c>
       <c r="I56" t="n">
-        <v>4921</v>
+        <v>4937</v>
       </c>
       <c r="J56" t="n">
         <v>111</v>
@@ -4693,7 +4693,7 @@
         <v>3219</v>
       </c>
       <c r="AB56" t="n">
-        <v>27920</v>
+        <v>27936</v>
       </c>
     </row>
     <row r="57">
@@ -4724,7 +4724,7 @@
         <v>989</v>
       </c>
       <c r="I57" t="n">
-        <v>4953</v>
+        <v>4969</v>
       </c>
       <c r="J57" t="n">
         <v>114</v>
@@ -4781,7 +4781,7 @@
         <v>3235</v>
       </c>
       <c r="AB57" t="n">
-        <v>28126</v>
+        <v>28142</v>
       </c>
     </row>
     <row r="58">
@@ -4812,7 +4812,7 @@
         <v>995</v>
       </c>
       <c r="I58" t="n">
-        <v>4993</v>
+        <v>5009</v>
       </c>
       <c r="J58" t="n">
         <v>115</v>
@@ -4869,7 +4869,7 @@
         <v>3260</v>
       </c>
       <c r="AB58" t="n">
-        <v>28297</v>
+        <v>28313</v>
       </c>
     </row>
     <row r="59">
@@ -4900,7 +4900,7 @@
         <v>1006</v>
       </c>
       <c r="I59" t="n">
-        <v>5026</v>
+        <v>5042</v>
       </c>
       <c r="J59" t="n">
         <v>117</v>
@@ -4957,7 +4957,7 @@
         <v>3300</v>
       </c>
       <c r="AB59" t="n">
-        <v>28506</v>
+        <v>28522</v>
       </c>
     </row>
     <row r="60">
@@ -4988,7 +4988,7 @@
         <v>1014</v>
       </c>
       <c r="I60" t="n">
-        <v>5064</v>
+        <v>5080</v>
       </c>
       <c r="J60" t="n">
         <v>117</v>
@@ -5045,7 +5045,7 @@
         <v>3317</v>
       </c>
       <c r="AB60" t="n">
-        <v>28729</v>
+        <v>28745</v>
       </c>
     </row>
     <row r="61">
@@ -5076,7 +5076,7 @@
         <v>1021</v>
       </c>
       <c r="I61" t="n">
-        <v>5085</v>
+        <v>5101</v>
       </c>
       <c r="J61" t="n">
         <v>117</v>
@@ -5133,7 +5133,7 @@
         <v>3345</v>
       </c>
       <c r="AB61" t="n">
-        <v>28918</v>
+        <v>28934</v>
       </c>
     </row>
     <row r="62">
@@ -5160,7 +5160,7 @@
         <v>1029</v>
       </c>
       <c r="I62" t="n">
-        <v>5104</v>
+        <v>5121</v>
       </c>
       <c r="J62" t="n">
         <v>120</v>
@@ -5215,7 +5215,7 @@
         <v>3376</v>
       </c>
       <c r="AB62" t="n">
-        <v>29063</v>
+        <v>29080</v>
       </c>
     </row>
     <row r="63">
@@ -5240,7 +5240,7 @@
         <v>1033</v>
       </c>
       <c r="I63" t="n">
-        <v>5109</v>
+        <v>5126</v>
       </c>
       <c r="J63" t="n">
         <v>120</v>
@@ -5295,7 +5295,7 @@
         <v>3379</v>
       </c>
       <c r="AB63" t="n">
-        <v>29139</v>
+        <v>29156</v>
       </c>
     </row>
     <row r="64">
@@ -5326,7 +5326,7 @@
         <v>1040</v>
       </c>
       <c r="I64" t="n">
-        <v>5128</v>
+        <v>5146</v>
       </c>
       <c r="J64" t="n">
         <v>121</v>
@@ -5383,7 +5383,7 @@
         <v>3397</v>
       </c>
       <c r="AB64" t="n">
-        <v>29310</v>
+        <v>29328</v>
       </c>
     </row>
     <row r="65">
@@ -5414,7 +5414,7 @@
         <v>1044</v>
       </c>
       <c r="I65" t="n">
-        <v>5148</v>
+        <v>5166</v>
       </c>
       <c r="J65" t="n">
         <v>121</v>
@@ -5471,7 +5471,7 @@
         <v>3412</v>
       </c>
       <c r="AB65" t="n">
-        <v>29438</v>
+        <v>29456</v>
       </c>
     </row>
     <row r="66">
@@ -5502,7 +5502,7 @@
         <v>1057</v>
       </c>
       <c r="I66" t="n">
-        <v>5166</v>
+        <v>5184</v>
       </c>
       <c r="J66" t="n">
         <v>122</v>
@@ -5559,7 +5559,7 @@
         <v>3441</v>
       </c>
       <c r="AB66" t="n">
-        <v>29580</v>
+        <v>29598</v>
       </c>
     </row>
     <row r="67">
@@ -5590,7 +5590,7 @@
         <v>1070</v>
       </c>
       <c r="I67" t="n">
-        <v>5177</v>
+        <v>5195</v>
       </c>
       <c r="J67" t="n">
         <v>122</v>
@@ -5647,7 +5647,7 @@
         <v>3452</v>
       </c>
       <c r="AB67" t="n">
-        <v>29727</v>
+        <v>29745</v>
       </c>
     </row>
     <row r="68">
@@ -5678,7 +5678,7 @@
         <v>1078</v>
       </c>
       <c r="I68" t="n">
-        <v>5196</v>
+        <v>5214</v>
       </c>
       <c r="J68" t="n">
         <v>122</v>
@@ -5735,7 +5735,7 @@
         <v>3465</v>
       </c>
       <c r="AB68" t="n">
-        <v>29853</v>
+        <v>29871</v>
       </c>
     </row>
     <row r="69">
@@ -5764,7 +5764,7 @@
         <v>1092</v>
       </c>
       <c r="I69" t="n">
-        <v>5201</v>
+        <v>5219</v>
       </c>
       <c r="J69" t="n">
         <v>122</v>
@@ -5817,7 +5817,7 @@
         <v>3468</v>
       </c>
       <c r="AB69" t="n">
-        <v>29921</v>
+        <v>29939</v>
       </c>
     </row>
     <row r="70">
@@ -5846,7 +5846,7 @@
         <v>1097</v>
       </c>
       <c r="I70" t="n">
-        <v>5207</v>
+        <v>5225</v>
       </c>
       <c r="J70" t="n">
         <v>122</v>
@@ -5899,7 +5899,7 @@
         <v>3472</v>
       </c>
       <c r="AB70" t="n">
-        <v>29981</v>
+        <v>29999</v>
       </c>
     </row>
     <row r="71">
@@ -5930,7 +5930,7 @@
         <v>1102</v>
       </c>
       <c r="I71" t="n">
-        <v>5213</v>
+        <v>5231</v>
       </c>
       <c r="J71" t="n">
         <v>122</v>
@@ -5987,7 +5987,7 @@
         <v>3474</v>
       </c>
       <c r="AB71" t="n">
-        <v>30043</v>
+        <v>30061</v>
       </c>
     </row>
     <row r="72">
@@ -6018,7 +6018,7 @@
         <v>1104</v>
       </c>
       <c r="I72" t="n">
-        <v>5222</v>
+        <v>5240</v>
       </c>
       <c r="J72" t="n">
         <v>122</v>
@@ -6075,7 +6075,7 @@
         <v>3490</v>
       </c>
       <c r="AB72" t="n">
-        <v>30106</v>
+        <v>30124</v>
       </c>
     </row>
     <row r="73">
@@ -6106,7 +6106,7 @@
         <v>1107</v>
       </c>
       <c r="I73" t="n">
-        <v>5229</v>
+        <v>5247</v>
       </c>
       <c r="J73" t="n">
         <v>125</v>
@@ -6163,7 +6163,7 @@
         <v>3505</v>
       </c>
       <c r="AB73" t="n">
-        <v>30189</v>
+        <v>30207</v>
       </c>
     </row>
     <row r="74">
@@ -6192,7 +6192,7 @@
         <v>1115</v>
       </c>
       <c r="I74" t="n">
-        <v>5236</v>
+        <v>5254</v>
       </c>
       <c r="J74" t="n">
         <v>125</v>
@@ -6249,7 +6249,7 @@
         <v>3515</v>
       </c>
       <c r="AB74" t="n">
-        <v>30258</v>
+        <v>30276</v>
       </c>
     </row>
     <row r="75">
@@ -6278,7 +6278,7 @@
         <v>1117</v>
       </c>
       <c r="I75" t="n">
-        <v>5242</v>
+        <v>5260</v>
       </c>
       <c r="J75" t="n">
         <v>125</v>
@@ -6335,7 +6335,7 @@
         <v>3525</v>
       </c>
       <c r="AB75" t="n">
-        <v>30324</v>
+        <v>30342</v>
       </c>
     </row>
     <row r="76">
@@ -6364,7 +6364,7 @@
         <v>1121</v>
       </c>
       <c r="I76" t="n">
-        <v>5251</v>
+        <v>5269</v>
       </c>
       <c r="J76" t="n">
         <v>126</v>
@@ -6415,7 +6415,7 @@
         <v>3530</v>
       </c>
       <c r="AB76" t="n">
-        <v>30368</v>
+        <v>30386</v>
       </c>
     </row>
     <row r="77">
@@ -6442,7 +6442,7 @@
         <v>1126</v>
       </c>
       <c r="I77" t="n">
-        <v>5252</v>
+        <v>5270</v>
       </c>
       <c r="J77" t="n">
         <v>126</v>
@@ -6491,7 +6491,7 @@
         <v>3533</v>
       </c>
       <c r="AB77" t="n">
-        <v>30400</v>
+        <v>30418</v>
       </c>
     </row>
     <row r="78">
@@ -6522,7 +6522,7 @@
         <v>1129</v>
       </c>
       <c r="I78" t="n">
-        <v>5257</v>
+        <v>5275</v>
       </c>
       <c r="J78" t="n">
         <v>127</v>
@@ -6579,7 +6579,7 @@
         <v>3538</v>
       </c>
       <c r="AB78" t="n">
-        <v>30464</v>
+        <v>30482</v>
       </c>
     </row>
     <row r="79">
@@ -6610,7 +6610,7 @@
         <v>1138</v>
       </c>
       <c r="I79" t="n">
-        <v>5267</v>
+        <v>5285</v>
       </c>
       <c r="J79" t="n">
         <v>127</v>
@@ -6667,7 +6667,7 @@
         <v>3540</v>
       </c>
       <c r="AB79" t="n">
-        <v>30512</v>
+        <v>30530</v>
       </c>
     </row>
     <row r="80">
@@ -6694,7 +6694,7 @@
         <v>1141</v>
       </c>
       <c r="I80" t="n">
-        <v>5271</v>
+        <v>5289</v>
       </c>
       <c r="J80" t="n">
         <v>127</v>
@@ -6751,7 +6751,7 @@
         <v>3546</v>
       </c>
       <c r="AB80" t="n">
-        <v>30553</v>
+        <v>30571</v>
       </c>
     </row>
     <row r="81">
@@ -6780,7 +6780,7 @@
         <v>1143</v>
       </c>
       <c r="I81" t="n">
-        <v>5278</v>
+        <v>5296</v>
       </c>
       <c r="J81" t="n">
         <v>128</v>
@@ -6837,7 +6837,7 @@
         <v>3551</v>
       </c>
       <c r="AB81" t="n">
-        <v>30594</v>
+        <v>30612</v>
       </c>
     </row>
     <row r="82">
@@ -6866,7 +6866,7 @@
         <v>1145</v>
       </c>
       <c r="I82" t="n">
-        <v>5283</v>
+        <v>5301</v>
       </c>
       <c r="J82" t="n">
         <v>128</v>
@@ -6921,7 +6921,7 @@
         <v>3553</v>
       </c>
       <c r="AB82" t="n">
-        <v>30639</v>
+        <v>30657</v>
       </c>
     </row>
     <row r="83">
@@ -6948,7 +6948,7 @@
         <v>1146</v>
       </c>
       <c r="I83" t="n">
-        <v>5285</v>
+        <v>5303</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -6997,7 +6997,7 @@
         <v>3558</v>
       </c>
       <c r="AB83" t="n">
-        <v>30669</v>
+        <v>30687</v>
       </c>
     </row>
     <row r="84">
@@ -7022,7 +7022,7 @@
         <v>1147</v>
       </c>
       <c r="I84" t="n">
-        <v>5286</v>
+        <v>5304</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -7071,7 +7071,7 @@
         <v>3560</v>
       </c>
       <c r="AB84" t="n">
-        <v>30685</v>
+        <v>30703</v>
       </c>
     </row>
     <row r="85">
@@ -7100,7 +7100,7 @@
         <v>1147</v>
       </c>
       <c r="I85" t="n">
-        <v>5287</v>
+        <v>5305</v>
       </c>
       <c r="J85" t="n">
         <v>128</v>
@@ -7157,7 +7157,7 @@
         <v>3564</v>
       </c>
       <c r="AB85" t="n">
-        <v>30719</v>
+        <v>30737</v>
       </c>
     </row>
     <row r="86">
@@ -7184,7 +7184,7 @@
         <v>1147</v>
       </c>
       <c r="I86" t="n">
-        <v>5289</v>
+        <v>5307</v>
       </c>
       <c r="J86" t="n">
         <v>128</v>
@@ -7241,7 +7241,7 @@
         <v>3568</v>
       </c>
       <c r="AB86" t="n">
-        <v>30747</v>
+        <v>30765</v>
       </c>
     </row>
     <row r="87">
@@ -7272,7 +7272,7 @@
         <v>1152</v>
       </c>
       <c r="I87" t="n">
-        <v>5296</v>
+        <v>5314</v>
       </c>
       <c r="J87" t="n">
         <v>128</v>
@@ -7329,7 +7329,7 @@
         <v>3571</v>
       </c>
       <c r="AB87" t="n">
-        <v>30785</v>
+        <v>30803</v>
       </c>
     </row>
     <row r="88">
@@ -7356,7 +7356,7 @@
         <v>1152</v>
       </c>
       <c r="I88" t="n">
-        <v>5301</v>
+        <v>5319</v>
       </c>
       <c r="J88" t="n">
         <v>128</v>
@@ -7407,7 +7407,7 @@
         <v>3572</v>
       </c>
       <c r="AB88" t="n">
-        <v>30812</v>
+        <v>30830</v>
       </c>
     </row>
     <row r="89">
@@ -7436,7 +7436,7 @@
         <v>1152</v>
       </c>
       <c r="I89" t="n">
-        <v>5303</v>
+        <v>5321</v>
       </c>
       <c r="J89" t="n">
         <v>128</v>
@@ -7487,7 +7487,7 @@
         <v>3574</v>
       </c>
       <c r="AB89" t="n">
-        <v>30832</v>
+        <v>30850</v>
       </c>
     </row>
     <row r="90">
@@ -7512,7 +7512,7 @@
         <v>1154</v>
       </c>
       <c r="I90" t="n">
-        <v>5305</v>
+        <v>5323</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -7559,7 +7559,7 @@
         <v>3576</v>
       </c>
       <c r="AB90" t="n">
-        <v>30852</v>
+        <v>30870</v>
       </c>
     </row>
     <row r="91">
@@ -7586,7 +7586,7 @@
         <v>1155</v>
       </c>
       <c r="I91" t="n">
-        <v>5305</v>
+        <v>5323</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
@@ -7633,7 +7633,7 @@
         <v>3577</v>
       </c>
       <c r="AB91" t="n">
-        <v>30862</v>
+        <v>30880</v>
       </c>
     </row>
     <row r="92">
@@ -7664,7 +7664,7 @@
         <v>1156</v>
       </c>
       <c r="I92" t="n">
-        <v>5305</v>
+        <v>5323</v>
       </c>
       <c r="J92" t="n">
         <v>128</v>
@@ -7721,7 +7721,7 @@
         <v>3579</v>
       </c>
       <c r="AB92" t="n">
-        <v>30869</v>
+        <v>30887</v>
       </c>
     </row>
     <row r="93">
@@ -7748,7 +7748,7 @@
         <v>1156</v>
       </c>
       <c r="I93" t="n">
-        <v>5308</v>
+        <v>5326</v>
       </c>
       <c r="J93" t="n">
         <v>128</v>
@@ -7805,7 +7805,7 @@
         <v>3585</v>
       </c>
       <c r="AB93" t="n">
-        <v>30891</v>
+        <v>30909</v>
       </c>
     </row>
     <row r="94">
@@ -7836,7 +7836,7 @@
         <v>1157</v>
       </c>
       <c r="I94" t="n">
-        <v>5311</v>
+        <v>5329</v>
       </c>
       <c r="J94" t="n">
         <v>128</v>
@@ -7893,7 +7893,7 @@
         <v>3588</v>
       </c>
       <c r="AB94" t="n">
-        <v>30905</v>
+        <v>30923</v>
       </c>
     </row>
     <row r="95">
@@ -7922,7 +7922,7 @@
         <v>1158</v>
       </c>
       <c r="I95" t="n">
-        <v>5313</v>
+        <v>5331</v>
       </c>
       <c r="J95" t="n">
         <v>128</v>
@@ -7979,7 +7979,7 @@
         <v>3593</v>
       </c>
       <c r="AB95" t="n">
-        <v>30924</v>
+        <v>30942</v>
       </c>
     </row>
     <row r="96">
@@ -8010,7 +8010,7 @@
         <v>1159</v>
       </c>
       <c r="I96" t="n">
-        <v>5317</v>
+        <v>5335</v>
       </c>
       <c r="J96" t="n">
         <v>128</v>
@@ -8067,7 +8067,7 @@
         <v>3599</v>
       </c>
       <c r="AB96" t="n">
-        <v>30954</v>
+        <v>30972</v>
       </c>
     </row>
     <row r="97">
@@ -8092,7 +8092,7 @@
         <v>1159</v>
       </c>
       <c r="I97" t="n">
-        <v>5322</v>
+        <v>5340</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
@@ -8139,7 +8139,7 @@
         <v>3605</v>
       </c>
       <c r="AB97" t="n">
-        <v>30995</v>
+        <v>31013</v>
       </c>
     </row>
     <row r="98">
@@ -8164,7 +8164,7 @@
         <v>1159</v>
       </c>
       <c r="I98" t="n">
-        <v>5322</v>
+        <v>5340</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -8211,7 +8211,7 @@
         <v>3605</v>
       </c>
       <c r="AB98" t="n">
-        <v>31002</v>
+        <v>31020</v>
       </c>
     </row>
     <row r="99">
@@ -8238,7 +8238,7 @@
         <v>1159</v>
       </c>
       <c r="I99" t="n">
-        <v>5323</v>
+        <v>5341</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
@@ -8285,7 +8285,7 @@
         <v>3605</v>
       </c>
       <c r="AB99" t="n">
-        <v>31008</v>
+        <v>31026</v>
       </c>
     </row>
     <row r="100">
@@ -8314,7 +8314,7 @@
         <v>1161</v>
       </c>
       <c r="I100" t="n">
-        <v>5326</v>
+        <v>5344</v>
       </c>
       <c r="J100" t="n">
         <v>128</v>
@@ -8369,7 +8369,7 @@
         <v>3607</v>
       </c>
       <c r="AB100" t="n">
-        <v>31025</v>
+        <v>31043</v>
       </c>
     </row>
     <row r="101">
@@ -8400,7 +8400,7 @@
         <v>1162</v>
       </c>
       <c r="I101" t="n">
-        <v>5328</v>
+        <v>5346</v>
       </c>
       <c r="J101" t="n">
         <v>128</v>
@@ -8455,7 +8455,7 @@
         <v>3610</v>
       </c>
       <c r="AB101" t="n">
-        <v>31044</v>
+        <v>31062</v>
       </c>
     </row>
     <row r="102">
@@ -8484,7 +8484,7 @@
         <v>1164</v>
       </c>
       <c r="I102" t="n">
-        <v>5329</v>
+        <v>5347</v>
       </c>
       <c r="J102" t="n">
         <v>128</v>
@@ -8537,7 +8537,7 @@
         <v>3618</v>
       </c>
       <c r="AB102" t="n">
-        <v>31067</v>
+        <v>31085</v>
       </c>
     </row>
     <row r="103">
@@ -8566,7 +8566,7 @@
         <v>1166</v>
       </c>
       <c r="I103" t="n">
-        <v>5330</v>
+        <v>5348</v>
       </c>
       <c r="J103" t="n">
         <v>128</v>
@@ -8619,7 +8619,7 @@
         <v>3624</v>
       </c>
       <c r="AB103" t="n">
-        <v>31088</v>
+        <v>31106</v>
       </c>
     </row>
     <row r="104">
@@ -8644,7 +8644,7 @@
         <v>1166</v>
       </c>
       <c r="I104" t="n">
-        <v>5333</v>
+        <v>5351</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -8687,7 +8687,7 @@
         <v>3628</v>
       </c>
       <c r="AB104" t="n">
-        <v>31100</v>
+        <v>31118</v>
       </c>
     </row>
     <row r="105">
@@ -8712,7 +8712,7 @@
         <v>1168</v>
       </c>
       <c r="I105" t="n">
-        <v>5333</v>
+        <v>5351</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
@@ -8757,7 +8757,7 @@
         <v>3628</v>
       </c>
       <c r="AB105" t="n">
-        <v>31108</v>
+        <v>31126</v>
       </c>
     </row>
     <row r="106">
@@ -8786,7 +8786,7 @@
         <v>1172</v>
       </c>
       <c r="I106" t="n">
-        <v>5334</v>
+        <v>5352</v>
       </c>
       <c r="J106" t="n">
         <v>128</v>
@@ -8839,7 +8839,7 @@
         <v>3628</v>
       </c>
       <c r="AB106" t="n">
-        <v>31126</v>
+        <v>31144</v>
       </c>
     </row>
     <row r="107">
@@ -8868,7 +8868,7 @@
         <v>1172</v>
       </c>
       <c r="I107" t="n">
-        <v>5334</v>
+        <v>5352</v>
       </c>
       <c r="J107" t="n">
         <v>128</v>
@@ -8921,7 +8921,7 @@
         <v>3628</v>
       </c>
       <c r="AB107" t="n">
-        <v>31136</v>
+        <v>31154</v>
       </c>
     </row>
     <row r="108">
@@ -8950,7 +8950,7 @@
         <v>1174</v>
       </c>
       <c r="I108" t="n">
-        <v>5336</v>
+        <v>5354</v>
       </c>
       <c r="J108" t="n">
         <v>128</v>
@@ -9003,7 +9003,7 @@
         <v>3631</v>
       </c>
       <c r="AB108" t="n">
-        <v>31153</v>
+        <v>31171</v>
       </c>
     </row>
     <row r="109">
@@ -9030,7 +9030,7 @@
         <v>1175</v>
       </c>
       <c r="I109" t="n">
-        <v>5336</v>
+        <v>5354</v>
       </c>
       <c r="J109" t="n">
         <v>128</v>
@@ -9079,7 +9079,7 @@
         <v>3633</v>
       </c>
       <c r="AB109" t="n">
-        <v>31175</v>
+        <v>31193</v>
       </c>
     </row>
     <row r="110">
@@ -9110,7 +9110,7 @@
         <v>1175</v>
       </c>
       <c r="I110" t="n">
-        <v>5340</v>
+        <v>5358</v>
       </c>
       <c r="J110" t="n">
         <v>128</v>
@@ -9157,7 +9157,7 @@
         <v>3635</v>
       </c>
       <c r="AB110" t="n">
-        <v>31203</v>
+        <v>31221</v>
       </c>
     </row>
     <row r="111">
@@ -9182,7 +9182,7 @@
         <v>1179</v>
       </c>
       <c r="I111" t="n">
-        <v>5340</v>
+        <v>5358</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
@@ -9225,7 +9225,7 @@
         <v>3638</v>
       </c>
       <c r="AB111" t="n">
-        <v>31213</v>
+        <v>31231</v>
       </c>
     </row>
     <row r="112">
@@ -9250,7 +9250,7 @@
         <v>1181</v>
       </c>
       <c r="I112" t="n">
-        <v>5340</v>
+        <v>5358</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
@@ -9297,7 +9297,7 @@
         <v>3643</v>
       </c>
       <c r="AB112" t="n">
-        <v>31229</v>
+        <v>31247</v>
       </c>
     </row>
     <row r="113">
@@ -9324,7 +9324,7 @@
         <v>1181</v>
       </c>
       <c r="I113" t="n">
-        <v>5342</v>
+        <v>5360</v>
       </c>
       <c r="J113" t="n">
         <v>128</v>
@@ -9375,7 +9375,7 @@
         <v>3650</v>
       </c>
       <c r="AB113" t="n">
-        <v>31252</v>
+        <v>31270</v>
       </c>
     </row>
     <row r="114">
@@ -9402,7 +9402,7 @@
         <v>1182</v>
       </c>
       <c r="I114" t="n">
-        <v>5342</v>
+        <v>5360</v>
       </c>
       <c r="J114" t="n">
         <v>128</v>
@@ -9455,7 +9455,7 @@
         <v>3657</v>
       </c>
       <c r="AB114" t="n">
-        <v>31279</v>
+        <v>31297</v>
       </c>
     </row>
     <row r="115">
@@ -9482,7 +9482,7 @@
         <v>1183</v>
       </c>
       <c r="I115" t="n">
-        <v>5343</v>
+        <v>5361</v>
       </c>
       <c r="J115" t="n">
         <v>128</v>
@@ -9537,7 +9537,7 @@
         <v>3667</v>
       </c>
       <c r="AB115" t="n">
-        <v>31314</v>
+        <v>31332</v>
       </c>
     </row>
     <row r="116">
@@ -9562,7 +9562,7 @@
         <v>1185</v>
       </c>
       <c r="I116" t="n">
-        <v>5343</v>
+        <v>5361</v>
       </c>
       <c r="J116" t="n">
         <v>128</v>
@@ -9615,7 +9615,7 @@
         <v>3672</v>
       </c>
       <c r="AB116" t="n">
-        <v>31328</v>
+        <v>31346</v>
       </c>
     </row>
     <row r="117">
@@ -9644,7 +9644,7 @@
         <v>1186</v>
       </c>
       <c r="I117" t="n">
-        <v>5347</v>
+        <v>5365</v>
       </c>
       <c r="J117" t="n">
         <v>128</v>
@@ -9697,7 +9697,7 @@
         <v>3673</v>
       </c>
       <c r="AB117" t="n">
-        <v>31357</v>
+        <v>31375</v>
       </c>
     </row>
     <row r="118">
@@ -9720,7 +9720,7 @@
         <v>1191</v>
       </c>
       <c r="I118" t="n">
-        <v>5351</v>
+        <v>5369</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
@@ -9765,7 +9765,7 @@
         <v>3680</v>
       </c>
       <c r="AB118" t="n">
-        <v>31382</v>
+        <v>31400</v>
       </c>
     </row>
     <row r="119">
@@ -9788,7 +9788,7 @@
         <v>1191</v>
       </c>
       <c r="I119" t="n">
-        <v>5351</v>
+        <v>5369</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
@@ -9833,7 +9833,7 @@
         <v>3685</v>
       </c>
       <c r="AB119" t="n">
-        <v>31397</v>
+        <v>31415</v>
       </c>
     </row>
     <row r="120">
@@ -9860,7 +9860,7 @@
         <v>1191</v>
       </c>
       <c r="I120" t="n">
-        <v>5352</v>
+        <v>5370</v>
       </c>
       <c r="J120" t="n">
         <v>128</v>
@@ -9915,7 +9915,7 @@
         <v>3688</v>
       </c>
       <c r="AB120" t="n">
-        <v>31432</v>
+        <v>31450</v>
       </c>
     </row>
     <row r="121">
@@ -9942,7 +9942,7 @@
         <v>1195</v>
       </c>
       <c r="I121" t="n">
-        <v>5356</v>
+        <v>5374</v>
       </c>
       <c r="J121" t="n">
         <v>128</v>
@@ -9997,7 +9997,7 @@
         <v>3692</v>
       </c>
       <c r="AB121" t="n">
-        <v>31462</v>
+        <v>31480</v>
       </c>
     </row>
     <row r="122">
@@ -10024,7 +10024,7 @@
         <v>1203</v>
       </c>
       <c r="I122" t="n">
-        <v>5358</v>
+        <v>5376</v>
       </c>
       <c r="J122" t="n">
         <v>129</v>
@@ -10079,7 +10079,7 @@
         <v>3708</v>
       </c>
       <c r="AB122" t="n">
-        <v>31527</v>
+        <v>31545</v>
       </c>
     </row>
     <row r="123">
@@ -10106,7 +10106,7 @@
         <v>1206</v>
       </c>
       <c r="I123" t="n">
-        <v>5360</v>
+        <v>5378</v>
       </c>
       <c r="J123" t="n">
         <v>129</v>
@@ -10161,7 +10161,7 @@
         <v>3715</v>
       </c>
       <c r="AB123" t="n">
-        <v>31566</v>
+        <v>31584</v>
       </c>
     </row>
     <row r="124">
@@ -10192,7 +10192,7 @@
         <v>1211</v>
       </c>
       <c r="I124" t="n">
-        <v>5363</v>
+        <v>5381</v>
       </c>
       <c r="J124" t="n">
         <v>129</v>
@@ -10249,7 +10249,7 @@
         <v>3734</v>
       </c>
       <c r="AB124" t="n">
-        <v>31639</v>
+        <v>31657</v>
       </c>
     </row>
     <row r="125">
@@ -10274,7 +10274,7 @@
         <v>1215</v>
       </c>
       <c r="I125" t="n">
-        <v>5363</v>
+        <v>5381</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
@@ -10319,7 +10319,7 @@
         <v>3746</v>
       </c>
       <c r="AB125" t="n">
-        <v>31674</v>
+        <v>31692</v>
       </c>
     </row>
     <row r="126">
@@ -10344,7 +10344,7 @@
         <v>1220</v>
       </c>
       <c r="I126" t="n">
-        <v>5364</v>
+        <v>5382</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -10389,7 +10389,7 @@
         <v>3757</v>
       </c>
       <c r="AB126" t="n">
-        <v>31709</v>
+        <v>31727</v>
       </c>
     </row>
     <row r="127">
@@ -10418,7 +10418,7 @@
         <v>1220</v>
       </c>
       <c r="I127" t="n">
-        <v>5370</v>
+        <v>5388</v>
       </c>
       <c r="J127" t="n">
         <v>129</v>
@@ -10475,7 +10475,7 @@
         <v>3766</v>
       </c>
       <c r="AB127" t="n">
-        <v>31795</v>
+        <v>31813</v>
       </c>
     </row>
     <row r="128">
@@ -10504,7 +10504,7 @@
         <v>1220</v>
       </c>
       <c r="I128" t="n">
-        <v>5374</v>
+        <v>5392</v>
       </c>
       <c r="J128" t="n">
         <v>129</v>
@@ -10561,7 +10561,7 @@
         <v>3794</v>
       </c>
       <c r="AB128" t="n">
-        <v>31897</v>
+        <v>31915</v>
       </c>
     </row>
     <row r="129">
@@ -10592,7 +10592,7 @@
         <v>1231</v>
       </c>
       <c r="I129" t="n">
-        <v>5375</v>
+        <v>5393</v>
       </c>
       <c r="J129" t="n">
         <v>129</v>
@@ -10649,7 +10649,7 @@
         <v>3842</v>
       </c>
       <c r="AB129" t="n">
-        <v>32029</v>
+        <v>32047</v>
       </c>
     </row>
     <row r="130">
@@ -10678,7 +10678,7 @@
         <v>1238</v>
       </c>
       <c r="I130" t="n">
-        <v>5380</v>
+        <v>5398</v>
       </c>
       <c r="J130" t="n">
         <v>129</v>
@@ -10735,7 +10735,7 @@
         <v>3898</v>
       </c>
       <c r="AB130" t="n">
-        <v>32173</v>
+        <v>32191</v>
       </c>
     </row>
     <row r="131">
@@ -10764,7 +10764,7 @@
         <v>1243</v>
       </c>
       <c r="I131" t="n">
-        <v>5382</v>
+        <v>5400</v>
       </c>
       <c r="J131" t="n">
         <v>129</v>
@@ -10819,7 +10819,7 @@
         <v>3921</v>
       </c>
       <c r="AB131" t="n">
-        <v>32275</v>
+        <v>32293</v>
       </c>
     </row>
     <row r="132">
@@ -10844,7 +10844,7 @@
         <v>1246</v>
       </c>
       <c r="I132" t="n">
-        <v>5385</v>
+        <v>5403</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
@@ -10887,7 +10887,7 @@
         <v>3934</v>
       </c>
       <c r="AB132" t="n">
-        <v>32317</v>
+        <v>32335</v>
       </c>
     </row>
     <row r="133">
@@ -10912,7 +10912,7 @@
         <v>1251</v>
       </c>
       <c r="I133" t="n">
-        <v>5387</v>
+        <v>5405</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
@@ -10961,7 +10961,7 @@
         <v>3942</v>
       </c>
       <c r="AB133" t="n">
-        <v>32370</v>
+        <v>32388</v>
       </c>
     </row>
     <row r="134">
@@ -10992,7 +10992,7 @@
         <v>1253</v>
       </c>
       <c r="I134" t="n">
-        <v>5393</v>
+        <v>5411</v>
       </c>
       <c r="J134" t="n">
         <v>129</v>
@@ -11047,7 +11047,7 @@
         <v>3961</v>
       </c>
       <c r="AB134" t="n">
-        <v>32458</v>
+        <v>32476</v>
       </c>
     </row>
     <row r="135">
@@ -11076,7 +11076,7 @@
         <v>1255</v>
       </c>
       <c r="I135" t="n">
-        <v>5397</v>
+        <v>5415</v>
       </c>
       <c r="J135" t="n">
         <v>130</v>
@@ -11133,7 +11133,7 @@
         <v>3987</v>
       </c>
       <c r="AB135" t="n">
-        <v>32550</v>
+        <v>32568</v>
       </c>
     </row>
     <row r="136">
@@ -11162,7 +11162,7 @@
         <v>1258</v>
       </c>
       <c r="I136" t="n">
-        <v>5401</v>
+        <v>5419</v>
       </c>
       <c r="J136" t="n">
         <v>130</v>
@@ -11217,7 +11217,7 @@
         <v>4010</v>
       </c>
       <c r="AB136" t="n">
-        <v>32651</v>
+        <v>32669</v>
       </c>
     </row>
     <row r="137">
@@ -11246,7 +11246,7 @@
         <v>1259</v>
       </c>
       <c r="I137" t="n">
-        <v>5409</v>
+        <v>5427</v>
       </c>
       <c r="J137" t="n">
         <v>131</v>
@@ -11303,7 +11303,7 @@
         <v>4029</v>
       </c>
       <c r="AB137" t="n">
-        <v>32743</v>
+        <v>32761</v>
       </c>
     </row>
     <row r="138">
@@ -11334,7 +11334,7 @@
         <v>1263</v>
       </c>
       <c r="I138" t="n">
-        <v>5417</v>
+        <v>5435</v>
       </c>
       <c r="J138" t="n">
         <v>131</v>
@@ -11387,7 +11387,7 @@
         <v>4049</v>
       </c>
       <c r="AB138" t="n">
-        <v>32843</v>
+        <v>32861</v>
       </c>
     </row>
     <row r="139">
@@ -11412,7 +11412,7 @@
         <v>1266</v>
       </c>
       <c r="I139" t="n">
-        <v>5421</v>
+        <v>5439</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
@@ -11455,7 +11455,7 @@
         <v>4060</v>
       </c>
       <c r="AB139" t="n">
-        <v>32898</v>
+        <v>32916</v>
       </c>
     </row>
     <row r="140">
@@ -11480,7 +11480,7 @@
         <v>1271</v>
       </c>
       <c r="I140" t="n">
-        <v>5423</v>
+        <v>5441</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
@@ -11525,7 +11525,7 @@
         <v>4078</v>
       </c>
       <c r="AB140" t="n">
-        <v>32959</v>
+        <v>32977</v>
       </c>
     </row>
     <row r="141">
@@ -11556,7 +11556,7 @@
         <v>1274</v>
       </c>
       <c r="I141" t="n">
-        <v>5429</v>
+        <v>5447</v>
       </c>
       <c r="J141" t="n">
         <v>131</v>
@@ -11613,7 +11613,7 @@
         <v>4095</v>
       </c>
       <c r="AB141" t="n">
-        <v>33067</v>
+        <v>33085</v>
       </c>
     </row>
     <row r="142">
@@ -11644,7 +11644,7 @@
         <v>1274</v>
       </c>
       <c r="I142" t="n">
-        <v>5440</v>
+        <v>5458</v>
       </c>
       <c r="J142" t="n">
         <v>131</v>
@@ -11699,7 +11699,7 @@
         <v>4122</v>
       </c>
       <c r="AB142" t="n">
-        <v>33186</v>
+        <v>33204</v>
       </c>
     </row>
     <row r="143">
@@ -11728,7 +11728,7 @@
         <v>1278</v>
       </c>
       <c r="I143" t="n">
-        <v>5459</v>
+        <v>5477</v>
       </c>
       <c r="J143" t="n">
         <v>133</v>
@@ -11785,7 +11785,7 @@
         <v>4154</v>
       </c>
       <c r="AB143" t="n">
-        <v>33326</v>
+        <v>33344</v>
       </c>
     </row>
     <row r="144">
@@ -11814,7 +11814,7 @@
         <v>1282</v>
       </c>
       <c r="I144" t="n">
-        <v>5473</v>
+        <v>5491</v>
       </c>
       <c r="J144" t="n">
         <v>135</v>
@@ -11871,7 +11871,7 @@
         <v>4169</v>
       </c>
       <c r="AB144" t="n">
-        <v>33428</v>
+        <v>33446</v>
       </c>
     </row>
     <row r="145">
@@ -11902,7 +11902,7 @@
         <v>1284</v>
       </c>
       <c r="I145" t="n">
-        <v>5486</v>
+        <v>5504</v>
       </c>
       <c r="J145" t="n">
         <v>136</v>
@@ -11955,7 +11955,7 @@
         <v>4198</v>
       </c>
       <c r="AB145" t="n">
-        <v>33546</v>
+        <v>33564</v>
       </c>
     </row>
     <row r="146">
@@ -11980,7 +11980,7 @@
         <v>1292</v>
       </c>
       <c r="I146" t="n">
-        <v>5499</v>
+        <v>5517</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
@@ -12021,7 +12021,7 @@
         <v>4213</v>
       </c>
       <c r="AB146" t="n">
-        <v>33606</v>
+        <v>33624</v>
       </c>
     </row>
     <row r="147">
@@ -12046,7 +12046,7 @@
         <v>1297</v>
       </c>
       <c r="I147" t="n">
-        <v>5503</v>
+        <v>5521</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
@@ -12089,7 +12089,7 @@
         <v>4226</v>
       </c>
       <c r="AB147" t="n">
-        <v>33654</v>
+        <v>33672</v>
       </c>
     </row>
     <row r="148">
@@ -12120,7 +12120,7 @@
         <v>1304</v>
       </c>
       <c r="I148" t="n">
-        <v>5520</v>
+        <v>5538</v>
       </c>
       <c r="J148" t="n">
         <v>136</v>
@@ -12177,7 +12177,7 @@
         <v>4241</v>
       </c>
       <c r="AB148" t="n">
-        <v>33773</v>
+        <v>33791</v>
       </c>
     </row>
     <row r="149">
@@ -12208,7 +12208,7 @@
         <v>1305</v>
       </c>
       <c r="I149" t="n">
-        <v>5550</v>
+        <v>5568</v>
       </c>
       <c r="J149" t="n">
         <v>137</v>
@@ -12263,7 +12263,7 @@
         <v>4279</v>
       </c>
       <c r="AB149" t="n">
-        <v>33913</v>
+        <v>33931</v>
       </c>
     </row>
     <row r="150">
@@ -12292,7 +12292,7 @@
         <v>1311</v>
       </c>
       <c r="I150" t="n">
-        <v>5578</v>
+        <v>5596</v>
       </c>
       <c r="J150" t="n">
         <v>138</v>
@@ -12347,7 +12347,7 @@
         <v>4306</v>
       </c>
       <c r="AB150" t="n">
-        <v>34037</v>
+        <v>34055</v>
       </c>
     </row>
     <row r="151">
@@ -12376,7 +12376,7 @@
         <v>1312</v>
       </c>
       <c r="I151" t="n">
-        <v>5623</v>
+        <v>5641</v>
       </c>
       <c r="J151" t="n">
         <v>138</v>
@@ -12433,7 +12433,7 @@
         <v>4330</v>
       </c>
       <c r="AB151" t="n">
-        <v>34196</v>
+        <v>34214</v>
       </c>
     </row>
     <row r="152">
@@ -12464,7 +12464,7 @@
         <v>1315</v>
       </c>
       <c r="I152" t="n">
-        <v>5664</v>
+        <v>5682</v>
       </c>
       <c r="J152" t="n">
         <v>138</v>
@@ -12521,7 +12521,7 @@
         <v>4353</v>
       </c>
       <c r="AB152" t="n">
-        <v>34335</v>
+        <v>34353</v>
       </c>
     </row>
     <row r="153">
@@ -12544,7 +12544,7 @@
         <v>1319</v>
       </c>
       <c r="I153" t="n">
-        <v>5705</v>
+        <v>5723</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
@@ -12585,7 +12585,7 @@
         <v>4367</v>
       </c>
       <c r="AB153" t="n">
-        <v>34423</v>
+        <v>34441</v>
       </c>
     </row>
     <row r="154">
@@ -12610,7 +12610,7 @@
         <v>1320</v>
       </c>
       <c r="I154" t="n">
-        <v>5716</v>
+        <v>5734</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
@@ -12653,7 +12653,7 @@
         <v>4373</v>
       </c>
       <c r="AB154" t="n">
-        <v>34470</v>
+        <v>34488</v>
       </c>
     </row>
     <row r="155">
@@ -12684,7 +12684,7 @@
         <v>1321</v>
       </c>
       <c r="I155" t="n">
-        <v>5777</v>
+        <v>5795</v>
       </c>
       <c r="J155" t="n">
         <v>138</v>
@@ -12739,7 +12739,7 @@
         <v>4393</v>
       </c>
       <c r="AB155" t="n">
-        <v>34631</v>
+        <v>34649</v>
       </c>
     </row>
     <row r="156">
@@ -12768,7 +12768,7 @@
         <v>1325</v>
       </c>
       <c r="I156" t="n">
-        <v>5821</v>
+        <v>5839</v>
       </c>
       <c r="J156" t="n">
         <v>138</v>
@@ -12825,7 +12825,7 @@
         <v>4418</v>
       </c>
       <c r="AB156" t="n">
-        <v>34796</v>
+        <v>34814</v>
       </c>
     </row>
     <row r="157">
@@ -12856,7 +12856,7 @@
         <v>1332</v>
       </c>
       <c r="I157" t="n">
-        <v>5882</v>
+        <v>5899</v>
       </c>
       <c r="J157" t="n">
         <v>138</v>
@@ -12913,7 +12913,7 @@
         <v>4463</v>
       </c>
       <c r="AB157" t="n">
-        <v>35024</v>
+        <v>35041</v>
       </c>
     </row>
     <row r="158">
@@ -12944,7 +12944,7 @@
         <v>1342</v>
       </c>
       <c r="I158" t="n">
-        <v>5936</v>
+        <v>5953</v>
       </c>
       <c r="J158" t="n">
         <v>139</v>
@@ -13001,7 +13001,7 @@
         <v>4493</v>
       </c>
       <c r="AB158" t="n">
-        <v>35240</v>
+        <v>35257</v>
       </c>
     </row>
     <row r="159">
@@ -13032,7 +13032,7 @@
         <v>1350</v>
       </c>
       <c r="I159" t="n">
-        <v>5968</v>
+        <v>5985</v>
       </c>
       <c r="J159" t="n">
         <v>141</v>
@@ -13089,7 +13089,7 @@
         <v>4524</v>
       </c>
       <c r="AB159" t="n">
-        <v>35398</v>
+        <v>35415</v>
       </c>
     </row>
     <row r="160">
@@ -13116,7 +13116,7 @@
         <v>1353</v>
       </c>
       <c r="I160" t="n">
-        <v>5997</v>
+        <v>6014</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
@@ -13159,7 +13159,7 @@
         <v>4547</v>
       </c>
       <c r="AB160" t="n">
-        <v>35541</v>
+        <v>35558</v>
       </c>
     </row>
     <row r="161">
@@ -13186,7 +13186,7 @@
         <v>1358</v>
       </c>
       <c r="I161" t="n">
-        <v>6019</v>
+        <v>6036</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
@@ -13227,7 +13227,7 @@
         <v>4558</v>
       </c>
       <c r="AB161" t="n">
-        <v>35621</v>
+        <v>35638</v>
       </c>
     </row>
     <row r="162">
@@ -13258,7 +13258,7 @@
         <v>1360</v>
       </c>
       <c r="I162" t="n">
-        <v>6054</v>
+        <v>6070</v>
       </c>
       <c r="J162" t="n">
         <v>141</v>
@@ -13315,7 +13315,7 @@
         <v>4570</v>
       </c>
       <c r="AB162" t="n">
-        <v>35747</v>
+        <v>35763</v>
       </c>
     </row>
     <row r="163">
@@ -13344,7 +13344,7 @@
         <v>1360</v>
       </c>
       <c r="I163" t="n">
-        <v>6086</v>
+        <v>6102</v>
       </c>
       <c r="J163" t="n">
         <v>142</v>
@@ -13401,7 +13401,7 @@
         <v>4588</v>
       </c>
       <c r="AB163" t="n">
-        <v>35878</v>
+        <v>35894</v>
       </c>
     </row>
     <row r="164">
@@ -13432,7 +13432,7 @@
         <v>1368</v>
       </c>
       <c r="I164" t="n">
-        <v>6117</v>
+        <v>6133</v>
       </c>
       <c r="J164" t="n">
         <v>144</v>
@@ -13489,7 +13489,7 @@
         <v>4639</v>
       </c>
       <c r="AB164" t="n">
-        <v>36080</v>
+        <v>36096</v>
       </c>
     </row>
     <row r="165">
@@ -13518,7 +13518,7 @@
         <v>1373</v>
       </c>
       <c r="I165" t="n">
-        <v>6152</v>
+        <v>6168</v>
       </c>
       <c r="J165" t="n">
         <v>145</v>
@@ -13575,7 +13575,7 @@
         <v>4674</v>
       </c>
       <c r="AB165" t="n">
-        <v>36245</v>
+        <v>36261</v>
       </c>
     </row>
     <row r="166">
@@ -13606,7 +13606,7 @@
         <v>1377</v>
       </c>
       <c r="I166" t="n">
-        <v>6197</v>
+        <v>6213</v>
       </c>
       <c r="J166" t="n">
         <v>145</v>
@@ -13663,7 +13663,7 @@
         <v>4706</v>
       </c>
       <c r="AB166" t="n">
-        <v>36412</v>
+        <v>36428</v>
       </c>
     </row>
     <row r="167">
@@ -13690,7 +13690,7 @@
         <v>1378</v>
       </c>
       <c r="I167" t="n">
-        <v>6223</v>
+        <v>6239</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
@@ -13733,7 +13733,7 @@
         <v>4747</v>
       </c>
       <c r="AB167" t="n">
-        <v>36533</v>
+        <v>36549</v>
       </c>
     </row>
     <row r="168">
@@ -13760,7 +13760,7 @@
         <v>1384</v>
       </c>
       <c r="I168" t="n">
-        <v>6256</v>
+        <v>6272</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
@@ -13803,7 +13803,7 @@
         <v>4763</v>
       </c>
       <c r="AB168" t="n">
-        <v>36623</v>
+        <v>36639</v>
       </c>
     </row>
     <row r="169">
@@ -13834,7 +13834,7 @@
         <v>1389</v>
       </c>
       <c r="I169" t="n">
-        <v>6292</v>
+        <v>6308</v>
       </c>
       <c r="J169" t="n">
         <v>146</v>
@@ -13891,7 +13891,7 @@
         <v>4802</v>
       </c>
       <c r="AB169" t="n">
-        <v>36817</v>
+        <v>36833</v>
       </c>
     </row>
     <row r="170">
@@ -13920,7 +13920,7 @@
         <v>1393</v>
       </c>
       <c r="I170" t="n">
-        <v>6348</v>
+        <v>6364</v>
       </c>
       <c r="J170" t="n">
         <v>147</v>
@@ -13977,7 +13977,7 @@
         <v>4866</v>
       </c>
       <c r="AB170" t="n">
-        <v>37081</v>
+        <v>37097</v>
       </c>
     </row>
     <row r="171">
@@ -14006,7 +14006,7 @@
         <v>1401</v>
       </c>
       <c r="I171" t="n">
-        <v>6380</v>
+        <v>6396</v>
       </c>
       <c r="J171" t="n">
         <v>149</v>
@@ -14063,7 +14063,7 @@
         <v>4918</v>
       </c>
       <c r="AB171" t="n">
-        <v>37310</v>
+        <v>37326</v>
       </c>
     </row>
     <row r="172">
@@ -14092,7 +14092,7 @@
         <v>1405</v>
       </c>
       <c r="I172" t="n">
-        <v>6423</v>
+        <v>6439</v>
       </c>
       <c r="J172" t="n">
         <v>150</v>
@@ -14149,7 +14149,7 @@
         <v>4974</v>
       </c>
       <c r="AB172" t="n">
-        <v>37585</v>
+        <v>37601</v>
       </c>
     </row>
     <row r="173">
@@ -14180,7 +14180,7 @@
         <v>1408</v>
       </c>
       <c r="I173" t="n">
-        <v>6453</v>
+        <v>6469</v>
       </c>
       <c r="J173" t="n">
         <v>150</v>
@@ -14228,7 +14228,7 @@
         <v>6306</v>
       </c>
       <c r="Y173" t="n">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="Z173" t="n">
         <v>312</v>
@@ -14237,7 +14237,7 @@
         <v>5034</v>
       </c>
       <c r="AB173" t="n">
-        <v>37820</v>
+        <v>37835</v>
       </c>
     </row>
     <row r="174">
@@ -14264,7 +14264,7 @@
         <v>1418</v>
       </c>
       <c r="I174" t="n">
-        <v>6480</v>
+        <v>6496</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
@@ -14296,7 +14296,7 @@
         <v>6331</v>
       </c>
       <c r="Y174" t="n">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="Z174" t="n">
         <v>312</v>
@@ -14305,7 +14305,7 @@
         <v>5095</v>
       </c>
       <c r="AB174" t="n">
-        <v>38027</v>
+        <v>38042</v>
       </c>
     </row>
     <row r="175">
@@ -14332,7 +14332,7 @@
         <v>1425</v>
       </c>
       <c r="I175" t="n">
-        <v>6499</v>
+        <v>6515</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
@@ -14375,7 +14375,7 @@
         <v>5124</v>
       </c>
       <c r="AB175" t="n">
-        <v>38157</v>
+        <v>38173</v>
       </c>
     </row>
     <row r="176">
@@ -14385,7 +14385,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
@@ -14404,7 +14404,7 @@
         <v>1428</v>
       </c>
       <c r="I176" t="n">
-        <v>6541</v>
+        <v>6558</v>
       </c>
       <c r="J176" t="n">
         <v>151</v>
@@ -14461,7 +14461,7 @@
         <v>5168</v>
       </c>
       <c r="AB176" t="n">
-        <v>38382</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="177">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C177" t="n">
         <v>25</v>
@@ -14492,7 +14492,7 @@
         <v>1434</v>
       </c>
       <c r="I177" t="n">
-        <v>6581</v>
+        <v>6596</v>
       </c>
       <c r="J177" t="n">
         <v>153</v>
@@ -14540,7 +14540,7 @@
         <v>6422</v>
       </c>
       <c r="Y177" t="n">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="Z177" t="n">
         <v>317</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38647</v>
+        <v>38662</v>
       </c>
     </row>
     <row r="178">
@@ -14559,7 +14559,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C178" t="n">
         <v>25</v>
@@ -14580,7 +14580,7 @@
         <v>1451</v>
       </c>
       <c r="I178" t="n">
-        <v>6611</v>
+        <v>6620</v>
       </c>
       <c r="J178" t="n">
         <v>154</v>
@@ -14628,7 +14628,7 @@
         <v>6448</v>
       </c>
       <c r="Y178" t="n">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="Z178" t="n">
         <v>319</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38939</v>
+        <v>38946</v>
       </c>
     </row>
     <row r="179">
@@ -14646,9 +14646,7 @@
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="B179" t="n">
-        <v>1896</v>
-      </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
@@ -14663,9 +14661,7 @@
       <c r="H179" t="n">
         <v>1464</v>
       </c>
-      <c r="I179" t="n">
-        <v>6651</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>156</v>
       </c>
@@ -14679,7 +14675,7 @@
         <v>998</v>
       </c>
       <c r="N179" t="n">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="O179" t="n">
         <v>131</v>
@@ -14710,7 +14706,7 @@
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="n">
-        <v>2272</v>
+        <v>2261</v>
       </c>
       <c r="Z179" t="n">
         <v>321</v>
@@ -14719,7 +14715,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39173</v>
+        <v>39113</v>
       </c>
     </row>
     <row r="180">
@@ -14728,51 +14724,33 @@
           <t>2020-08-21</t>
         </is>
       </c>
-      <c r="B180" t="n">
-        <v>1913</v>
-      </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
         <v>25</v>
       </c>
-      <c r="D180" t="n">
-        <v>127</v>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
         <v>2373</v>
       </c>
-      <c r="F180" t="n">
-        <v>1001</v>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>1169</v>
       </c>
       <c r="H180" t="n">
         <v>1487</v>
       </c>
-      <c r="I180" t="n">
-        <v>6691</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>157</v>
       </c>
-      <c r="K180" t="n">
-        <v>973</v>
-      </c>
-      <c r="L180" t="n">
-        <v>264</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1004</v>
       </c>
-      <c r="N180" t="n">
-        <v>842</v>
-      </c>
-      <c r="O180" t="n">
-        <v>131</v>
-      </c>
-      <c r="P180" t="n">
-        <v>101</v>
-      </c>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
         <v>160</v>
@@ -14789,21 +14767,15 @@
       <c r="V180" t="n">
         <v>3500</v>
       </c>
-      <c r="W180" t="n">
-        <v>129</v>
-      </c>
+      <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="n">
-        <v>2289</v>
-      </c>
+      <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="n">
         <v>323</v>
       </c>
-      <c r="AA180" t="n">
-        <v>5463</v>
-      </c>
+      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>39425</v>
+        <v>39190</v>
       </c>
     </row>
     <row r="181">
@@ -14812,62 +14784,34 @@
           <t>2020-08-22</t>
         </is>
       </c>
-      <c r="B181" t="n">
-        <v>1932</v>
-      </c>
+      <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="n">
-        <v>2382</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1006</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1179</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1516</v>
-      </c>
-      <c r="I181" t="n">
-        <v>6706</v>
-      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>979</v>
-      </c>
-      <c r="L181" t="n">
-        <v>264</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="n">
-        <v>131</v>
-      </c>
+      <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
-      <c r="T181" t="n">
-        <v>460</v>
-      </c>
-      <c r="U181" t="n">
-        <v>557</v>
-      </c>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="n">
-        <v>2299</v>
-      </c>
-      <c r="Z181" t="n">
-        <v>323</v>
-      </c>
-      <c r="AA181" t="n">
-        <v>5507</v>
-      </c>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>39579</v>
+        <v>39190</v>
       </c>
     </row>
     <row r="182">
@@ -14876,64 +14820,34 @@
           <t>2020-08-23</t>
         </is>
       </c>
-      <c r="B182" t="n">
-        <v>1947</v>
-      </c>
+      <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
-      <c r="E182" t="n">
-        <v>2397</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1008</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1183</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1550</v>
-      </c>
-      <c r="I182" t="n">
-        <v>6728</v>
-      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>979</v>
-      </c>
-      <c r="L182" t="n">
-        <v>265</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="n">
-        <v>131</v>
-      </c>
+      <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="n">
-        <v>1217</v>
-      </c>
+      <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
-      <c r="T182" t="n">
-        <v>460</v>
-      </c>
-      <c r="U182" t="n">
-        <v>557</v>
-      </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="n">
-        <v>2301</v>
-      </c>
-      <c r="Z182" t="n">
-        <v>323</v>
-      </c>
-      <c r="AA182" t="n">
-        <v>5549</v>
-      </c>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>39731</v>
+        <v>39190</v>
       </c>
     </row>
     <row r="183">
@@ -14943,71 +14857,33 @@
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
-        <v>25</v>
-      </c>
-      <c r="D183" t="n">
-        <v>130</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2409</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1009</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1185</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1561</v>
-      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>161</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>266</v>
-      </c>
-      <c r="M183" t="n">
-        <v>1013</v>
-      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="n">
-        <v>131</v>
-      </c>
-      <c r="P183" t="n">
-        <v>101</v>
-      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="n">
-        <v>161</v>
-      </c>
-      <c r="S183" t="n">
-        <v>651</v>
-      </c>
-      <c r="T183" t="n">
-        <v>464</v>
-      </c>
-      <c r="U183" t="n">
-        <v>558</v>
-      </c>
-      <c r="V183" t="n">
-        <v>3512</v>
-      </c>
-      <c r="W183" t="n">
-        <v>132</v>
-      </c>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="n">
-        <v>2301</v>
-      </c>
-      <c r="Z183" t="n">
-        <v>334</v>
-      </c>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>39814</v>
+        <v>39190</v>
       </c>
     </row>
   </sheetData>
@@ -28571,7 +28447,7 @@
         <v>426</v>
       </c>
       <c r="Y173" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z173" t="n">
         <v>9</v>
@@ -28580,7 +28456,7 @@
         <v>139</v>
       </c>
       <c r="AB173" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="174">
@@ -28639,7 +28515,7 @@
         <v>427</v>
       </c>
       <c r="Y174" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z174" t="n">
         <v>9</v>
@@ -28648,7 +28524,7 @@
         <v>139</v>
       </c>
       <c r="AB174" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="175">
@@ -28709,7 +28585,7 @@
         <v>428</v>
       </c>
       <c r="Y175" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z175" t="n">
         <v>9</v>
@@ -28718,7 +28594,7 @@
         <v>139</v>
       </c>
       <c r="AB175" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="176">
@@ -28761,9 +28637,7 @@
       <c r="M176" t="n">
         <v>21</v>
       </c>
-      <c r="N176" t="n">
-        <v>84</v>
-      </c>
+      <c r="N176" t="inlineStr"/>
       <c r="O176" t="n">
         <v>3</v>
       </c>
@@ -28795,7 +28669,7 @@
         <v>429</v>
       </c>
       <c r="Y176" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z176" t="n">
         <v>9</v>
@@ -28804,7 +28678,7 @@
         <v>139</v>
       </c>
       <c r="AB176" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="177">
@@ -28849,9 +28723,7 @@
       <c r="M177" t="n">
         <v>21</v>
       </c>
-      <c r="N177" t="n">
-        <v>84</v>
-      </c>
+      <c r="N177" t="inlineStr"/>
       <c r="O177" t="n">
         <v>3</v>
       </c>
@@ -28883,7 +28755,7 @@
         <v>429</v>
       </c>
       <c r="Y177" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z177" t="n">
         <v>9</v>
@@ -28892,7 +28764,7 @@
         <v>139</v>
       </c>
       <c r="AB177" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="178">
@@ -28937,9 +28809,7 @@
       <c r="M178" t="n">
         <v>21</v>
       </c>
-      <c r="N178" t="n">
-        <v>84</v>
-      </c>
+      <c r="N178" t="inlineStr"/>
       <c r="O178" t="n">
         <v>3</v>
       </c>
@@ -28971,7 +28841,7 @@
         <v>429</v>
       </c>
       <c r="Y178" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z178" t="n">
         <v>9</v>
@@ -28980,7 +28850,7 @@
         <v>139</v>
       </c>
       <c r="AB178" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="179">
@@ -28989,9 +28859,7 @@
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="B179" t="n">
-        <v>51</v>
-      </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
@@ -29006,24 +28874,18 @@
       <c r="H179" t="n">
         <v>85</v>
       </c>
-      <c r="I179" t="n">
-        <v>297</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>13</v>
       </c>
       <c r="K179" t="n">
         <v>50</v>
       </c>
-      <c r="L179" t="n">
-        <v>7</v>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>21</v>
       </c>
-      <c r="N179" t="n">
-        <v>84</v>
-      </c>
+      <c r="N179" t="inlineStr"/>
       <c r="O179" t="n">
         <v>3</v>
       </c>
@@ -29053,7 +28915,7 @@
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z179" t="n">
         <v>9</v>
@@ -29062,7 +28924,7 @@
         <v>139</v>
       </c>
       <c r="AB179" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="180">
@@ -29071,49 +28933,33 @@
           <t>2020-08-21</t>
         </is>
       </c>
-      <c r="B180" t="n">
-        <v>51</v>
-      </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
         <v>0</v>
       </c>
-      <c r="D180" t="n">
-        <v>3</v>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
         <v>98</v>
       </c>
-      <c r="F180" t="n">
-        <v>35</v>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>53</v>
       </c>
       <c r="H180" t="n">
         <v>85</v>
       </c>
-      <c r="I180" t="n">
-        <v>297</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>13</v>
       </c>
-      <c r="K180" t="n">
-        <v>50</v>
-      </c>
-      <c r="L180" t="n">
-        <v>7</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>21</v>
       </c>
       <c r="N180" t="inlineStr"/>
-      <c r="O180" t="n">
-        <v>3</v>
-      </c>
-      <c r="P180" t="n">
-        <v>0</v>
-      </c>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
         <v>8</v>
@@ -29130,21 +28976,15 @@
       <c r="V180" t="n">
         <v>350</v>
       </c>
-      <c r="W180" t="n">
-        <v>7</v>
-      </c>
+      <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="n">
-        <v>154</v>
-      </c>
+      <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="n">
         <v>9</v>
       </c>
-      <c r="AA180" t="n">
-        <v>140</v>
-      </c>
+      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="181">
@@ -29153,62 +28993,34 @@
           <t>2020-08-22</t>
         </is>
       </c>
-      <c r="B181" t="n">
-        <v>51</v>
-      </c>
+      <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="n">
-        <v>98</v>
-      </c>
-      <c r="F181" t="n">
-        <v>35</v>
-      </c>
-      <c r="G181" t="n">
-        <v>53</v>
-      </c>
-      <c r="H181" t="n">
-        <v>85</v>
-      </c>
-      <c r="I181" t="n">
-        <v>297</v>
-      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>50</v>
-      </c>
-      <c r="L181" t="n">
-        <v>7</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
-      <c r="O181" t="n">
-        <v>3</v>
-      </c>
+      <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
-      <c r="T181" t="n">
-        <v>25</v>
-      </c>
-      <c r="U181" t="n">
-        <v>19</v>
-      </c>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="n">
-        <v>154</v>
-      </c>
-      <c r="Z181" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA181" t="n">
-        <v>140</v>
-      </c>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="182">
@@ -29217,64 +29029,34 @@
           <t>2020-08-23</t>
         </is>
       </c>
-      <c r="B182" t="n">
-        <v>51</v>
-      </c>
+      <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
-      <c r="E182" t="n">
-        <v>99</v>
-      </c>
-      <c r="F182" t="n">
-        <v>35</v>
-      </c>
-      <c r="G182" t="n">
-        <v>53</v>
-      </c>
-      <c r="H182" t="n">
-        <v>85</v>
-      </c>
-      <c r="I182" t="n">
-        <v>297</v>
-      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>50</v>
-      </c>
-      <c r="L182" t="n">
-        <v>7</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
-      <c r="O182" t="n">
-        <v>3</v>
-      </c>
+      <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="n">
-        <v>41</v>
-      </c>
+      <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
-      <c r="T182" t="n">
-        <v>25</v>
-      </c>
-      <c r="U182" t="n">
-        <v>19</v>
-      </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="n">
-        <v>154</v>
-      </c>
-      <c r="Z182" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA182" t="n">
-        <v>140</v>
-      </c>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="183">
@@ -29284,71 +29066,33 @@
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>99</v>
-      </c>
-      <c r="F183" t="n">
-        <v>35</v>
-      </c>
-      <c r="G183" t="n">
-        <v>53</v>
-      </c>
-      <c r="H183" t="n">
-        <v>85</v>
-      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>13</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>7</v>
-      </c>
-      <c r="M183" t="n">
-        <v>21</v>
-      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="n">
-        <v>3</v>
-      </c>
-      <c r="P183" t="n">
-        <v>0</v>
-      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="n">
-        <v>8</v>
-      </c>
-      <c r="S183" t="n">
-        <v>18</v>
-      </c>
-      <c r="T183" t="n">
-        <v>25</v>
-      </c>
-      <c r="U183" t="n">
-        <v>19</v>
-      </c>
-      <c r="V183" t="n">
-        <v>350</v>
-      </c>
-      <c r="W183" t="n">
-        <v>7</v>
-      </c>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="n">
-        <v>154</v>
-      </c>
-      <c r="Z183" t="n">
-        <v>9</v>
-      </c>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
@@ -40630,7 +40374,7 @@
         <v>10</v>
       </c>
       <c r="Y156" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z156" t="n">
         <v>0</v>
@@ -40639,7 +40383,7 @@
         <v>25</v>
       </c>
       <c r="AB156" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157">
@@ -40710,7 +40454,7 @@
         <v>14</v>
       </c>
       <c r="Y157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z157" t="n">
         <v>0</v>
@@ -40719,7 +40463,7 @@
         <v>27</v>
       </c>
       <c r="AB157" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="158">
@@ -40788,7 +40532,7 @@
         <v>12</v>
       </c>
       <c r="Y158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z158" t="n">
         <v>0</v>
@@ -40797,7 +40541,7 @@
         <v>27</v>
       </c>
       <c r="AB158" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159">
@@ -40868,7 +40612,7 @@
         <v>11</v>
       </c>
       <c r="Y159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z159" t="n">
         <v>2</v>
@@ -40877,7 +40621,7 @@
         <v>34</v>
       </c>
       <c r="AB159" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160">
@@ -40930,7 +40674,7 @@
         <v>13</v>
       </c>
       <c r="Y160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z160" t="n">
         <v>2</v>
@@ -40939,7 +40683,7 @@
         <v>36</v>
       </c>
       <c r="AB160" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161">
@@ -40990,7 +40734,7 @@
         <v>16</v>
       </c>
       <c r="Y161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z161" t="n">
         <v>2</v>
@@ -40999,7 +40743,7 @@
         <v>36</v>
       </c>
       <c r="AB161" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162">
@@ -41070,7 +40814,7 @@
         <v>16</v>
       </c>
       <c r="Y162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z162" t="n">
         <v>2</v>
@@ -41079,7 +40823,7 @@
         <v>36</v>
       </c>
       <c r="AB162" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163">
@@ -41148,7 +40892,7 @@
         <v>14</v>
       </c>
       <c r="Y163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z163" t="n">
         <v>2</v>
@@ -41157,7 +40901,7 @@
         <v>35</v>
       </c>
       <c r="AB163" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164">
@@ -41228,7 +40972,7 @@
         <v>14</v>
       </c>
       <c r="Y164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z164" t="n">
         <v>2</v>
@@ -41237,7 +40981,7 @@
         <v>29</v>
       </c>
       <c r="AB164" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165">
@@ -41306,7 +41050,7 @@
         <v>10</v>
       </c>
       <c r="Y165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z165" t="n">
         <v>1</v>
@@ -41315,7 +41059,7 @@
         <v>25</v>
       </c>
       <c r="AB165" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166">
@@ -41386,7 +41130,7 @@
         <v>10</v>
       </c>
       <c r="Y166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z166" t="n">
         <v>0</v>
@@ -41395,7 +41139,7 @@
         <v>25</v>
       </c>
       <c r="AB166" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167">
@@ -41448,7 +41192,7 @@
         <v>11</v>
       </c>
       <c r="Y167" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z167" t="n">
         <v>0</v>
@@ -41457,7 +41201,7 @@
         <v>26</v>
       </c>
       <c r="AB167" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168">
@@ -41508,7 +41252,7 @@
         <v>11</v>
       </c>
       <c r="Y168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z168" t="n">
         <v>0</v>
@@ -41517,7 +41261,7 @@
         <v>28</v>
       </c>
       <c r="AB168" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169">
@@ -41588,7 +41332,7 @@
         <v>11</v>
       </c>
       <c r="Y169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z169" t="n">
         <v>2</v>
@@ -41597,7 +41341,7 @@
         <v>27</v>
       </c>
       <c r="AB169" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170">
@@ -41666,7 +41410,7 @@
         <v>11</v>
       </c>
       <c r="Y170" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z170" t="n">
         <v>0</v>
@@ -41675,7 +41419,7 @@
         <v>27</v>
       </c>
       <c r="AB170" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="171">
@@ -41746,7 +41490,7 @@
         <v>11</v>
       </c>
       <c r="Y171" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z171" t="n">
         <v>1</v>
@@ -41755,7 +41499,7 @@
         <v>27</v>
       </c>
       <c r="AB171" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="172">
@@ -41826,7 +41570,7 @@
         <v>11</v>
       </c>
       <c r="Y172" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z172" t="n">
         <v>0</v>
@@ -41835,7 +41579,7 @@
         <v>27</v>
       </c>
       <c r="AB172" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173">
@@ -42346,7 +42090,7 @@
       </c>
       <c r="X179" t="inlineStr"/>
       <c r="Y179" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z179" t="n">
         <v>0</v>
@@ -42355,7 +42099,7 @@
         <v>30</v>
       </c>
       <c r="AB179" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180">
@@ -42366,48 +42110,30 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="n">
-        <v>2</v>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
         <v>5</v>
       </c>
-      <c r="F180" t="n">
-        <v>1</v>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>8</v>
       </c>
       <c r="H180" t="n">
         <v>2</v>
       </c>
-      <c r="I180" t="n">
-        <v>16</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>0</v>
       </c>
-      <c r="K180" t="n">
-        <v>1</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>8</v>
       </c>
-      <c r="N180" t="n">
-        <v>0</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0</v>
-      </c>
-      <c r="P180" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>9</v>
-      </c>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
         <v>5</v>
       </c>
@@ -42421,21 +42147,15 @@
       <c r="V180" t="n">
         <v>0</v>
       </c>
-      <c r="W180" t="n">
-        <v>0</v>
-      </c>
+      <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="n">
-        <v>9</v>
-      </c>
+      <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="n">
         <v>0</v>
       </c>
-      <c r="AA180" t="n">
-        <v>25</v>
-      </c>
+      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181">
@@ -42448,54 +42168,30 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" t="n">
-        <v>7</v>
-      </c>
-      <c r="H181" t="n">
-        <v>3</v>
-      </c>
-      <c r="I181" t="n">
-        <v>16</v>
-      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="n">
-        <v>0</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0</v>
-      </c>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
-      <c r="U181" t="n">
-        <v>4</v>
-      </c>
+      <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA181" t="n">
-        <v>23</v>
-      </c>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="182">
@@ -42508,56 +42204,30 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>7</v>
-      </c>
-      <c r="H182" t="n">
-        <v>3</v>
-      </c>
-      <c r="I182" t="n">
-        <v>16</v>
-      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1</v>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="n">
-        <v>0</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0</v>
-      </c>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="n">
-        <v>9</v>
-      </c>
+      <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
-      <c r="U182" t="n">
-        <v>4</v>
-      </c>
+      <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA182" t="n">
-        <v>25</v>
-      </c>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183">
@@ -42568,66 +42238,32 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>4</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" t="n">
-        <v>7</v>
-      </c>
-      <c r="H183" t="n">
-        <v>3</v>
-      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="n">
-        <v>8</v>
-      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="n">
-        <v>0</v>
-      </c>
-      <c r="P183" t="n">
-        <v>1</v>
-      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="n">
-        <v>2</v>
-      </c>
-      <c r="S183" t="n">
-        <v>3</v>
-      </c>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
-      <c r="U183" t="n">
-        <v>4</v>
-      </c>
-      <c r="V183" t="n">
-        <v>1</v>
-      </c>
-      <c r="W183" t="n">
-        <v>0</v>
-      </c>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z183" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -54363,44 +53999,28 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
         <v>2</v>
       </c>
-      <c r="F180" t="n">
-        <v>1</v>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>3</v>
       </c>
-      <c r="N180" t="n">
-        <v>0</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0</v>
-      </c>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
         <v>0</v>
       </c>
@@ -54414,9 +54034,7 @@
       </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
@@ -54433,50 +54051,30 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="n">
-        <v>0</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0</v>
-      </c>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
-      <c r="U181" t="n">
-        <v>1</v>
-      </c>
+      <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182">
@@ -54489,52 +54087,30 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="n">
-        <v>0</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0</v>
-      </c>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
-      <c r="U182" t="n">
-        <v>1</v>
-      </c>
+      <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
@@ -54545,52 +54121,28 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>0</v>
-      </c>
-      <c r="M183" t="n">
-        <v>3</v>
-      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="n">
-        <v>0</v>
-      </c>
+      <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="n">
-        <v>0</v>
-      </c>
+      <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
-      <c r="U183" t="n">
-        <v>1</v>
-      </c>
-      <c r="V183" t="n">
-        <v>0</v>
-      </c>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
@@ -63758,26 +63310,18 @@
       <c r="E180" t="n">
         <v>1</v>
       </c>
-      <c r="F180" t="n">
-        <v>1</v>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="n">
-        <v>0</v>
-      </c>
+      <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
@@ -63787,15 +63331,11 @@
       </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="inlineStr"/>
-      <c r="AA180" t="n">
-        <v>7</v>
-      </c>
+      <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181">
@@ -63808,21 +63348,15 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="n">
-        <v>1</v>
-      </c>
+      <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="n">
-        <v>0</v>
-      </c>
+      <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
@@ -63833,15 +63367,11 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y181" t="inlineStr"/>
       <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="n">
-        <v>7</v>
-      </c>
+      <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182">
@@ -63854,26 +63384,18 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="n">
-        <v>1</v>
-      </c>
+      <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="n">
-        <v>0</v>
-      </c>
+      <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
@@ -63881,15 +63403,11 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="n">
-        <v>6</v>
-      </c>
+      <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183">
@@ -63901,12 +63419,8 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="n">
-        <v>1</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1</v>
-      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
@@ -63922,18 +63436,14 @@
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
-      <c r="V183" t="n">
-        <v>0</v>
-      </c>
+      <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -73659,18 +73169,14 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="n">
-        <v>914</v>
-      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>1039</v>
       </c>
       <c r="H180" t="n">
         <v>160</v>
       </c>
-      <c r="I180" t="n">
-        <v>968</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
@@ -73690,19 +73196,15 @@
       <c r="V180" t="n">
         <v>925</v>
       </c>
-      <c r="W180" t="n">
-        <v>115</v>
-      </c>
+      <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="n">
-        <v>315</v>
-      </c>
+      <c r="Y180" t="inlineStr"/>
       <c r="Z180" t="n">
         <v>287</v>
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>6602</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="181">
@@ -73715,15 +73217,9 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="n">
-        <v>918</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1049</v>
-      </c>
-      <c r="H181" t="n">
-        <v>160</v>
-      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -73735,24 +73231,16 @@
       <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="inlineStr"/>
-      <c r="T181" t="n">
-        <v>404</v>
-      </c>
-      <c r="U181" t="n">
-        <v>78</v>
-      </c>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z181" t="n">
-        <v>287</v>
-      </c>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>6616</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="182">
@@ -73765,15 +73253,9 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="n">
-        <v>920</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1059</v>
-      </c>
-      <c r="H182" t="n">
-        <v>160</v>
-      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -73785,24 +73267,16 @@
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
-      <c r="T182" t="n">
-        <v>404</v>
-      </c>
-      <c r="U182" t="n">
-        <v>78</v>
-      </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z182" t="n">
-        <v>287</v>
-      </c>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>6628</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="183">
@@ -73815,15 +73289,9 @@
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="n">
-        <v>924</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1066</v>
-      </c>
-      <c r="H183" t="n">
-        <v>160</v>
-      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -73835,28 +73303,16 @@
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
-      <c r="T183" t="n">
-        <v>409</v>
-      </c>
-      <c r="U183" t="n">
-        <v>78</v>
-      </c>
-      <c r="V183" t="n">
-        <v>926</v>
-      </c>
-      <c r="W183" t="n">
-        <v>115</v>
-      </c>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z183" t="n">
-        <v>287</v>
-      </c>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6645</v>
+        <v>6591</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -1640,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="I20" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J20" t="n">
         <v>8</v>
@@ -1685,7 +1685,7 @@
         <v>218</v>
       </c>
       <c r="AB20" t="n">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="21">
@@ -1706,7 +1706,7 @@
         <v>40</v>
       </c>
       <c r="I21" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J21" t="n">
         <v>10</v>
@@ -1753,7 +1753,7 @@
         <v>250</v>
       </c>
       <c r="AB21" t="n">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="22">
@@ -1782,7 +1782,7 @@
         <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J22" t="n">
         <v>10</v>
@@ -1827,7 +1827,7 @@
         <v>326</v>
       </c>
       <c r="AB22" t="n">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="23">
@@ -1854,7 +1854,7 @@
         <v>59</v>
       </c>
       <c r="I23" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J23" t="n">
         <v>12</v>
@@ -1901,7 +1901,7 @@
         <v>429</v>
       </c>
       <c r="AB23" t="n">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="24">
@@ -1930,7 +1930,7 @@
         <v>86</v>
       </c>
       <c r="I24" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J24" t="n">
         <v>14</v>
@@ -1981,7 +1981,7 @@
         <v>568</v>
       </c>
       <c r="AB24" t="n">
-        <v>4806</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="25">
@@ -2010,7 +2010,7 @@
         <v>111</v>
       </c>
       <c r="I25" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J25" t="n">
         <v>16</v>
@@ -2059,7 +2059,7 @@
         <v>679</v>
       </c>
       <c r="AB25" t="n">
-        <v>5793</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="26">
@@ -2086,7 +2086,7 @@
         <v>145</v>
       </c>
       <c r="I26" t="n">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J26" t="n">
         <v>20</v>
@@ -2139,7 +2139,7 @@
         <v>711</v>
       </c>
       <c r="AB26" t="n">
-        <v>7020</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="27">
@@ -2164,7 +2164,7 @@
         <v>167</v>
       </c>
       <c r="I27" t="n">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="J27" t="n">
         <v>25</v>
@@ -2213,7 +2213,7 @@
         <v>919</v>
       </c>
       <c r="AB27" t="n">
-        <v>7910</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="28">
@@ -2238,7 +2238,7 @@
         <v>202</v>
       </c>
       <c r="I28" t="n">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J28" t="n">
         <v>29</v>
@@ -2285,7 +2285,7 @@
         <v>978</v>
       </c>
       <c r="AB28" t="n">
-        <v>8504</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="29">
@@ -2314,7 +2314,7 @@
         <v>226</v>
       </c>
       <c r="I29" t="n">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="J29" t="n">
         <v>31</v>
@@ -2369,7 +2369,7 @@
         <v>1067</v>
       </c>
       <c r="AB29" t="n">
-        <v>9744</v>
+        <v>9742</v>
       </c>
     </row>
     <row r="30">
@@ -2400,7 +2400,7 @@
         <v>255</v>
       </c>
       <c r="I30" t="n">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="J30" t="n">
         <v>33</v>
@@ -2457,7 +2457,7 @@
         <v>1213</v>
       </c>
       <c r="AB30" t="n">
-        <v>10848</v>
+        <v>10845</v>
       </c>
     </row>
     <row r="31">
@@ -2488,7 +2488,7 @@
         <v>293</v>
       </c>
       <c r="I31" t="n">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="J31" t="n">
         <v>40</v>
@@ -2541,7 +2541,7 @@
         <v>1358</v>
       </c>
       <c r="AB31" t="n">
-        <v>11988</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="32">
@@ -2572,7 +2572,7 @@
         <v>309</v>
       </c>
       <c r="I32" t="n">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="J32" t="n">
         <v>43</v>
@@ -2629,7 +2629,7 @@
         <v>1490</v>
       </c>
       <c r="AB32" t="n">
-        <v>13079</v>
+        <v>13076</v>
       </c>
     </row>
     <row r="33">
@@ -2660,7 +2660,7 @@
         <v>369</v>
       </c>
       <c r="I33" t="n">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="J33" t="n">
         <v>47</v>
@@ -2717,7 +2717,7 @@
         <v>1617</v>
       </c>
       <c r="AB33" t="n">
-        <v>14382</v>
+        <v>14379</v>
       </c>
     </row>
     <row r="34">
@@ -2746,7 +2746,7 @@
         <v>421</v>
       </c>
       <c r="I34" t="n">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="J34" t="n">
         <v>47</v>
@@ -2801,7 +2801,7 @@
         <v>1691</v>
       </c>
       <c r="AB34" t="n">
-        <v>15223</v>
+        <v>15220</v>
       </c>
     </row>
     <row r="35">
@@ -2828,7 +2828,7 @@
         <v>442</v>
       </c>
       <c r="I35" t="n">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="J35" t="n">
         <v>50</v>
@@ -2883,7 +2883,7 @@
         <v>1723</v>
       </c>
       <c r="AB35" t="n">
-        <v>15825</v>
+        <v>15822</v>
       </c>
     </row>
     <row r="36">
@@ -2914,7 +2914,7 @@
         <v>477</v>
       </c>
       <c r="I36" t="n">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="J36" t="n">
         <v>51</v>
@@ -2969,7 +2969,7 @@
         <v>1849</v>
       </c>
       <c r="AB36" t="n">
-        <v>16945</v>
+        <v>16942</v>
       </c>
     </row>
     <row r="37">
@@ -3000,7 +3000,7 @@
         <v>491</v>
       </c>
       <c r="I37" t="n">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="J37" t="n">
         <v>53</v>
@@ -3057,7 +3057,7 @@
         <v>1937</v>
       </c>
       <c r="AB37" t="n">
-        <v>17870</v>
+        <v>17867</v>
       </c>
     </row>
     <row r="38">
@@ -3086,7 +3086,7 @@
         <v>525</v>
       </c>
       <c r="I38" t="n">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="J38" t="n">
         <v>56</v>
@@ -3143,7 +3143,7 @@
         <v>2126</v>
       </c>
       <c r="AB38" t="n">
-        <v>18934</v>
+        <v>18930</v>
       </c>
     </row>
     <row r="39">
@@ -3174,7 +3174,7 @@
         <v>550</v>
       </c>
       <c r="I39" t="n">
-        <v>3467</v>
+        <v>3461</v>
       </c>
       <c r="J39" t="n">
         <v>58</v>
@@ -3231,7 +3231,7 @@
         <v>2290</v>
       </c>
       <c r="AB39" t="n">
-        <v>20028</v>
+        <v>20022</v>
       </c>
     </row>
     <row r="40">
@@ -3262,7 +3262,7 @@
         <v>588</v>
       </c>
       <c r="I40" t="n">
-        <v>3675</v>
+        <v>3669</v>
       </c>
       <c r="J40" t="n">
         <v>59</v>
@@ -3319,7 +3319,7 @@
         <v>2418</v>
       </c>
       <c r="AB40" t="n">
-        <v>21004</v>
+        <v>20998</v>
       </c>
     </row>
     <row r="41">
@@ -3348,7 +3348,7 @@
         <v>638</v>
       </c>
       <c r="I41" t="n">
-        <v>3813</v>
+        <v>3807</v>
       </c>
       <c r="J41" t="n">
         <v>61</v>
@@ -3403,7 +3403,7 @@
         <v>2451</v>
       </c>
       <c r="AB41" t="n">
-        <v>21580</v>
+        <v>21574</v>
       </c>
     </row>
     <row r="42">
@@ -3430,7 +3430,7 @@
         <v>669</v>
       </c>
       <c r="I42" t="n">
-        <v>3900</v>
+        <v>3894</v>
       </c>
       <c r="J42" t="n">
         <v>63</v>
@@ -3485,7 +3485,7 @@
         <v>2481</v>
       </c>
       <c r="AB42" t="n">
-        <v>21984</v>
+        <v>21978</v>
       </c>
     </row>
     <row r="43">
@@ -3516,7 +3516,7 @@
         <v>689</v>
       </c>
       <c r="I43" t="n">
-        <v>4020</v>
+        <v>4014</v>
       </c>
       <c r="J43" t="n">
         <v>63</v>
@@ -3573,7 +3573,7 @@
         <v>2595</v>
       </c>
       <c r="AB43" t="n">
-        <v>22728</v>
+        <v>22722</v>
       </c>
     </row>
     <row r="44">
@@ -3604,7 +3604,7 @@
         <v>729</v>
       </c>
       <c r="I44" t="n">
-        <v>4194</v>
+        <v>4187</v>
       </c>
       <c r="J44" t="n">
         <v>63</v>
@@ -3661,7 +3661,7 @@
         <v>2678</v>
       </c>
       <c r="AB44" t="n">
-        <v>23395</v>
+        <v>23388</v>
       </c>
     </row>
     <row r="45">
@@ -3692,7 +3692,7 @@
         <v>756</v>
       </c>
       <c r="I45" t="n">
-        <v>4339</v>
+        <v>4330</v>
       </c>
       <c r="J45" t="n">
         <v>64</v>
@@ -3749,7 +3749,7 @@
         <v>2772</v>
       </c>
       <c r="AB45" t="n">
-        <v>24078</v>
+        <v>24069</v>
       </c>
     </row>
     <row r="46">
@@ -3780,7 +3780,7 @@
         <v>786</v>
       </c>
       <c r="I46" t="n">
-        <v>4432</v>
+        <v>4423</v>
       </c>
       <c r="J46" t="n">
         <v>67</v>
@@ -3837,7 +3837,7 @@
         <v>2869</v>
       </c>
       <c r="AB46" t="n">
-        <v>24747</v>
+        <v>24738</v>
       </c>
     </row>
     <row r="47">
@@ -3866,7 +3866,7 @@
         <v>796</v>
       </c>
       <c r="I47" t="n">
-        <v>4479</v>
+        <v>4470</v>
       </c>
       <c r="J47" t="n">
         <v>76</v>
@@ -3921,7 +3921,7 @@
         <v>2909</v>
       </c>
       <c r="AB47" t="n">
-        <v>25199</v>
+        <v>25190</v>
       </c>
     </row>
     <row r="48">
@@ -3952,7 +3952,7 @@
         <v>834</v>
       </c>
       <c r="I48" t="n">
-        <v>4537</v>
+        <v>4528</v>
       </c>
       <c r="J48" t="n">
         <v>91</v>
@@ -4007,7 +4007,7 @@
         <v>2967</v>
       </c>
       <c r="AB48" t="n">
-        <v>25671</v>
+        <v>25662</v>
       </c>
     </row>
     <row r="49">
@@ -4034,7 +4034,7 @@
         <v>846</v>
       </c>
       <c r="I49" t="n">
-        <v>4567</v>
+        <v>4558</v>
       </c>
       <c r="J49" t="n">
         <v>91</v>
@@ -4089,7 +4089,7 @@
         <v>2984</v>
       </c>
       <c r="AB49" t="n">
-        <v>25951</v>
+        <v>25942</v>
       </c>
     </row>
     <row r="50">
@@ -4120,7 +4120,7 @@
         <v>859</v>
       </c>
       <c r="I50" t="n">
-        <v>4616</v>
+        <v>4606</v>
       </c>
       <c r="J50" t="n">
         <v>92</v>
@@ -4175,7 +4175,7 @@
         <v>3001</v>
       </c>
       <c r="AB50" t="n">
-        <v>26200</v>
+        <v>26190</v>
       </c>
     </row>
     <row r="51">
@@ -4206,7 +4206,7 @@
         <v>879</v>
       </c>
       <c r="I51" t="n">
-        <v>4680</v>
+        <v>4669</v>
       </c>
       <c r="J51" t="n">
         <v>105</v>
@@ -4263,7 +4263,7 @@
         <v>3048</v>
       </c>
       <c r="AB51" t="n">
-        <v>26533</v>
+        <v>26522</v>
       </c>
     </row>
     <row r="52">
@@ -4294,7 +4294,7 @@
         <v>890</v>
       </c>
       <c r="I52" t="n">
-        <v>4752</v>
+        <v>4738</v>
       </c>
       <c r="J52" t="n">
         <v>105</v>
@@ -4351,7 +4351,7 @@
         <v>3095</v>
       </c>
       <c r="AB52" t="n">
-        <v>26859</v>
+        <v>26845</v>
       </c>
     </row>
     <row r="53">
@@ -4382,7 +4382,7 @@
         <v>907</v>
       </c>
       <c r="I53" t="n">
-        <v>4826</v>
+        <v>4811</v>
       </c>
       <c r="J53" t="n">
         <v>106</v>
@@ -4439,7 +4439,7 @@
         <v>3130</v>
       </c>
       <c r="AB53" t="n">
-        <v>27167</v>
+        <v>27152</v>
       </c>
     </row>
     <row r="54">
@@ -4470,7 +4470,7 @@
         <v>930</v>
       </c>
       <c r="I54" t="n">
-        <v>4873</v>
+        <v>4858</v>
       </c>
       <c r="J54" t="n">
         <v>108</v>
@@ -4527,7 +4527,7 @@
         <v>3153</v>
       </c>
       <c r="AB54" t="n">
-        <v>27477</v>
+        <v>27462</v>
       </c>
     </row>
     <row r="55">
@@ -4554,7 +4554,7 @@
         <v>956</v>
       </c>
       <c r="I55" t="n">
-        <v>4926</v>
+        <v>4910</v>
       </c>
       <c r="J55" t="n">
         <v>111</v>
@@ -4609,7 +4609,7 @@
         <v>3192</v>
       </c>
       <c r="AB55" t="n">
-        <v>27759</v>
+        <v>27743</v>
       </c>
     </row>
     <row r="56">
@@ -4638,7 +4638,7 @@
         <v>980</v>
       </c>
       <c r="I56" t="n">
-        <v>4937</v>
+        <v>4921</v>
       </c>
       <c r="J56" t="n">
         <v>111</v>
@@ -4693,7 +4693,7 @@
         <v>3219</v>
       </c>
       <c r="AB56" t="n">
-        <v>27936</v>
+        <v>27920</v>
       </c>
     </row>
     <row r="57">
@@ -4724,7 +4724,7 @@
         <v>989</v>
       </c>
       <c r="I57" t="n">
-        <v>4969</v>
+        <v>4953</v>
       </c>
       <c r="J57" t="n">
         <v>114</v>
@@ -4781,7 +4781,7 @@
         <v>3235</v>
       </c>
       <c r="AB57" t="n">
-        <v>28142</v>
+        <v>28126</v>
       </c>
     </row>
     <row r="58">
@@ -4812,7 +4812,7 @@
         <v>995</v>
       </c>
       <c r="I58" t="n">
-        <v>5009</v>
+        <v>4993</v>
       </c>
       <c r="J58" t="n">
         <v>115</v>
@@ -4869,7 +4869,7 @@
         <v>3260</v>
       </c>
       <c r="AB58" t="n">
-        <v>28313</v>
+        <v>28297</v>
       </c>
     </row>
     <row r="59">
@@ -4900,7 +4900,7 @@
         <v>1006</v>
       </c>
       <c r="I59" t="n">
-        <v>5042</v>
+        <v>5026</v>
       </c>
       <c r="J59" t="n">
         <v>117</v>
@@ -4957,7 +4957,7 @@
         <v>3300</v>
       </c>
       <c r="AB59" t="n">
-        <v>28522</v>
+        <v>28506</v>
       </c>
     </row>
     <row r="60">
@@ -4988,7 +4988,7 @@
         <v>1014</v>
       </c>
       <c r="I60" t="n">
-        <v>5080</v>
+        <v>5064</v>
       </c>
       <c r="J60" t="n">
         <v>117</v>
@@ -5045,7 +5045,7 @@
         <v>3317</v>
       </c>
       <c r="AB60" t="n">
-        <v>28745</v>
+        <v>28729</v>
       </c>
     </row>
     <row r="61">
@@ -5076,7 +5076,7 @@
         <v>1021</v>
       </c>
       <c r="I61" t="n">
-        <v>5101</v>
+        <v>5085</v>
       </c>
       <c r="J61" t="n">
         <v>117</v>
@@ -5133,7 +5133,7 @@
         <v>3345</v>
       </c>
       <c r="AB61" t="n">
-        <v>28934</v>
+        <v>28918</v>
       </c>
     </row>
     <row r="62">
@@ -5160,7 +5160,7 @@
         <v>1029</v>
       </c>
       <c r="I62" t="n">
-        <v>5121</v>
+        <v>5104</v>
       </c>
       <c r="J62" t="n">
         <v>120</v>
@@ -5215,7 +5215,7 @@
         <v>3376</v>
       </c>
       <c r="AB62" t="n">
-        <v>29080</v>
+        <v>29063</v>
       </c>
     </row>
     <row r="63">
@@ -5240,7 +5240,7 @@
         <v>1033</v>
       </c>
       <c r="I63" t="n">
-        <v>5126</v>
+        <v>5109</v>
       </c>
       <c r="J63" t="n">
         <v>120</v>
@@ -5295,7 +5295,7 @@
         <v>3379</v>
       </c>
       <c r="AB63" t="n">
-        <v>29156</v>
+        <v>29139</v>
       </c>
     </row>
     <row r="64">
@@ -5326,7 +5326,7 @@
         <v>1040</v>
       </c>
       <c r="I64" t="n">
-        <v>5146</v>
+        <v>5128</v>
       </c>
       <c r="J64" t="n">
         <v>121</v>
@@ -5383,7 +5383,7 @@
         <v>3397</v>
       </c>
       <c r="AB64" t="n">
-        <v>29328</v>
+        <v>29310</v>
       </c>
     </row>
     <row r="65">
@@ -5414,7 +5414,7 @@
         <v>1044</v>
       </c>
       <c r="I65" t="n">
-        <v>5166</v>
+        <v>5148</v>
       </c>
       <c r="J65" t="n">
         <v>121</v>
@@ -5471,7 +5471,7 @@
         <v>3412</v>
       </c>
       <c r="AB65" t="n">
-        <v>29456</v>
+        <v>29438</v>
       </c>
     </row>
     <row r="66">
@@ -5502,7 +5502,7 @@
         <v>1057</v>
       </c>
       <c r="I66" t="n">
-        <v>5184</v>
+        <v>5166</v>
       </c>
       <c r="J66" t="n">
         <v>122</v>
@@ -5559,7 +5559,7 @@
         <v>3441</v>
       </c>
       <c r="AB66" t="n">
-        <v>29598</v>
+        <v>29580</v>
       </c>
     </row>
     <row r="67">
@@ -5590,7 +5590,7 @@
         <v>1070</v>
       </c>
       <c r="I67" t="n">
-        <v>5195</v>
+        <v>5177</v>
       </c>
       <c r="J67" t="n">
         <v>122</v>
@@ -5647,7 +5647,7 @@
         <v>3452</v>
       </c>
       <c r="AB67" t="n">
-        <v>29745</v>
+        <v>29727</v>
       </c>
     </row>
     <row r="68">
@@ -5678,7 +5678,7 @@
         <v>1078</v>
       </c>
       <c r="I68" t="n">
-        <v>5214</v>
+        <v>5196</v>
       </c>
       <c r="J68" t="n">
         <v>122</v>
@@ -5735,7 +5735,7 @@
         <v>3465</v>
       </c>
       <c r="AB68" t="n">
-        <v>29871</v>
+        <v>29853</v>
       </c>
     </row>
     <row r="69">
@@ -5764,7 +5764,7 @@
         <v>1092</v>
       </c>
       <c r="I69" t="n">
-        <v>5219</v>
+        <v>5201</v>
       </c>
       <c r="J69" t="n">
         <v>122</v>
@@ -5817,7 +5817,7 @@
         <v>3468</v>
       </c>
       <c r="AB69" t="n">
-        <v>29939</v>
+        <v>29921</v>
       </c>
     </row>
     <row r="70">
@@ -5846,7 +5846,7 @@
         <v>1097</v>
       </c>
       <c r="I70" t="n">
-        <v>5225</v>
+        <v>5207</v>
       </c>
       <c r="J70" t="n">
         <v>122</v>
@@ -5899,7 +5899,7 @@
         <v>3472</v>
       </c>
       <c r="AB70" t="n">
-        <v>29999</v>
+        <v>29981</v>
       </c>
     </row>
     <row r="71">
@@ -5930,7 +5930,7 @@
         <v>1102</v>
       </c>
       <c r="I71" t="n">
-        <v>5231</v>
+        <v>5213</v>
       </c>
       <c r="J71" t="n">
         <v>122</v>
@@ -5987,7 +5987,7 @@
         <v>3474</v>
       </c>
       <c r="AB71" t="n">
-        <v>30061</v>
+        <v>30043</v>
       </c>
     </row>
     <row r="72">
@@ -6018,7 +6018,7 @@
         <v>1104</v>
       </c>
       <c r="I72" t="n">
-        <v>5240</v>
+        <v>5222</v>
       </c>
       <c r="J72" t="n">
         <v>122</v>
@@ -6075,7 +6075,7 @@
         <v>3490</v>
       </c>
       <c r="AB72" t="n">
-        <v>30124</v>
+        <v>30106</v>
       </c>
     </row>
     <row r="73">
@@ -6106,7 +6106,7 @@
         <v>1107</v>
       </c>
       <c r="I73" t="n">
-        <v>5247</v>
+        <v>5229</v>
       </c>
       <c r="J73" t="n">
         <v>125</v>
@@ -6163,7 +6163,7 @@
         <v>3505</v>
       </c>
       <c r="AB73" t="n">
-        <v>30207</v>
+        <v>30189</v>
       </c>
     </row>
     <row r="74">
@@ -6192,7 +6192,7 @@
         <v>1115</v>
       </c>
       <c r="I74" t="n">
-        <v>5254</v>
+        <v>5236</v>
       </c>
       <c r="J74" t="n">
         <v>125</v>
@@ -6249,7 +6249,7 @@
         <v>3515</v>
       </c>
       <c r="AB74" t="n">
-        <v>30276</v>
+        <v>30258</v>
       </c>
     </row>
     <row r="75">
@@ -6278,7 +6278,7 @@
         <v>1117</v>
       </c>
       <c r="I75" t="n">
-        <v>5260</v>
+        <v>5242</v>
       </c>
       <c r="J75" t="n">
         <v>125</v>
@@ -6335,7 +6335,7 @@
         <v>3525</v>
       </c>
       <c r="AB75" t="n">
-        <v>30342</v>
+        <v>30324</v>
       </c>
     </row>
     <row r="76">
@@ -6364,7 +6364,7 @@
         <v>1121</v>
       </c>
       <c r="I76" t="n">
-        <v>5269</v>
+        <v>5251</v>
       </c>
       <c r="J76" t="n">
         <v>126</v>
@@ -6415,7 +6415,7 @@
         <v>3530</v>
       </c>
       <c r="AB76" t="n">
-        <v>30386</v>
+        <v>30368</v>
       </c>
     </row>
     <row r="77">
@@ -6442,7 +6442,7 @@
         <v>1126</v>
       </c>
       <c r="I77" t="n">
-        <v>5270</v>
+        <v>5252</v>
       </c>
       <c r="J77" t="n">
         <v>126</v>
@@ -6491,7 +6491,7 @@
         <v>3533</v>
       </c>
       <c r="AB77" t="n">
-        <v>30418</v>
+        <v>30400</v>
       </c>
     </row>
     <row r="78">
@@ -6522,7 +6522,7 @@
         <v>1129</v>
       </c>
       <c r="I78" t="n">
-        <v>5275</v>
+        <v>5257</v>
       </c>
       <c r="J78" t="n">
         <v>127</v>
@@ -6579,7 +6579,7 @@
         <v>3538</v>
       </c>
       <c r="AB78" t="n">
-        <v>30482</v>
+        <v>30464</v>
       </c>
     </row>
     <row r="79">
@@ -6610,7 +6610,7 @@
         <v>1138</v>
       </c>
       <c r="I79" t="n">
-        <v>5285</v>
+        <v>5267</v>
       </c>
       <c r="J79" t="n">
         <v>127</v>
@@ -6667,7 +6667,7 @@
         <v>3540</v>
       </c>
       <c r="AB79" t="n">
-        <v>30530</v>
+        <v>30512</v>
       </c>
     </row>
     <row r="80">
@@ -6694,7 +6694,7 @@
         <v>1141</v>
       </c>
       <c r="I80" t="n">
-        <v>5289</v>
+        <v>5271</v>
       </c>
       <c r="J80" t="n">
         <v>127</v>
@@ -6751,7 +6751,7 @@
         <v>3546</v>
       </c>
       <c r="AB80" t="n">
-        <v>30571</v>
+        <v>30553</v>
       </c>
     </row>
     <row r="81">
@@ -6780,7 +6780,7 @@
         <v>1143</v>
       </c>
       <c r="I81" t="n">
-        <v>5296</v>
+        <v>5278</v>
       </c>
       <c r="J81" t="n">
         <v>128</v>
@@ -6837,7 +6837,7 @@
         <v>3551</v>
       </c>
       <c r="AB81" t="n">
-        <v>30612</v>
+        <v>30594</v>
       </c>
     </row>
     <row r="82">
@@ -6866,7 +6866,7 @@
         <v>1145</v>
       </c>
       <c r="I82" t="n">
-        <v>5301</v>
+        <v>5283</v>
       </c>
       <c r="J82" t="n">
         <v>128</v>
@@ -6921,7 +6921,7 @@
         <v>3553</v>
       </c>
       <c r="AB82" t="n">
-        <v>30657</v>
+        <v>30639</v>
       </c>
     </row>
     <row r="83">
@@ -6948,7 +6948,7 @@
         <v>1146</v>
       </c>
       <c r="I83" t="n">
-        <v>5303</v>
+        <v>5285</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -6997,7 +6997,7 @@
         <v>3558</v>
       </c>
       <c r="AB83" t="n">
-        <v>30687</v>
+        <v>30669</v>
       </c>
     </row>
     <row r="84">
@@ -7022,7 +7022,7 @@
         <v>1147</v>
       </c>
       <c r="I84" t="n">
-        <v>5304</v>
+        <v>5286</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -7071,7 +7071,7 @@
         <v>3560</v>
       </c>
       <c r="AB84" t="n">
-        <v>30703</v>
+        <v>30685</v>
       </c>
     </row>
     <row r="85">
@@ -7100,7 +7100,7 @@
         <v>1147</v>
       </c>
       <c r="I85" t="n">
-        <v>5305</v>
+        <v>5287</v>
       </c>
       <c r="J85" t="n">
         <v>128</v>
@@ -7157,7 +7157,7 @@
         <v>3564</v>
       </c>
       <c r="AB85" t="n">
-        <v>30737</v>
+        <v>30719</v>
       </c>
     </row>
     <row r="86">
@@ -7184,7 +7184,7 @@
         <v>1147</v>
       </c>
       <c r="I86" t="n">
-        <v>5307</v>
+        <v>5289</v>
       </c>
       <c r="J86" t="n">
         <v>128</v>
@@ -7241,7 +7241,7 @@
         <v>3568</v>
       </c>
       <c r="AB86" t="n">
-        <v>30765</v>
+        <v>30747</v>
       </c>
     </row>
     <row r="87">
@@ -7272,7 +7272,7 @@
         <v>1152</v>
       </c>
       <c r="I87" t="n">
-        <v>5314</v>
+        <v>5296</v>
       </c>
       <c r="J87" t="n">
         <v>128</v>
@@ -7329,7 +7329,7 @@
         <v>3571</v>
       </c>
       <c r="AB87" t="n">
-        <v>30803</v>
+        <v>30785</v>
       </c>
     </row>
     <row r="88">
@@ -7356,7 +7356,7 @@
         <v>1152</v>
       </c>
       <c r="I88" t="n">
-        <v>5319</v>
+        <v>5301</v>
       </c>
       <c r="J88" t="n">
         <v>128</v>
@@ -7407,7 +7407,7 @@
         <v>3572</v>
       </c>
       <c r="AB88" t="n">
-        <v>30830</v>
+        <v>30812</v>
       </c>
     </row>
     <row r="89">
@@ -7436,7 +7436,7 @@
         <v>1152</v>
       </c>
       <c r="I89" t="n">
-        <v>5321</v>
+        <v>5303</v>
       </c>
       <c r="J89" t="n">
         <v>128</v>
@@ -7487,7 +7487,7 @@
         <v>3574</v>
       </c>
       <c r="AB89" t="n">
-        <v>30850</v>
+        <v>30832</v>
       </c>
     </row>
     <row r="90">
@@ -7512,7 +7512,7 @@
         <v>1154</v>
       </c>
       <c r="I90" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -7559,7 +7559,7 @@
         <v>3576</v>
       </c>
       <c r="AB90" t="n">
-        <v>30870</v>
+        <v>30852</v>
       </c>
     </row>
     <row r="91">
@@ -7586,7 +7586,7 @@
         <v>1155</v>
       </c>
       <c r="I91" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
@@ -7633,7 +7633,7 @@
         <v>3577</v>
       </c>
       <c r="AB91" t="n">
-        <v>30880</v>
+        <v>30862</v>
       </c>
     </row>
     <row r="92">
@@ -7664,7 +7664,7 @@
         <v>1156</v>
       </c>
       <c r="I92" t="n">
-        <v>5323</v>
+        <v>5305</v>
       </c>
       <c r="J92" t="n">
         <v>128</v>
@@ -7721,7 +7721,7 @@
         <v>3579</v>
       </c>
       <c r="AB92" t="n">
-        <v>30887</v>
+        <v>30869</v>
       </c>
     </row>
     <row r="93">
@@ -7748,7 +7748,7 @@
         <v>1156</v>
       </c>
       <c r="I93" t="n">
-        <v>5326</v>
+        <v>5308</v>
       </c>
       <c r="J93" t="n">
         <v>128</v>
@@ -7805,7 +7805,7 @@
         <v>3585</v>
       </c>
       <c r="AB93" t="n">
-        <v>30909</v>
+        <v>30891</v>
       </c>
     </row>
     <row r="94">
@@ -7836,7 +7836,7 @@
         <v>1157</v>
       </c>
       <c r="I94" t="n">
-        <v>5329</v>
+        <v>5311</v>
       </c>
       <c r="J94" t="n">
         <v>128</v>
@@ -7893,7 +7893,7 @@
         <v>3588</v>
       </c>
       <c r="AB94" t="n">
-        <v>30923</v>
+        <v>30905</v>
       </c>
     </row>
     <row r="95">
@@ -7922,7 +7922,7 @@
         <v>1158</v>
       </c>
       <c r="I95" t="n">
-        <v>5331</v>
+        <v>5313</v>
       </c>
       <c r="J95" t="n">
         <v>128</v>
@@ -7979,7 +7979,7 @@
         <v>3593</v>
       </c>
       <c r="AB95" t="n">
-        <v>30942</v>
+        <v>30924</v>
       </c>
     </row>
     <row r="96">
@@ -8010,7 +8010,7 @@
         <v>1159</v>
       </c>
       <c r="I96" t="n">
-        <v>5335</v>
+        <v>5317</v>
       </c>
       <c r="J96" t="n">
         <v>128</v>
@@ -8067,7 +8067,7 @@
         <v>3599</v>
       </c>
       <c r="AB96" t="n">
-        <v>30972</v>
+        <v>30954</v>
       </c>
     </row>
     <row r="97">
@@ -8092,7 +8092,7 @@
         <v>1159</v>
       </c>
       <c r="I97" t="n">
-        <v>5340</v>
+        <v>5322</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
@@ -8139,7 +8139,7 @@
         <v>3605</v>
       </c>
       <c r="AB97" t="n">
-        <v>31013</v>
+        <v>30995</v>
       </c>
     </row>
     <row r="98">
@@ -8164,7 +8164,7 @@
         <v>1159</v>
       </c>
       <c r="I98" t="n">
-        <v>5340</v>
+        <v>5322</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -8211,7 +8211,7 @@
         <v>3605</v>
       </c>
       <c r="AB98" t="n">
-        <v>31020</v>
+        <v>31002</v>
       </c>
     </row>
     <row r="99">
@@ -8238,7 +8238,7 @@
         <v>1159</v>
       </c>
       <c r="I99" t="n">
-        <v>5341</v>
+        <v>5323</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
@@ -8285,7 +8285,7 @@
         <v>3605</v>
       </c>
       <c r="AB99" t="n">
-        <v>31026</v>
+        <v>31008</v>
       </c>
     </row>
     <row r="100">
@@ -8314,7 +8314,7 @@
         <v>1161</v>
       </c>
       <c r="I100" t="n">
-        <v>5344</v>
+        <v>5326</v>
       </c>
       <c r="J100" t="n">
         <v>128</v>
@@ -8369,7 +8369,7 @@
         <v>3607</v>
       </c>
       <c r="AB100" t="n">
-        <v>31043</v>
+        <v>31025</v>
       </c>
     </row>
     <row r="101">
@@ -8400,7 +8400,7 @@
         <v>1162</v>
       </c>
       <c r="I101" t="n">
-        <v>5346</v>
+        <v>5328</v>
       </c>
       <c r="J101" t="n">
         <v>128</v>
@@ -8455,7 +8455,7 @@
         <v>3610</v>
       </c>
       <c r="AB101" t="n">
-        <v>31062</v>
+        <v>31044</v>
       </c>
     </row>
     <row r="102">
@@ -8484,7 +8484,7 @@
         <v>1164</v>
       </c>
       <c r="I102" t="n">
-        <v>5347</v>
+        <v>5329</v>
       </c>
       <c r="J102" t="n">
         <v>128</v>
@@ -8537,7 +8537,7 @@
         <v>3618</v>
       </c>
       <c r="AB102" t="n">
-        <v>31085</v>
+        <v>31067</v>
       </c>
     </row>
     <row r="103">
@@ -8566,7 +8566,7 @@
         <v>1166</v>
       </c>
       <c r="I103" t="n">
-        <v>5348</v>
+        <v>5330</v>
       </c>
       <c r="J103" t="n">
         <v>128</v>
@@ -8619,7 +8619,7 @@
         <v>3624</v>
       </c>
       <c r="AB103" t="n">
-        <v>31106</v>
+        <v>31088</v>
       </c>
     </row>
     <row r="104">
@@ -8644,7 +8644,7 @@
         <v>1166</v>
       </c>
       <c r="I104" t="n">
-        <v>5351</v>
+        <v>5333</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -8687,7 +8687,7 @@
         <v>3628</v>
       </c>
       <c r="AB104" t="n">
-        <v>31118</v>
+        <v>31100</v>
       </c>
     </row>
     <row r="105">
@@ -8712,7 +8712,7 @@
         <v>1168</v>
       </c>
       <c r="I105" t="n">
-        <v>5351</v>
+        <v>5333</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
@@ -8757,7 +8757,7 @@
         <v>3628</v>
       </c>
       <c r="AB105" t="n">
-        <v>31126</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="106">
@@ -8786,7 +8786,7 @@
         <v>1172</v>
       </c>
       <c r="I106" t="n">
-        <v>5352</v>
+        <v>5334</v>
       </c>
       <c r="J106" t="n">
         <v>128</v>
@@ -8839,7 +8839,7 @@
         <v>3628</v>
       </c>
       <c r="AB106" t="n">
-        <v>31144</v>
+        <v>31126</v>
       </c>
     </row>
     <row r="107">
@@ -8868,7 +8868,7 @@
         <v>1172</v>
       </c>
       <c r="I107" t="n">
-        <v>5352</v>
+        <v>5334</v>
       </c>
       <c r="J107" t="n">
         <v>128</v>
@@ -8921,7 +8921,7 @@
         <v>3628</v>
       </c>
       <c r="AB107" t="n">
-        <v>31154</v>
+        <v>31136</v>
       </c>
     </row>
     <row r="108">
@@ -8950,7 +8950,7 @@
         <v>1174</v>
       </c>
       <c r="I108" t="n">
-        <v>5354</v>
+        <v>5336</v>
       </c>
       <c r="J108" t="n">
         <v>128</v>
@@ -9003,7 +9003,7 @@
         <v>3631</v>
       </c>
       <c r="AB108" t="n">
-        <v>31171</v>
+        <v>31153</v>
       </c>
     </row>
     <row r="109">
@@ -9030,7 +9030,7 @@
         <v>1175</v>
       </c>
       <c r="I109" t="n">
-        <v>5354</v>
+        <v>5336</v>
       </c>
       <c r="J109" t="n">
         <v>128</v>
@@ -9079,7 +9079,7 @@
         <v>3633</v>
       </c>
       <c r="AB109" t="n">
-        <v>31193</v>
+        <v>31175</v>
       </c>
     </row>
     <row r="110">
@@ -9110,7 +9110,7 @@
         <v>1175</v>
       </c>
       <c r="I110" t="n">
-        <v>5358</v>
+        <v>5340</v>
       </c>
       <c r="J110" t="n">
         <v>128</v>
@@ -9157,7 +9157,7 @@
         <v>3635</v>
       </c>
       <c r="AB110" t="n">
-        <v>31221</v>
+        <v>31203</v>
       </c>
     </row>
     <row r="111">
@@ -9182,7 +9182,7 @@
         <v>1179</v>
       </c>
       <c r="I111" t="n">
-        <v>5358</v>
+        <v>5340</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
@@ -9225,7 +9225,7 @@
         <v>3638</v>
       </c>
       <c r="AB111" t="n">
-        <v>31231</v>
+        <v>31213</v>
       </c>
     </row>
     <row r="112">
@@ -9250,7 +9250,7 @@
         <v>1181</v>
       </c>
       <c r="I112" t="n">
-        <v>5358</v>
+        <v>5340</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
@@ -9297,7 +9297,7 @@
         <v>3643</v>
       </c>
       <c r="AB112" t="n">
-        <v>31247</v>
+        <v>31229</v>
       </c>
     </row>
     <row r="113">
@@ -9324,7 +9324,7 @@
         <v>1181</v>
       </c>
       <c r="I113" t="n">
-        <v>5360</v>
+        <v>5342</v>
       </c>
       <c r="J113" t="n">
         <v>128</v>
@@ -9375,7 +9375,7 @@
         <v>3650</v>
       </c>
       <c r="AB113" t="n">
-        <v>31270</v>
+        <v>31252</v>
       </c>
     </row>
     <row r="114">
@@ -9402,7 +9402,7 @@
         <v>1182</v>
       </c>
       <c r="I114" t="n">
-        <v>5360</v>
+        <v>5342</v>
       </c>
       <c r="J114" t="n">
         <v>128</v>
@@ -9455,7 +9455,7 @@
         <v>3657</v>
       </c>
       <c r="AB114" t="n">
-        <v>31297</v>
+        <v>31279</v>
       </c>
     </row>
     <row r="115">
@@ -9482,7 +9482,7 @@
         <v>1183</v>
       </c>
       <c r="I115" t="n">
-        <v>5361</v>
+        <v>5343</v>
       </c>
       <c r="J115" t="n">
         <v>128</v>
@@ -9537,7 +9537,7 @@
         <v>3667</v>
       </c>
       <c r="AB115" t="n">
-        <v>31332</v>
+        <v>31314</v>
       </c>
     </row>
     <row r="116">
@@ -9562,7 +9562,7 @@
         <v>1185</v>
       </c>
       <c r="I116" t="n">
-        <v>5361</v>
+        <v>5343</v>
       </c>
       <c r="J116" t="n">
         <v>128</v>
@@ -9615,7 +9615,7 @@
         <v>3672</v>
       </c>
       <c r="AB116" t="n">
-        <v>31346</v>
+        <v>31328</v>
       </c>
     </row>
     <row r="117">
@@ -9644,7 +9644,7 @@
         <v>1186</v>
       </c>
       <c r="I117" t="n">
-        <v>5365</v>
+        <v>5347</v>
       </c>
       <c r="J117" t="n">
         <v>128</v>
@@ -9697,7 +9697,7 @@
         <v>3673</v>
       </c>
       <c r="AB117" t="n">
-        <v>31375</v>
+        <v>31357</v>
       </c>
     </row>
     <row r="118">
@@ -9720,7 +9720,7 @@
         <v>1191</v>
       </c>
       <c r="I118" t="n">
-        <v>5369</v>
+        <v>5351</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
@@ -9765,7 +9765,7 @@
         <v>3680</v>
       </c>
       <c r="AB118" t="n">
-        <v>31400</v>
+        <v>31382</v>
       </c>
     </row>
     <row r="119">
@@ -9788,7 +9788,7 @@
         <v>1191</v>
       </c>
       <c r="I119" t="n">
-        <v>5369</v>
+        <v>5351</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
@@ -9833,7 +9833,7 @@
         <v>3685</v>
       </c>
       <c r="AB119" t="n">
-        <v>31415</v>
+        <v>31397</v>
       </c>
     </row>
     <row r="120">
@@ -9860,7 +9860,7 @@
         <v>1191</v>
       </c>
       <c r="I120" t="n">
-        <v>5370</v>
+        <v>5352</v>
       </c>
       <c r="J120" t="n">
         <v>128</v>
@@ -9915,7 +9915,7 @@
         <v>3688</v>
       </c>
       <c r="AB120" t="n">
-        <v>31450</v>
+        <v>31432</v>
       </c>
     </row>
     <row r="121">
@@ -9942,7 +9942,7 @@
         <v>1195</v>
       </c>
       <c r="I121" t="n">
-        <v>5374</v>
+        <v>5356</v>
       </c>
       <c r="J121" t="n">
         <v>128</v>
@@ -9997,7 +9997,7 @@
         <v>3692</v>
       </c>
       <c r="AB121" t="n">
-        <v>31480</v>
+        <v>31462</v>
       </c>
     </row>
     <row r="122">
@@ -10024,7 +10024,7 @@
         <v>1203</v>
       </c>
       <c r="I122" t="n">
-        <v>5376</v>
+        <v>5358</v>
       </c>
       <c r="J122" t="n">
         <v>129</v>
@@ -10079,7 +10079,7 @@
         <v>3708</v>
       </c>
       <c r="AB122" t="n">
-        <v>31545</v>
+        <v>31527</v>
       </c>
     </row>
     <row r="123">
@@ -10106,7 +10106,7 @@
         <v>1206</v>
       </c>
       <c r="I123" t="n">
-        <v>5378</v>
+        <v>5360</v>
       </c>
       <c r="J123" t="n">
         <v>129</v>
@@ -10161,7 +10161,7 @@
         <v>3715</v>
       </c>
       <c r="AB123" t="n">
-        <v>31584</v>
+        <v>31566</v>
       </c>
     </row>
     <row r="124">
@@ -10192,7 +10192,7 @@
         <v>1211</v>
       </c>
       <c r="I124" t="n">
-        <v>5381</v>
+        <v>5363</v>
       </c>
       <c r="J124" t="n">
         <v>129</v>
@@ -10249,7 +10249,7 @@
         <v>3734</v>
       </c>
       <c r="AB124" t="n">
-        <v>31657</v>
+        <v>31639</v>
       </c>
     </row>
     <row r="125">
@@ -10274,7 +10274,7 @@
         <v>1215</v>
       </c>
       <c r="I125" t="n">
-        <v>5381</v>
+        <v>5363</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
@@ -10319,7 +10319,7 @@
         <v>3746</v>
       </c>
       <c r="AB125" t="n">
-        <v>31692</v>
+        <v>31674</v>
       </c>
     </row>
     <row r="126">
@@ -10344,7 +10344,7 @@
         <v>1220</v>
       </c>
       <c r="I126" t="n">
-        <v>5382</v>
+        <v>5364</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -10389,7 +10389,7 @@
         <v>3757</v>
       </c>
       <c r="AB126" t="n">
-        <v>31727</v>
+        <v>31709</v>
       </c>
     </row>
     <row r="127">
@@ -10418,7 +10418,7 @@
         <v>1220</v>
       </c>
       <c r="I127" t="n">
-        <v>5388</v>
+        <v>5370</v>
       </c>
       <c r="J127" t="n">
         <v>129</v>
@@ -10475,7 +10475,7 @@
         <v>3766</v>
       </c>
       <c r="AB127" t="n">
-        <v>31813</v>
+        <v>31795</v>
       </c>
     </row>
     <row r="128">
@@ -10504,7 +10504,7 @@
         <v>1220</v>
       </c>
       <c r="I128" t="n">
-        <v>5392</v>
+        <v>5374</v>
       </c>
       <c r="J128" t="n">
         <v>129</v>
@@ -10561,7 +10561,7 @@
         <v>3794</v>
       </c>
       <c r="AB128" t="n">
-        <v>31915</v>
+        <v>31897</v>
       </c>
     </row>
     <row r="129">
@@ -10592,7 +10592,7 @@
         <v>1231</v>
       </c>
       <c r="I129" t="n">
-        <v>5393</v>
+        <v>5375</v>
       </c>
       <c r="J129" t="n">
         <v>129</v>
@@ -10649,7 +10649,7 @@
         <v>3842</v>
       </c>
       <c r="AB129" t="n">
-        <v>32047</v>
+        <v>32029</v>
       </c>
     </row>
     <row r="130">
@@ -10678,7 +10678,7 @@
         <v>1238</v>
       </c>
       <c r="I130" t="n">
-        <v>5398</v>
+        <v>5380</v>
       </c>
       <c r="J130" t="n">
         <v>129</v>
@@ -10735,7 +10735,7 @@
         <v>3898</v>
       </c>
       <c r="AB130" t="n">
-        <v>32191</v>
+        <v>32173</v>
       </c>
     </row>
     <row r="131">
@@ -10764,7 +10764,7 @@
         <v>1243</v>
       </c>
       <c r="I131" t="n">
-        <v>5400</v>
+        <v>5382</v>
       </c>
       <c r="J131" t="n">
         <v>129</v>
@@ -10819,7 +10819,7 @@
         <v>3921</v>
       </c>
       <c r="AB131" t="n">
-        <v>32293</v>
+        <v>32275</v>
       </c>
     </row>
     <row r="132">
@@ -10844,7 +10844,7 @@
         <v>1246</v>
       </c>
       <c r="I132" t="n">
-        <v>5403</v>
+        <v>5385</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
@@ -10887,7 +10887,7 @@
         <v>3934</v>
       </c>
       <c r="AB132" t="n">
-        <v>32335</v>
+        <v>32317</v>
       </c>
     </row>
     <row r="133">
@@ -10912,7 +10912,7 @@
         <v>1251</v>
       </c>
       <c r="I133" t="n">
-        <v>5405</v>
+        <v>5387</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
@@ -10961,7 +10961,7 @@
         <v>3942</v>
       </c>
       <c r="AB133" t="n">
-        <v>32388</v>
+        <v>32370</v>
       </c>
     </row>
     <row r="134">
@@ -10992,7 +10992,7 @@
         <v>1253</v>
       </c>
       <c r="I134" t="n">
-        <v>5411</v>
+        <v>5393</v>
       </c>
       <c r="J134" t="n">
         <v>129</v>
@@ -11047,7 +11047,7 @@
         <v>3961</v>
       </c>
       <c r="AB134" t="n">
-        <v>32476</v>
+        <v>32458</v>
       </c>
     </row>
     <row r="135">
@@ -11076,7 +11076,7 @@
         <v>1255</v>
       </c>
       <c r="I135" t="n">
-        <v>5415</v>
+        <v>5397</v>
       </c>
       <c r="J135" t="n">
         <v>130</v>
@@ -11133,7 +11133,7 @@
         <v>3987</v>
       </c>
       <c r="AB135" t="n">
-        <v>32568</v>
+        <v>32550</v>
       </c>
     </row>
     <row r="136">
@@ -11162,7 +11162,7 @@
         <v>1258</v>
       </c>
       <c r="I136" t="n">
-        <v>5419</v>
+        <v>5401</v>
       </c>
       <c r="J136" t="n">
         <v>130</v>
@@ -11217,7 +11217,7 @@
         <v>4010</v>
       </c>
       <c r="AB136" t="n">
-        <v>32669</v>
+        <v>32651</v>
       </c>
     </row>
     <row r="137">
@@ -11246,7 +11246,7 @@
         <v>1259</v>
       </c>
       <c r="I137" t="n">
-        <v>5427</v>
+        <v>5409</v>
       </c>
       <c r="J137" t="n">
         <v>131</v>
@@ -11303,7 +11303,7 @@
         <v>4029</v>
       </c>
       <c r="AB137" t="n">
-        <v>32761</v>
+        <v>32743</v>
       </c>
     </row>
     <row r="138">
@@ -11334,7 +11334,7 @@
         <v>1263</v>
       </c>
       <c r="I138" t="n">
-        <v>5435</v>
+        <v>5417</v>
       </c>
       <c r="J138" t="n">
         <v>131</v>
@@ -11387,7 +11387,7 @@
         <v>4049</v>
       </c>
       <c r="AB138" t="n">
-        <v>32861</v>
+        <v>32843</v>
       </c>
     </row>
     <row r="139">
@@ -11412,7 +11412,7 @@
         <v>1266</v>
       </c>
       <c r="I139" t="n">
-        <v>5439</v>
+        <v>5421</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
@@ -11455,7 +11455,7 @@
         <v>4060</v>
       </c>
       <c r="AB139" t="n">
-        <v>32916</v>
+        <v>32898</v>
       </c>
     </row>
     <row r="140">
@@ -11480,7 +11480,7 @@
         <v>1271</v>
       </c>
       <c r="I140" t="n">
-        <v>5441</v>
+        <v>5423</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
@@ -11525,7 +11525,7 @@
         <v>4078</v>
       </c>
       <c r="AB140" t="n">
-        <v>32977</v>
+        <v>32959</v>
       </c>
     </row>
     <row r="141">
@@ -11556,7 +11556,7 @@
         <v>1274</v>
       </c>
       <c r="I141" t="n">
-        <v>5447</v>
+        <v>5429</v>
       </c>
       <c r="J141" t="n">
         <v>131</v>
@@ -11613,7 +11613,7 @@
         <v>4095</v>
       </c>
       <c r="AB141" t="n">
-        <v>33085</v>
+        <v>33067</v>
       </c>
     </row>
     <row r="142">
@@ -11644,7 +11644,7 @@
         <v>1274</v>
       </c>
       <c r="I142" t="n">
-        <v>5458</v>
+        <v>5440</v>
       </c>
       <c r="J142" t="n">
         <v>131</v>
@@ -11699,7 +11699,7 @@
         <v>4122</v>
       </c>
       <c r="AB142" t="n">
-        <v>33204</v>
+        <v>33186</v>
       </c>
     </row>
     <row r="143">
@@ -11728,7 +11728,7 @@
         <v>1278</v>
       </c>
       <c r="I143" t="n">
-        <v>5477</v>
+        <v>5459</v>
       </c>
       <c r="J143" t="n">
         <v>133</v>
@@ -11785,7 +11785,7 @@
         <v>4154</v>
       </c>
       <c r="AB143" t="n">
-        <v>33344</v>
+        <v>33326</v>
       </c>
     </row>
     <row r="144">
@@ -11814,7 +11814,7 @@
         <v>1282</v>
       </c>
       <c r="I144" t="n">
-        <v>5491</v>
+        <v>5473</v>
       </c>
       <c r="J144" t="n">
         <v>135</v>
@@ -11871,7 +11871,7 @@
         <v>4169</v>
       </c>
       <c r="AB144" t="n">
-        <v>33446</v>
+        <v>33428</v>
       </c>
     </row>
     <row r="145">
@@ -11902,7 +11902,7 @@
         <v>1284</v>
       </c>
       <c r="I145" t="n">
-        <v>5504</v>
+        <v>5486</v>
       </c>
       <c r="J145" t="n">
         <v>136</v>
@@ -11955,7 +11955,7 @@
         <v>4198</v>
       </c>
       <c r="AB145" t="n">
-        <v>33564</v>
+        <v>33546</v>
       </c>
     </row>
     <row r="146">
@@ -11980,7 +11980,7 @@
         <v>1292</v>
       </c>
       <c r="I146" t="n">
-        <v>5517</v>
+        <v>5499</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
@@ -12021,7 +12021,7 @@
         <v>4213</v>
       </c>
       <c r="AB146" t="n">
-        <v>33624</v>
+        <v>33606</v>
       </c>
     </row>
     <row r="147">
@@ -12046,7 +12046,7 @@
         <v>1297</v>
       </c>
       <c r="I147" t="n">
-        <v>5521</v>
+        <v>5503</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
@@ -12089,7 +12089,7 @@
         <v>4226</v>
       </c>
       <c r="AB147" t="n">
-        <v>33672</v>
+        <v>33654</v>
       </c>
     </row>
     <row r="148">
@@ -12120,7 +12120,7 @@
         <v>1304</v>
       </c>
       <c r="I148" t="n">
-        <v>5538</v>
+        <v>5520</v>
       </c>
       <c r="J148" t="n">
         <v>136</v>
@@ -12177,7 +12177,7 @@
         <v>4241</v>
       </c>
       <c r="AB148" t="n">
-        <v>33791</v>
+        <v>33773</v>
       </c>
     </row>
     <row r="149">
@@ -12208,7 +12208,7 @@
         <v>1305</v>
       </c>
       <c r="I149" t="n">
-        <v>5568</v>
+        <v>5550</v>
       </c>
       <c r="J149" t="n">
         <v>137</v>
@@ -12263,7 +12263,7 @@
         <v>4279</v>
       </c>
       <c r="AB149" t="n">
-        <v>33931</v>
+        <v>33913</v>
       </c>
     </row>
     <row r="150">
@@ -12292,7 +12292,7 @@
         <v>1311</v>
       </c>
       <c r="I150" t="n">
-        <v>5596</v>
+        <v>5578</v>
       </c>
       <c r="J150" t="n">
         <v>138</v>
@@ -12347,7 +12347,7 @@
         <v>4306</v>
       </c>
       <c r="AB150" t="n">
-        <v>34055</v>
+        <v>34037</v>
       </c>
     </row>
     <row r="151">
@@ -12376,7 +12376,7 @@
         <v>1312</v>
       </c>
       <c r="I151" t="n">
-        <v>5641</v>
+        <v>5623</v>
       </c>
       <c r="J151" t="n">
         <v>138</v>
@@ -12433,7 +12433,7 @@
         <v>4330</v>
       </c>
       <c r="AB151" t="n">
-        <v>34214</v>
+        <v>34196</v>
       </c>
     </row>
     <row r="152">
@@ -12464,7 +12464,7 @@
         <v>1315</v>
       </c>
       <c r="I152" t="n">
-        <v>5682</v>
+        <v>5664</v>
       </c>
       <c r="J152" t="n">
         <v>138</v>
@@ -12521,7 +12521,7 @@
         <v>4353</v>
       </c>
       <c r="AB152" t="n">
-        <v>34353</v>
+        <v>34335</v>
       </c>
     </row>
     <row r="153">
@@ -12544,7 +12544,7 @@
         <v>1319</v>
       </c>
       <c r="I153" t="n">
-        <v>5723</v>
+        <v>5705</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
@@ -12585,7 +12585,7 @@
         <v>4367</v>
       </c>
       <c r="AB153" t="n">
-        <v>34441</v>
+        <v>34423</v>
       </c>
     </row>
     <row r="154">
@@ -12610,7 +12610,7 @@
         <v>1320</v>
       </c>
       <c r="I154" t="n">
-        <v>5734</v>
+        <v>5716</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
@@ -12653,7 +12653,7 @@
         <v>4373</v>
       </c>
       <c r="AB154" t="n">
-        <v>34488</v>
+        <v>34470</v>
       </c>
     </row>
     <row r="155">
@@ -12684,7 +12684,7 @@
         <v>1321</v>
       </c>
       <c r="I155" t="n">
-        <v>5795</v>
+        <v>5777</v>
       </c>
       <c r="J155" t="n">
         <v>138</v>
@@ -12739,7 +12739,7 @@
         <v>4393</v>
       </c>
       <c r="AB155" t="n">
-        <v>34649</v>
+        <v>34631</v>
       </c>
     </row>
     <row r="156">
@@ -12768,7 +12768,7 @@
         <v>1325</v>
       </c>
       <c r="I156" t="n">
-        <v>5839</v>
+        <v>5821</v>
       </c>
       <c r="J156" t="n">
         <v>138</v>
@@ -12825,7 +12825,7 @@
         <v>4418</v>
       </c>
       <c r="AB156" t="n">
-        <v>34814</v>
+        <v>34796</v>
       </c>
     </row>
     <row r="157">
@@ -12856,7 +12856,7 @@
         <v>1332</v>
       </c>
       <c r="I157" t="n">
-        <v>5899</v>
+        <v>5882</v>
       </c>
       <c r="J157" t="n">
         <v>138</v>
@@ -12913,7 +12913,7 @@
         <v>4463</v>
       </c>
       <c r="AB157" t="n">
-        <v>35041</v>
+        <v>35024</v>
       </c>
     </row>
     <row r="158">
@@ -12944,7 +12944,7 @@
         <v>1342</v>
       </c>
       <c r="I158" t="n">
-        <v>5953</v>
+        <v>5936</v>
       </c>
       <c r="J158" t="n">
         <v>139</v>
@@ -13001,7 +13001,7 @@
         <v>4493</v>
       </c>
       <c r="AB158" t="n">
-        <v>35257</v>
+        <v>35240</v>
       </c>
     </row>
     <row r="159">
@@ -13032,7 +13032,7 @@
         <v>1350</v>
       </c>
       <c r="I159" t="n">
-        <v>5985</v>
+        <v>5968</v>
       </c>
       <c r="J159" t="n">
         <v>141</v>
@@ -13089,7 +13089,7 @@
         <v>4524</v>
       </c>
       <c r="AB159" t="n">
-        <v>35415</v>
+        <v>35398</v>
       </c>
     </row>
     <row r="160">
@@ -13116,7 +13116,7 @@
         <v>1353</v>
       </c>
       <c r="I160" t="n">
-        <v>6014</v>
+        <v>5997</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
@@ -13159,7 +13159,7 @@
         <v>4547</v>
       </c>
       <c r="AB160" t="n">
-        <v>35558</v>
+        <v>35541</v>
       </c>
     </row>
     <row r="161">
@@ -13186,7 +13186,7 @@
         <v>1358</v>
       </c>
       <c r="I161" t="n">
-        <v>6036</v>
+        <v>6019</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
@@ -13227,7 +13227,7 @@
         <v>4558</v>
       </c>
       <c r="AB161" t="n">
-        <v>35638</v>
+        <v>35621</v>
       </c>
     </row>
     <row r="162">
@@ -13258,7 +13258,7 @@
         <v>1360</v>
       </c>
       <c r="I162" t="n">
-        <v>6070</v>
+        <v>6054</v>
       </c>
       <c r="J162" t="n">
         <v>141</v>
@@ -13315,7 +13315,7 @@
         <v>4570</v>
       </c>
       <c r="AB162" t="n">
-        <v>35763</v>
+        <v>35747</v>
       </c>
     </row>
     <row r="163">
@@ -13344,7 +13344,7 @@
         <v>1360</v>
       </c>
       <c r="I163" t="n">
-        <v>6102</v>
+        <v>6086</v>
       </c>
       <c r="J163" t="n">
         <v>142</v>
@@ -13401,7 +13401,7 @@
         <v>4588</v>
       </c>
       <c r="AB163" t="n">
-        <v>35894</v>
+        <v>35878</v>
       </c>
     </row>
     <row r="164">
@@ -13432,7 +13432,7 @@
         <v>1368</v>
       </c>
       <c r="I164" t="n">
-        <v>6133</v>
+        <v>6117</v>
       </c>
       <c r="J164" t="n">
         <v>144</v>
@@ -13489,7 +13489,7 @@
         <v>4639</v>
       </c>
       <c r="AB164" t="n">
-        <v>36096</v>
+        <v>36080</v>
       </c>
     </row>
     <row r="165">
@@ -13518,7 +13518,7 @@
         <v>1373</v>
       </c>
       <c r="I165" t="n">
-        <v>6168</v>
+        <v>6152</v>
       </c>
       <c r="J165" t="n">
         <v>145</v>
@@ -13575,7 +13575,7 @@
         <v>4674</v>
       </c>
       <c r="AB165" t="n">
-        <v>36261</v>
+        <v>36245</v>
       </c>
     </row>
     <row r="166">
@@ -13606,7 +13606,7 @@
         <v>1377</v>
       </c>
       <c r="I166" t="n">
-        <v>6213</v>
+        <v>6197</v>
       </c>
       <c r="J166" t="n">
         <v>145</v>
@@ -13663,7 +13663,7 @@
         <v>4706</v>
       </c>
       <c r="AB166" t="n">
-        <v>36428</v>
+        <v>36412</v>
       </c>
     </row>
     <row r="167">
@@ -13690,7 +13690,7 @@
         <v>1378</v>
       </c>
       <c r="I167" t="n">
-        <v>6239</v>
+        <v>6223</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
@@ -13733,7 +13733,7 @@
         <v>4747</v>
       </c>
       <c r="AB167" t="n">
-        <v>36549</v>
+        <v>36533</v>
       </c>
     </row>
     <row r="168">
@@ -13760,7 +13760,7 @@
         <v>1384</v>
       </c>
       <c r="I168" t="n">
-        <v>6272</v>
+        <v>6256</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
@@ -13803,7 +13803,7 @@
         <v>4763</v>
       </c>
       <c r="AB168" t="n">
-        <v>36639</v>
+        <v>36623</v>
       </c>
     </row>
     <row r="169">
@@ -13834,7 +13834,7 @@
         <v>1389</v>
       </c>
       <c r="I169" t="n">
-        <v>6308</v>
+        <v>6292</v>
       </c>
       <c r="J169" t="n">
         <v>146</v>
@@ -13891,7 +13891,7 @@
         <v>4802</v>
       </c>
       <c r="AB169" t="n">
-        <v>36833</v>
+        <v>36817</v>
       </c>
     </row>
     <row r="170">
@@ -13920,7 +13920,7 @@
         <v>1393</v>
       </c>
       <c r="I170" t="n">
-        <v>6364</v>
+        <v>6348</v>
       </c>
       <c r="J170" t="n">
         <v>147</v>
@@ -13977,7 +13977,7 @@
         <v>4866</v>
       </c>
       <c r="AB170" t="n">
-        <v>37097</v>
+        <v>37081</v>
       </c>
     </row>
     <row r="171">
@@ -14006,7 +14006,7 @@
         <v>1401</v>
       </c>
       <c r="I171" t="n">
-        <v>6396</v>
+        <v>6380</v>
       </c>
       <c r="J171" t="n">
         <v>149</v>
@@ -14063,7 +14063,7 @@
         <v>4918</v>
       </c>
       <c r="AB171" t="n">
-        <v>37326</v>
+        <v>37310</v>
       </c>
     </row>
     <row r="172">
@@ -14092,7 +14092,7 @@
         <v>1405</v>
       </c>
       <c r="I172" t="n">
-        <v>6439</v>
+        <v>6423</v>
       </c>
       <c r="J172" t="n">
         <v>150</v>
@@ -14149,7 +14149,7 @@
         <v>4974</v>
       </c>
       <c r="AB172" t="n">
-        <v>37601</v>
+        <v>37585</v>
       </c>
     </row>
     <row r="173">
@@ -14180,7 +14180,7 @@
         <v>1408</v>
       </c>
       <c r="I173" t="n">
-        <v>6469</v>
+        <v>6453</v>
       </c>
       <c r="J173" t="n">
         <v>150</v>
@@ -14237,7 +14237,7 @@
         <v>5034</v>
       </c>
       <c r="AB173" t="n">
-        <v>37836</v>
+        <v>37820</v>
       </c>
     </row>
     <row r="174">
@@ -14264,7 +14264,7 @@
         <v>1418</v>
       </c>
       <c r="I174" t="n">
-        <v>6496</v>
+        <v>6480</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
@@ -14305,7 +14305,7 @@
         <v>5095</v>
       </c>
       <c r="AB174" t="n">
-        <v>38043</v>
+        <v>38027</v>
       </c>
     </row>
     <row r="175">
@@ -14332,7 +14332,7 @@
         <v>1425</v>
       </c>
       <c r="I175" t="n">
-        <v>6515</v>
+        <v>6499</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
@@ -14375,7 +14375,7 @@
         <v>5124</v>
       </c>
       <c r="AB175" t="n">
-        <v>38173</v>
+        <v>38157</v>
       </c>
     </row>
     <row r="176">
@@ -14404,7 +14404,7 @@
         <v>1428</v>
       </c>
       <c r="I176" t="n">
-        <v>6558</v>
+        <v>6541</v>
       </c>
       <c r="J176" t="n">
         <v>151</v>
@@ -14461,7 +14461,7 @@
         <v>5168</v>
       </c>
       <c r="AB176" t="n">
-        <v>38399</v>
+        <v>38382</v>
       </c>
     </row>
     <row r="177">
@@ -14492,7 +14492,7 @@
         <v>1434</v>
       </c>
       <c r="I177" t="n">
-        <v>6596</v>
+        <v>6581</v>
       </c>
       <c r="J177" t="n">
         <v>153</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38662</v>
+        <v>38647</v>
       </c>
     </row>
     <row r="178">
@@ -14580,7 +14580,7 @@
         <v>1451</v>
       </c>
       <c r="I178" t="n">
-        <v>6620</v>
+        <v>6611</v>
       </c>
       <c r="J178" t="n">
         <v>154</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38948</v>
+        <v>38939</v>
       </c>
     </row>
     <row r="179">
@@ -14663,7 +14663,9 @@
       <c r="H179" t="n">
         <v>1464</v>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>6651</v>
+      </c>
       <c r="J179" t="n">
         <v>156</v>
       </c>
@@ -14677,7 +14679,7 @@
         <v>998</v>
       </c>
       <c r="N179" t="n">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="O179" t="n">
         <v>131</v>
@@ -14717,7 +14719,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39138</v>
+        <v>39173</v>
       </c>
     </row>
     <row r="180">
@@ -14732,31 +14734,45 @@
       <c r="C180" t="n">
         <v>25</v>
       </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>127</v>
+      </c>
       <c r="E180" t="n">
         <v>2373</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>1001</v>
+      </c>
       <c r="G180" t="n">
         <v>1169</v>
       </c>
       <c r="H180" t="n">
         <v>1487</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>6691</v>
+      </c>
       <c r="J180" t="n">
         <v>157</v>
       </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>973</v>
+      </c>
+      <c r="L180" t="n">
+        <v>264</v>
+      </c>
       <c r="M180" t="n">
         <v>1004</v>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>842</v>
+      </c>
       <c r="O180" t="n">
         <v>131</v>
       </c>
-      <c r="P180" t="inlineStr"/>
+      <c r="P180" t="n">
+        <v>101</v>
+      </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
         <v>160</v>
@@ -14773,7 +14789,9 @@
       <c r="V180" t="n">
         <v>3500</v>
       </c>
-      <c r="W180" t="inlineStr"/>
+      <c r="W180" t="n">
+        <v>129</v>
+      </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="n">
         <v>2289</v>
@@ -14781,9 +14799,11 @@
       <c r="Z180" t="n">
         <v>323</v>
       </c>
-      <c r="AA180" t="inlineStr"/>
+      <c r="AA180" t="n">
+        <v>5463</v>
+      </c>
       <c r="AB180" t="n">
-        <v>39249</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="181">
@@ -14797,16 +14817,28 @@
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>2382</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1006</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1179</v>
+      </c>
       <c r="H181" t="n">
         <v>1516</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>6706</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>979</v>
+      </c>
+      <c r="L181" t="n">
+        <v>264</v>
+      </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="n">
@@ -14828,10 +14860,14 @@
       <c r="Y181" t="n">
         <v>2299</v>
       </c>
-      <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>323</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>5507</v>
+      </c>
       <c r="AB181" t="n">
-        <v>39314</v>
+        <v>39579</v>
       </c>
     </row>
     <row r="182">
@@ -14845,16 +14881,28 @@
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>2397</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1008</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1183</v>
+      </c>
       <c r="H182" t="n">
         <v>1550</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>6728</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>979</v>
+      </c>
+      <c r="L182" t="n">
+        <v>265</v>
+      </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="n">
@@ -14878,10 +14926,14 @@
       <c r="Y182" t="n">
         <v>2301</v>
       </c>
-      <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>323</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>5548</v>
+      </c>
       <c r="AB182" t="n">
-        <v>39380</v>
+        <v>39730</v>
       </c>
     </row>
     <row r="183">
@@ -14897,9 +14949,15 @@
       <c r="D183" t="n">
         <v>130</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>2409</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1009</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1185</v>
+      </c>
       <c r="H183" t="n">
         <v>1561</v>
       </c>
@@ -14908,7 +14966,9 @@
         <v>161</v>
       </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>266</v>
+      </c>
       <c r="M183" t="n">
         <v>1013</v>
       </c>
@@ -14916,7 +14976,9 @@
       <c r="O183" t="n">
         <v>131</v>
       </c>
-      <c r="P183" t="inlineStr"/>
+      <c r="P183" t="n">
+        <v>101</v>
+      </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
         <v>161</v>
@@ -14940,10 +15002,14 @@
       <c r="Y183" t="n">
         <v>2301</v>
       </c>
-      <c r="Z183" t="inlineStr"/>
-      <c r="AA183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>334</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>5579</v>
+      </c>
       <c r="AB183" t="n">
-        <v>39438</v>
+        <v>39844</v>
       </c>
     </row>
   </sheetData>
@@ -28697,7 +28763,9 @@
       <c r="M176" t="n">
         <v>21</v>
       </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>84</v>
+      </c>
       <c r="O176" t="n">
         <v>3</v>
       </c>
@@ -28783,7 +28851,9 @@
       <c r="M177" t="n">
         <v>21</v>
       </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>84</v>
+      </c>
       <c r="O177" t="n">
         <v>3</v>
       </c>
@@ -28869,7 +28939,9 @@
       <c r="M178" t="n">
         <v>21</v>
       </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>84</v>
+      </c>
       <c r="O178" t="n">
         <v>3</v>
       </c>
@@ -28936,18 +29008,24 @@
       <c r="H179" t="n">
         <v>85</v>
       </c>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>297</v>
+      </c>
       <c r="J179" t="n">
         <v>13</v>
       </c>
       <c r="K179" t="n">
         <v>50</v>
       </c>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>7</v>
+      </c>
       <c r="M179" t="n">
         <v>21</v>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>84</v>
+      </c>
       <c r="O179" t="n">
         <v>3</v>
       </c>
@@ -29001,23 +29079,33 @@
       <c r="C180" t="n">
         <v>0</v>
       </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>3</v>
+      </c>
       <c r="E180" t="n">
         <v>98</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>35</v>
+      </c>
       <c r="G180" t="n">
         <v>53</v>
       </c>
       <c r="H180" t="n">
         <v>85</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>297</v>
+      </c>
       <c r="J180" t="n">
         <v>13</v>
       </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>50</v>
+      </c>
+      <c r="L180" t="n">
+        <v>7</v>
+      </c>
       <c r="M180" t="n">
         <v>21</v>
       </c>
@@ -29025,7 +29113,9 @@
       <c r="O180" t="n">
         <v>3</v>
       </c>
-      <c r="P180" t="inlineStr"/>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
         <v>8</v>
@@ -29042,7 +29132,9 @@
       <c r="V180" t="n">
         <v>350</v>
       </c>
-      <c r="W180" t="inlineStr"/>
+      <c r="W180" t="n">
+        <v>7</v>
+      </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="n">
         <v>154</v>
@@ -29050,9 +29142,11 @@
       <c r="Z180" t="n">
         <v>9</v>
       </c>
-      <c r="AA180" t="inlineStr"/>
+      <c r="AA180" t="n">
+        <v>140</v>
+      </c>
       <c r="AB180" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="181">
@@ -29066,16 +29160,28 @@
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>98</v>
+      </c>
+      <c r="F181" t="n">
+        <v>35</v>
+      </c>
+      <c r="G181" t="n">
+        <v>53</v>
+      </c>
       <c r="H181" t="n">
         <v>85</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>297</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>50</v>
+      </c>
+      <c r="L181" t="n">
+        <v>7</v>
+      </c>
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="n">
@@ -29097,10 +29203,14 @@
       <c r="Y181" t="n">
         <v>154</v>
       </c>
-      <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>140</v>
+      </c>
       <c r="AB181" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="182">
@@ -29114,16 +29224,28 @@
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>99</v>
+      </c>
+      <c r="F182" t="n">
+        <v>35</v>
+      </c>
+      <c r="G182" t="n">
+        <v>53</v>
+      </c>
       <c r="H182" t="n">
         <v>85</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>297</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>50</v>
+      </c>
+      <c r="L182" t="n">
+        <v>7</v>
+      </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="n">
@@ -29147,10 +29269,14 @@
       <c r="Y182" t="n">
         <v>154</v>
       </c>
-      <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>140</v>
+      </c>
       <c r="AB182" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="183">
@@ -29166,9 +29292,15 @@
       <c r="D183" t="n">
         <v>3</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>99</v>
+      </c>
+      <c r="F183" t="n">
+        <v>35</v>
+      </c>
+      <c r="G183" t="n">
+        <v>53</v>
+      </c>
       <c r="H183" t="n">
         <v>85</v>
       </c>
@@ -29177,7 +29309,9 @@
         <v>13</v>
       </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>7</v>
+      </c>
       <c r="M183" t="n">
         <v>21</v>
       </c>
@@ -29185,7 +29319,9 @@
       <c r="O183" t="n">
         <v>3</v>
       </c>
-      <c r="P183" t="inlineStr"/>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
         <v>8</v>
@@ -29209,10 +29345,14 @@
       <c r="Y183" t="n">
         <v>154</v>
       </c>
-      <c r="Z183" t="inlineStr"/>
-      <c r="AA183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>140</v>
+      </c>
       <c r="AB183" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
   </sheetData>
@@ -42230,32 +42370,48 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>2</v>
+      </c>
       <c r="E180" t="n">
         <v>5</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
       <c r="G180" t="n">
         <v>8</v>
       </c>
       <c r="H180" t="n">
         <v>2</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>16</v>
+      </c>
       <c r="J180" t="n">
         <v>0</v>
       </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
       <c r="M180" t="n">
         <v>8</v>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
       <c r="O180" t="n">
         <v>0</v>
       </c>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
+      <c r="P180" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>9</v>
+      </c>
       <c r="R180" t="n">
         <v>5</v>
       </c>
@@ -42269,7 +42425,9 @@
       <c r="V180" t="n">
         <v>0</v>
       </c>
-      <c r="W180" t="inlineStr"/>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="n">
         <v>9</v>
@@ -42277,9 +42435,11 @@
       <c r="Z180" t="n">
         <v>0</v>
       </c>
-      <c r="AA180" t="inlineStr"/>
+      <c r="AA180" t="n">
+        <v>25</v>
+      </c>
       <c r="AB180" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="181">
@@ -42292,17 +42452,29 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>7</v>
+      </c>
       <c r="H181" t="n">
         <v>3</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>16</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
       <c r="O181" t="n">
         <v>0</v>
       </c>
@@ -42320,10 +42492,14 @@
       <c r="Y181" t="n">
         <v>9</v>
       </c>
-      <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>23</v>
+      </c>
       <c r="AB181" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="182">
@@ -42336,17 +42512,29 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>7</v>
+      </c>
       <c r="H182" t="n">
         <v>3</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>16</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
       <c r="O182" t="n">
         <v>0</v>
       </c>
@@ -42366,10 +42554,14 @@
       <c r="Y182" t="n">
         <v>9</v>
       </c>
-      <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>25</v>
+      </c>
       <c r="AB182" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183">
@@ -42383,9 +42575,15 @@
       <c r="D183" t="n">
         <v>0</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>4</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>7</v>
+      </c>
       <c r="H183" t="n">
         <v>3</v>
       </c>
@@ -42394,7 +42592,9 @@
         <v>0</v>
       </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
       <c r="M183" t="n">
         <v>8</v>
       </c>
@@ -42402,7 +42602,9 @@
       <c r="O183" t="n">
         <v>0</v>
       </c>
-      <c r="P183" t="inlineStr"/>
+      <c r="P183" t="n">
+        <v>1</v>
+      </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
         <v>2</v>
@@ -42424,10 +42626,14 @@
       <c r="Y183" t="n">
         <v>9</v>
       </c>
-      <c r="Z183" t="inlineStr"/>
-      <c r="AA183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>22</v>
+      </c>
       <c r="AB183" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -54163,30 +54369,44 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
       <c r="E180" t="n">
         <v>2</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
       <c r="G180" t="n">
         <v>0</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
       <c r="M180" t="n">
         <v>3</v>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
       <c r="O180" t="n">
         <v>0</v>
       </c>
       <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
+      <c r="Q180" t="n">
+        <v>1</v>
+      </c>
       <c r="R180" t="n">
         <v>0</v>
       </c>
@@ -54219,17 +54439,29 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
       <c r="H181" t="n">
         <v>1</v>
       </c>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
       <c r="O181" t="n">
         <v>0</v>
       </c>
@@ -54250,7 +54482,7 @@
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182">
@@ -54263,17 +54495,29 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
       <c r="O182" t="n">
         <v>0</v>
       </c>
@@ -54310,16 +54554,24 @@
       <c r="D183" t="n">
         <v>0</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
       <c r="H183" t="n">
         <v>1</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
       <c r="M183" t="n">
         <v>3</v>
       </c>
@@ -54348,7 +54600,7 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -63512,18 +63764,26 @@
       <c r="E180" t="n">
         <v>1</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
+      <c r="Q180" t="n">
+        <v>4</v>
+      </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
@@ -63537,9 +63797,11 @@
         <v>1</v>
       </c>
       <c r="Z180" t="inlineStr"/>
-      <c r="AA180" t="inlineStr"/>
+      <c r="AA180" t="n">
+        <v>7</v>
+      </c>
       <c r="AB180" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
@@ -63552,15 +63814,21 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
       <c r="Q181" t="inlineStr"/>
@@ -63575,9 +63843,11 @@
         <v>1</v>
       </c>
       <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
+      <c r="AA181" t="n">
+        <v>7</v>
+      </c>
       <c r="AB181" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
@@ -63590,15 +63860,21 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
@@ -63615,9 +63891,11 @@
         <v>1</v>
       </c>
       <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
+      <c r="AA182" t="n">
+        <v>6</v>
+      </c>
       <c r="AB182" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
@@ -63629,8 +63907,12 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
@@ -63655,9 +63937,11 @@
         <v>1</v>
       </c>
       <c r="Z183" t="inlineStr"/>
-      <c r="AA183" t="inlineStr"/>
+      <c r="AA183" t="n">
+        <v>5</v>
+      </c>
       <c r="AB183" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -73383,14 +73667,18 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>914</v>
+      </c>
       <c r="G180" t="n">
         <v>1039</v>
       </c>
       <c r="H180" t="n">
         <v>160</v>
       </c>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>968</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
@@ -73410,7 +73698,9 @@
       <c r="V180" t="n">
         <v>925</v>
       </c>
-      <c r="W180" t="inlineStr"/>
+      <c r="W180" t="n">
+        <v>115</v>
+      </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="n">
         <v>315</v>
@@ -73420,7 +73710,7 @@
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>6591</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="181">
@@ -73433,8 +73723,12 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
+      <c r="F181" t="n">
+        <v>918</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1049</v>
+      </c>
       <c r="H181" t="n">
         <v>160</v>
       </c>
@@ -73461,10 +73755,12 @@
       <c r="Y181" t="n">
         <v>315</v>
       </c>
-      <c r="Z181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>287</v>
+      </c>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>6591</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="182">
@@ -73477,8 +73773,12 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+      <c r="F182" t="n">
+        <v>920</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1059</v>
+      </c>
       <c r="H182" t="n">
         <v>160</v>
       </c>
@@ -73505,10 +73805,12 @@
       <c r="Y182" t="n">
         <v>315</v>
       </c>
-      <c r="Z182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>287</v>
+      </c>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>6591</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="183">
@@ -73521,8 +73823,12 @@
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
+      <c r="F183" t="n">
+        <v>924</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1066</v>
+      </c>
       <c r="H183" t="n">
         <v>160</v>
       </c>
@@ -73553,10 +73859,12 @@
       <c r="Y183" t="n">
         <v>315</v>
       </c>
-      <c r="Z183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>287</v>
+      </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6597</v>
+        <v>6645</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14965,7 +14965,9 @@
       <c r="J183" t="n">
         <v>161</v>
       </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>982</v>
+      </c>
       <c r="L183" t="n">
         <v>266</v>
       </c>
@@ -14979,7 +14981,9 @@
       <c r="P183" t="n">
         <v>101</v>
       </c>
-      <c r="Q183" t="inlineStr"/>
+      <c r="Q183" t="n">
+        <v>1218</v>
+      </c>
       <c r="R183" t="n">
         <v>161</v>
       </c>
@@ -15009,7 +15013,43 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>39844</v>
+        <v>39848</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="n">
+        <v>39848</v>
       </c>
     </row>
   </sheetData>
@@ -15023,7 +15063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29308,7 +29348,9 @@
       <c r="J183" t="n">
         <v>13</v>
       </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>50</v>
+      </c>
       <c r="L183" t="n">
         <v>7</v>
       </c>
@@ -29322,7 +29364,9 @@
       <c r="P183" t="n">
         <v>0</v>
       </c>
-      <c r="Q183" t="inlineStr"/>
+      <c r="Q183" t="n">
+        <v>41</v>
+      </c>
       <c r="R183" t="n">
         <v>8</v>
       </c>
@@ -29352,6 +29396,42 @@
         <v>140</v>
       </c>
       <c r="AB183" t="n">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="n">
         <v>2001</v>
       </c>
     </row>
@@ -29366,7 +29446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42540,7 +42620,7 @@
       </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
@@ -42561,7 +42641,7 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183">
@@ -42591,7 +42671,9 @@
       <c r="J183" t="n">
         <v>0</v>
       </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -42605,7 +42687,9 @@
       <c r="P183" t="n">
         <v>1</v>
       </c>
-      <c r="Q183" t="inlineStr"/>
+      <c r="Q183" t="n">
+        <v>9</v>
+      </c>
       <c r="R183" t="n">
         <v>2</v>
       </c>
@@ -42633,6 +42717,42 @@
         <v>22</v>
       </c>
       <c r="AB183" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="n">
         <v>110</v>
       </c>
     </row>
@@ -42647,7 +42767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54523,7 +54643,7 @@
       </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
@@ -54540,7 +54660,7 @@
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
@@ -54568,7 +54688,9 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
       <c r="L183" t="n">
         <v>0</v>
       </c>
@@ -54580,7 +54702,9 @@
         <v>0</v>
       </c>
       <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
+      <c r="Q183" t="n">
+        <v>1</v>
+      </c>
       <c r="R183" t="n">
         <v>0</v>
       </c>
@@ -54600,6 +54724,42 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="n">
         <v>15</v>
       </c>
     </row>
@@ -54614,7 +54774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63878,7 +64038,7 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
@@ -63895,7 +64055,7 @@
         <v>6</v>
       </c>
       <c r="AB182" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
@@ -63917,13 +64077,17 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
+      <c r="Q183" t="n">
+        <v>4</v>
+      </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
@@ -63941,6 +64105,42 @@
         <v>5</v>
       </c>
       <c r="AB183" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="n">
         <v>14</v>
       </c>
     </row>
@@ -63955,7 +64155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73867,6 +74067,42 @@
         <v>6645</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="n">
+        <v>6645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -73878,7 +74114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB183"/>
+  <dimension ref="A1:AB184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80812,6 +81048,42 @@
         <v>64284</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-25</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="n">
+        <v>64284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14840,7 +14840,9 @@
         <v>264</v>
       </c>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>844</v>
+      </c>
       <c r="O181" t="n">
         <v>131</v>
       </c>
@@ -14867,7 +14869,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39579</v>
+        <v>39581</v>
       </c>
     </row>
     <row r="182">
@@ -14904,7 +14906,9 @@
         <v>265</v>
       </c>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>846</v>
+      </c>
       <c r="O182" t="n">
         <v>131</v>
       </c>
@@ -14933,7 +14937,7 @@
         <v>5548</v>
       </c>
       <c r="AB182" t="n">
-        <v>39730</v>
+        <v>39734</v>
       </c>
     </row>
     <row r="183">
@@ -15013,7 +15017,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>39848</v>
+        <v>39852</v>
       </c>
     </row>
     <row r="184">
@@ -15027,7 +15031,9 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>1185</v>
+      </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -15041,15 +15047,19 @@
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
+      <c r="U184" t="n">
+        <v>560</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3519</v>
+      </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>39848</v>
+        <v>39861</v>
       </c>
     </row>
   </sheetData>
@@ -29149,7 +29159,9 @@
       <c r="M180" t="n">
         <v>21</v>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>84</v>
+      </c>
       <c r="O180" t="n">
         <v>3</v>
       </c>
@@ -29223,7 +29235,9 @@
         <v>7</v>
       </c>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>84</v>
+      </c>
       <c r="O181" t="n">
         <v>3</v>
       </c>
@@ -29410,7 +29424,9 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>53</v>
+      </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -29424,8 +29440,12 @@
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
+      <c r="U184" t="n">
+        <v>19</v>
+      </c>
+      <c r="V184" t="n">
+        <v>350</v>
+      </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
@@ -42626,7 +42646,7 @@
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
@@ -42641,7 +42661,7 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="183">
@@ -42680,7 +42700,9 @@
       <c r="M183" t="n">
         <v>8</v>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
       <c r="O183" t="n">
         <v>0</v>
       </c>
@@ -42698,7 +42720,7 @@
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V183" t="n">
         <v>1</v>
@@ -42717,7 +42739,7 @@
         <v>22</v>
       </c>
       <c r="AB183" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184">
@@ -42731,7 +42753,9 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>7</v>
+      </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -42745,15 +42769,19 @@
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
+      <c r="U184" t="n">
+        <v>3</v>
+      </c>
+      <c r="V184" t="n">
+        <v>1</v>
+      </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -54643,7 +54671,7 @@
       </c>
       <c r="P182" t="inlineStr"/>
       <c r="Q182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="inlineStr"/>
@@ -54660,7 +54688,7 @@
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -54697,7 +54725,9 @@
       <c r="M183" t="n">
         <v>3</v>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
       <c r="O183" t="n">
         <v>0</v>
       </c>
@@ -54738,7 +54768,9 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -54752,8 +54784,12 @@
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
+      <c r="U184" t="n">
+        <v>1</v>
+      </c>
+      <c r="V184" t="n">
+        <v>0</v>
+      </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
@@ -64082,7 +64118,9 @@
       </c>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
       <c r="Q183" t="n">
@@ -64134,7 +64172,9 @@
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
+      <c r="V184" t="n">
+        <v>0</v>
+      </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
@@ -73997,7 +74037,7 @@
         <v>404</v>
       </c>
       <c r="U182" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
@@ -74010,7 +74050,7 @@
       </c>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>6628</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="183">
@@ -74047,7 +74087,7 @@
         <v>409</v>
       </c>
       <c r="U183" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V183" t="n">
         <v>926</v>
@@ -74064,7 +74104,7 @@
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6645</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="184">
@@ -74078,7 +74118,9 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>1077</v>
+      </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -74092,15 +74134,19 @@
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
+      <c r="U184" t="n">
+        <v>79</v>
+      </c>
+      <c r="V184" t="n">
+        <v>926</v>
+      </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6645</v>
+        <v>6657</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15036,15 +15036,21 @@
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>162</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1017</v>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>162</v>
+      </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
@@ -15056,10 +15062,12 @@
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
-      <c r="Z184" t="inlineStr"/>
+      <c r="Z184" t="n">
+        <v>338</v>
+      </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>39861</v>
+        <v>39871</v>
       </c>
     </row>
   </sheetData>
@@ -29429,15 +29437,21 @@
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>13</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>21</v>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>8</v>
+      </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
@@ -29449,7 +29463,9 @@
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
-      <c r="Z184" t="inlineStr"/>
+      <c r="Z184" t="n">
+        <v>9</v>
+      </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
         <v>2001</v>
@@ -42758,15 +42774,21 @@
       </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>9</v>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>5</v>
+      </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
@@ -42778,10 +42800,12 @@
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
-      <c r="Z184" t="inlineStr"/>
+      <c r="Z184" t="n">
+        <v>3</v>
+      </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -54776,12 +54800,16 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>3</v>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
@@ -74143,10 +74171,12 @@
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
-      <c r="Z184" t="inlineStr"/>
+      <c r="Z184" t="n">
+        <v>296</v>
+      </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6657</v>
+        <v>6666</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15052,7 +15052,9 @@
         <v>162</v>
       </c>
       <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
+      <c r="T184" t="n">
+        <v>474</v>
+      </c>
       <c r="U184" t="n">
         <v>560</v>
       </c>
@@ -15067,7 +15069,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>39871</v>
+        <v>39881</v>
       </c>
     </row>
   </sheetData>
@@ -29453,7 +29455,9 @@
         <v>8</v>
       </c>
       <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
+      <c r="T184" t="n">
+        <v>25</v>
+      </c>
       <c r="U184" t="n">
         <v>19</v>
       </c>
@@ -74161,7 +74165,9 @@
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
+      <c r="T184" t="n">
+        <v>416</v>
+      </c>
       <c r="U184" t="n">
         <v>79</v>
       </c>
@@ -74176,7 +74182,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6666</v>
+        <v>6673</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15029,7 +15029,9 @@
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>2420</v>
+      </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
         <v>1185</v>
@@ -15051,7 +15053,9 @@
       <c r="R184" t="n">
         <v>162</v>
       </c>
-      <c r="S184" t="inlineStr"/>
+      <c r="S184" t="n">
+        <v>652</v>
+      </c>
       <c r="T184" t="n">
         <v>474</v>
       </c>
@@ -15069,7 +15073,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>39881</v>
+        <v>39893</v>
       </c>
     </row>
   </sheetData>
@@ -29432,7 +29436,9 @@
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>99</v>
+      </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
         <v>53</v>
@@ -29454,7 +29460,9 @@
       <c r="R184" t="n">
         <v>8</v>
       </c>
-      <c r="S184" t="inlineStr"/>
+      <c r="S184" t="n">
+        <v>18</v>
+      </c>
       <c r="T184" t="n">
         <v>25</v>
       </c>
@@ -42793,7 +42801,9 @@
       <c r="R184" t="n">
         <v>5</v>
       </c>
-      <c r="S184" t="inlineStr"/>
+      <c r="S184" t="n">
+        <v>2</v>
+      </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
         <v>3</v>
@@ -42809,7 +42819,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -11375,7 +11375,7 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="n">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="Y138" t="n">
         <v>2084</v>
@@ -11387,7 +11387,7 @@
         <v>4049</v>
       </c>
       <c r="AB138" t="n">
-        <v>32843</v>
+        <v>32844</v>
       </c>
     </row>
     <row r="139">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
-        <v>5721</v>
+        <v>5722</v>
       </c>
       <c r="Y139" t="n">
         <v>2089</v>
@@ -11455,7 +11455,7 @@
         <v>4060</v>
       </c>
       <c r="AB139" t="n">
-        <v>32898</v>
+        <v>32899</v>
       </c>
     </row>
     <row r="140">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="n">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="Y140" t="n">
         <v>2092</v>
@@ -11525,7 +11525,7 @@
         <v>4078</v>
       </c>
       <c r="AB140" t="n">
-        <v>32959</v>
+        <v>32960</v>
       </c>
     </row>
     <row r="141">
@@ -11601,7 +11601,7 @@
         <v>109</v>
       </c>
       <c r="X141" t="n">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="Y141" t="n">
         <v>2095</v>
@@ -11613,7 +11613,7 @@
         <v>4095</v>
       </c>
       <c r="AB141" t="n">
-        <v>33067</v>
+        <v>33068</v>
       </c>
     </row>
     <row r="142">
@@ -11687,7 +11687,7 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="n">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="Y142" t="n">
         <v>2100</v>
@@ -11699,7 +11699,7 @@
         <v>4122</v>
       </c>
       <c r="AB142" t="n">
-        <v>33186</v>
+        <v>33187</v>
       </c>
     </row>
     <row r="143">
@@ -11773,7 +11773,7 @@
         <v>111</v>
       </c>
       <c r="X143" t="n">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="Y143" t="n">
         <v>2102</v>
@@ -11785,7 +11785,7 @@
         <v>4154</v>
       </c>
       <c r="AB143" t="n">
-        <v>33326</v>
+        <v>33327</v>
       </c>
     </row>
     <row r="144">
@@ -11859,7 +11859,7 @@
         <v>111</v>
       </c>
       <c r="X144" t="n">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="Y144" t="n">
         <v>2103</v>
@@ -11871,7 +11871,7 @@
         <v>4169</v>
       </c>
       <c r="AB144" t="n">
-        <v>33428</v>
+        <v>33429</v>
       </c>
     </row>
     <row r="145">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="n">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="Y145" t="n">
         <v>2105</v>
@@ -11955,7 +11955,7 @@
         <v>4198</v>
       </c>
       <c r="AB145" t="n">
-        <v>33546</v>
+        <v>33547</v>
       </c>
     </row>
     <row r="146">
@@ -12009,7 +12009,7 @@
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="n">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="Y146" t="n">
         <v>2105</v>
@@ -12021,7 +12021,7 @@
         <v>4213</v>
       </c>
       <c r="AB146" t="n">
-        <v>33606</v>
+        <v>33607</v>
       </c>
     </row>
     <row r="147">
@@ -12077,7 +12077,7 @@
       <c r="V147" t="inlineStr"/>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="n">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="Y147" t="n">
         <v>2106</v>
@@ -12089,7 +12089,7 @@
         <v>4226</v>
       </c>
       <c r="AB147" t="n">
-        <v>33654</v>
+        <v>33655</v>
       </c>
     </row>
     <row r="148">
@@ -12165,7 +12165,7 @@
         <v>112</v>
       </c>
       <c r="X148" t="n">
-        <v>5833</v>
+        <v>5834</v>
       </c>
       <c r="Y148" t="n">
         <v>2109</v>
@@ -12177,7 +12177,7 @@
         <v>4241</v>
       </c>
       <c r="AB148" t="n">
-        <v>33773</v>
+        <v>33774</v>
       </c>
     </row>
     <row r="149">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="n">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="Y149" t="n">
         <v>2111</v>
@@ -12263,7 +12263,7 @@
         <v>4279</v>
       </c>
       <c r="AB149" t="n">
-        <v>33913</v>
+        <v>33914</v>
       </c>
     </row>
     <row r="150">
@@ -12335,7 +12335,7 @@
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="n">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="Y150" t="n">
         <v>2114</v>
@@ -12347,7 +12347,7 @@
         <v>4306</v>
       </c>
       <c r="AB150" t="n">
-        <v>34037</v>
+        <v>34038</v>
       </c>
     </row>
     <row r="151">
@@ -12421,7 +12421,7 @@
         <v>115</v>
       </c>
       <c r="X151" t="n">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="Y151" t="n">
         <v>2116</v>
@@ -12433,7 +12433,7 @@
         <v>4330</v>
       </c>
       <c r="AB151" t="n">
-        <v>34196</v>
+        <v>34197</v>
       </c>
     </row>
     <row r="152">
@@ -12509,7 +12509,7 @@
         <v>115</v>
       </c>
       <c r="X152" t="n">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="Y152" t="n">
         <v>2119</v>
@@ -12521,7 +12521,7 @@
         <v>4353</v>
       </c>
       <c r="AB152" t="n">
-        <v>34335</v>
+        <v>34336</v>
       </c>
     </row>
     <row r="153">
@@ -12573,7 +12573,7 @@
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="n">
-        <v>5888</v>
+        <v>5889</v>
       </c>
       <c r="Y153" t="n">
         <v>2119</v>
@@ -12585,7 +12585,7 @@
         <v>4367</v>
       </c>
       <c r="AB153" t="n">
-        <v>34423</v>
+        <v>34424</v>
       </c>
     </row>
     <row r="154">
@@ -12641,7 +12641,7 @@
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="n">
-        <v>5894</v>
+        <v>5895</v>
       </c>
       <c r="Y154" t="n">
         <v>2119</v>
@@ -12653,7 +12653,7 @@
         <v>4373</v>
       </c>
       <c r="AB154" t="n">
-        <v>34470</v>
+        <v>34471</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="n">
-        <v>5915</v>
+        <v>5916</v>
       </c>
       <c r="Y155" t="n">
         <v>2122</v>
@@ -12739,7 +12739,7 @@
         <v>4393</v>
       </c>
       <c r="AB155" t="n">
-        <v>34631</v>
+        <v>34632</v>
       </c>
     </row>
     <row r="156">
@@ -12813,7 +12813,7 @@
         <v>115</v>
       </c>
       <c r="X156" t="n">
-        <v>5942</v>
+        <v>5943</v>
       </c>
       <c r="Y156" t="n">
         <v>2127</v>
@@ -12825,7 +12825,7 @@
         <v>4418</v>
       </c>
       <c r="AB156" t="n">
-        <v>34796</v>
+        <v>34797</v>
       </c>
     </row>
     <row r="157">
@@ -12901,7 +12901,7 @@
         <v>116</v>
       </c>
       <c r="X157" t="n">
-        <v>5982</v>
+        <v>5983</v>
       </c>
       <c r="Y157" t="n">
         <v>2136</v>
@@ -12913,7 +12913,7 @@
         <v>4463</v>
       </c>
       <c r="AB157" t="n">
-        <v>35024</v>
+        <v>35025</v>
       </c>
     </row>
     <row r="158">
@@ -12989,7 +12989,7 @@
         <v>116</v>
       </c>
       <c r="X158" t="n">
-        <v>6004</v>
+        <v>6005</v>
       </c>
       <c r="Y158" t="n">
         <v>2145</v>
@@ -13001,7 +13001,7 @@
         <v>4493</v>
       </c>
       <c r="AB158" t="n">
-        <v>35240</v>
+        <v>35241</v>
       </c>
     </row>
     <row r="159">
@@ -13077,7 +13077,7 @@
         <v>116</v>
       </c>
       <c r="X159" t="n">
-        <v>6023</v>
+        <v>6024</v>
       </c>
       <c r="Y159" t="n">
         <v>2148</v>
@@ -13089,7 +13089,7 @@
         <v>4524</v>
       </c>
       <c r="AB159" t="n">
-        <v>35398</v>
+        <v>35399</v>
       </c>
     </row>
     <row r="160">
@@ -13147,7 +13147,7 @@
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="n">
-        <v>6048</v>
+        <v>6049</v>
       </c>
       <c r="Y160" t="n">
         <v>2151</v>
@@ -13159,7 +13159,7 @@
         <v>4547</v>
       </c>
       <c r="AB160" t="n">
-        <v>35541</v>
+        <v>35542</v>
       </c>
     </row>
     <row r="161">
@@ -13215,7 +13215,7 @@
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="n">
-        <v>6061</v>
+        <v>6062</v>
       </c>
       <c r="Y161" t="n">
         <v>2152</v>
@@ -13227,7 +13227,7 @@
         <v>4558</v>
       </c>
       <c r="AB161" t="n">
-        <v>35621</v>
+        <v>35622</v>
       </c>
     </row>
     <row r="162">
@@ -13303,7 +13303,7 @@
         <v>117</v>
       </c>
       <c r="X162" t="n">
-        <v>6080</v>
+        <v>6081</v>
       </c>
       <c r="Y162" t="n">
         <v>2155</v>
@@ -13315,7 +13315,7 @@
         <v>4570</v>
       </c>
       <c r="AB162" t="n">
-        <v>35747</v>
+        <v>35748</v>
       </c>
     </row>
     <row r="163">
@@ -13389,7 +13389,7 @@
         <v>117</v>
       </c>
       <c r="X163" t="n">
-        <v>6093</v>
+        <v>6094</v>
       </c>
       <c r="Y163" t="n">
         <v>2163</v>
@@ -13401,7 +13401,7 @@
         <v>4588</v>
       </c>
       <c r="AB163" t="n">
-        <v>35878</v>
+        <v>35879</v>
       </c>
     </row>
     <row r="164">
@@ -13477,7 +13477,7 @@
         <v>117</v>
       </c>
       <c r="X164" t="n">
-        <v>6112</v>
+        <v>6113</v>
       </c>
       <c r="Y164" t="n">
         <v>2167</v>
@@ -13489,7 +13489,7 @@
         <v>4639</v>
       </c>
       <c r="AB164" t="n">
-        <v>36080</v>
+        <v>36081</v>
       </c>
     </row>
     <row r="165">
@@ -13563,7 +13563,7 @@
         <v>117</v>
       </c>
       <c r="X165" t="n">
-        <v>6129</v>
+        <v>6130</v>
       </c>
       <c r="Y165" t="n">
         <v>2173</v>
@@ -13575,7 +13575,7 @@
         <v>4674</v>
       </c>
       <c r="AB165" t="n">
-        <v>36245</v>
+        <v>36246</v>
       </c>
     </row>
     <row r="166">
@@ -13651,7 +13651,7 @@
         <v>117</v>
       </c>
       <c r="X166" t="n">
-        <v>6151</v>
+        <v>6152</v>
       </c>
       <c r="Y166" t="n">
         <v>2180</v>
@@ -13663,7 +13663,7 @@
         <v>4706</v>
       </c>
       <c r="AB166" t="n">
-        <v>36412</v>
+        <v>36413</v>
       </c>
     </row>
     <row r="167">
@@ -13721,7 +13721,7 @@
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="n">
-        <v>6167</v>
+        <v>6168</v>
       </c>
       <c r="Y167" t="n">
         <v>2184</v>
@@ -13733,7 +13733,7 @@
         <v>4747</v>
       </c>
       <c r="AB167" t="n">
-        <v>36533</v>
+        <v>36534</v>
       </c>
     </row>
     <row r="168">
@@ -13791,7 +13791,7 @@
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="n">
-        <v>6174</v>
+        <v>6175</v>
       </c>
       <c r="Y168" t="n">
         <v>2187</v>
@@ -13803,7 +13803,7 @@
         <v>4763</v>
       </c>
       <c r="AB168" t="n">
-        <v>36623</v>
+        <v>36624</v>
       </c>
     </row>
     <row r="169">
@@ -13879,7 +13879,7 @@
         <v>117</v>
       </c>
       <c r="X169" t="n">
-        <v>6199</v>
+        <v>6200</v>
       </c>
       <c r="Y169" t="n">
         <v>2199</v>
@@ -13891,7 +13891,7 @@
         <v>4802</v>
       </c>
       <c r="AB169" t="n">
-        <v>36817</v>
+        <v>36818</v>
       </c>
     </row>
     <row r="170">
@@ -13965,7 +13965,7 @@
         <v>119</v>
       </c>
       <c r="X170" t="n">
-        <v>6223</v>
+        <v>6224</v>
       </c>
       <c r="Y170" t="n">
         <v>2207</v>
@@ -13977,7 +13977,7 @@
         <v>4866</v>
       </c>
       <c r="AB170" t="n">
-        <v>37081</v>
+        <v>37082</v>
       </c>
     </row>
     <row r="171">
@@ -14051,7 +14051,7 @@
         <v>120</v>
       </c>
       <c r="X171" t="n">
-        <v>6246</v>
+        <v>6247</v>
       </c>
       <c r="Y171" t="n">
         <v>2215</v>
@@ -14063,7 +14063,7 @@
         <v>4918</v>
       </c>
       <c r="AB171" t="n">
-        <v>37310</v>
+        <v>37311</v>
       </c>
     </row>
     <row r="172">
@@ -14137,7 +14137,7 @@
         <v>121</v>
       </c>
       <c r="X172" t="n">
-        <v>6282</v>
+        <v>6283</v>
       </c>
       <c r="Y172" t="n">
         <v>2222</v>
@@ -14149,7 +14149,7 @@
         <v>4974</v>
       </c>
       <c r="AB172" t="n">
-        <v>37585</v>
+        <v>37586</v>
       </c>
     </row>
     <row r="173">
@@ -14225,7 +14225,7 @@
         <v>123</v>
       </c>
       <c r="X173" t="n">
-        <v>6306</v>
+        <v>6307</v>
       </c>
       <c r="Y173" t="n">
         <v>2230</v>
@@ -14237,7 +14237,7 @@
         <v>5034</v>
       </c>
       <c r="AB173" t="n">
-        <v>37820</v>
+        <v>37821</v>
       </c>
     </row>
     <row r="174">
@@ -14293,7 +14293,7 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
-        <v>6331</v>
+        <v>6332</v>
       </c>
       <c r="Y174" t="n">
         <v>2236</v>
@@ -14305,7 +14305,7 @@
         <v>5095</v>
       </c>
       <c r="AB174" t="n">
-        <v>38027</v>
+        <v>38028</v>
       </c>
     </row>
     <row r="175">
@@ -14363,7 +14363,7 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>6349</v>
+        <v>6350</v>
       </c>
       <c r="Y175" t="n">
         <v>2241</v>
@@ -14375,7 +14375,7 @@
         <v>5124</v>
       </c>
       <c r="AB175" t="n">
-        <v>38157</v>
+        <v>38158</v>
       </c>
     </row>
     <row r="176">
@@ -14449,7 +14449,7 @@
         <v>126</v>
       </c>
       <c r="X176" t="n">
-        <v>6383</v>
+        <v>6384</v>
       </c>
       <c r="Y176" t="n">
         <v>2251</v>
@@ -14461,7 +14461,7 @@
         <v>5168</v>
       </c>
       <c r="AB176" t="n">
-        <v>38382</v>
+        <v>38383</v>
       </c>
     </row>
     <row r="177">
@@ -14537,7 +14537,7 @@
         <v>127</v>
       </c>
       <c r="X177" t="n">
-        <v>6422</v>
+        <v>6427</v>
       </c>
       <c r="Y177" t="n">
         <v>2261</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38647</v>
+        <v>38652</v>
       </c>
     </row>
     <row r="178">
@@ -14625,7 +14625,7 @@
         <v>129</v>
       </c>
       <c r="X178" t="n">
-        <v>6448</v>
+        <v>6474</v>
       </c>
       <c r="Y178" t="n">
         <v>2264</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38939</v>
+        <v>38965</v>
       </c>
     </row>
     <row r="179">
@@ -14708,7 +14708,9 @@
       <c r="W179" t="n">
         <v>129</v>
       </c>
-      <c r="X179" t="inlineStr"/>
+      <c r="X179" t="n">
+        <v>6549</v>
+      </c>
       <c r="Y179" t="n">
         <v>2272</v>
       </c>
@@ -14719,7 +14721,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39173</v>
+        <v>39274</v>
       </c>
     </row>
     <row r="180">
@@ -14792,7 +14794,9 @@
       <c r="W180" t="n">
         <v>129</v>
       </c>
-      <c r="X180" t="inlineStr"/>
+      <c r="X180" t="n">
+        <v>6614</v>
+      </c>
       <c r="Y180" t="n">
         <v>2289</v>
       </c>
@@ -14803,7 +14807,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39425</v>
+        <v>39591</v>
       </c>
     </row>
     <row r="181">
@@ -14858,7 +14862,9 @@
       </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
+      <c r="X181" t="n">
+        <v>6658</v>
+      </c>
       <c r="Y181" t="n">
         <v>2299</v>
       </c>
@@ -14869,7 +14875,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39581</v>
+        <v>39791</v>
       </c>
     </row>
     <row r="182">
@@ -14926,7 +14932,9 @@
       </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
+      <c r="X182" t="n">
+        <v>6681</v>
+      </c>
       <c r="Y182" t="n">
         <v>2301</v>
       </c>
@@ -14937,7 +14945,7 @@
         <v>5548</v>
       </c>
       <c r="AB182" t="n">
-        <v>39734</v>
+        <v>39967</v>
       </c>
     </row>
     <row r="183">
@@ -14965,7 +14973,9 @@
       <c r="H183" t="n">
         <v>1561</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>6750</v>
+      </c>
       <c r="J183" t="n">
         <v>161</v>
       </c>
@@ -15006,7 +15016,9 @@
       <c r="W183" t="n">
         <v>132</v>
       </c>
-      <c r="X183" t="inlineStr"/>
+      <c r="X183" t="n">
+        <v>6700</v>
+      </c>
       <c r="Y183" t="n">
         <v>2301</v>
       </c>
@@ -15017,7 +15029,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>39852</v>
+        <v>40126</v>
       </c>
     </row>
     <row r="184">
@@ -15032,11 +15044,15 @@
       <c r="E184" t="n">
         <v>2420</v>
       </c>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>1014</v>
+      </c>
       <c r="G184" t="n">
         <v>1185</v>
       </c>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>1572</v>
+      </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>162</v>
@@ -15073,7 +15089,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>39893</v>
+        <v>40183</v>
       </c>
     </row>
   </sheetData>
@@ -29117,7 +29133,9 @@
       <c r="W179" t="n">
         <v>7</v>
       </c>
-      <c r="X179" t="inlineStr"/>
+      <c r="X179" t="n">
+        <v>429</v>
+      </c>
       <c r="Y179" t="n">
         <v>154</v>
       </c>
@@ -29201,7 +29219,9 @@
       <c r="W180" t="n">
         <v>7</v>
       </c>
-      <c r="X180" t="inlineStr"/>
+      <c r="X180" t="n">
+        <v>429</v>
+      </c>
       <c r="Y180" t="n">
         <v>154</v>
       </c>
@@ -29267,7 +29287,9 @@
       </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
+      <c r="X181" t="n">
+        <v>429</v>
+      </c>
       <c r="Y181" t="n">
         <v>154</v>
       </c>
@@ -29333,7 +29355,9 @@
       </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
+      <c r="X182" t="n">
+        <v>429</v>
+      </c>
       <c r="Y182" t="n">
         <v>154</v>
       </c>
@@ -29372,7 +29396,9 @@
       <c r="H183" t="n">
         <v>85</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>297</v>
+      </c>
       <c r="J183" t="n">
         <v>13</v>
       </c>
@@ -29413,7 +29439,9 @@
       <c r="W183" t="n">
         <v>7</v>
       </c>
-      <c r="X183" t="inlineStr"/>
+      <c r="X183" t="n">
+        <v>429</v>
+      </c>
       <c r="Y183" t="n">
         <v>154</v>
       </c>
@@ -29439,11 +29467,15 @@
       <c r="E184" t="n">
         <v>99</v>
       </c>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>35</v>
+      </c>
       <c r="G184" t="n">
         <v>53</v>
       </c>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>85</v>
+      </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>13</v>
@@ -41875,7 +41907,7 @@
         <v>0</v>
       </c>
       <c r="X171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y171" t="n">
         <v>6</v>
@@ -41887,7 +41919,7 @@
         <v>27</v>
       </c>
       <c r="AB171" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="172">
@@ -41955,7 +41987,7 @@
         <v>0</v>
       </c>
       <c r="X172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y172" t="n">
         <v>6</v>
@@ -41967,7 +41999,7 @@
         <v>27</v>
       </c>
       <c r="AB172" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="173">
@@ -42035,7 +42067,7 @@
         <v>0</v>
       </c>
       <c r="X173" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y173" t="n">
         <v>6</v>
@@ -42047,7 +42079,7 @@
         <v>26</v>
       </c>
       <c r="AB173" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="174">
@@ -42095,7 +42127,7 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y174" t="n">
         <v>6</v>
@@ -42107,7 +42139,7 @@
         <v>26</v>
       </c>
       <c r="AB174" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175">
@@ -42157,7 +42189,7 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y175" t="n">
         <v>6</v>
@@ -42169,7 +42201,7 @@
         <v>29</v>
       </c>
       <c r="AB175" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="176">
@@ -42239,7 +42271,7 @@
         <v>0</v>
       </c>
       <c r="X176" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y176" t="n">
         <v>6</v>
@@ -42251,7 +42283,7 @@
         <v>33</v>
       </c>
       <c r="AB176" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177">
@@ -42319,7 +42351,7 @@
         <v>0</v>
       </c>
       <c r="X177" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y177" t="n">
         <v>7</v>
@@ -42331,7 +42363,7 @@
         <v>33</v>
       </c>
       <c r="AB177" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178">
@@ -42399,7 +42431,7 @@
         <v>0</v>
       </c>
       <c r="X178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y178" t="n">
         <v>6</v>
@@ -42411,7 +42443,7 @@
         <v>32</v>
       </c>
       <c r="AB178" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="179">
@@ -42476,7 +42508,9 @@
       <c r="W179" t="n">
         <v>0</v>
       </c>
-      <c r="X179" t="inlineStr"/>
+      <c r="X179" t="n">
+        <v>16</v>
+      </c>
       <c r="Y179" t="n">
         <v>8</v>
       </c>
@@ -42487,7 +42521,7 @@
         <v>30</v>
       </c>
       <c r="AB179" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="180">
@@ -42556,7 +42590,9 @@
       <c r="W180" t="n">
         <v>0</v>
       </c>
-      <c r="X180" t="inlineStr"/>
+      <c r="X180" t="n">
+        <v>16</v>
+      </c>
       <c r="Y180" t="n">
         <v>9</v>
       </c>
@@ -42567,7 +42603,7 @@
         <v>25</v>
       </c>
       <c r="AB180" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="181">
@@ -42616,7 +42652,9 @@
       </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
+      <c r="X181" t="n">
+        <v>16</v>
+      </c>
       <c r="Y181" t="n">
         <v>9</v>
       </c>
@@ -42627,7 +42665,7 @@
         <v>23</v>
       </c>
       <c r="AB181" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182">
@@ -42678,7 +42716,9 @@
       </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
+      <c r="X182" t="n">
+        <v>16</v>
+      </c>
       <c r="Y182" t="n">
         <v>9</v>
       </c>
@@ -42689,7 +42729,7 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="183">
@@ -42715,7 +42755,9 @@
       <c r="H183" t="n">
         <v>3</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>16</v>
+      </c>
       <c r="J183" t="n">
         <v>0</v>
       </c>
@@ -42756,7 +42798,9 @@
       <c r="W183" t="n">
         <v>0</v>
       </c>
-      <c r="X183" t="inlineStr"/>
+      <c r="X183" t="n">
+        <v>20</v>
+      </c>
       <c r="Y183" t="n">
         <v>9</v>
       </c>
@@ -42767,7 +42811,7 @@
         <v>22</v>
       </c>
       <c r="AB183" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184">
@@ -42780,11 +42824,15 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
       <c r="G184" t="n">
         <v>7</v>
       </c>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>0</v>
@@ -42819,7 +42867,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -54537,7 +54585,9 @@
         <v>0</v>
       </c>
       <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr"/>
+      <c r="X179" t="n">
+        <v>5</v>
+      </c>
       <c r="Y179" t="n">
         <v>1</v>
       </c>
@@ -54605,7 +54655,9 @@
         <v>0</v>
       </c>
       <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr"/>
+      <c r="X180" t="n">
+        <v>5</v>
+      </c>
       <c r="Y180" t="n">
         <v>1</v>
       </c>
@@ -54661,7 +54713,9 @@
       </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
+      <c r="X181" t="n">
+        <v>5</v>
+      </c>
       <c r="Y181" t="n">
         <v>1</v>
       </c>
@@ -54719,14 +54773,16 @@
       </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
+      <c r="X182" t="n">
+        <v>6</v>
+      </c>
       <c r="Y182" t="n">
         <v>1</v>
       </c>
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183">
@@ -54752,7 +54808,9 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
         <v>0</v>
@@ -54785,14 +54843,16 @@
         <v>0</v>
       </c>
       <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr"/>
+      <c r="X183" t="n">
+        <v>6</v>
+      </c>
       <c r="Y183" t="n">
         <v>1</v>
       </c>
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184">
@@ -54805,11 +54865,15 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
       <c r="G184" t="n">
         <v>0</v>
       </c>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -64198,7 +64262,9 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
@@ -74114,7 +74180,9 @@
       <c r="H183" t="n">
         <v>160</v>
       </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>971</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
@@ -74146,7 +74214,7 @@
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6646</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="184">
@@ -74159,11 +74227,15 @@
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" t="n">
+        <v>934</v>
+      </c>
       <c r="G184" t="n">
         <v>1077</v>
       </c>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>160</v>
+      </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -74192,7 +74264,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6673</v>
+        <v>6686</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15026,10 +15026,10 @@
         <v>334</v>
       </c>
       <c r="AA183" t="n">
-        <v>5579</v>
+        <v>5580</v>
       </c>
       <c r="AB183" t="n">
-        <v>40126</v>
+        <v>40127</v>
       </c>
     </row>
     <row r="184">
@@ -15064,7 +15064,9 @@
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
+      <c r="P184" t="n">
+        <v>102</v>
+      </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="n">
         <v>162</v>
@@ -15087,9 +15089,11 @@
       <c r="Z184" t="n">
         <v>338</v>
       </c>
-      <c r="AA184" t="inlineStr"/>
+      <c r="AA184" t="n">
+        <v>5628</v>
+      </c>
       <c r="AB184" t="n">
-        <v>40183</v>
+        <v>40233</v>
       </c>
     </row>
   </sheetData>
@@ -29449,10 +29453,10 @@
         <v>9</v>
       </c>
       <c r="AA183" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AB183" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="184">
@@ -29487,7 +29491,9 @@
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="n">
         <v>8</v>
@@ -29510,9 +29516,11 @@
       <c r="Z184" t="n">
         <v>9</v>
       </c>
-      <c r="AA184" t="inlineStr"/>
+      <c r="AA184" t="n">
+        <v>141</v>
+      </c>
       <c r="AB184" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -42844,7 +42852,9 @@
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
+      <c r="P184" t="n">
+        <v>1</v>
+      </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="n">
         <v>5</v>
@@ -42865,9 +42875,11 @@
       <c r="Z184" t="n">
         <v>3</v>
       </c>
-      <c r="AA184" t="inlineStr"/>
+      <c r="AA184" t="n">
+        <v>16</v>
+      </c>
       <c r="AB184" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -64287,7 +64299,9 @@
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="inlineStr"/>
-      <c r="AA184" t="inlineStr"/>
+      <c r="AA184" t="n">
+        <v>5</v>
+      </c>
       <c r="AB184" t="n">
         <v>14</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14954,7 +14954,9 @@
           <t>2020-08-24</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>1956</v>
+      </c>
       <c r="C183" t="n">
         <v>25</v>
       </c>
@@ -15029,7 +15031,7 @@
         <v>5580</v>
       </c>
       <c r="AB183" t="n">
-        <v>40127</v>
+        <v>40136</v>
       </c>
     </row>
     <row r="184">
@@ -15058,12 +15060,16 @@
         <v>162</v>
       </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>266</v>
+      </c>
       <c r="M184" t="n">
         <v>1017</v>
       </c>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
+      <c r="O184" t="n">
+        <v>132</v>
+      </c>
       <c r="P184" t="n">
         <v>102</v>
       </c>
@@ -15083,7 +15089,9 @@
       <c r="V184" t="n">
         <v>3519</v>
       </c>
-      <c r="W184" t="inlineStr"/>
+      <c r="W184" t="n">
+        <v>134</v>
+      </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="n">
@@ -15093,7 +15101,7 @@
         <v>5628</v>
       </c>
       <c r="AB184" t="n">
-        <v>40233</v>
+        <v>40245</v>
       </c>
     </row>
   </sheetData>
@@ -29381,7 +29389,9 @@
           <t>2020-08-24</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>52</v>
+      </c>
       <c r="C183" t="n">
         <v>0</v>
       </c>
@@ -29456,7 +29466,7 @@
         <v>141</v>
       </c>
       <c r="AB183" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="184">
@@ -29490,7 +29500,9 @@
         <v>21</v>
       </c>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
+      <c r="O184" t="n">
+        <v>3</v>
+      </c>
       <c r="P184" t="n">
         <v>0</v>
       </c>
@@ -29510,7 +29522,9 @@
       <c r="V184" t="n">
         <v>350</v>
       </c>
-      <c r="W184" t="inlineStr"/>
+      <c r="W184" t="n">
+        <v>7</v>
+      </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="n">
@@ -29520,7 +29534,7 @@
         <v>141</v>
       </c>
       <c r="AB184" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
   </sheetData>
@@ -42846,12 +42860,16 @@
         <v>0</v>
       </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
       <c r="M184" t="n">
         <v>9</v>
       </c>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
       <c r="P184" t="n">
         <v>1</v>
       </c>
@@ -42869,7 +42887,9 @@
       <c r="V184" t="n">
         <v>1</v>
       </c>
-      <c r="W184" t="inlineStr"/>
+      <c r="W184" t="n">
+        <v>0</v>
+      </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="n">
@@ -54889,12 +54909,16 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
       <c r="M184" t="n">
         <v>3</v>
       </c>
       <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="n">
@@ -74270,7 +74294,9 @@
       <c r="V184" t="n">
         <v>926</v>
       </c>
-      <c r="W184" t="inlineStr"/>
+      <c r="W184" t="n">
+        <v>116</v>
+      </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="n">
@@ -74278,7 +74304,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6686</v>
+        <v>6687</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15041,7 +15041,9 @@
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
+      <c r="C184" t="n">
+        <v>25</v>
+      </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
         <v>2420</v>
@@ -29476,7 +29478,9 @@
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
         <v>99</v>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14628,7 +14628,7 @@
         <v>6474</v>
       </c>
       <c r="Y178" t="n">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="Z178" t="n">
         <v>319</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38965</v>
+        <v>38966</v>
       </c>
     </row>
     <row r="179">
@@ -14866,7 +14866,7 @@
         <v>6658</v>
       </c>
       <c r="Y181" t="n">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="Z181" t="n">
         <v>323</v>
@@ -14875,7 +14875,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39791</v>
+        <v>39792</v>
       </c>
     </row>
     <row r="182">
@@ -14936,7 +14936,7 @@
         <v>6681</v>
       </c>
       <c r="Y182" t="n">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="Z182" t="n">
         <v>323</v>
@@ -14945,7 +14945,7 @@
         <v>5548</v>
       </c>
       <c r="AB182" t="n">
-        <v>39967</v>
+        <v>39969</v>
       </c>
     </row>
     <row r="183">
@@ -15022,7 +15022,7 @@
         <v>6700</v>
       </c>
       <c r="Y183" t="n">
-        <v>2301</v>
+        <v>2310</v>
       </c>
       <c r="Z183" t="n">
         <v>334</v>
@@ -15031,7 +15031,7 @@
         <v>5580</v>
       </c>
       <c r="AB183" t="n">
-        <v>40136</v>
+        <v>40145</v>
       </c>
     </row>
     <row r="184">
@@ -15095,7 +15095,9 @@
         <v>134</v>
       </c>
       <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
+      <c r="Y184" t="n">
+        <v>2311</v>
+      </c>
       <c r="Z184" t="n">
         <v>338</v>
       </c>
@@ -15103,7 +15105,7 @@
         <v>5628</v>
       </c>
       <c r="AB184" t="n">
-        <v>40245</v>
+        <v>40255</v>
       </c>
     </row>
   </sheetData>
@@ -29530,7 +29532,9 @@
         <v>7</v>
       </c>
       <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
+      <c r="Y184" t="n">
+        <v>154</v>
+      </c>
       <c r="Z184" t="n">
         <v>9</v>
       </c>
@@ -42620,7 +42624,7 @@
         <v>16</v>
       </c>
       <c r="Y180" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z180" t="n">
         <v>0</v>
@@ -42629,7 +42633,7 @@
         <v>25</v>
       </c>
       <c r="AB180" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181">
@@ -42682,7 +42686,7 @@
         <v>16</v>
       </c>
       <c r="Y181" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z181" t="n">
         <v>0</v>
@@ -42691,7 +42695,7 @@
         <v>23</v>
       </c>
       <c r="AB181" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182">
@@ -42746,7 +42750,7 @@
         <v>16</v>
       </c>
       <c r="Y182" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z182" t="n">
         <v>0</v>
@@ -42755,7 +42759,7 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183">
@@ -42828,7 +42832,7 @@
         <v>20</v>
       </c>
       <c r="Y183" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z183" t="n">
         <v>3</v>
@@ -42837,7 +42841,7 @@
         <v>22</v>
       </c>
       <c r="AB183" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184">
@@ -42895,7 +42899,9 @@
         <v>0</v>
       </c>
       <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
+      <c r="Y184" t="n">
+        <v>7</v>
+      </c>
       <c r="Z184" t="n">
         <v>3</v>
       </c>
@@ -42903,7 +42909,7 @@
         <v>16</v>
       </c>
       <c r="AB184" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -54938,7 +54944,9 @@
       </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
+      <c r="Y184" t="n">
+        <v>1</v>
+      </c>
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
@@ -64325,7 +64333,9 @@
       </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
+      <c r="Y184" t="n">
+        <v>1</v>
+      </c>
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="n">
         <v>5</v>
@@ -74093,14 +74103,14 @@
       </c>
       <c r="X180" t="inlineStr"/>
       <c r="Y180" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z180" t="n">
         <v>287</v>
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="n">
-        <v>6602</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="181">
@@ -74143,14 +74153,14 @@
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
       <c r="Y181" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z181" t="n">
         <v>287</v>
       </c>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="n">
-        <v>6616</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="182">
@@ -74193,14 +74203,14 @@
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z182" t="n">
         <v>287</v>
       </c>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>6629</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="183">
@@ -74249,14 +74259,14 @@
       </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Z183" t="n">
         <v>287</v>
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6649</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="184">
@@ -74302,13 +74312,15 @@
         <v>116</v>
       </c>
       <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
+      <c r="Y184" t="n">
+        <v>317</v>
+      </c>
       <c r="Z184" t="n">
         <v>296</v>
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6687</v>
+        <v>6689</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -42863,7 +42863,9 @@
       <c r="H184" t="n">
         <v>2</v>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>14</v>
+      </c>
       <c r="J184" t="n">
         <v>0</v>
       </c>
@@ -42883,7 +42885,7 @@
       </c>
       <c r="Q184" t="inlineStr"/>
       <c r="R184" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S184" t="n">
         <v>2</v>
@@ -42909,7 +42911,7 @@
         <v>16</v>
       </c>
       <c r="AB184" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -54916,7 +54918,9 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
@@ -74288,7 +74292,9 @@
       <c r="H184" t="n">
         <v>160</v>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>973</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
@@ -74320,7 +74326,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6689</v>
+        <v>6691</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB184"/>
+  <dimension ref="A1:AB185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15061,7 +15061,9 @@
       <c r="J184" t="n">
         <v>162</v>
       </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>986</v>
+      </c>
       <c r="L184" t="n">
         <v>266</v>
       </c>
@@ -15075,7 +15077,9 @@
       <c r="P184" t="n">
         <v>102</v>
       </c>
-      <c r="Q184" t="inlineStr"/>
+      <c r="Q184" t="n">
+        <v>1232</v>
+      </c>
       <c r="R184" t="n">
         <v>162</v>
       </c>
@@ -15105,7 +15109,49 @@
         <v>5628</v>
       </c>
       <c r="AB184" t="n">
-        <v>40255</v>
+        <v>40273</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>1190</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="n">
+        <v>479</v>
+      </c>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="n">
+        <v>340</v>
+      </c>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="n">
+        <v>40285</v>
       </c>
     </row>
   </sheetData>
@@ -15119,7 +15165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB184"/>
+  <dimension ref="A1:AB185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29500,7 +29546,9 @@
       <c r="J184" t="n">
         <v>13</v>
       </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>50</v>
+      </c>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>21</v>
@@ -29512,7 +29560,9 @@
       <c r="P184" t="n">
         <v>0</v>
       </c>
-      <c r="Q184" t="inlineStr"/>
+      <c r="Q184" t="n">
+        <v>41</v>
+      </c>
       <c r="R184" t="n">
         <v>8</v>
       </c>
@@ -29542,6 +29592,48 @@
         <v>141</v>
       </c>
       <c r="AB184" t="n">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>53</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="n">
+        <v>25</v>
+      </c>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="n">
         <v>2003</v>
       </c>
     </row>
@@ -29556,7 +29648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB184"/>
+  <dimension ref="A1:AB185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42869,7 +42961,9 @@
       <c r="J184" t="n">
         <v>0</v>
       </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -42883,7 +42977,9 @@
       <c r="P184" t="n">
         <v>1</v>
       </c>
-      <c r="Q184" t="inlineStr"/>
+      <c r="Q184" t="n">
+        <v>6</v>
+      </c>
       <c r="R184" t="n">
         <v>1</v>
       </c>
@@ -42911,7 +43007,45 @@
         <v>16</v>
       </c>
       <c r="AB184" t="n">
-        <v>106</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="n">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -42925,7 +43059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB184"/>
+  <dimension ref="A1:AB185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54922,7 +55056,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
       <c r="L184" t="n">
         <v>0</v>
       </c>
@@ -54934,7 +55070,9 @@
         <v>0</v>
       </c>
       <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
+      <c r="Q184" t="n">
+        <v>3</v>
+      </c>
       <c r="R184" t="n">
         <v>0</v>
       </c>
@@ -54954,7 +55092,43 @@
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -54968,7 +55142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB184"/>
+  <dimension ref="A1:AB185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64321,13 +64495,17 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
+      <c r="Q184" t="n">
+        <v>3</v>
+      </c>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
@@ -64345,7 +64523,43 @@
         <v>5</v>
       </c>
       <c r="AB184" t="n">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -64359,7 +64573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB184"/>
+  <dimension ref="A1:AB185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74329,6 +74543,48 @@
         <v>6691</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>1082</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="n">
+        <v>420</v>
+      </c>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="n">
+        <v>297</v>
+      </c>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="n">
+        <v>6701</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -74340,7 +74596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB184"/>
+  <dimension ref="A1:AB185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81310,6 +81566,42 @@
         <v>64284</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="n">
+        <v>64284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15126,7 +15126,9 @@
       <c r="G185" t="n">
         <v>1190</v>
       </c>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>1595</v>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -15141,8 +15143,12 @@
       <c r="T185" t="n">
         <v>479</v>
       </c>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
+      <c r="U185" t="n">
+        <v>566</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3523</v>
+      </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
@@ -15151,7 +15157,7 @@
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>40285</v>
+        <v>40318</v>
       </c>
     </row>
   </sheetData>
@@ -29609,7 +29615,9 @@
       <c r="G185" t="n">
         <v>53</v>
       </c>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>85</v>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -29624,8 +29632,12 @@
       <c r="T185" t="n">
         <v>25</v>
       </c>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
+      <c r="U185" t="n">
+        <v>19</v>
+      </c>
+      <c r="V185" t="n">
+        <v>350</v>
+      </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
@@ -43022,7 +43034,9 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -43035,8 +43049,12 @@
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
+      <c r="U185" t="n">
+        <v>3</v>
+      </c>
+      <c r="V185" t="n">
+        <v>1</v>
+      </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
@@ -55107,7 +55125,9 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -55120,8 +55140,12 @@
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
+      <c r="U185" t="n">
+        <v>1</v>
+      </c>
+      <c r="V185" t="n">
+        <v>0</v>
+      </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
@@ -64552,7 +64576,9 @@
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
+      <c r="V185" t="n">
+        <v>0</v>
+      </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
@@ -74557,7 +74583,9 @@
       <c r="G185" t="n">
         <v>1082</v>
       </c>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>160</v>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -74572,8 +74600,12 @@
       <c r="T185" t="n">
         <v>420</v>
       </c>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
+      <c r="U185" t="n">
+        <v>79</v>
+      </c>
+      <c r="V185" t="n">
+        <v>926</v>
+      </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14440,7 +14440,7 @@
         <v>439</v>
       </c>
       <c r="U176" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="V176" t="n">
         <v>3470</v>
@@ -14461,7 +14461,7 @@
         <v>5168</v>
       </c>
       <c r="AB176" t="n">
-        <v>38383</v>
+        <v>38384</v>
       </c>
     </row>
     <row r="177">
@@ -14528,7 +14528,7 @@
         <v>439</v>
       </c>
       <c r="U177" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="V177" t="n">
         <v>3476</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38652</v>
+        <v>38653</v>
       </c>
     </row>
     <row r="178">
@@ -14616,7 +14616,7 @@
         <v>451</v>
       </c>
       <c r="U178" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="V178" t="n">
         <v>3486</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38966</v>
+        <v>38967</v>
       </c>
     </row>
     <row r="179">
@@ -14700,7 +14700,7 @@
         <v>452</v>
       </c>
       <c r="U179" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="V179" t="n">
         <v>3492</v>
@@ -14721,7 +14721,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39274</v>
+        <v>39275</v>
       </c>
     </row>
     <row r="180">
@@ -14786,7 +14786,7 @@
         <v>459</v>
       </c>
       <c r="U180" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="V180" t="n">
         <v>3500</v>
@@ -14807,7 +14807,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39591</v>
+        <v>39592</v>
       </c>
     </row>
     <row r="181">
@@ -14858,7 +14858,7 @@
         <v>460</v>
       </c>
       <c r="U181" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
@@ -14875,7 +14875,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39792</v>
+        <v>39793</v>
       </c>
     </row>
     <row r="182">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="O182" t="n">
         <v>131</v>
@@ -14928,7 +14928,7 @@
         <v>460</v>
       </c>
       <c r="U182" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
@@ -14945,7 +14945,7 @@
         <v>5548</v>
       </c>
       <c r="AB182" t="n">
-        <v>39969</v>
+        <v>39971</v>
       </c>
     </row>
     <row r="183">
@@ -14990,7 +14990,9 @@
       <c r="M183" t="n">
         <v>1013</v>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>849</v>
+      </c>
       <c r="O183" t="n">
         <v>131</v>
       </c>
@@ -15010,7 +15012,7 @@
         <v>464</v>
       </c>
       <c r="U183" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="V183" t="n">
         <v>3512</v>
@@ -15031,7 +15033,7 @@
         <v>5580</v>
       </c>
       <c r="AB183" t="n">
-        <v>40145</v>
+        <v>40149</v>
       </c>
     </row>
     <row r="184">
@@ -15090,7 +15092,7 @@
         <v>474</v>
       </c>
       <c r="U184" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="V184" t="n">
         <v>3519</v>
@@ -15109,7 +15111,7 @@
         <v>5628</v>
       </c>
       <c r="AB184" t="n">
-        <v>40273</v>
+        <v>40277</v>
       </c>
     </row>
     <row r="185">
@@ -15133,12 +15135,16 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1027</v>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>162</v>
+      </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="n">
         <v>479</v>
@@ -15157,7 +15163,7 @@
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>40318</v>
+        <v>40331</v>
       </c>
     </row>
   </sheetData>
@@ -29405,7 +29411,9 @@
         <v>7</v>
       </c>
       <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>84</v>
+      </c>
       <c r="O182" t="n">
         <v>3</v>
       </c>
@@ -29622,12 +29630,16 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>21</v>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>8</v>
+      </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="n">
         <v>25</v>
@@ -42982,7 +42994,9 @@
       <c r="M184" t="n">
         <v>9</v>
       </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
       <c r="O184" t="n">
         <v>0</v>
       </c>
@@ -43019,7 +43033,7 @@
         <v>16</v>
       </c>
       <c r="AB184" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185">
@@ -43041,12 +43055,16 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>9</v>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>1</v>
+      </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
@@ -43063,7 +43081,7 @@
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -55083,7 +55101,9 @@
       <c r="M184" t="n">
         <v>3</v>
       </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
       <c r="O184" t="n">
         <v>0</v>
       </c>
@@ -55110,7 +55130,7 @@
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -55132,12 +55152,16 @@
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>3</v>
+      </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
@@ -55152,7 +55176,7 @@
       <c r="Z185" t="inlineStr"/>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -64524,7 +64548,9 @@
       </c>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
       <c r="Q184" t="n">

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15123,7 +15123,9 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>2443</v>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
         <v>1190</v>
@@ -15132,7 +15134,9 @@
         <v>1595</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>162</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
@@ -15163,7 +15167,7 @@
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>40331</v>
+        <v>40354</v>
       </c>
     </row>
   </sheetData>
@@ -29618,7 +29622,9 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>99</v>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
         <v>53</v>
@@ -29627,7 +29633,9 @@
         <v>85</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>13</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
@@ -43045,14 +43053,18 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>4</v>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
         <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
@@ -55142,7 +55154,9 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
@@ -64585,7 +64599,9 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14404,7 +14404,7 @@
         <v>1428</v>
       </c>
       <c r="I176" t="n">
-        <v>6541</v>
+        <v>6540</v>
       </c>
       <c r="J176" t="n">
         <v>151</v>
@@ -14461,7 +14461,7 @@
         <v>5168</v>
       </c>
       <c r="AB176" t="n">
-        <v>38384</v>
+        <v>38383</v>
       </c>
     </row>
     <row r="177">
@@ -14492,7 +14492,7 @@
         <v>1434</v>
       </c>
       <c r="I177" t="n">
-        <v>6581</v>
+        <v>6579</v>
       </c>
       <c r="J177" t="n">
         <v>153</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38653</v>
+        <v>38651</v>
       </c>
     </row>
     <row r="178">
@@ -14580,7 +14580,7 @@
         <v>1451</v>
       </c>
       <c r="I178" t="n">
-        <v>6611</v>
+        <v>6609</v>
       </c>
       <c r="J178" t="n">
         <v>154</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38967</v>
+        <v>38965</v>
       </c>
     </row>
     <row r="179">
@@ -14664,7 +14664,7 @@
         <v>1464</v>
       </c>
       <c r="I179" t="n">
-        <v>6651</v>
+        <v>6648</v>
       </c>
       <c r="J179" t="n">
         <v>156</v>
@@ -14721,7 +14721,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39275</v>
+        <v>39272</v>
       </c>
     </row>
     <row r="180">
@@ -14752,7 +14752,7 @@
         <v>1487</v>
       </c>
       <c r="I180" t="n">
-        <v>6691</v>
+        <v>6688</v>
       </c>
       <c r="J180" t="n">
         <v>157</v>
@@ -14807,7 +14807,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39592</v>
+        <v>39589</v>
       </c>
     </row>
     <row r="181">
@@ -14834,7 +14834,7 @@
         <v>1516</v>
       </c>
       <c r="I181" t="n">
-        <v>6706</v>
+        <v>6703</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
@@ -14875,7 +14875,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39793</v>
+        <v>39790</v>
       </c>
     </row>
     <row r="182">
@@ -14902,7 +14902,7 @@
         <v>1550</v>
       </c>
       <c r="I182" t="n">
-        <v>6728</v>
+        <v>6725</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
@@ -14945,7 +14945,7 @@
         <v>5548</v>
       </c>
       <c r="AB182" t="n">
-        <v>39971</v>
+        <v>39968</v>
       </c>
     </row>
     <row r="183">
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6750</v>
+        <v>6751</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5580</v>
       </c>
       <c r="AB183" t="n">
-        <v>40149</v>
+        <v>40150</v>
       </c>
     </row>
     <row r="184">
@@ -15059,7 +15059,9 @@
       <c r="H184" t="n">
         <v>1572</v>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>6788</v>
+      </c>
       <c r="J184" t="n">
         <v>162</v>
       </c>
@@ -15111,7 +15113,7 @@
         <v>5628</v>
       </c>
       <c r="AB184" t="n">
-        <v>40277</v>
+        <v>40315</v>
       </c>
     </row>
     <row r="185">
@@ -15149,7 +15151,9 @@
       <c r="R185" t="n">
         <v>162</v>
       </c>
-      <c r="S185" t="inlineStr"/>
+      <c r="S185" t="n">
+        <v>660</v>
+      </c>
       <c r="T185" t="n">
         <v>479</v>
       </c>
@@ -15167,7 +15171,7 @@
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>40354</v>
+        <v>40400</v>
       </c>
     </row>
   </sheetData>
@@ -29560,7 +29564,9 @@
       <c r="H184" t="n">
         <v>85</v>
       </c>
-      <c r="I184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>297</v>
+      </c>
       <c r="J184" t="n">
         <v>13</v>
       </c>
@@ -29648,7 +29654,9 @@
       <c r="R185" t="n">
         <v>8</v>
       </c>
-      <c r="S185" t="inlineStr"/>
+      <c r="S185" t="n">
+        <v>18</v>
+      </c>
       <c r="T185" t="n">
         <v>25</v>
       </c>
@@ -43061,7 +43069,9 @@
       <c r="H185" t="n">
         <v>2</v>
       </c>
-      <c r="I185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>19</v>
+      </c>
       <c r="J185" t="n">
         <v>0</v>
       </c>
@@ -43077,7 +43087,9 @@
       <c r="R185" t="n">
         <v>1</v>
       </c>
-      <c r="S185" t="inlineStr"/>
+      <c r="S185" t="n">
+        <v>2</v>
+      </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
         <v>3</v>
@@ -43093,7 +43105,7 @@
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -55162,7 +55174,9 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15042,7 +15042,9 @@
           <t>2020-08-25</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr"/>
+      <c r="B184" t="n">
+        <v>1985</v>
+      </c>
       <c r="C184" t="n">
         <v>25</v>
       </c>
@@ -15113,7 +15115,7 @@
         <v>5628</v>
       </c>
       <c r="AB184" t="n">
-        <v>40315</v>
+        <v>40344</v>
       </c>
     </row>
     <row r="185">
@@ -15123,7 +15125,9 @@
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="n">
+        <v>25</v>
+      </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
         <v>2443</v>
@@ -15146,7 +15150,9 @@
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
+      <c r="P185" t="n">
+        <v>105</v>
+      </c>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="n">
         <v>162</v>
@@ -15169,9 +15175,11 @@
       <c r="Z185" t="n">
         <v>340</v>
       </c>
-      <c r="AA185" t="inlineStr"/>
+      <c r="AA185" t="n">
+        <v>5746</v>
+      </c>
       <c r="AB185" t="n">
-        <v>40400</v>
+        <v>40550</v>
       </c>
     </row>
   </sheetData>
@@ -29547,7 +29555,9 @@
           <t>2020-08-25</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr"/>
+      <c r="B184" t="n">
+        <v>52</v>
+      </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
@@ -29626,7 +29636,9 @@
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
         <v>99</v>
@@ -29649,7 +29661,9 @@
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
       <c r="Q185" t="inlineStr"/>
       <c r="R185" t="n">
         <v>8</v>
@@ -29672,7 +29686,9 @@
       <c r="Z185" t="n">
         <v>9</v>
       </c>
-      <c r="AA185" t="inlineStr"/>
+      <c r="AA185" t="n">
+        <v>141</v>
+      </c>
       <c r="AB185" t="n">
         <v>2003</v>
       </c>
@@ -43082,8 +43098,12 @@
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
+      <c r="P185" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>6</v>
+      </c>
       <c r="R185" t="n">
         <v>1</v>
       </c>
@@ -43103,9 +43123,11 @@
       <c r="Z185" t="n">
         <v>3</v>
       </c>
-      <c r="AA185" t="inlineStr"/>
+      <c r="AA185" t="n">
+        <v>19</v>
+      </c>
       <c r="AB185" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -55186,7 +55208,9 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
+      <c r="Q185" t="n">
+        <v>3</v>
+      </c>
       <c r="R185" t="n">
         <v>0</v>
       </c>
@@ -64627,7 +64651,9 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
+      <c r="Q185" t="n">
+        <v>3</v>
+      </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
@@ -64639,9 +64665,11 @@
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="inlineStr"/>
-      <c r="AA185" t="inlineStr"/>
+      <c r="AA185" t="n">
+        <v>6</v>
+      </c>
       <c r="AB185" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15144,7 +15144,9 @@
         <v>162</v>
       </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>266</v>
+      </c>
       <c r="M185" t="n">
         <v>1027</v>
       </c>
@@ -15169,7 +15171,9 @@
       <c r="V185" t="n">
         <v>3523</v>
       </c>
-      <c r="W185" t="inlineStr"/>
+      <c r="W185" t="n">
+        <v>136</v>
+      </c>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="n">
@@ -15179,7 +15183,7 @@
         <v>5746</v>
       </c>
       <c r="AB185" t="n">
-        <v>40550</v>
+        <v>40552</v>
       </c>
     </row>
   </sheetData>
@@ -29680,7 +29684,9 @@
       <c r="V185" t="n">
         <v>350</v>
       </c>
-      <c r="W185" t="inlineStr"/>
+      <c r="W185" t="n">
+        <v>7</v>
+      </c>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="n">
@@ -43092,7 +43098,9 @@
         <v>0</v>
       </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
       <c r="M185" t="n">
         <v>9</v>
       </c>
@@ -43117,7 +43125,9 @@
       <c r="V185" t="n">
         <v>1</v>
       </c>
-      <c r="W185" t="inlineStr"/>
+      <c r="W185" t="n">
+        <v>0</v>
+      </c>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="n">
@@ -55201,7 +55211,9 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
       <c r="M185" t="n">
         <v>3</v>
       </c>
@@ -74690,7 +74702,9 @@
       <c r="V185" t="n">
         <v>926</v>
       </c>
-      <c r="W185" t="inlineStr"/>
+      <c r="W185" t="n">
+        <v>120</v>
+      </c>
       <c r="X185" t="inlineStr"/>
       <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="n">
@@ -74698,7 +74712,7 @@
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>6701</v>
+        <v>6705</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15024,7 +15024,7 @@
         <v>6700</v>
       </c>
       <c r="Y183" t="n">
-        <v>2310</v>
+        <v>2318</v>
       </c>
       <c r="Z183" t="n">
         <v>334</v>
@@ -15033,7 +15033,7 @@
         <v>5580</v>
       </c>
       <c r="AB183" t="n">
-        <v>40150</v>
+        <v>40158</v>
       </c>
     </row>
     <row r="184">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="n">
-        <v>2311</v>
+        <v>2328</v>
       </c>
       <c r="Z184" t="n">
         <v>338</v>
@@ -15115,7 +15115,7 @@
         <v>5628</v>
       </c>
       <c r="AB184" t="n">
-        <v>40344</v>
+        <v>40361</v>
       </c>
     </row>
     <row r="185">
@@ -15151,7 +15151,9 @@
         <v>1027</v>
       </c>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
+      <c r="O185" t="n">
+        <v>133</v>
+      </c>
       <c r="P185" t="n">
         <v>105</v>
       </c>
@@ -15175,7 +15177,9 @@
         <v>136</v>
       </c>
       <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
+      <c r="Y185" t="n">
+        <v>2328</v>
+      </c>
       <c r="Z185" t="n">
         <v>340</v>
       </c>
@@ -15183,7 +15187,7 @@
         <v>5746</v>
       </c>
       <c r="AB185" t="n">
-        <v>40552</v>
+        <v>40570</v>
       </c>
     </row>
   </sheetData>
@@ -29664,7 +29668,9 @@
         <v>21</v>
       </c>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
+      <c r="O185" t="n">
+        <v>3</v>
+      </c>
       <c r="P185" t="n">
         <v>0</v>
       </c>
@@ -29688,7 +29694,9 @@
         <v>7</v>
       </c>
       <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
+      <c r="Y185" t="n">
+        <v>154</v>
+      </c>
       <c r="Z185" t="n">
         <v>9</v>
       </c>
@@ -42904,7 +42912,7 @@
         <v>16</v>
       </c>
       <c r="Y182" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z182" t="n">
         <v>0</v>
@@ -42913,7 +42921,7 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183">
@@ -42986,7 +42994,7 @@
         <v>20</v>
       </c>
       <c r="Y183" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z183" t="n">
         <v>3</v>
@@ -42995,7 +43003,7 @@
         <v>22</v>
       </c>
       <c r="AB183" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="184">
@@ -43062,7 +43070,7 @@
       </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z184" t="n">
         <v>3</v>
@@ -43071,7 +43079,7 @@
         <v>16</v>
       </c>
       <c r="AB184" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185">
@@ -43105,7 +43113,9 @@
         <v>9</v>
       </c>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
       <c r="P185" t="n">
         <v>3</v>
       </c>
@@ -43129,7 +43139,9 @@
         <v>0</v>
       </c>
       <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
+      <c r="Y185" t="n">
+        <v>4</v>
+      </c>
       <c r="Z185" t="n">
         <v>3</v>
       </c>
@@ -43137,7 +43149,7 @@
         <v>19</v>
       </c>
       <c r="AB185" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -55218,7 +55230,9 @@
         <v>3</v>
       </c>
       <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="n">
         <v>3</v>
@@ -55236,7 +55250,9 @@
       </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
+      <c r="Y185" t="n">
+        <v>1</v>
+      </c>
       <c r="Z185" t="inlineStr"/>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
@@ -64675,7 +64691,9 @@
       </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
+      <c r="Y185" t="n">
+        <v>1</v>
+      </c>
       <c r="Z185" t="inlineStr"/>
       <c r="AA185" t="n">
         <v>6</v>
@@ -74543,14 +74561,14 @@
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
       <c r="Y182" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z182" t="n">
         <v>287</v>
       </c>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>6630</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="183">
@@ -74599,14 +74617,14 @@
       </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z183" t="n">
         <v>287</v>
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>6651</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="184">
@@ -74655,14 +74673,14 @@
       </c>
       <c r="X184" t="inlineStr"/>
       <c r="Y184" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z184" t="n">
         <v>296</v>
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6691</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="185">
@@ -74706,13 +74724,15 @@
         <v>120</v>
       </c>
       <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
+      <c r="Y185" t="n">
+        <v>320</v>
+      </c>
       <c r="Z185" t="n">
         <v>297</v>
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>6705</v>
+        <v>6708</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15132,7 +15132,9 @@
       <c r="E185" t="n">
         <v>2443</v>
       </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>1020</v>
+      </c>
       <c r="G185" t="n">
         <v>1190</v>
       </c>
@@ -15187,7 +15189,7 @@
         <v>5746</v>
       </c>
       <c r="AB185" t="n">
-        <v>40570</v>
+        <v>40576</v>
       </c>
     </row>
   </sheetData>
@@ -29651,7 +29653,9 @@
       <c r="E185" t="n">
         <v>99</v>
       </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>35</v>
+      </c>
       <c r="G185" t="n">
         <v>53</v>
       </c>
@@ -43094,7 +43098,9 @@
       <c r="E185" t="n">
         <v>4</v>
       </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
         <v>2</v>
@@ -43149,7 +43155,7 @@
         <v>19</v>
       </c>
       <c r="AB185" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -55213,7 +55219,9 @@
       <c r="E185" t="n">
         <v>1</v>
       </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
         <v>0</v>
@@ -64668,7 +64676,9 @@
       <c r="E185" t="n">
         <v>1</v>
       </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
@@ -74693,7 +74703,9 @@
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>934</v>
+      </c>
       <c r="G185" t="n">
         <v>1082</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15145,7 +15145,9 @@
       <c r="J185" t="n">
         <v>162</v>
       </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>991</v>
+      </c>
       <c r="L185" t="n">
         <v>266</v>
       </c>
@@ -15189,7 +15191,7 @@
         <v>5746</v>
       </c>
       <c r="AB185" t="n">
-        <v>40576</v>
+        <v>40581</v>
       </c>
     </row>
   </sheetData>
@@ -29666,7 +29668,9 @@
       <c r="J185" t="n">
         <v>13</v>
       </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>50</v>
+      </c>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>21</v>
@@ -43111,7 +43115,9 @@
       <c r="J185" t="n">
         <v>0</v>
       </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -43155,7 +43161,7 @@
         <v>19</v>
       </c>
       <c r="AB185" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -55230,7 +55236,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
       <c r="L185" t="n">
         <v>0</v>
       </c>
@@ -64683,7 +64691,9 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB185"/>
+  <dimension ref="A1:AB186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15194,6 +15194,46 @@
         <v>40581</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>162</v>
+      </c>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="n">
+        <v>341</v>
+      </c>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="n">
+        <v>40582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -15205,7 +15245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB185"/>
+  <dimension ref="A1:AB186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29715,6 +29755,46 @@
         <v>2003</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>8</v>
+      </c>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="n">
+        <v>2003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -29726,7 +29806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB185"/>
+  <dimension ref="A1:AB186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43164,6 +43244,46 @@
         <v>111</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>1</v>
+      </c>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="n">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -43175,7 +43295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB185"/>
+  <dimension ref="A1:AB186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55275,6 +55395,44 @@
         <v>18</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -55286,7 +55444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB185"/>
+  <dimension ref="A1:AB186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64722,6 +64880,42 @@
         <v>14</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -64733,7 +64927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB185"/>
+  <dimension ref="A1:AB186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74757,6 +74951,44 @@
         <v>6708</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="n">
+        <v>297</v>
+      </c>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="n">
+        <v>6708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -74768,7 +75000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB185"/>
+  <dimension ref="A1:AB186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81774,6 +82006,42 @@
         <v>64284</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-27</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="n">
+        <v>64284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14991,7 +14991,7 @@
         <v>1013</v>
       </c>
       <c r="N183" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="O183" t="n">
         <v>131</v>
@@ -15033,7 +15033,7 @@
         <v>5580</v>
       </c>
       <c r="AB183" t="n">
-        <v>40158</v>
+        <v>40159</v>
       </c>
     </row>
     <row r="184">
@@ -15076,7 +15076,9 @@
       <c r="M184" t="n">
         <v>1017</v>
       </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>851</v>
+      </c>
       <c r="O184" t="n">
         <v>132</v>
       </c>
@@ -15096,7 +15098,7 @@
         <v>474</v>
       </c>
       <c r="U184" t="n">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="V184" t="n">
         <v>3519</v>
@@ -15115,7 +15117,7 @@
         <v>5628</v>
       </c>
       <c r="AB184" t="n">
-        <v>40361</v>
+        <v>40365</v>
       </c>
     </row>
     <row r="185">
@@ -15161,7 +15163,9 @@
       <c r="P185" t="n">
         <v>105</v>
       </c>
-      <c r="Q185" t="inlineStr"/>
+      <c r="Q185" t="n">
+        <v>1240</v>
+      </c>
       <c r="R185" t="n">
         <v>162</v>
       </c>
@@ -15172,7 +15176,7 @@
         <v>479</v>
       </c>
       <c r="U185" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="V185" t="n">
         <v>3523</v>
@@ -15191,7 +15195,7 @@
         <v>5746</v>
       </c>
       <c r="AB185" t="n">
-        <v>40581</v>
+        <v>40592</v>
       </c>
     </row>
     <row r="186">
@@ -15205,7 +15209,9 @@
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>1196</v>
+      </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -15219,10 +15225,16 @@
       <c r="R186" t="n">
         <v>162</v>
       </c>
-      <c r="S186" t="inlineStr"/>
+      <c r="S186" t="n">
+        <v>666</v>
+      </c>
       <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
+      <c r="U186" t="n">
+        <v>569</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3531</v>
+      </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr"/>
@@ -15231,7 +15243,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>40582</v>
+        <v>40615</v>
       </c>
     </row>
   </sheetData>
@@ -29557,7 +29569,9 @@
       <c r="M183" t="n">
         <v>21</v>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>84</v>
+      </c>
       <c r="O183" t="n">
         <v>3</v>
       </c>
@@ -29722,7 +29736,9 @@
       <c r="P185" t="n">
         <v>0</v>
       </c>
-      <c r="Q185" t="inlineStr"/>
+      <c r="Q185" t="n">
+        <v>41</v>
+      </c>
       <c r="R185" t="n">
         <v>8</v>
       </c>
@@ -29766,7 +29782,9 @@
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>53</v>
+      </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -29780,10 +29798,16 @@
       <c r="R186" t="n">
         <v>8</v>
       </c>
-      <c r="S186" t="inlineStr"/>
+      <c r="S186" t="n">
+        <v>18</v>
+      </c>
       <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
+      <c r="U186" t="n">
+        <v>19</v>
+      </c>
+      <c r="V186" t="n">
+        <v>350</v>
+      </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr"/>
@@ -43204,7 +43228,9 @@
       <c r="M185" t="n">
         <v>9</v>
       </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
       <c r="O185" t="n">
         <v>0</v>
       </c>
@@ -43212,7 +43238,7 @@
         <v>3</v>
       </c>
       <c r="Q185" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R185" t="n">
         <v>1</v>
@@ -43241,7 +43267,7 @@
         <v>19</v>
       </c>
       <c r="AB185" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="186">
@@ -43269,10 +43295,16 @@
       <c r="R186" t="n">
         <v>1</v>
       </c>
-      <c r="S186" t="inlineStr"/>
+      <c r="S186" t="n">
+        <v>3</v>
+      </c>
       <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
+      <c r="U186" t="n">
+        <v>3</v>
+      </c>
+      <c r="V186" t="n">
+        <v>1</v>
+      </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr"/>
@@ -43281,7 +43313,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -55365,7 +55397,9 @@
       <c r="M185" t="n">
         <v>3</v>
       </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
       <c r="O185" t="n">
         <v>0</v>
       </c>
@@ -55392,7 +55426,7 @@
       <c r="Z185" t="inlineStr"/>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186">
@@ -55422,15 +55456,19 @@
       </c>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
+      <c r="U186" t="n">
+        <v>1</v>
+      </c>
+      <c r="V186" t="n">
+        <v>0</v>
+      </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -64854,11 +64892,13 @@
       </c>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
       <c r="Q185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="inlineStr"/>
@@ -64877,7 +64917,7 @@
         <v>6</v>
       </c>
       <c r="AB185" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
@@ -64906,14 +64946,16 @@
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
+      <c r="V186" t="n">
+        <v>0</v>
+      </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -74962,7 +75004,9 @@
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>1088</v>
+      </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -74976,8 +75020,12 @@
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
+      <c r="U186" t="n">
+        <v>79</v>
+      </c>
+      <c r="V186" t="n">
+        <v>926</v>
+      </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr"/>
@@ -74986,7 +75034,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>6708</v>
+        <v>6714</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15212,12 +15212,16 @@
       <c r="G186" t="n">
         <v>1196</v>
       </c>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>1613</v>
+      </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1034</v>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
@@ -15243,7 +15247,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>40615</v>
+        <v>40640</v>
       </c>
     </row>
   </sheetData>
@@ -29785,12 +29789,16 @@
       <c r="G186" t="n">
         <v>53</v>
       </c>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>85</v>
+      </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>21</v>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
@@ -43282,12 +43290,16 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>10</v>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
@@ -43313,7 +43325,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -55441,12 +55453,16 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>3</v>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
@@ -75007,7 +75023,9 @@
       <c r="G186" t="n">
         <v>1088</v>
       </c>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>160</v>
+      </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15207,7 +15207,9 @@
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="n">
+        <v>2462</v>
+      </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
         <v>1196</v>
@@ -15216,7 +15218,9 @@
         <v>1613</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>163</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
@@ -15247,7 +15251,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>40640</v>
+        <v>40660</v>
       </c>
     </row>
   </sheetData>
@@ -29784,7 +29788,9 @@
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="n">
+        <v>99</v>
+      </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
         <v>53</v>
@@ -29793,7 +29799,9 @@
         <v>85</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>13</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
@@ -43294,7 +43302,9 @@
         <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15126,7 +15126,9 @@
           <t>2020-08-26</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
+      <c r="B185" t="n">
+        <v>2019</v>
+      </c>
       <c r="C185" t="n">
         <v>25</v>
       </c>
@@ -15195,7 +15197,7 @@
         <v>5746</v>
       </c>
       <c r="AB185" t="n">
-        <v>40592</v>
+        <v>40626</v>
       </c>
     </row>
     <row r="186">
@@ -15251,7 +15253,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>40660</v>
+        <v>40694</v>
       </c>
     </row>
   </sheetData>
@@ -29709,7 +29711,9 @@
           <t>2020-08-26</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
+      <c r="B185" t="n">
+        <v>52</v>
+      </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -13389,7 +13389,7 @@
         <v>117</v>
       </c>
       <c r="X163" t="n">
-        <v>6094</v>
+        <v>6095</v>
       </c>
       <c r="Y163" t="n">
         <v>2163</v>
@@ -13401,7 +13401,7 @@
         <v>4588</v>
       </c>
       <c r="AB163" t="n">
-        <v>35879</v>
+        <v>35880</v>
       </c>
     </row>
     <row r="164">
@@ -13477,7 +13477,7 @@
         <v>117</v>
       </c>
       <c r="X164" t="n">
-        <v>6113</v>
+        <v>6114</v>
       </c>
       <c r="Y164" t="n">
         <v>2167</v>
@@ -13489,7 +13489,7 @@
         <v>4639</v>
       </c>
       <c r="AB164" t="n">
-        <v>36081</v>
+        <v>36082</v>
       </c>
     </row>
     <row r="165">
@@ -13563,7 +13563,7 @@
         <v>117</v>
       </c>
       <c r="X165" t="n">
-        <v>6130</v>
+        <v>6131</v>
       </c>
       <c r="Y165" t="n">
         <v>2173</v>
@@ -13575,7 +13575,7 @@
         <v>4674</v>
       </c>
       <c r="AB165" t="n">
-        <v>36246</v>
+        <v>36247</v>
       </c>
     </row>
     <row r="166">
@@ -13651,7 +13651,7 @@
         <v>117</v>
       </c>
       <c r="X166" t="n">
-        <v>6152</v>
+        <v>6153</v>
       </c>
       <c r="Y166" t="n">
         <v>2180</v>
@@ -13663,7 +13663,7 @@
         <v>4706</v>
       </c>
       <c r="AB166" t="n">
-        <v>36413</v>
+        <v>36414</v>
       </c>
     </row>
     <row r="167">
@@ -13721,7 +13721,7 @@
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="n">
-        <v>6168</v>
+        <v>6169</v>
       </c>
       <c r="Y167" t="n">
         <v>2184</v>
@@ -13733,7 +13733,7 @@
         <v>4747</v>
       </c>
       <c r="AB167" t="n">
-        <v>36534</v>
+        <v>36535</v>
       </c>
     </row>
     <row r="168">
@@ -13791,7 +13791,7 @@
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="n">
-        <v>6175</v>
+        <v>6176</v>
       </c>
       <c r="Y168" t="n">
         <v>2187</v>
@@ -13803,7 +13803,7 @@
         <v>4763</v>
       </c>
       <c r="AB168" t="n">
-        <v>36624</v>
+        <v>36625</v>
       </c>
     </row>
     <row r="169">
@@ -13879,7 +13879,7 @@
         <v>117</v>
       </c>
       <c r="X169" t="n">
-        <v>6200</v>
+        <v>6201</v>
       </c>
       <c r="Y169" t="n">
         <v>2199</v>
@@ -13891,7 +13891,7 @@
         <v>4802</v>
       </c>
       <c r="AB169" t="n">
-        <v>36818</v>
+        <v>36819</v>
       </c>
     </row>
     <row r="170">
@@ -13965,7 +13965,7 @@
         <v>119</v>
       </c>
       <c r="X170" t="n">
-        <v>6224</v>
+        <v>6225</v>
       </c>
       <c r="Y170" t="n">
         <v>2207</v>
@@ -13977,7 +13977,7 @@
         <v>4866</v>
       </c>
       <c r="AB170" t="n">
-        <v>37082</v>
+        <v>37083</v>
       </c>
     </row>
     <row r="171">
@@ -14051,7 +14051,7 @@
         <v>120</v>
       </c>
       <c r="X171" t="n">
-        <v>6247</v>
+        <v>6248</v>
       </c>
       <c r="Y171" t="n">
         <v>2215</v>
@@ -14063,7 +14063,7 @@
         <v>4918</v>
       </c>
       <c r="AB171" t="n">
-        <v>37311</v>
+        <v>37312</v>
       </c>
     </row>
     <row r="172">
@@ -14137,7 +14137,7 @@
         <v>121</v>
       </c>
       <c r="X172" t="n">
-        <v>6283</v>
+        <v>6284</v>
       </c>
       <c r="Y172" t="n">
         <v>2222</v>
@@ -14149,7 +14149,7 @@
         <v>4974</v>
       </c>
       <c r="AB172" t="n">
-        <v>37586</v>
+        <v>37587</v>
       </c>
     </row>
     <row r="173">
@@ -14225,7 +14225,7 @@
         <v>123</v>
       </c>
       <c r="X173" t="n">
-        <v>6307</v>
+        <v>6308</v>
       </c>
       <c r="Y173" t="n">
         <v>2230</v>
@@ -14237,7 +14237,7 @@
         <v>5034</v>
       </c>
       <c r="AB173" t="n">
-        <v>37821</v>
+        <v>37822</v>
       </c>
     </row>
     <row r="174">
@@ -14293,7 +14293,7 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
-        <v>6332</v>
+        <v>6333</v>
       </c>
       <c r="Y174" t="n">
         <v>2236</v>
@@ -14305,7 +14305,7 @@
         <v>5095</v>
       </c>
       <c r="AB174" t="n">
-        <v>38028</v>
+        <v>38029</v>
       </c>
     </row>
     <row r="175">
@@ -14363,7 +14363,7 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>6350</v>
+        <v>6351</v>
       </c>
       <c r="Y175" t="n">
         <v>2241</v>
@@ -14375,7 +14375,7 @@
         <v>5124</v>
       </c>
       <c r="AB175" t="n">
-        <v>38158</v>
+        <v>38159</v>
       </c>
     </row>
     <row r="176">
@@ -14449,7 +14449,7 @@
         <v>126</v>
       </c>
       <c r="X176" t="n">
-        <v>6384</v>
+        <v>6385</v>
       </c>
       <c r="Y176" t="n">
         <v>2251</v>
@@ -14461,7 +14461,7 @@
         <v>5168</v>
       </c>
       <c r="AB176" t="n">
-        <v>38383</v>
+        <v>38384</v>
       </c>
     </row>
     <row r="177">
@@ -14537,7 +14537,7 @@
         <v>127</v>
       </c>
       <c r="X177" t="n">
-        <v>6427</v>
+        <v>6428</v>
       </c>
       <c r="Y177" t="n">
         <v>2261</v>
@@ -14549,7 +14549,7 @@
         <v>5235</v>
       </c>
       <c r="AB177" t="n">
-        <v>38651</v>
+        <v>38652</v>
       </c>
     </row>
     <row r="178">
@@ -14625,7 +14625,7 @@
         <v>129</v>
       </c>
       <c r="X178" t="n">
-        <v>6474</v>
+        <v>6475</v>
       </c>
       <c r="Y178" t="n">
         <v>2265</v>
@@ -14637,7 +14637,7 @@
         <v>5304</v>
       </c>
       <c r="AB178" t="n">
-        <v>38965</v>
+        <v>38966</v>
       </c>
     </row>
     <row r="179">
@@ -14709,7 +14709,7 @@
         <v>129</v>
       </c>
       <c r="X179" t="n">
-        <v>6549</v>
+        <v>6550</v>
       </c>
       <c r="Y179" t="n">
         <v>2272</v>
@@ -14721,7 +14721,7 @@
         <v>5380</v>
       </c>
       <c r="AB179" t="n">
-        <v>39272</v>
+        <v>39273</v>
       </c>
     </row>
     <row r="180">
@@ -14795,7 +14795,7 @@
         <v>129</v>
       </c>
       <c r="X180" t="n">
-        <v>6614</v>
+        <v>6613</v>
       </c>
       <c r="Y180" t="n">
         <v>2289</v>
@@ -14807,7 +14807,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39589</v>
+        <v>39588</v>
       </c>
     </row>
     <row r="181">
@@ -14863,7 +14863,7 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>6658</v>
+        <v>6657</v>
       </c>
       <c r="Y181" t="n">
         <v>2300</v>
@@ -14875,7 +14875,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39790</v>
+        <v>39789</v>
       </c>
     </row>
     <row r="182">
@@ -14933,7 +14933,7 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>6681</v>
+        <v>6687</v>
       </c>
       <c r="Y182" t="n">
         <v>2303</v>
@@ -14945,7 +14945,7 @@
         <v>5548</v>
       </c>
       <c r="AB182" t="n">
-        <v>39968</v>
+        <v>39974</v>
       </c>
     </row>
     <row r="183">
@@ -15021,7 +15021,7 @@
         <v>132</v>
       </c>
       <c r="X183" t="n">
-        <v>6700</v>
+        <v>6754</v>
       </c>
       <c r="Y183" t="n">
         <v>2318</v>
@@ -15033,7 +15033,7 @@
         <v>5580</v>
       </c>
       <c r="AB183" t="n">
-        <v>40159</v>
+        <v>40213</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15106,7 +15106,9 @@
       <c r="W184" t="n">
         <v>134</v>
       </c>
-      <c r="X184" t="inlineStr"/>
+      <c r="X184" t="n">
+        <v>6819</v>
+      </c>
       <c r="Y184" t="n">
         <v>2328</v>
       </c>
@@ -15117,7 +15119,7 @@
         <v>5628</v>
       </c>
       <c r="AB184" t="n">
-        <v>40365</v>
+        <v>40483</v>
       </c>
     </row>
     <row r="185">
@@ -15145,7 +15147,9 @@
       <c r="H185" t="n">
         <v>1595</v>
       </c>
-      <c r="I185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>6823</v>
+      </c>
       <c r="J185" t="n">
         <v>162</v>
       </c>
@@ -15186,7 +15190,9 @@
       <c r="W185" t="n">
         <v>136</v>
       </c>
-      <c r="X185" t="inlineStr"/>
+      <c r="X185" t="n">
+        <v>6853</v>
+      </c>
       <c r="Y185" t="n">
         <v>2328</v>
       </c>
@@ -15197,7 +15203,7 @@
         <v>5746</v>
       </c>
       <c r="AB185" t="n">
-        <v>40626</v>
+        <v>40814</v>
       </c>
     </row>
     <row r="186">
@@ -15207,12 +15213,16 @@
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
+      <c r="C186" t="n">
+        <v>25</v>
+      </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="n">
         <v>2462</v>
       </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>1024</v>
+      </c>
       <c r="G186" t="n">
         <v>1196</v>
       </c>
@@ -15238,7 +15248,9 @@
       <c r="S186" t="n">
         <v>666</v>
       </c>
-      <c r="T186" t="inlineStr"/>
+      <c r="T186" t="n">
+        <v>484</v>
+      </c>
       <c r="U186" t="n">
         <v>569</v>
       </c>
@@ -15253,7 +15265,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>40694</v>
+        <v>40891</v>
       </c>
     </row>
   </sheetData>
@@ -29691,7 +29703,9 @@
       <c r="W184" t="n">
         <v>7</v>
       </c>
-      <c r="X184" t="inlineStr"/>
+      <c r="X184" t="n">
+        <v>429</v>
+      </c>
       <c r="Y184" t="n">
         <v>154</v>
       </c>
@@ -29730,7 +29744,9 @@
       <c r="H185" t="n">
         <v>85</v>
       </c>
-      <c r="I185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>297</v>
+      </c>
       <c r="J185" t="n">
         <v>13</v>
       </c>
@@ -29769,7 +29785,9 @@
       <c r="W185" t="n">
         <v>7</v>
       </c>
-      <c r="X185" t="inlineStr"/>
+      <c r="X185" t="n">
+        <v>429</v>
+      </c>
       <c r="Y185" t="n">
         <v>154</v>
       </c>
@@ -29790,12 +29808,16 @@
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="n">
         <v>99</v>
       </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>35</v>
+      </c>
       <c r="G186" t="n">
         <v>53</v>
       </c>
@@ -29821,7 +29843,9 @@
       <c r="S186" t="n">
         <v>18</v>
       </c>
-      <c r="T186" t="inlineStr"/>
+      <c r="T186" t="n">
+        <v>25</v>
+      </c>
       <c r="U186" t="n">
         <v>19</v>
       </c>
@@ -38339,7 +38363,9 @@
         <v>3</v>
       </c>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>4</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
         <v>0</v>
@@ -38403,7 +38429,9 @@
       <c r="H119" t="n">
         <v>3</v>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>4</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
         <v>0</v>
@@ -38841,7 +38869,9 @@
         <v>1</v>
       </c>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>7</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>0</v>
@@ -38903,7 +38933,9 @@
         <v>1</v>
       </c>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>7</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
         <v>0</v>
@@ -39349,7 +39381,9 @@
       <c r="H132" t="n">
         <v>4</v>
       </c>
-      <c r="I132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>6</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
         <v>0</v>
@@ -39413,7 +39447,9 @@
       <c r="H133" t="n">
         <v>4</v>
       </c>
-      <c r="I133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>6</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
         <v>0</v>
@@ -39853,7 +39889,9 @@
       <c r="H139" t="n">
         <v>1</v>
       </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>4</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
         <v>2</v>
@@ -39915,7 +39953,9 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>4</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
         <v>2</v>
@@ -40357,7 +40397,9 @@
       <c r="H146" t="n">
         <v>2</v>
       </c>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>4</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
         <v>1</v>
@@ -40419,7 +40461,9 @@
       <c r="H147" t="n">
         <v>3</v>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>4</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
         <v>1</v>
@@ -40871,7 +40915,9 @@
       <c r="H153" t="n">
         <v>1</v>
       </c>
-      <c r="I153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>10</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
         <v>1</v>
@@ -40931,7 +40977,9 @@
       <c r="H154" t="n">
         <v>1</v>
       </c>
-      <c r="I154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>10</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
         <v>1</v>
@@ -41387,7 +41435,9 @@
       <c r="H160" t="n">
         <v>2</v>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>14</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
         <v>1</v>
@@ -41449,7 +41499,9 @@
       <c r="H161" t="n">
         <v>1</v>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>14</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
         <v>1</v>
@@ -41905,7 +41957,9 @@
       <c r="H167" t="n">
         <v>1</v>
       </c>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>16</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
         <v>1</v>
@@ -41967,7 +42021,9 @@
       <c r="H168" t="n">
         <v>1</v>
       </c>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>16</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
         <v>1</v>
@@ -42425,7 +42481,9 @@
       <c r="H174" t="n">
         <v>3</v>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>20</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
         <v>0</v>
@@ -42915,7 +42973,7 @@
         <v>0</v>
       </c>
       <c r="X180" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y180" t="n">
         <v>8</v>
@@ -42927,7 +42985,7 @@
         <v>25</v>
       </c>
       <c r="AB180" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181">
@@ -42977,7 +43035,7 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y181" t="n">
         <v>8</v>
@@ -42989,7 +43047,7 @@
         <v>23</v>
       </c>
       <c r="AB181" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182">
@@ -43041,7 +43099,7 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y182" t="n">
         <v>7</v>
@@ -43053,7 +43111,7 @@
         <v>25</v>
       </c>
       <c r="AB182" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="183">
@@ -43123,7 +43181,7 @@
         <v>0</v>
       </c>
       <c r="X183" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y183" t="n">
         <v>6</v>
@@ -43135,7 +43193,7 @@
         <v>22</v>
       </c>
       <c r="AB183" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184">
@@ -43200,7 +43258,9 @@
       <c r="W184" t="n">
         <v>0</v>
       </c>
-      <c r="X184" t="inlineStr"/>
+      <c r="X184" t="n">
+        <v>22</v>
+      </c>
       <c r="Y184" t="n">
         <v>5</v>
       </c>
@@ -43211,7 +43271,7 @@
         <v>16</v>
       </c>
       <c r="AB184" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185">
@@ -43229,7 +43289,9 @@
       <c r="F185" t="n">
         <v>2</v>
       </c>
-      <c r="G185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>7</v>
+      </c>
       <c r="H185" t="n">
         <v>2</v>
       </c>
@@ -43276,7 +43338,9 @@
       <c r="W185" t="n">
         <v>0</v>
       </c>
-      <c r="X185" t="inlineStr"/>
+      <c r="X185" t="n">
+        <v>19</v>
+      </c>
       <c r="Y185" t="n">
         <v>4</v>
       </c>
@@ -43287,7 +43351,7 @@
         <v>19</v>
       </c>
       <c r="AB185" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186">
@@ -43300,12 +43364,18 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>3</v>
+      </c>
+      <c r="G186" t="n">
+        <v>6</v>
+      </c>
       <c r="H186" t="n">
         <v>2</v>
       </c>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>19</v>
+      </c>
       <c r="J186" t="n">
         <v>0</v>
       </c>
@@ -43317,7 +43387,9 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
+      <c r="Q186" t="n">
+        <v>5</v>
+      </c>
       <c r="R186" t="n">
         <v>1</v>
       </c>
@@ -43339,7 +43411,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -55381,14 +55453,16 @@
         <v>0</v>
       </c>
       <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
+      <c r="X184" t="n">
+        <v>7</v>
+      </c>
       <c r="Y184" t="n">
         <v>1</v>
       </c>
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185">
@@ -55406,7 +55480,9 @@
       <c r="F185" t="n">
         <v>1</v>
       </c>
-      <c r="G185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
@@ -55445,14 +55521,16 @@
         <v>0</v>
       </c>
       <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr"/>
+      <c r="X185" t="n">
+        <v>7</v>
+      </c>
       <c r="Y185" t="n">
         <v>1</v>
       </c>
       <c r="Z185" t="inlineStr"/>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -55465,12 +55543,18 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
@@ -55480,7 +55564,9 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
+      <c r="Q186" t="n">
+        <v>3</v>
+      </c>
       <c r="R186" t="n">
         <v>0</v>
       </c>
@@ -55498,7 +55584,7 @@
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -64960,7 +65046,9 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
@@ -64971,7 +65059,9 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
+      <c r="Q186" t="n">
+        <v>2</v>
+      </c>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
@@ -75033,7 +75123,9 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>936</v>
+      </c>
       <c r="G186" t="n">
         <v>1088</v>
       </c>
@@ -75051,7 +75143,9 @@
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="inlineStr"/>
-      <c r="T186" t="inlineStr"/>
+      <c r="T186" t="n">
+        <v>421</v>
+      </c>
       <c r="U186" t="n">
         <v>79</v>
       </c>
@@ -75066,7 +75160,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>6714</v>
+        <v>6717</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15116,10 +15116,10 @@
         <v>338</v>
       </c>
       <c r="AA184" t="n">
-        <v>5628</v>
+        <v>5630</v>
       </c>
       <c r="AB184" t="n">
-        <v>40483</v>
+        <v>40485</v>
       </c>
     </row>
     <row r="185">
@@ -15200,10 +15200,10 @@
         <v>340</v>
       </c>
       <c r="AA185" t="n">
-        <v>5746</v>
+        <v>5748</v>
       </c>
       <c r="AB185" t="n">
-        <v>40814</v>
+        <v>40816</v>
       </c>
     </row>
     <row r="186">
@@ -15216,7 +15216,9 @@
       <c r="C186" t="n">
         <v>25</v>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="n">
+        <v>131</v>
+      </c>
       <c r="E186" t="n">
         <v>2462</v>
       </c>
@@ -15234,7 +15236,9 @@
         <v>163</v>
       </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>266</v>
+      </c>
       <c r="M186" t="n">
         <v>1034</v>
       </c>
@@ -15263,9 +15267,11 @@
       <c r="Z186" t="n">
         <v>341</v>
       </c>
-      <c r="AA186" t="inlineStr"/>
+      <c r="AA186" t="n">
+        <v>5844</v>
+      </c>
       <c r="AB186" t="n">
-        <v>40891</v>
+        <v>40990</v>
       </c>
     </row>
   </sheetData>
@@ -29671,7 +29677,9 @@
       <c r="K184" t="n">
         <v>50</v>
       </c>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>7</v>
+      </c>
       <c r="M184" t="n">
         <v>21</v>
       </c>
@@ -29753,7 +29761,9 @@
       <c r="K185" t="n">
         <v>50</v>
       </c>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>7</v>
+      </c>
       <c r="M185" t="n">
         <v>21</v>
       </c>
@@ -29811,7 +29821,9 @@
       <c r="C186" t="n">
         <v>0</v>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="n">
+        <v>3</v>
+      </c>
       <c r="E186" t="n">
         <v>99</v>
       </c>
@@ -29829,7 +29841,9 @@
         <v>13</v>
       </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>7</v>
+      </c>
       <c r="M186" t="n">
         <v>21</v>
       </c>
@@ -29858,7 +29872,9 @@
       <c r="Z186" t="n">
         <v>9</v>
       </c>
-      <c r="AA186" t="inlineStr"/>
+      <c r="AA186" t="n">
+        <v>141</v>
+      </c>
       <c r="AB186" t="n">
         <v>2003</v>
       </c>
@@ -43362,7 +43378,9 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
         <v>3</v>
@@ -43380,7 +43398,9 @@
         <v>0</v>
       </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
       <c r="M186" t="n">
         <v>10</v>
       </c>
@@ -43409,7 +43429,9 @@
       <c r="Z186" t="n">
         <v>3</v>
       </c>
-      <c r="AA186" t="inlineStr"/>
+      <c r="AA186" t="n">
+        <v>18</v>
+      </c>
       <c r="AB186" t="n">
         <v>110</v>
       </c>
@@ -55541,7 +55563,9 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
         <v>1</v>
@@ -55557,7 +55581,9 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
       <c r="M186" t="n">
         <v>3</v>
       </c>
@@ -65073,9 +65099,11 @@
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="inlineStr"/>
-      <c r="AA186" t="inlineStr"/>
+      <c r="AA186" t="n">
+        <v>5</v>
+      </c>
       <c r="AB186" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15243,7 +15243,9 @@
         <v>1034</v>
       </c>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
+      <c r="O186" t="n">
+        <v>133</v>
+      </c>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
@@ -29848,7 +29850,9 @@
         <v>21</v>
       </c>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
+      <c r="O186" t="n">
+        <v>3</v>
+      </c>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
@@ -43405,7 +43409,9 @@
         <v>10</v>
       </c>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="n">
         <v>5</v>
@@ -55588,7 +55594,9 @@
         <v>3</v>
       </c>
       <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="n">
         <v>3</v>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14798,7 +14798,7 @@
         <v>6613</v>
       </c>
       <c r="Y180" t="n">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="Z180" t="n">
         <v>323</v>
@@ -14807,7 +14807,7 @@
         <v>5463</v>
       </c>
       <c r="AB180" t="n">
-        <v>39588</v>
+        <v>39589</v>
       </c>
     </row>
     <row r="181">
@@ -14866,7 +14866,7 @@
         <v>6657</v>
       </c>
       <c r="Y181" t="n">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="Z181" t="n">
         <v>323</v>
@@ -14875,7 +14875,7 @@
         <v>5507</v>
       </c>
       <c r="AB181" t="n">
-        <v>39789</v>
+        <v>39790</v>
       </c>
     </row>
     <row r="182">
@@ -14936,7 +14936,7 @@
         <v>6687</v>
       </c>
       <c r="Y182" t="n">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="Z182" t="n">
         <v>323</v>
@@ -14945,7 +14945,7 @@
         <v>5548</v>
       </c>
       <c r="AB182" t="n">
-        <v>39974</v>
+        <v>39975</v>
       </c>
     </row>
     <row r="183">
@@ -15110,7 +15110,7 @@
         <v>6819</v>
       </c>
       <c r="Y184" t="n">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="Z184" t="n">
         <v>338</v>
@@ -15119,7 +15119,7 @@
         <v>5630</v>
       </c>
       <c r="AB184" t="n">
-        <v>40485</v>
+        <v>40488</v>
       </c>
     </row>
     <row r="185">
@@ -15194,7 +15194,7 @@
         <v>6853</v>
       </c>
       <c r="Y185" t="n">
-        <v>2328</v>
+        <v>2340</v>
       </c>
       <c r="Z185" t="n">
         <v>340</v>
@@ -15203,7 +15203,7 @@
         <v>5748</v>
       </c>
       <c r="AB185" t="n">
-        <v>40816</v>
+        <v>40828</v>
       </c>
     </row>
     <row r="186">
@@ -15246,7 +15246,9 @@
       <c r="O186" t="n">
         <v>133</v>
       </c>
-      <c r="P186" t="inlineStr"/>
+      <c r="P186" t="n">
+        <v>105</v>
+      </c>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
         <v>162</v>
@@ -15263,9 +15265,13 @@
       <c r="V186" t="n">
         <v>3531</v>
       </c>
-      <c r="W186" t="inlineStr"/>
+      <c r="W186" t="n">
+        <v>136</v>
+      </c>
       <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
+      <c r="Y186" t="n">
+        <v>2340</v>
+      </c>
       <c r="Z186" t="n">
         <v>341</v>
       </c>
@@ -15273,7 +15279,7 @@
         <v>5844</v>
       </c>
       <c r="AB186" t="n">
-        <v>40990</v>
+        <v>41002</v>
       </c>
     </row>
   </sheetData>
@@ -29853,7 +29859,9 @@
       <c r="O186" t="n">
         <v>3</v>
       </c>
-      <c r="P186" t="inlineStr"/>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
         <v>8</v>
@@ -29870,9 +29878,13 @@
       <c r="V186" t="n">
         <v>350</v>
       </c>
-      <c r="W186" t="inlineStr"/>
+      <c r="W186" t="n">
+        <v>7</v>
+      </c>
       <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
+      <c r="Y186" t="n">
+        <v>154</v>
+      </c>
       <c r="Z186" t="n">
         <v>9</v>
       </c>
@@ -43412,7 +43424,9 @@
       <c r="O186" t="n">
         <v>0</v>
       </c>
-      <c r="P186" t="inlineStr"/>
+      <c r="P186" t="n">
+        <v>3</v>
+      </c>
       <c r="Q186" t="n">
         <v>5</v>
       </c>
@@ -43429,9 +43443,13 @@
       <c r="V186" t="n">
         <v>1</v>
       </c>
-      <c r="W186" t="inlineStr"/>
+      <c r="W186" t="n">
+        <v>0</v>
+      </c>
       <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
+      <c r="Y186" t="n">
+        <v>4</v>
+      </c>
       <c r="Z186" t="n">
         <v>3</v>
       </c>
@@ -55614,7 +55632,9 @@
       </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
+      <c r="Y186" t="n">
+        <v>1</v>
+      </c>
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
@@ -65105,7 +65125,9 @@
       </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
+      <c r="Y186" t="n">
+        <v>1</v>
+      </c>
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="n">
         <v>5</v>
@@ -75188,15 +75210,19 @@
       <c r="V186" t="n">
         <v>926</v>
       </c>
-      <c r="W186" t="inlineStr"/>
+      <c r="W186" t="n">
+        <v>123</v>
+      </c>
       <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
+      <c r="Y186" t="n">
+        <v>320</v>
+      </c>
       <c r="Z186" t="n">
         <v>297</v>
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>6717</v>
+        <v>6720</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15235,7 +15235,9 @@
       <c r="J186" t="n">
         <v>163</v>
       </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>994</v>
+      </c>
       <c r="L186" t="n">
         <v>266</v>
       </c>
@@ -15279,7 +15281,7 @@
         <v>5844</v>
       </c>
       <c r="AB186" t="n">
-        <v>41002</v>
+        <v>41005</v>
       </c>
     </row>
   </sheetData>
@@ -29848,7 +29850,9 @@
       <c r="J186" t="n">
         <v>13</v>
       </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>50</v>
+      </c>
       <c r="L186" t="n">
         <v>7</v>
       </c>
@@ -43413,7 +43417,9 @@
       <c r="J186" t="n">
         <v>0</v>
       </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -55604,7 +55610,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
       <c r="L186" t="n">
         <v>0</v>
       </c>
@@ -65107,7 +65115,9 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB186"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15284,6 +15284,46 @@
         <v>41005</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="n">
+        <v>484</v>
+      </c>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="n">
+        <v>344</v>
+      </c>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="n">
+        <v>41008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -15295,7 +15335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB186"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29899,6 +29939,46 @@
         <v>2003</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="n">
+        <v>25</v>
+      </c>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="n">
+        <v>2003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -29910,7 +29990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB186"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43466,6 +43546,44 @@
         <v>110</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="n">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -43477,7 +43595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB186"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55649,6 +55767,42 @@
         <v>18</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -55660,7 +55814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB186"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65146,6 +65300,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -65157,7 +65347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB186"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75235,6 +75425,46 @@
         <v>6720</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="n">
+        <v>423</v>
+      </c>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="n">
+        <v>301</v>
+      </c>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="n">
+        <v>6726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -75246,7 +75476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB186"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82121,7 +82351,9 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>66873</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
@@ -82141,7 +82373,7 @@
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="n">
-        <v>64284</v>
+        <v>67515</v>
       </c>
     </row>
     <row r="183">
@@ -82177,7 +82409,7 @@
       <c r="Z183" t="inlineStr"/>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="n">
-        <v>64284</v>
+        <v>67515</v>
       </c>
     </row>
     <row r="184">
@@ -82213,7 +82445,7 @@
       <c r="Z184" t="inlineStr"/>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>64284</v>
+        <v>67515</v>
       </c>
     </row>
     <row r="185">
@@ -82249,7 +82481,7 @@
       <c r="Z185" t="inlineStr"/>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>64284</v>
+        <v>67515</v>
       </c>
     </row>
     <row r="186">
@@ -82285,7 +82517,43 @@
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>64284</v>
+        <v>67515</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-28</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="n">
+        <v>67515</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15077,7 +15077,7 @@
         <v>1017</v>
       </c>
       <c r="N184" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="O184" t="n">
         <v>132</v>
@@ -15119,7 +15119,7 @@
         <v>5630</v>
       </c>
       <c r="AB184" t="n">
-        <v>40488</v>
+        <v>40489</v>
       </c>
     </row>
     <row r="185">
@@ -15162,7 +15162,9 @@
       <c r="M185" t="n">
         <v>1027</v>
       </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>854</v>
+      </c>
       <c r="O185" t="n">
         <v>133</v>
       </c>
@@ -15203,7 +15205,7 @@
         <v>5748</v>
       </c>
       <c r="AB185" t="n">
-        <v>40828</v>
+        <v>40831</v>
       </c>
     </row>
     <row r="186">
@@ -15244,7 +15246,9 @@
       <c r="M186" t="n">
         <v>1034</v>
       </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>855</v>
+      </c>
       <c r="O186" t="n">
         <v>133</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>5844</v>
       </c>
       <c r="AB186" t="n">
-        <v>41005</v>
+        <v>41009</v>
       </c>
     </row>
     <row r="187">
@@ -15296,7 +15300,9 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>1634</v>
+      </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -15306,13 +15312,17 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>162</v>
+      </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="n">
         <v>484</v>
       </c>
       <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
+      <c r="V187" t="n">
+        <v>3533</v>
+      </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
@@ -15321,7 +15331,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>41008</v>
+        <v>41035</v>
       </c>
     </row>
   </sheetData>
@@ -29951,7 +29961,9 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>85</v>
+      </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -29961,13 +29973,17 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>8</v>
+      </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="n">
         <v>25</v>
       </c>
       <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
+      <c r="V187" t="n">
+        <v>350</v>
+      </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
@@ -43506,7 +43522,9 @@
       <c r="M186" t="n">
         <v>10</v>
       </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
       <c r="O186" t="n">
         <v>0</v>
       </c>
@@ -43558,7 +43576,9 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>3</v>
+      </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -43568,11 +43588,15 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>1</v>
+      </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
+      <c r="V187" t="n">
+        <v>1</v>
+      </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
@@ -43581,7 +43605,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -55737,7 +55761,9 @@
       <c r="M186" t="n">
         <v>3</v>
       </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
       <c r="O186" t="n">
         <v>0</v>
       </c>
@@ -55779,7 +55805,9 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -55789,11 +55817,15 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
+      <c r="V187" t="n">
+        <v>0</v>
+      </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
@@ -65274,7 +65306,9 @@
       </c>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
       <c r="Q186" t="n">
@@ -65326,7 +65360,9 @@
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
+      <c r="V187" t="n">
+        <v>0</v>
+      </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
@@ -75437,7 +75473,9 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>160</v>
+      </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -75453,7 +75491,9 @@
         <v>423</v>
       </c>
       <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
+      <c r="V187" t="n">
+        <v>926</v>
+      </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15299,7 +15299,9 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>1205</v>
+      </c>
       <c r="H187" t="n">
         <v>1634</v>
       </c>
@@ -15319,7 +15321,9 @@
       <c r="T187" t="n">
         <v>484</v>
       </c>
-      <c r="U187" t="inlineStr"/>
+      <c r="U187" t="n">
+        <v>572</v>
+      </c>
       <c r="V187" t="n">
         <v>3533</v>
       </c>
@@ -15331,7 +15335,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>41035</v>
+        <v>41047</v>
       </c>
     </row>
   </sheetData>
@@ -29960,7 +29964,9 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>53</v>
+      </c>
       <c r="H187" t="n">
         <v>85</v>
       </c>
@@ -29980,7 +29986,9 @@
       <c r="T187" t="n">
         <v>25</v>
       </c>
-      <c r="U187" t="inlineStr"/>
+      <c r="U187" t="n">
+        <v>19</v>
+      </c>
       <c r="V187" t="n">
         <v>350</v>
       </c>
@@ -43575,7 +43583,9 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>6</v>
+      </c>
       <c r="H187" t="n">
         <v>3</v>
       </c>
@@ -43593,7 +43603,9 @@
       </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
+      <c r="U187" t="n">
+        <v>3</v>
+      </c>
       <c r="V187" t="n">
         <v>1</v>
       </c>
@@ -55804,7 +55816,9 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
@@ -55822,7 +55836,9 @@
       </c>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr"/>
+      <c r="U187" t="n">
+        <v>1</v>
+      </c>
       <c r="V187" t="n">
         <v>0</v>
       </c>
@@ -75472,7 +75488,9 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>1095</v>
+      </c>
       <c r="H187" t="n">
         <v>160</v>
       </c>
@@ -75490,7 +75508,9 @@
       <c r="T187" t="n">
         <v>423</v>
       </c>
-      <c r="U187" t="inlineStr"/>
+      <c r="U187" t="n">
+        <v>79</v>
+      </c>
       <c r="V187" t="n">
         <v>926</v>
       </c>
@@ -75502,7 +75522,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>6726</v>
+        <v>6733</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15255,7 +15255,9 @@
       <c r="P186" t="n">
         <v>105</v>
       </c>
-      <c r="Q186" t="inlineStr"/>
+      <c r="Q186" t="n">
+        <v>1249</v>
+      </c>
       <c r="R186" t="n">
         <v>162</v>
       </c>
@@ -15285,7 +15287,7 @@
         <v>5844</v>
       </c>
       <c r="AB186" t="n">
-        <v>41009</v>
+        <v>41018</v>
       </c>
     </row>
     <row r="187">
@@ -15295,7 +15297,9 @@
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
+      <c r="C187" t="n">
+        <v>25</v>
+      </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
@@ -15306,10 +15310,14 @@
         <v>1634</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>163</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1045</v>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
@@ -15317,7 +15325,9 @@
       <c r="R187" t="n">
         <v>162</v>
       </c>
-      <c r="S187" t="inlineStr"/>
+      <c r="S187" t="n">
+        <v>687</v>
+      </c>
       <c r="T187" t="n">
         <v>484</v>
       </c>
@@ -15335,7 +15345,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>41047</v>
+        <v>41088</v>
       </c>
     </row>
   </sheetData>
@@ -29920,7 +29930,9 @@
       <c r="P186" t="n">
         <v>0</v>
       </c>
-      <c r="Q186" t="inlineStr"/>
+      <c r="Q186" t="n">
+        <v>42</v>
+      </c>
       <c r="R186" t="n">
         <v>8</v>
       </c>
@@ -29950,7 +29962,7 @@
         <v>141</v>
       </c>
       <c r="AB186" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="187">
@@ -29960,7 +29972,9 @@
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
@@ -29971,10 +29985,14 @@
         <v>85</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>13</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>21</v>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
@@ -29982,7 +30000,9 @@
       <c r="R187" t="n">
         <v>8</v>
       </c>
-      <c r="S187" t="inlineStr"/>
+      <c r="S187" t="n">
+        <v>18</v>
+      </c>
       <c r="T187" t="n">
         <v>25</v>
       </c>
@@ -30000,7 +30020,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
   </sheetData>
@@ -43540,7 +43560,7 @@
         <v>3</v>
       </c>
       <c r="Q186" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R186" t="n">
         <v>1</v>
@@ -43569,7 +43589,7 @@
         <v>18</v>
       </c>
       <c r="AB186" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187">
@@ -43590,10 +43610,14 @@
         <v>3</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>10</v>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
@@ -43601,7 +43625,9 @@
       <c r="R187" t="n">
         <v>1</v>
       </c>
-      <c r="S187" t="inlineStr"/>
+      <c r="S187" t="n">
+        <v>3</v>
+      </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="n">
         <v>3</v>
@@ -43617,7 +43643,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -55826,7 +55852,9 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>3</v>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15214,7 +15214,9 @@
           <t>2020-08-27</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
+      <c r="B186" t="n">
+        <v>2046</v>
+      </c>
       <c r="C186" t="n">
         <v>25</v>
       </c>
@@ -15287,7 +15289,7 @@
         <v>5844</v>
       </c>
       <c r="AB186" t="n">
-        <v>41018</v>
+        <v>41045</v>
       </c>
     </row>
     <row r="187">
@@ -15301,7 +15303,9 @@
         <v>25</v>
       </c>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>2487</v>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
         <v>1205</v>
@@ -15345,7 +15349,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>41088</v>
+        <v>41140</v>
       </c>
     </row>
   </sheetData>
@@ -29891,7 +29895,9 @@
           <t>2020-08-27</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
+      <c r="B186" t="n">
+        <v>52</v>
+      </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
@@ -29976,7 +29982,9 @@
         <v>0</v>
       </c>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>99</v>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
         <v>53</v>
@@ -43601,7 +43609,9 @@
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>4</v>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
         <v>6</v>
@@ -43621,7 +43631,9 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
+      <c r="Q187" t="n">
+        <v>4</v>
+      </c>
       <c r="R187" t="n">
         <v>1</v>
       </c>
@@ -55840,7 +55852,9 @@
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
         <v>0</v>
@@ -55858,7 +55872,9 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
+      <c r="Q187" t="n">
+        <v>3</v>
+      </c>
       <c r="R187" t="n">
         <v>0</v>
       </c>
@@ -65387,7 +65403,9 @@
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
@@ -65399,7 +65417,9 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15306,7 +15306,9 @@
       <c r="E187" t="n">
         <v>2487</v>
       </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>1029</v>
+      </c>
       <c r="G187" t="n">
         <v>1205</v>
       </c>
@@ -15349,7 +15351,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>41140</v>
+        <v>41145</v>
       </c>
     </row>
   </sheetData>
@@ -29985,7 +29987,9 @@
       <c r="E187" t="n">
         <v>99</v>
       </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>35</v>
+      </c>
       <c r="G187" t="n">
         <v>53</v>
       </c>
@@ -43612,7 +43616,9 @@
       <c r="E187" t="n">
         <v>4</v>
       </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>3</v>
+      </c>
       <c r="G187" t="n">
         <v>6</v>
       </c>
@@ -55855,7 +55861,9 @@
       <c r="E187" t="n">
         <v>1</v>
       </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
       <c r="G187" t="n">
         <v>0</v>
       </c>
@@ -65406,7 +65414,9 @@
       <c r="E187" t="n">
         <v>1</v>
       </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
@@ -75535,7 +75545,9 @@
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
+      <c r="F187" t="n">
+        <v>938</v>
+      </c>
       <c r="G187" t="n">
         <v>1095</v>
       </c>
@@ -75570,7 +75582,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>6733</v>
+        <v>6735</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -1354,7 +1354,7 @@
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>62</v>
       </c>
       <c r="AB16" t="n">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17">
@@ -1420,7 +1420,7 @@
         <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>101</v>
       </c>
       <c r="AB17" t="n">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="18">
@@ -1492,7 +1492,7 @@
         <v>22</v>
       </c>
       <c r="I18" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -1541,7 +1541,7 @@
         <v>140</v>
       </c>
       <c r="AB18" t="n">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="19">
@@ -1566,7 +1566,7 @@
         <v>29</v>
       </c>
       <c r="I19" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J19" t="n">
         <v>6</v>
@@ -1615,7 +1615,7 @@
         <v>163</v>
       </c>
       <c r="AB19" t="n">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="20">
@@ -1640,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="I20" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J20" t="n">
         <v>8</v>
@@ -1685,7 +1685,7 @@
         <v>218</v>
       </c>
       <c r="AB20" t="n">
-        <v>1869</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="21">
@@ -1706,7 +1706,7 @@
         <v>40</v>
       </c>
       <c r="I21" t="n">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J21" t="n">
         <v>10</v>
@@ -1753,7 +1753,7 @@
         <v>250</v>
       </c>
       <c r="AB21" t="n">
-        <v>2164</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="22">
@@ -1782,7 +1782,7 @@
         <v>45</v>
       </c>
       <c r="I22" t="n">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J22" t="n">
         <v>10</v>
@@ -1827,7 +1827,7 @@
         <v>326</v>
       </c>
       <c r="AB22" t="n">
-        <v>2958</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="23">
@@ -1854,7 +1854,7 @@
         <v>59</v>
       </c>
       <c r="I23" t="n">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J23" t="n">
         <v>12</v>
@@ -1901,7 +1901,7 @@
         <v>429</v>
       </c>
       <c r="AB23" t="n">
-        <v>3726</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="24">
@@ -1930,7 +1930,7 @@
         <v>86</v>
       </c>
       <c r="I24" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="J24" t="n">
         <v>14</v>
@@ -1981,7 +1981,7 @@
         <v>568</v>
       </c>
       <c r="AB24" t="n">
-        <v>4805</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="25">
@@ -2010,7 +2010,7 @@
         <v>111</v>
       </c>
       <c r="I25" t="n">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="J25" t="n">
         <v>16</v>
@@ -2059,7 +2059,7 @@
         <v>679</v>
       </c>
       <c r="AB25" t="n">
-        <v>5792</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="26">
@@ -2086,7 +2086,7 @@
         <v>145</v>
       </c>
       <c r="I26" t="n">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="J26" t="n">
         <v>20</v>
@@ -2139,7 +2139,7 @@
         <v>711</v>
       </c>
       <c r="AB26" t="n">
-        <v>7019</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="27">
@@ -2164,7 +2164,7 @@
         <v>167</v>
       </c>
       <c r="I27" t="n">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="J27" t="n">
         <v>25</v>
@@ -2213,7 +2213,7 @@
         <v>919</v>
       </c>
       <c r="AB27" t="n">
-        <v>7909</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="28">
@@ -2238,7 +2238,7 @@
         <v>202</v>
       </c>
       <c r="I28" t="n">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="J28" t="n">
         <v>29</v>
@@ -2285,7 +2285,7 @@
         <v>978</v>
       </c>
       <c r="AB28" t="n">
-        <v>8503</v>
+        <v>8498</v>
       </c>
     </row>
     <row r="29">
@@ -2314,7 +2314,7 @@
         <v>226</v>
       </c>
       <c r="I29" t="n">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="J29" t="n">
         <v>31</v>
@@ -2369,7 +2369,7 @@
         <v>1067</v>
       </c>
       <c r="AB29" t="n">
-        <v>9742</v>
+        <v>9735</v>
       </c>
     </row>
     <row r="30">
@@ -2400,7 +2400,7 @@
         <v>255</v>
       </c>
       <c r="I30" t="n">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="J30" t="n">
         <v>33</v>
@@ -2457,7 +2457,7 @@
         <v>1213</v>
       </c>
       <c r="AB30" t="n">
-        <v>10845</v>
+        <v>10838</v>
       </c>
     </row>
     <row r="31">
@@ -2488,7 +2488,7 @@
         <v>293</v>
       </c>
       <c r="I31" t="n">
-        <v>1865</v>
+        <v>1856</v>
       </c>
       <c r="J31" t="n">
         <v>40</v>
@@ -2538,10 +2538,10 @@
         <v>80</v>
       </c>
       <c r="AA31" t="n">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AB31" t="n">
-        <v>11985</v>
+        <v>11975</v>
       </c>
     </row>
     <row r="32">
@@ -2572,7 +2572,7 @@
         <v>309</v>
       </c>
       <c r="I32" t="n">
-        <v>2068</v>
+        <v>2057</v>
       </c>
       <c r="J32" t="n">
         <v>43</v>
@@ -2626,10 +2626,10 @@
         <v>87</v>
       </c>
       <c r="AA32" t="n">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AB32" t="n">
-        <v>13076</v>
+        <v>13064</v>
       </c>
     </row>
     <row r="33">
@@ -2660,7 +2660,7 @@
         <v>369</v>
       </c>
       <c r="I33" t="n">
-        <v>2226</v>
+        <v>2215</v>
       </c>
       <c r="J33" t="n">
         <v>47</v>
@@ -2714,10 +2714,10 @@
         <v>94</v>
       </c>
       <c r="AA33" t="n">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="AB33" t="n">
-        <v>14379</v>
+        <v>14367</v>
       </c>
     </row>
     <row r="34">
@@ -2746,7 +2746,7 @@
         <v>421</v>
       </c>
       <c r="I34" t="n">
-        <v>2431</v>
+        <v>2419</v>
       </c>
       <c r="J34" t="n">
         <v>47</v>
@@ -2798,10 +2798,10 @@
         <v>101</v>
       </c>
       <c r="AA34" t="n">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="AB34" t="n">
-        <v>15220</v>
+        <v>15207</v>
       </c>
     </row>
     <row r="35">
@@ -2828,7 +2828,7 @@
         <v>442</v>
       </c>
       <c r="I35" t="n">
-        <v>2542</v>
+        <v>2530</v>
       </c>
       <c r="J35" t="n">
         <v>50</v>
@@ -2880,10 +2880,10 @@
         <v>101</v>
       </c>
       <c r="AA35" t="n">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="AB35" t="n">
-        <v>15822</v>
+        <v>15809</v>
       </c>
     </row>
     <row r="36">
@@ -2914,7 +2914,7 @@
         <v>477</v>
       </c>
       <c r="I36" t="n">
-        <v>2756</v>
+        <v>2743</v>
       </c>
       <c r="J36" t="n">
         <v>51</v>
@@ -2966,10 +2966,10 @@
         <v>112</v>
       </c>
       <c r="AA36" t="n">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="AB36" t="n">
-        <v>16942</v>
+        <v>16928</v>
       </c>
     </row>
     <row r="37">
@@ -3000,7 +3000,7 @@
         <v>491</v>
       </c>
       <c r="I37" t="n">
-        <v>2998</v>
+        <v>2984</v>
       </c>
       <c r="J37" t="n">
         <v>53</v>
@@ -3054,10 +3054,10 @@
         <v>114</v>
       </c>
       <c r="AA37" t="n">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AB37" t="n">
-        <v>17867</v>
+        <v>17852</v>
       </c>
     </row>
     <row r="38">
@@ -3086,7 +3086,7 @@
         <v>525</v>
       </c>
       <c r="I38" t="n">
-        <v>3174</v>
+        <v>3160</v>
       </c>
       <c r="J38" t="n">
         <v>56</v>
@@ -3140,10 +3140,10 @@
         <v>125</v>
       </c>
       <c r="AA38" t="n">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="AB38" t="n">
-        <v>18930</v>
+        <v>18915</v>
       </c>
     </row>
     <row r="39">
@@ -3174,7 +3174,7 @@
         <v>550</v>
       </c>
       <c r="I39" t="n">
-        <v>3461</v>
+        <v>3445</v>
       </c>
       <c r="J39" t="n">
         <v>58</v>
@@ -3228,10 +3228,10 @@
         <v>131</v>
       </c>
       <c r="AA39" t="n">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="AB39" t="n">
-        <v>20022</v>
+        <v>20005</v>
       </c>
     </row>
     <row r="40">
@@ -3262,7 +3262,7 @@
         <v>588</v>
       </c>
       <c r="I40" t="n">
-        <v>3669</v>
+        <v>3650</v>
       </c>
       <c r="J40" t="n">
         <v>59</v>
@@ -3316,10 +3316,10 @@
         <v>138</v>
       </c>
       <c r="AA40" t="n">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="AB40" t="n">
-        <v>20998</v>
+        <v>20978</v>
       </c>
     </row>
     <row r="41">
@@ -3348,7 +3348,7 @@
         <v>638</v>
       </c>
       <c r="I41" t="n">
-        <v>3807</v>
+        <v>3788</v>
       </c>
       <c r="J41" t="n">
         <v>61</v>
@@ -3400,10 +3400,10 @@
         <v>146</v>
       </c>
       <c r="AA41" t="n">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="AB41" t="n">
-        <v>21574</v>
+        <v>21554</v>
       </c>
     </row>
     <row r="42">
@@ -3430,7 +3430,7 @@
         <v>669</v>
       </c>
       <c r="I42" t="n">
-        <v>3894</v>
+        <v>3874</v>
       </c>
       <c r="J42" t="n">
         <v>63</v>
@@ -3482,10 +3482,10 @@
         <v>146</v>
       </c>
       <c r="AA42" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="AB42" t="n">
-        <v>21978</v>
+        <v>21957</v>
       </c>
     </row>
     <row r="43">
@@ -3516,7 +3516,7 @@
         <v>689</v>
       </c>
       <c r="I43" t="n">
-        <v>4014</v>
+        <v>3992</v>
       </c>
       <c r="J43" t="n">
         <v>63</v>
@@ -3570,10 +3570,10 @@
         <v>152</v>
       </c>
       <c r="AA43" t="n">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="AB43" t="n">
-        <v>22722</v>
+        <v>22699</v>
       </c>
     </row>
     <row r="44">
@@ -3604,7 +3604,7 @@
         <v>729</v>
       </c>
       <c r="I44" t="n">
-        <v>4187</v>
+        <v>4164</v>
       </c>
       <c r="J44" t="n">
         <v>63</v>
@@ -3658,10 +3658,10 @@
         <v>157</v>
       </c>
       <c r="AA44" t="n">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="AB44" t="n">
-        <v>23388</v>
+        <v>23364</v>
       </c>
     </row>
     <row r="45">
@@ -3692,7 +3692,7 @@
         <v>756</v>
       </c>
       <c r="I45" t="n">
-        <v>4330</v>
+        <v>4302</v>
       </c>
       <c r="J45" t="n">
         <v>64</v>
@@ -3746,10 +3746,10 @@
         <v>162</v>
       </c>
       <c r="AA45" t="n">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="AB45" t="n">
-        <v>24069</v>
+        <v>24040</v>
       </c>
     </row>
     <row r="46">
@@ -3780,7 +3780,7 @@
         <v>786</v>
       </c>
       <c r="I46" t="n">
-        <v>4423</v>
+        <v>4394</v>
       </c>
       <c r="J46" t="n">
         <v>67</v>
@@ -3834,10 +3834,10 @@
         <v>165</v>
       </c>
       <c r="AA46" t="n">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="AB46" t="n">
-        <v>24738</v>
+        <v>24708</v>
       </c>
     </row>
     <row r="47">
@@ -3866,7 +3866,7 @@
         <v>796</v>
       </c>
       <c r="I47" t="n">
-        <v>4470</v>
+        <v>4440</v>
       </c>
       <c r="J47" t="n">
         <v>76</v>
@@ -3918,10 +3918,10 @@
         <v>168</v>
       </c>
       <c r="AA47" t="n">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="AB47" t="n">
-        <v>25190</v>
+        <v>25159</v>
       </c>
     </row>
     <row r="48">
@@ -3952,7 +3952,7 @@
         <v>834</v>
       </c>
       <c r="I48" t="n">
-        <v>4528</v>
+        <v>4497</v>
       </c>
       <c r="J48" t="n">
         <v>91</v>
@@ -4004,10 +4004,10 @@
         <v>168</v>
       </c>
       <c r="AA48" t="n">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="AB48" t="n">
-        <v>25662</v>
+        <v>25630</v>
       </c>
     </row>
     <row r="49">
@@ -4034,7 +4034,7 @@
         <v>846</v>
       </c>
       <c r="I49" t="n">
-        <v>4558</v>
+        <v>4527</v>
       </c>
       <c r="J49" t="n">
         <v>91</v>
@@ -4086,10 +4086,10 @@
         <v>168</v>
       </c>
       <c r="AA49" t="n">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="AB49" t="n">
-        <v>25942</v>
+        <v>25910</v>
       </c>
     </row>
     <row r="50">
@@ -4120,7 +4120,7 @@
         <v>859</v>
       </c>
       <c r="I50" t="n">
-        <v>4606</v>
+        <v>4575</v>
       </c>
       <c r="J50" t="n">
         <v>92</v>
@@ -4172,10 +4172,10 @@
         <v>170</v>
       </c>
       <c r="AA50" t="n">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="AB50" t="n">
-        <v>26190</v>
+        <v>26158</v>
       </c>
     </row>
     <row r="51">
@@ -4206,7 +4206,7 @@
         <v>879</v>
       </c>
       <c r="I51" t="n">
-        <v>4669</v>
+        <v>4636</v>
       </c>
       <c r="J51" t="n">
         <v>105</v>
@@ -4260,10 +4260,10 @@
         <v>171</v>
       </c>
       <c r="AA51" t="n">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="AB51" t="n">
-        <v>26522</v>
+        <v>26488</v>
       </c>
     </row>
     <row r="52">
@@ -4294,7 +4294,7 @@
         <v>890</v>
       </c>
       <c r="I52" t="n">
-        <v>4738</v>
+        <v>4702</v>
       </c>
       <c r="J52" t="n">
         <v>105</v>
@@ -4348,10 +4348,10 @@
         <v>171</v>
       </c>
       <c r="AA52" t="n">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="AB52" t="n">
-        <v>26845</v>
+        <v>26808</v>
       </c>
     </row>
     <row r="53">
@@ -4382,7 +4382,7 @@
         <v>907</v>
       </c>
       <c r="I53" t="n">
-        <v>4811</v>
+        <v>4773</v>
       </c>
       <c r="J53" t="n">
         <v>106</v>
@@ -4436,10 +4436,10 @@
         <v>171</v>
       </c>
       <c r="AA53" t="n">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="AB53" t="n">
-        <v>27152</v>
+        <v>27113</v>
       </c>
     </row>
     <row r="54">
@@ -4470,7 +4470,7 @@
         <v>930</v>
       </c>
       <c r="I54" t="n">
-        <v>4858</v>
+        <v>4819</v>
       </c>
       <c r="J54" t="n">
         <v>108</v>
@@ -4524,10 +4524,10 @@
         <v>172</v>
       </c>
       <c r="AA54" t="n">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="AB54" t="n">
-        <v>27462</v>
+        <v>27422</v>
       </c>
     </row>
     <row r="55">
@@ -4554,7 +4554,7 @@
         <v>956</v>
       </c>
       <c r="I55" t="n">
-        <v>4910</v>
+        <v>4868</v>
       </c>
       <c r="J55" t="n">
         <v>111</v>
@@ -4606,10 +4606,10 @@
         <v>174</v>
       </c>
       <c r="AA55" t="n">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="AB55" t="n">
-        <v>27743</v>
+        <v>27700</v>
       </c>
     </row>
     <row r="56">
@@ -4638,7 +4638,7 @@
         <v>980</v>
       </c>
       <c r="I56" t="n">
-        <v>4921</v>
+        <v>4879</v>
       </c>
       <c r="J56" t="n">
         <v>111</v>
@@ -4690,10 +4690,10 @@
         <v>175</v>
       </c>
       <c r="AA56" t="n">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="AB56" t="n">
-        <v>27920</v>
+        <v>27877</v>
       </c>
     </row>
     <row r="57">
@@ -4724,7 +4724,7 @@
         <v>989</v>
       </c>
       <c r="I57" t="n">
-        <v>4953</v>
+        <v>4910</v>
       </c>
       <c r="J57" t="n">
         <v>114</v>
@@ -4778,10 +4778,10 @@
         <v>175</v>
       </c>
       <c r="AA57" t="n">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="AB57" t="n">
-        <v>28126</v>
+        <v>28082</v>
       </c>
     </row>
     <row r="58">
@@ -4812,7 +4812,7 @@
         <v>995</v>
       </c>
       <c r="I58" t="n">
-        <v>4993</v>
+        <v>4949</v>
       </c>
       <c r="J58" t="n">
         <v>115</v>
@@ -4866,10 +4866,10 @@
         <v>176</v>
       </c>
       <c r="AA58" t="n">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="AB58" t="n">
-        <v>28297</v>
+        <v>28252</v>
       </c>
     </row>
     <row r="59">
@@ -4900,7 +4900,7 @@
         <v>1006</v>
       </c>
       <c r="I59" t="n">
-        <v>5026</v>
+        <v>4982</v>
       </c>
       <c r="J59" t="n">
         <v>117</v>
@@ -4954,10 +4954,10 @@
         <v>176</v>
       </c>
       <c r="AA59" t="n">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AB59" t="n">
-        <v>28506</v>
+        <v>28461</v>
       </c>
     </row>
     <row r="60">
@@ -4988,7 +4988,7 @@
         <v>1014</v>
       </c>
       <c r="I60" t="n">
-        <v>5064</v>
+        <v>5020</v>
       </c>
       <c r="J60" t="n">
         <v>117</v>
@@ -5042,10 +5042,10 @@
         <v>178</v>
       </c>
       <c r="AA60" t="n">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="AB60" t="n">
-        <v>28729</v>
+        <v>28684</v>
       </c>
     </row>
     <row r="61">
@@ -5076,7 +5076,7 @@
         <v>1021</v>
       </c>
       <c r="I61" t="n">
-        <v>5085</v>
+        <v>5041</v>
       </c>
       <c r="J61" t="n">
         <v>117</v>
@@ -5130,10 +5130,10 @@
         <v>180</v>
       </c>
       <c r="AA61" t="n">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="AB61" t="n">
-        <v>28918</v>
+        <v>28873</v>
       </c>
     </row>
     <row r="62">
@@ -5160,7 +5160,7 @@
         <v>1029</v>
       </c>
       <c r="I62" t="n">
-        <v>5104</v>
+        <v>5059</v>
       </c>
       <c r="J62" t="n">
         <v>120</v>
@@ -5212,10 +5212,10 @@
         <v>181</v>
       </c>
       <c r="AA62" t="n">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="AB62" t="n">
-        <v>29063</v>
+        <v>29017</v>
       </c>
     </row>
     <row r="63">
@@ -5240,7 +5240,7 @@
         <v>1033</v>
       </c>
       <c r="I63" t="n">
-        <v>5109</v>
+        <v>5064</v>
       </c>
       <c r="J63" t="n">
         <v>120</v>
@@ -5292,10 +5292,10 @@
         <v>181</v>
       </c>
       <c r="AA63" t="n">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="AB63" t="n">
-        <v>29139</v>
+        <v>29093</v>
       </c>
     </row>
     <row r="64">
@@ -5326,7 +5326,7 @@
         <v>1040</v>
       </c>
       <c r="I64" t="n">
-        <v>5128</v>
+        <v>5083</v>
       </c>
       <c r="J64" t="n">
         <v>121</v>
@@ -5380,10 +5380,10 @@
         <v>185</v>
       </c>
       <c r="AA64" t="n">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="AB64" t="n">
-        <v>29310</v>
+        <v>29264</v>
       </c>
     </row>
     <row r="65">
@@ -5414,7 +5414,7 @@
         <v>1044</v>
       </c>
       <c r="I65" t="n">
-        <v>5148</v>
+        <v>5103</v>
       </c>
       <c r="J65" t="n">
         <v>121</v>
@@ -5468,10 +5468,10 @@
         <v>185</v>
       </c>
       <c r="AA65" t="n">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AB65" t="n">
-        <v>29438</v>
+        <v>29392</v>
       </c>
     </row>
     <row r="66">
@@ -5502,7 +5502,7 @@
         <v>1057</v>
       </c>
       <c r="I66" t="n">
-        <v>5166</v>
+        <v>5121</v>
       </c>
       <c r="J66" t="n">
         <v>122</v>
@@ -5556,10 +5556,10 @@
         <v>185</v>
       </c>
       <c r="AA66" t="n">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="AB66" t="n">
-        <v>29580</v>
+        <v>29534</v>
       </c>
     </row>
     <row r="67">
@@ -5590,7 +5590,7 @@
         <v>1070</v>
       </c>
       <c r="I67" t="n">
-        <v>5177</v>
+        <v>5132</v>
       </c>
       <c r="J67" t="n">
         <v>122</v>
@@ -5644,10 +5644,10 @@
         <v>189</v>
       </c>
       <c r="AA67" t="n">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="AB67" t="n">
-        <v>29727</v>
+        <v>29681</v>
       </c>
     </row>
     <row r="68">
@@ -5678,7 +5678,7 @@
         <v>1078</v>
       </c>
       <c r="I68" t="n">
-        <v>5196</v>
+        <v>5151</v>
       </c>
       <c r="J68" t="n">
         <v>122</v>
@@ -5732,10 +5732,10 @@
         <v>189</v>
       </c>
       <c r="AA68" t="n">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="AB68" t="n">
-        <v>29853</v>
+        <v>29807</v>
       </c>
     </row>
     <row r="69">
@@ -5764,7 +5764,7 @@
         <v>1092</v>
       </c>
       <c r="I69" t="n">
-        <v>5201</v>
+        <v>5156</v>
       </c>
       <c r="J69" t="n">
         <v>122</v>
@@ -5814,10 +5814,10 @@
         <v>189</v>
       </c>
       <c r="AA69" t="n">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="AB69" t="n">
-        <v>29921</v>
+        <v>29875</v>
       </c>
     </row>
     <row r="70">
@@ -5846,7 +5846,7 @@
         <v>1097</v>
       </c>
       <c r="I70" t="n">
-        <v>5207</v>
+        <v>5162</v>
       </c>
       <c r="J70" t="n">
         <v>122</v>
@@ -5896,10 +5896,10 @@
         <v>189</v>
       </c>
       <c r="AA70" t="n">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="AB70" t="n">
-        <v>29981</v>
+        <v>29935</v>
       </c>
     </row>
     <row r="71">
@@ -5930,7 +5930,7 @@
         <v>1102</v>
       </c>
       <c r="I71" t="n">
-        <v>5213</v>
+        <v>5168</v>
       </c>
       <c r="J71" t="n">
         <v>122</v>
@@ -5984,10 +5984,10 @@
         <v>190</v>
       </c>
       <c r="AA71" t="n">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="AB71" t="n">
-        <v>30043</v>
+        <v>29997</v>
       </c>
     </row>
     <row r="72">
@@ -6018,7 +6018,7 @@
         <v>1104</v>
       </c>
       <c r="I72" t="n">
-        <v>5222</v>
+        <v>5177</v>
       </c>
       <c r="J72" t="n">
         <v>122</v>
@@ -6072,10 +6072,10 @@
         <v>191</v>
       </c>
       <c r="AA72" t="n">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="AB72" t="n">
-        <v>30106</v>
+        <v>30060</v>
       </c>
     </row>
     <row r="73">
@@ -6106,7 +6106,7 @@
         <v>1107</v>
       </c>
       <c r="I73" t="n">
-        <v>5229</v>
+        <v>5184</v>
       </c>
       <c r="J73" t="n">
         <v>125</v>
@@ -6160,10 +6160,10 @@
         <v>191</v>
       </c>
       <c r="AA73" t="n">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="AB73" t="n">
-        <v>30189</v>
+        <v>30143</v>
       </c>
     </row>
     <row r="74">
@@ -6192,7 +6192,7 @@
         <v>1115</v>
       </c>
       <c r="I74" t="n">
-        <v>5236</v>
+        <v>5191</v>
       </c>
       <c r="J74" t="n">
         <v>125</v>
@@ -6246,10 +6246,10 @@
         <v>192</v>
       </c>
       <c r="AA74" t="n">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="AB74" t="n">
-        <v>30258</v>
+        <v>30212</v>
       </c>
     </row>
     <row r="75">
@@ -6278,7 +6278,7 @@
         <v>1117</v>
       </c>
       <c r="I75" t="n">
-        <v>5242</v>
+        <v>5197</v>
       </c>
       <c r="J75" t="n">
         <v>125</v>
@@ -6332,10 +6332,10 @@
         <v>192</v>
       </c>
       <c r="AA75" t="n">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="AB75" t="n">
-        <v>30324</v>
+        <v>30278</v>
       </c>
     </row>
     <row r="76">
@@ -6364,7 +6364,7 @@
         <v>1121</v>
       </c>
       <c r="I76" t="n">
-        <v>5251</v>
+        <v>5206</v>
       </c>
       <c r="J76" t="n">
         <v>126</v>
@@ -6412,10 +6412,10 @@
         <v>193</v>
       </c>
       <c r="AA76" t="n">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="AB76" t="n">
-        <v>30368</v>
+        <v>30322</v>
       </c>
     </row>
     <row r="77">
@@ -6442,7 +6442,7 @@
         <v>1126</v>
       </c>
       <c r="I77" t="n">
-        <v>5252</v>
+        <v>5207</v>
       </c>
       <c r="J77" t="n">
         <v>126</v>
@@ -6488,10 +6488,10 @@
         <v>193</v>
       </c>
       <c r="AA77" t="n">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="AB77" t="n">
-        <v>30400</v>
+        <v>30354</v>
       </c>
     </row>
     <row r="78">
@@ -6522,7 +6522,7 @@
         <v>1129</v>
       </c>
       <c r="I78" t="n">
-        <v>5257</v>
+        <v>5212</v>
       </c>
       <c r="J78" t="n">
         <v>127</v>
@@ -6576,10 +6576,10 @@
         <v>193</v>
       </c>
       <c r="AA78" t="n">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="AB78" t="n">
-        <v>30464</v>
+        <v>30418</v>
       </c>
     </row>
     <row r="79">
@@ -6610,7 +6610,7 @@
         <v>1138</v>
       </c>
       <c r="I79" t="n">
-        <v>5267</v>
+        <v>5222</v>
       </c>
       <c r="J79" t="n">
         <v>127</v>
@@ -6664,10 +6664,10 @@
         <v>194</v>
       </c>
       <c r="AA79" t="n">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="AB79" t="n">
-        <v>30512</v>
+        <v>30466</v>
       </c>
     </row>
     <row r="80">
@@ -6694,7 +6694,7 @@
         <v>1141</v>
       </c>
       <c r="I80" t="n">
-        <v>5271</v>
+        <v>5226</v>
       </c>
       <c r="J80" t="n">
         <v>127</v>
@@ -6748,10 +6748,10 @@
         <v>195</v>
       </c>
       <c r="AA80" t="n">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="AB80" t="n">
-        <v>30553</v>
+        <v>30507</v>
       </c>
     </row>
     <row r="81">
@@ -6780,7 +6780,7 @@
         <v>1143</v>
       </c>
       <c r="I81" t="n">
-        <v>5278</v>
+        <v>5233</v>
       </c>
       <c r="J81" t="n">
         <v>128</v>
@@ -6834,10 +6834,10 @@
         <v>197</v>
       </c>
       <c r="AA81" t="n">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="AB81" t="n">
-        <v>30594</v>
+        <v>30548</v>
       </c>
     </row>
     <row r="82">
@@ -6866,7 +6866,7 @@
         <v>1145</v>
       </c>
       <c r="I82" t="n">
-        <v>5283</v>
+        <v>5238</v>
       </c>
       <c r="J82" t="n">
         <v>128</v>
@@ -6918,10 +6918,10 @@
         <v>198</v>
       </c>
       <c r="AA82" t="n">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="AB82" t="n">
-        <v>30639</v>
+        <v>30593</v>
       </c>
     </row>
     <row r="83">
@@ -6948,7 +6948,7 @@
         <v>1146</v>
       </c>
       <c r="I83" t="n">
-        <v>5285</v>
+        <v>5240</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -6994,10 +6994,10 @@
         <v>199</v>
       </c>
       <c r="AA83" t="n">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="AB83" t="n">
-        <v>30669</v>
+        <v>30623</v>
       </c>
     </row>
     <row r="84">
@@ -7022,7 +7022,7 @@
         <v>1147</v>
       </c>
       <c r="I84" t="n">
-        <v>5286</v>
+        <v>5241</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -7068,10 +7068,10 @@
         <v>199</v>
       </c>
       <c r="AA84" t="n">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="AB84" t="n">
-        <v>30685</v>
+        <v>30639</v>
       </c>
     </row>
     <row r="85">
@@ -7100,7 +7100,7 @@
         <v>1147</v>
       </c>
       <c r="I85" t="n">
-        <v>5287</v>
+        <v>5242</v>
       </c>
       <c r="J85" t="n">
         <v>128</v>
@@ -7154,10 +7154,10 @@
         <v>199</v>
       </c>
       <c r="AA85" t="n">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="AB85" t="n">
-        <v>30719</v>
+        <v>30673</v>
       </c>
     </row>
     <row r="86">
@@ -7184,7 +7184,7 @@
         <v>1147</v>
       </c>
       <c r="I86" t="n">
-        <v>5289</v>
+        <v>5244</v>
       </c>
       <c r="J86" t="n">
         <v>128</v>
@@ -7238,10 +7238,10 @@
         <v>199</v>
       </c>
       <c r="AA86" t="n">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="AB86" t="n">
-        <v>30747</v>
+        <v>30701</v>
       </c>
     </row>
     <row r="87">
@@ -7272,7 +7272,7 @@
         <v>1152</v>
       </c>
       <c r="I87" t="n">
-        <v>5296</v>
+        <v>5251</v>
       </c>
       <c r="J87" t="n">
         <v>128</v>
@@ -7326,10 +7326,10 @@
         <v>199</v>
       </c>
       <c r="AA87" t="n">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="AB87" t="n">
-        <v>30785</v>
+        <v>30739</v>
       </c>
     </row>
     <row r="88">
@@ -7356,7 +7356,7 @@
         <v>1152</v>
       </c>
       <c r="I88" t="n">
-        <v>5301</v>
+        <v>5256</v>
       </c>
       <c r="J88" t="n">
         <v>128</v>
@@ -7404,10 +7404,10 @@
         <v>199</v>
       </c>
       <c r="AA88" t="n">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="AB88" t="n">
-        <v>30812</v>
+        <v>30766</v>
       </c>
     </row>
     <row r="89">
@@ -7436,7 +7436,7 @@
         <v>1152</v>
       </c>
       <c r="I89" t="n">
-        <v>5303</v>
+        <v>5258</v>
       </c>
       <c r="J89" t="n">
         <v>128</v>
@@ -7484,10 +7484,10 @@
         <v>199</v>
       </c>
       <c r="AA89" t="n">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="AB89" t="n">
-        <v>30832</v>
+        <v>30786</v>
       </c>
     </row>
     <row r="90">
@@ -7512,7 +7512,7 @@
         <v>1154</v>
       </c>
       <c r="I90" t="n">
-        <v>5305</v>
+        <v>5260</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -7556,10 +7556,10 @@
         <v>201</v>
       </c>
       <c r="AA90" t="n">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="AB90" t="n">
-        <v>30852</v>
+        <v>30806</v>
       </c>
     </row>
     <row r="91">
@@ -7586,7 +7586,7 @@
         <v>1155</v>
       </c>
       <c r="I91" t="n">
-        <v>5305</v>
+        <v>5260</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
@@ -7630,10 +7630,10 @@
         <v>202</v>
       </c>
       <c r="AA91" t="n">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="AB91" t="n">
-        <v>30862</v>
+        <v>30816</v>
       </c>
     </row>
     <row r="92">
@@ -7664,7 +7664,7 @@
         <v>1156</v>
       </c>
       <c r="I92" t="n">
-        <v>5305</v>
+        <v>5260</v>
       </c>
       <c r="J92" t="n">
         <v>128</v>
@@ -7718,10 +7718,10 @@
         <v>202</v>
       </c>
       <c r="AA92" t="n">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="AB92" t="n">
-        <v>30869</v>
+        <v>30823</v>
       </c>
     </row>
     <row r="93">
@@ -7748,7 +7748,7 @@
         <v>1156</v>
       </c>
       <c r="I93" t="n">
-        <v>5308</v>
+        <v>5263</v>
       </c>
       <c r="J93" t="n">
         <v>128</v>
@@ -7802,10 +7802,10 @@
         <v>202</v>
       </c>
       <c r="AA93" t="n">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="AB93" t="n">
-        <v>30891</v>
+        <v>30845</v>
       </c>
     </row>
     <row r="94">
@@ -7836,7 +7836,7 @@
         <v>1157</v>
       </c>
       <c r="I94" t="n">
-        <v>5311</v>
+        <v>5266</v>
       </c>
       <c r="J94" t="n">
         <v>128</v>
@@ -7890,10 +7890,10 @@
         <v>202</v>
       </c>
       <c r="AA94" t="n">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="AB94" t="n">
-        <v>30905</v>
+        <v>30859</v>
       </c>
     </row>
     <row r="95">
@@ -7922,7 +7922,7 @@
         <v>1158</v>
       </c>
       <c r="I95" t="n">
-        <v>5313</v>
+        <v>5268</v>
       </c>
       <c r="J95" t="n">
         <v>128</v>
@@ -7976,10 +7976,10 @@
         <v>202</v>
       </c>
       <c r="AA95" t="n">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="AB95" t="n">
-        <v>30924</v>
+        <v>30878</v>
       </c>
     </row>
     <row r="96">
@@ -8010,7 +8010,7 @@
         <v>1159</v>
       </c>
       <c r="I96" t="n">
-        <v>5317</v>
+        <v>5272</v>
       </c>
       <c r="J96" t="n">
         <v>128</v>
@@ -8064,10 +8064,10 @@
         <v>202</v>
       </c>
       <c r="AA96" t="n">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="AB96" t="n">
-        <v>30954</v>
+        <v>30908</v>
       </c>
     </row>
     <row r="97">
@@ -8092,7 +8092,7 @@
         <v>1159</v>
       </c>
       <c r="I97" t="n">
-        <v>5322</v>
+        <v>5277</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
@@ -8136,10 +8136,10 @@
         <v>202</v>
       </c>
       <c r="AA97" t="n">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="AB97" t="n">
-        <v>30995</v>
+        <v>30949</v>
       </c>
     </row>
     <row r="98">
@@ -8164,7 +8164,7 @@
         <v>1159</v>
       </c>
       <c r="I98" t="n">
-        <v>5322</v>
+        <v>5277</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -8208,10 +8208,10 @@
         <v>202</v>
       </c>
       <c r="AA98" t="n">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="AB98" t="n">
-        <v>31002</v>
+        <v>30956</v>
       </c>
     </row>
     <row r="99">
@@ -8238,7 +8238,7 @@
         <v>1159</v>
       </c>
       <c r="I99" t="n">
-        <v>5323</v>
+        <v>5278</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
@@ -8282,10 +8282,10 @@
         <v>202</v>
       </c>
       <c r="AA99" t="n">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="AB99" t="n">
-        <v>31008</v>
+        <v>30962</v>
       </c>
     </row>
     <row r="100">
@@ -8314,7 +8314,7 @@
         <v>1161</v>
       </c>
       <c r="I100" t="n">
-        <v>5326</v>
+        <v>5281</v>
       </c>
       <c r="J100" t="n">
         <v>128</v>
@@ -8366,10 +8366,10 @@
         <v>202</v>
       </c>
       <c r="AA100" t="n">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="AB100" t="n">
-        <v>31025</v>
+        <v>30979</v>
       </c>
     </row>
     <row r="101">
@@ -8400,7 +8400,7 @@
         <v>1162</v>
       </c>
       <c r="I101" t="n">
-        <v>5328</v>
+        <v>5283</v>
       </c>
       <c r="J101" t="n">
         <v>128</v>
@@ -8452,10 +8452,10 @@
         <v>202</v>
       </c>
       <c r="AA101" t="n">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="AB101" t="n">
-        <v>31044</v>
+        <v>30998</v>
       </c>
     </row>
     <row r="102">
@@ -8484,7 +8484,7 @@
         <v>1164</v>
       </c>
       <c r="I102" t="n">
-        <v>5329</v>
+        <v>5284</v>
       </c>
       <c r="J102" t="n">
         <v>128</v>
@@ -8534,10 +8534,10 @@
         <v>202</v>
       </c>
       <c r="AA102" t="n">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="AB102" t="n">
-        <v>31067</v>
+        <v>31021</v>
       </c>
     </row>
     <row r="103">
@@ -8566,7 +8566,7 @@
         <v>1166</v>
       </c>
       <c r="I103" t="n">
-        <v>5330</v>
+        <v>5285</v>
       </c>
       <c r="J103" t="n">
         <v>128</v>
@@ -8616,10 +8616,10 @@
         <v>202</v>
       </c>
       <c r="AA103" t="n">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="AB103" t="n">
-        <v>31088</v>
+        <v>31042</v>
       </c>
     </row>
     <row r="104">
@@ -8644,7 +8644,7 @@
         <v>1166</v>
       </c>
       <c r="I104" t="n">
-        <v>5333</v>
+        <v>5288</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -8684,10 +8684,10 @@
         <v>202</v>
       </c>
       <c r="AA104" t="n">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="AB104" t="n">
-        <v>31100</v>
+        <v>31054</v>
       </c>
     </row>
     <row r="105">
@@ -8712,7 +8712,7 @@
         <v>1168</v>
       </c>
       <c r="I105" t="n">
-        <v>5333</v>
+        <v>5288</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
@@ -8754,10 +8754,10 @@
         <v>202</v>
       </c>
       <c r="AA105" t="n">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="AB105" t="n">
-        <v>31108</v>
+        <v>31062</v>
       </c>
     </row>
     <row r="106">
@@ -8786,7 +8786,7 @@
         <v>1172</v>
       </c>
       <c r="I106" t="n">
-        <v>5334</v>
+        <v>5289</v>
       </c>
       <c r="J106" t="n">
         <v>128</v>
@@ -8836,10 +8836,10 @@
         <v>203</v>
       </c>
       <c r="AA106" t="n">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="AB106" t="n">
-        <v>31126</v>
+        <v>31080</v>
       </c>
     </row>
     <row r="107">
@@ -8868,7 +8868,7 @@
         <v>1172</v>
       </c>
       <c r="I107" t="n">
-        <v>5334</v>
+        <v>5289</v>
       </c>
       <c r="J107" t="n">
         <v>128</v>
@@ -8918,10 +8918,10 @@
         <v>205</v>
       </c>
       <c r="AA107" t="n">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="AB107" t="n">
-        <v>31136</v>
+        <v>31090</v>
       </c>
     </row>
     <row r="108">
@@ -8950,7 +8950,7 @@
         <v>1174</v>
       </c>
       <c r="I108" t="n">
-        <v>5336</v>
+        <v>5291</v>
       </c>
       <c r="J108" t="n">
         <v>128</v>
@@ -9000,10 +9000,10 @@
         <v>207</v>
       </c>
       <c r="AA108" t="n">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="AB108" t="n">
-        <v>31153</v>
+        <v>31107</v>
       </c>
     </row>
     <row r="109">
@@ -9030,7 +9030,7 @@
         <v>1175</v>
       </c>
       <c r="I109" t="n">
-        <v>5336</v>
+        <v>5291</v>
       </c>
       <c r="J109" t="n">
         <v>128</v>
@@ -9076,10 +9076,10 @@
         <v>207</v>
       </c>
       <c r="AA109" t="n">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="AB109" t="n">
-        <v>31175</v>
+        <v>31129</v>
       </c>
     </row>
     <row r="110">
@@ -9110,7 +9110,7 @@
         <v>1175</v>
       </c>
       <c r="I110" t="n">
-        <v>5340</v>
+        <v>5295</v>
       </c>
       <c r="J110" t="n">
         <v>128</v>
@@ -9154,10 +9154,10 @@
         <v>211</v>
       </c>
       <c r="AA110" t="n">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="AB110" t="n">
-        <v>31203</v>
+        <v>31157</v>
       </c>
     </row>
     <row r="111">
@@ -9182,7 +9182,7 @@
         <v>1179</v>
       </c>
       <c r="I111" t="n">
-        <v>5340</v>
+        <v>5295</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
@@ -9222,10 +9222,10 @@
         <v>211</v>
       </c>
       <c r="AA111" t="n">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="AB111" t="n">
-        <v>31213</v>
+        <v>31167</v>
       </c>
     </row>
     <row r="112">
@@ -9250,7 +9250,7 @@
         <v>1181</v>
       </c>
       <c r="I112" t="n">
-        <v>5340</v>
+        <v>5295</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
@@ -9294,10 +9294,10 @@
         <v>211</v>
       </c>
       <c r="AA112" t="n">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="AB112" t="n">
-        <v>31229</v>
+        <v>31183</v>
       </c>
     </row>
     <row r="113">
@@ -9324,7 +9324,7 @@
         <v>1181</v>
       </c>
       <c r="I113" t="n">
-        <v>5342</v>
+        <v>5297</v>
       </c>
       <c r="J113" t="n">
         <v>128</v>
@@ -9372,10 +9372,10 @@
         <v>213</v>
       </c>
       <c r="AA113" t="n">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="AB113" t="n">
-        <v>31252</v>
+        <v>31206</v>
       </c>
     </row>
     <row r="114">
@@ -9402,7 +9402,7 @@
         <v>1182</v>
       </c>
       <c r="I114" t="n">
-        <v>5342</v>
+        <v>5297</v>
       </c>
       <c r="J114" t="n">
         <v>128</v>
@@ -9452,10 +9452,10 @@
         <v>214</v>
       </c>
       <c r="AA114" t="n">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="AB114" t="n">
-        <v>31279</v>
+        <v>31233</v>
       </c>
     </row>
     <row r="115">
@@ -9482,7 +9482,7 @@
         <v>1183</v>
       </c>
       <c r="I115" t="n">
-        <v>5343</v>
+        <v>5298</v>
       </c>
       <c r="J115" t="n">
         <v>128</v>
@@ -9534,10 +9534,10 @@
         <v>215</v>
       </c>
       <c r="AA115" t="n">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="AB115" t="n">
-        <v>31314</v>
+        <v>31268</v>
       </c>
     </row>
     <row r="116">
@@ -9562,7 +9562,7 @@
         <v>1185</v>
       </c>
       <c r="I116" t="n">
-        <v>5343</v>
+        <v>5298</v>
       </c>
       <c r="J116" t="n">
         <v>128</v>
@@ -9612,10 +9612,10 @@
         <v>215</v>
       </c>
       <c r="AA116" t="n">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="AB116" t="n">
-        <v>31328</v>
+        <v>31282</v>
       </c>
     </row>
     <row r="117">
@@ -9644,7 +9644,7 @@
         <v>1186</v>
       </c>
       <c r="I117" t="n">
-        <v>5347</v>
+        <v>5302</v>
       </c>
       <c r="J117" t="n">
         <v>128</v>
@@ -9694,10 +9694,10 @@
         <v>215</v>
       </c>
       <c r="AA117" t="n">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="AB117" t="n">
-        <v>31357</v>
+        <v>31311</v>
       </c>
     </row>
     <row r="118">
@@ -9720,7 +9720,7 @@
         <v>1191</v>
       </c>
       <c r="I118" t="n">
-        <v>5351</v>
+        <v>5306</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
@@ -9762,10 +9762,10 @@
         <v>215</v>
       </c>
       <c r="AA118" t="n">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="AB118" t="n">
-        <v>31382</v>
+        <v>31336</v>
       </c>
     </row>
     <row r="119">
@@ -9788,7 +9788,7 @@
         <v>1191</v>
       </c>
       <c r="I119" t="n">
-        <v>5351</v>
+        <v>5306</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
@@ -9830,10 +9830,10 @@
         <v>215</v>
       </c>
       <c r="AA119" t="n">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="AB119" t="n">
-        <v>31397</v>
+        <v>31351</v>
       </c>
     </row>
     <row r="120">
@@ -9860,7 +9860,7 @@
         <v>1191</v>
       </c>
       <c r="I120" t="n">
-        <v>5352</v>
+        <v>5307</v>
       </c>
       <c r="J120" t="n">
         <v>128</v>
@@ -9912,10 +9912,10 @@
         <v>216</v>
       </c>
       <c r="AA120" t="n">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="AB120" t="n">
-        <v>31432</v>
+        <v>31386</v>
       </c>
     </row>
     <row r="121">
@@ -9942,7 +9942,7 @@
         <v>1195</v>
       </c>
       <c r="I121" t="n">
-        <v>5356</v>
+        <v>5311</v>
       </c>
       <c r="J121" t="n">
         <v>128</v>
@@ -9994,10 +9994,10 @@
         <v>216</v>
       </c>
       <c r="AA121" t="n">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="AB121" t="n">
-        <v>31462</v>
+        <v>31416</v>
       </c>
     </row>
     <row r="122">
@@ -10024,7 +10024,7 @@
         <v>1203</v>
       </c>
       <c r="I122" t="n">
-        <v>5358</v>
+        <v>5313</v>
       </c>
       <c r="J122" t="n">
         <v>129</v>
@@ -10076,10 +10076,10 @@
         <v>218</v>
       </c>
       <c r="AA122" t="n">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="AB122" t="n">
-        <v>31527</v>
+        <v>31481</v>
       </c>
     </row>
     <row r="123">
@@ -10106,7 +10106,7 @@
         <v>1206</v>
       </c>
       <c r="I123" t="n">
-        <v>5360</v>
+        <v>5315</v>
       </c>
       <c r="J123" t="n">
         <v>129</v>
@@ -10158,10 +10158,10 @@
         <v>219</v>
       </c>
       <c r="AA123" t="n">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="AB123" t="n">
-        <v>31566</v>
+        <v>31520</v>
       </c>
     </row>
     <row r="124">
@@ -10192,7 +10192,7 @@
         <v>1211</v>
       </c>
       <c r="I124" t="n">
-        <v>5363</v>
+        <v>5318</v>
       </c>
       <c r="J124" t="n">
         <v>129</v>
@@ -10246,10 +10246,10 @@
         <v>221</v>
       </c>
       <c r="AA124" t="n">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="AB124" t="n">
-        <v>31639</v>
+        <v>31593</v>
       </c>
     </row>
     <row r="125">
@@ -10274,7 +10274,7 @@
         <v>1215</v>
       </c>
       <c r="I125" t="n">
-        <v>5363</v>
+        <v>5318</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
@@ -10316,10 +10316,10 @@
         <v>221</v>
       </c>
       <c r="AA125" t="n">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="AB125" t="n">
-        <v>31674</v>
+        <v>31628</v>
       </c>
     </row>
     <row r="126">
@@ -10344,7 +10344,7 @@
         <v>1220</v>
       </c>
       <c r="I126" t="n">
-        <v>5364</v>
+        <v>5319</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -10386,10 +10386,10 @@
         <v>221</v>
       </c>
       <c r="AA126" t="n">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="AB126" t="n">
-        <v>31709</v>
+        <v>31663</v>
       </c>
     </row>
     <row r="127">
@@ -10418,7 +10418,7 @@
         <v>1220</v>
       </c>
       <c r="I127" t="n">
-        <v>5370</v>
+        <v>5325</v>
       </c>
       <c r="J127" t="n">
         <v>129</v>
@@ -10472,10 +10472,10 @@
         <v>223</v>
       </c>
       <c r="AA127" t="n">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="AB127" t="n">
-        <v>31795</v>
+        <v>31749</v>
       </c>
     </row>
     <row r="128">
@@ -10504,7 +10504,7 @@
         <v>1220</v>
       </c>
       <c r="I128" t="n">
-        <v>5374</v>
+        <v>5329</v>
       </c>
       <c r="J128" t="n">
         <v>129</v>
@@ -10558,10 +10558,10 @@
         <v>225</v>
       </c>
       <c r="AA128" t="n">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="AB128" t="n">
-        <v>31897</v>
+        <v>31851</v>
       </c>
     </row>
     <row r="129">
@@ -10592,7 +10592,7 @@
         <v>1231</v>
       </c>
       <c r="I129" t="n">
-        <v>5375</v>
+        <v>5330</v>
       </c>
       <c r="J129" t="n">
         <v>129</v>
@@ -10646,10 +10646,10 @@
         <v>227</v>
       </c>
       <c r="AA129" t="n">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="AB129" t="n">
-        <v>32029</v>
+        <v>31983</v>
       </c>
     </row>
     <row r="130">
@@ -10678,7 +10678,7 @@
         <v>1238</v>
       </c>
       <c r="I130" t="n">
-        <v>5380</v>
+        <v>5335</v>
       </c>
       <c r="J130" t="n">
         <v>129</v>
@@ -10732,10 +10732,10 @@
         <v>229</v>
       </c>
       <c r="AA130" t="n">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="AB130" t="n">
-        <v>32173</v>
+        <v>32127</v>
       </c>
     </row>
     <row r="131">
@@ -10764,7 +10764,7 @@
         <v>1243</v>
       </c>
       <c r="I131" t="n">
-        <v>5382</v>
+        <v>5337</v>
       </c>
       <c r="J131" t="n">
         <v>129</v>
@@ -10816,10 +10816,10 @@
         <v>233</v>
       </c>
       <c r="AA131" t="n">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="AB131" t="n">
-        <v>32275</v>
+        <v>32229</v>
       </c>
     </row>
     <row r="132">
@@ -10844,7 +10844,7 @@
         <v>1246</v>
       </c>
       <c r="I132" t="n">
-        <v>5385</v>
+        <v>5340</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
@@ -10884,10 +10884,10 @@
         <v>235</v>
       </c>
       <c r="AA132" t="n">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="AB132" t="n">
-        <v>32317</v>
+        <v>32271</v>
       </c>
     </row>
     <row r="133">
@@ -10912,7 +10912,7 @@
         <v>1251</v>
       </c>
       <c r="I133" t="n">
-        <v>5387</v>
+        <v>5342</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
@@ -10958,10 +10958,10 @@
         <v>235</v>
       </c>
       <c r="AA133" t="n">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="AB133" t="n">
-        <v>32370</v>
+        <v>32324</v>
       </c>
     </row>
     <row r="134">
@@ -10992,7 +10992,7 @@
         <v>1253</v>
       </c>
       <c r="I134" t="n">
-        <v>5393</v>
+        <v>5348</v>
       </c>
       <c r="J134" t="n">
         <v>129</v>
@@ -11044,10 +11044,10 @@
         <v>238</v>
       </c>
       <c r="AA134" t="n">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="AB134" t="n">
-        <v>32458</v>
+        <v>32412</v>
       </c>
     </row>
     <row r="135">
@@ -11076,7 +11076,7 @@
         <v>1255</v>
       </c>
       <c r="I135" t="n">
-        <v>5397</v>
+        <v>5352</v>
       </c>
       <c r="J135" t="n">
         <v>130</v>
@@ -11130,10 +11130,10 @@
         <v>240</v>
       </c>
       <c r="AA135" t="n">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="AB135" t="n">
-        <v>32550</v>
+        <v>32504</v>
       </c>
     </row>
     <row r="136">
@@ -11162,7 +11162,7 @@
         <v>1258</v>
       </c>
       <c r="I136" t="n">
-        <v>5401</v>
+        <v>5356</v>
       </c>
       <c r="J136" t="n">
         <v>130</v>
@@ -11214,10 +11214,10 @@
         <v>241</v>
       </c>
       <c r="AA136" t="n">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="AB136" t="n">
-        <v>32651</v>
+        <v>32605</v>
       </c>
     </row>
     <row r="137">
@@ -11246,7 +11246,7 @@
         <v>1259</v>
       </c>
       <c r="I137" t="n">
-        <v>5409</v>
+        <v>5364</v>
       </c>
       <c r="J137" t="n">
         <v>131</v>
@@ -11300,10 +11300,10 @@
         <v>243</v>
       </c>
       <c r="AA137" t="n">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="AB137" t="n">
-        <v>32743</v>
+        <v>32697</v>
       </c>
     </row>
     <row r="138">
@@ -11334,7 +11334,7 @@
         <v>1263</v>
       </c>
       <c r="I138" t="n">
-        <v>5417</v>
+        <v>5372</v>
       </c>
       <c r="J138" t="n">
         <v>131</v>
@@ -11384,10 +11384,10 @@
         <v>245</v>
       </c>
       <c r="AA138" t="n">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="AB138" t="n">
-        <v>32844</v>
+        <v>32798</v>
       </c>
     </row>
     <row r="139">
@@ -11412,7 +11412,7 @@
         <v>1266</v>
       </c>
       <c r="I139" t="n">
-        <v>5421</v>
+        <v>5376</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
@@ -11452,10 +11452,10 @@
         <v>248</v>
       </c>
       <c r="AA139" t="n">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="AB139" t="n">
-        <v>32899</v>
+        <v>32853</v>
       </c>
     </row>
     <row r="140">
@@ -11480,7 +11480,7 @@
         <v>1271</v>
       </c>
       <c r="I140" t="n">
-        <v>5423</v>
+        <v>5378</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
@@ -11522,10 +11522,10 @@
         <v>250</v>
       </c>
       <c r="AA140" t="n">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="AB140" t="n">
-        <v>32960</v>
+        <v>32914</v>
       </c>
     </row>
     <row r="141">
@@ -11556,7 +11556,7 @@
         <v>1274</v>
       </c>
       <c r="I141" t="n">
-        <v>5429</v>
+        <v>5384</v>
       </c>
       <c r="J141" t="n">
         <v>131</v>
@@ -11610,10 +11610,10 @@
         <v>250</v>
       </c>
       <c r="AA141" t="n">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="AB141" t="n">
-        <v>33068</v>
+        <v>33022</v>
       </c>
     </row>
     <row r="142">
@@ -11644,7 +11644,7 @@
         <v>1274</v>
       </c>
       <c r="I142" t="n">
-        <v>5440</v>
+        <v>5395</v>
       </c>
       <c r="J142" t="n">
         <v>131</v>
@@ -11696,10 +11696,10 @@
         <v>255</v>
       </c>
       <c r="AA142" t="n">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="AB142" t="n">
-        <v>33187</v>
+        <v>33141</v>
       </c>
     </row>
     <row r="143">
@@ -11728,7 +11728,7 @@
         <v>1278</v>
       </c>
       <c r="I143" t="n">
-        <v>5459</v>
+        <v>5414</v>
       </c>
       <c r="J143" t="n">
         <v>133</v>
@@ -11782,10 +11782,10 @@
         <v>257</v>
       </c>
       <c r="AA143" t="n">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="AB143" t="n">
-        <v>33327</v>
+        <v>33281</v>
       </c>
     </row>
     <row r="144">
@@ -11814,7 +11814,7 @@
         <v>1282</v>
       </c>
       <c r="I144" t="n">
-        <v>5473</v>
+        <v>5428</v>
       </c>
       <c r="J144" t="n">
         <v>135</v>
@@ -11868,10 +11868,10 @@
         <v>259</v>
       </c>
       <c r="AA144" t="n">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="AB144" t="n">
-        <v>33429</v>
+        <v>33383</v>
       </c>
     </row>
     <row r="145">
@@ -11902,7 +11902,7 @@
         <v>1284</v>
       </c>
       <c r="I145" t="n">
-        <v>5486</v>
+        <v>5441</v>
       </c>
       <c r="J145" t="n">
         <v>136</v>
@@ -11952,10 +11952,10 @@
         <v>259</v>
       </c>
       <c r="AA145" t="n">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="AB145" t="n">
-        <v>33547</v>
+        <v>33501</v>
       </c>
     </row>
     <row r="146">
@@ -11980,7 +11980,7 @@
         <v>1292</v>
       </c>
       <c r="I146" t="n">
-        <v>5499</v>
+        <v>5454</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
@@ -12018,10 +12018,10 @@
         <v>259</v>
       </c>
       <c r="AA146" t="n">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="AB146" t="n">
-        <v>33607</v>
+        <v>33561</v>
       </c>
     </row>
     <row r="147">
@@ -12046,7 +12046,7 @@
         <v>1297</v>
       </c>
       <c r="I147" t="n">
-        <v>5503</v>
+        <v>5458</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
@@ -12086,10 +12086,10 @@
         <v>259</v>
       </c>
       <c r="AA147" t="n">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="AB147" t="n">
-        <v>33655</v>
+        <v>33609</v>
       </c>
     </row>
     <row r="148">
@@ -12120,7 +12120,7 @@
         <v>1304</v>
       </c>
       <c r="I148" t="n">
-        <v>5520</v>
+        <v>5475</v>
       </c>
       <c r="J148" t="n">
         <v>136</v>
@@ -12174,10 +12174,10 @@
         <v>261</v>
       </c>
       <c r="AA148" t="n">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="AB148" t="n">
-        <v>33774</v>
+        <v>33728</v>
       </c>
     </row>
     <row r="149">
@@ -12208,7 +12208,7 @@
         <v>1305</v>
       </c>
       <c r="I149" t="n">
-        <v>5550</v>
+        <v>5505</v>
       </c>
       <c r="J149" t="n">
         <v>137</v>
@@ -12260,10 +12260,10 @@
         <v>265</v>
       </c>
       <c r="AA149" t="n">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="AB149" t="n">
-        <v>33914</v>
+        <v>33868</v>
       </c>
     </row>
     <row r="150">
@@ -12292,7 +12292,7 @@
         <v>1311</v>
       </c>
       <c r="I150" t="n">
-        <v>5578</v>
+        <v>5533</v>
       </c>
       <c r="J150" t="n">
         <v>138</v>
@@ -12344,10 +12344,10 @@
         <v>268</v>
       </c>
       <c r="AA150" t="n">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="AB150" t="n">
-        <v>34038</v>
+        <v>33992</v>
       </c>
     </row>
     <row r="151">
@@ -12376,7 +12376,7 @@
         <v>1312</v>
       </c>
       <c r="I151" t="n">
-        <v>5623</v>
+        <v>5578</v>
       </c>
       <c r="J151" t="n">
         <v>138</v>
@@ -12430,10 +12430,10 @@
         <v>270</v>
       </c>
       <c r="AA151" t="n">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="AB151" t="n">
-        <v>34197</v>
+        <v>34151</v>
       </c>
     </row>
     <row r="152">
@@ -12464,7 +12464,7 @@
         <v>1315</v>
       </c>
       <c r="I152" t="n">
-        <v>5664</v>
+        <v>5619</v>
       </c>
       <c r="J152" t="n">
         <v>138</v>
@@ -12518,10 +12518,10 @@
         <v>271</v>
       </c>
       <c r="AA152" t="n">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="AB152" t="n">
-        <v>34336</v>
+        <v>34290</v>
       </c>
     </row>
     <row r="153">
@@ -12544,7 +12544,7 @@
         <v>1319</v>
       </c>
       <c r="I153" t="n">
-        <v>5705</v>
+        <v>5660</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
@@ -12582,10 +12582,10 @@
         <v>271</v>
       </c>
       <c r="AA153" t="n">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="AB153" t="n">
-        <v>34424</v>
+        <v>34378</v>
       </c>
     </row>
     <row r="154">
@@ -12610,7 +12610,7 @@
         <v>1320</v>
       </c>
       <c r="I154" t="n">
-        <v>5716</v>
+        <v>5671</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
@@ -12650,10 +12650,10 @@
         <v>271</v>
       </c>
       <c r="AA154" t="n">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="AB154" t="n">
-        <v>34471</v>
+        <v>34425</v>
       </c>
     </row>
     <row r="155">
@@ -12684,7 +12684,7 @@
         <v>1321</v>
       </c>
       <c r="I155" t="n">
-        <v>5777</v>
+        <v>5732</v>
       </c>
       <c r="J155" t="n">
         <v>138</v>
@@ -12736,10 +12736,10 @@
         <v>272</v>
       </c>
       <c r="AA155" t="n">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="AB155" t="n">
-        <v>34632</v>
+        <v>34586</v>
       </c>
     </row>
     <row r="156">
@@ -12768,7 +12768,7 @@
         <v>1325</v>
       </c>
       <c r="I156" t="n">
-        <v>5821</v>
+        <v>5776</v>
       </c>
       <c r="J156" t="n">
         <v>138</v>
@@ -12822,10 +12822,10 @@
         <v>273</v>
       </c>
       <c r="AA156" t="n">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="AB156" t="n">
-        <v>34797</v>
+        <v>34751</v>
       </c>
     </row>
     <row r="157">
@@ -12856,7 +12856,7 @@
         <v>1332</v>
       </c>
       <c r="I157" t="n">
-        <v>5882</v>
+        <v>5837</v>
       </c>
       <c r="J157" t="n">
         <v>138</v>
@@ -12910,10 +12910,10 @@
         <v>279</v>
       </c>
       <c r="AA157" t="n">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="AB157" t="n">
-        <v>35025</v>
+        <v>34979</v>
       </c>
     </row>
     <row r="158">
@@ -12944,7 +12944,7 @@
         <v>1342</v>
       </c>
       <c r="I158" t="n">
-        <v>5936</v>
+        <v>5891</v>
       </c>
       <c r="J158" t="n">
         <v>139</v>
@@ -12998,10 +12998,10 @@
         <v>284</v>
       </c>
       <c r="AA158" t="n">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="AB158" t="n">
-        <v>35241</v>
+        <v>35195</v>
       </c>
     </row>
     <row r="159">
@@ -13032,7 +13032,7 @@
         <v>1350</v>
       </c>
       <c r="I159" t="n">
-        <v>5968</v>
+        <v>5923</v>
       </c>
       <c r="J159" t="n">
         <v>141</v>
@@ -13086,10 +13086,10 @@
         <v>288</v>
       </c>
       <c r="AA159" t="n">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="AB159" t="n">
-        <v>35399</v>
+        <v>35353</v>
       </c>
     </row>
     <row r="160">
@@ -13116,7 +13116,7 @@
         <v>1353</v>
       </c>
       <c r="I160" t="n">
-        <v>5997</v>
+        <v>5952</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
@@ -13156,10 +13156,10 @@
         <v>288</v>
       </c>
       <c r="AA160" t="n">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="AB160" t="n">
-        <v>35542</v>
+        <v>35496</v>
       </c>
     </row>
     <row r="161">
@@ -13186,7 +13186,7 @@
         <v>1358</v>
       </c>
       <c r="I161" t="n">
-        <v>6019</v>
+        <v>5974</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
@@ -13224,10 +13224,10 @@
         <v>288</v>
       </c>
       <c r="AA161" t="n">
-        <v>4558</v>
+        <v>4557</v>
       </c>
       <c r="AB161" t="n">
-        <v>35622</v>
+        <v>35576</v>
       </c>
     </row>
     <row r="162">
@@ -13258,7 +13258,7 @@
         <v>1360</v>
       </c>
       <c r="I162" t="n">
-        <v>6054</v>
+        <v>6009</v>
       </c>
       <c r="J162" t="n">
         <v>141</v>
@@ -13312,10 +13312,10 @@
         <v>293</v>
       </c>
       <c r="AA162" t="n">
-        <v>4570</v>
+        <v>4569</v>
       </c>
       <c r="AB162" t="n">
-        <v>35748</v>
+        <v>35702</v>
       </c>
     </row>
     <row r="163">
@@ -13344,7 +13344,7 @@
         <v>1360</v>
       </c>
       <c r="I163" t="n">
-        <v>6086</v>
+        <v>6041</v>
       </c>
       <c r="J163" t="n">
         <v>142</v>
@@ -13398,10 +13398,10 @@
         <v>296</v>
       </c>
       <c r="AA163" t="n">
-        <v>4588</v>
+        <v>4587</v>
       </c>
       <c r="AB163" t="n">
-        <v>35880</v>
+        <v>35834</v>
       </c>
     </row>
     <row r="164">
@@ -13432,7 +13432,7 @@
         <v>1368</v>
       </c>
       <c r="I164" t="n">
-        <v>6117</v>
+        <v>6072</v>
       </c>
       <c r="J164" t="n">
         <v>144</v>
@@ -13486,10 +13486,10 @@
         <v>296</v>
       </c>
       <c r="AA164" t="n">
-        <v>4639</v>
+        <v>4638</v>
       </c>
       <c r="AB164" t="n">
-        <v>36082</v>
+        <v>36036</v>
       </c>
     </row>
     <row r="165">
@@ -13518,7 +13518,7 @@
         <v>1373</v>
       </c>
       <c r="I165" t="n">
-        <v>6152</v>
+        <v>6107</v>
       </c>
       <c r="J165" t="n">
         <v>145</v>
@@ -13572,10 +13572,10 @@
         <v>296</v>
       </c>
       <c r="AA165" t="n">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="AB165" t="n">
-        <v>36247</v>
+        <v>36201</v>
       </c>
     </row>
     <row r="166">
@@ -13606,7 +13606,7 @@
         <v>1377</v>
       </c>
       <c r="I166" t="n">
-        <v>6197</v>
+        <v>6152</v>
       </c>
       <c r="J166" t="n">
         <v>145</v>
@@ -13660,10 +13660,10 @@
         <v>297</v>
       </c>
       <c r="AA166" t="n">
-        <v>4706</v>
+        <v>4705</v>
       </c>
       <c r="AB166" t="n">
-        <v>36414</v>
+        <v>36368</v>
       </c>
     </row>
     <row r="167">
@@ -13690,7 +13690,7 @@
         <v>1378</v>
       </c>
       <c r="I167" t="n">
-        <v>6223</v>
+        <v>6178</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
@@ -13730,10 +13730,10 @@
         <v>297</v>
       </c>
       <c r="AA167" t="n">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="AB167" t="n">
-        <v>36535</v>
+        <v>36489</v>
       </c>
     </row>
     <row r="168">
@@ -13760,7 +13760,7 @@
         <v>1384</v>
       </c>
       <c r="I168" t="n">
-        <v>6256</v>
+        <v>6211</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
@@ -13800,10 +13800,10 @@
         <v>297</v>
       </c>
       <c r="AA168" t="n">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="AB168" t="n">
-        <v>36625</v>
+        <v>36579</v>
       </c>
     </row>
     <row r="169">
@@ -13834,7 +13834,7 @@
         <v>1389</v>
       </c>
       <c r="I169" t="n">
-        <v>6292</v>
+        <v>6247</v>
       </c>
       <c r="J169" t="n">
         <v>146</v>
@@ -13888,10 +13888,10 @@
         <v>302</v>
       </c>
       <c r="AA169" t="n">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="AB169" t="n">
-        <v>36819</v>
+        <v>36773</v>
       </c>
     </row>
     <row r="170">
@@ -13920,7 +13920,7 @@
         <v>1393</v>
       </c>
       <c r="I170" t="n">
-        <v>6348</v>
+        <v>6303</v>
       </c>
       <c r="J170" t="n">
         <v>147</v>
@@ -13974,10 +13974,10 @@
         <v>305</v>
       </c>
       <c r="AA170" t="n">
-        <v>4866</v>
+        <v>4865</v>
       </c>
       <c r="AB170" t="n">
-        <v>37083</v>
+        <v>37037</v>
       </c>
     </row>
     <row r="171">
@@ -14006,7 +14006,7 @@
         <v>1401</v>
       </c>
       <c r="I171" t="n">
-        <v>6380</v>
+        <v>6335</v>
       </c>
       <c r="J171" t="n">
         <v>149</v>
@@ -14060,10 +14060,10 @@
         <v>307</v>
       </c>
       <c r="AA171" t="n">
-        <v>4918</v>
+        <v>4917</v>
       </c>
       <c r="AB171" t="n">
-        <v>37312</v>
+        <v>37266</v>
       </c>
     </row>
     <row r="172">
@@ -14092,7 +14092,7 @@
         <v>1405</v>
       </c>
       <c r="I172" t="n">
-        <v>6423</v>
+        <v>6378</v>
       </c>
       <c r="J172" t="n">
         <v>150</v>
@@ -14146,10 +14146,10 @@
         <v>309</v>
       </c>
       <c r="AA172" t="n">
-        <v>4974</v>
+        <v>4973</v>
       </c>
       <c r="AB172" t="n">
-        <v>37587</v>
+        <v>37541</v>
       </c>
     </row>
     <row r="173">
@@ -14180,7 +14180,7 @@
         <v>1408</v>
       </c>
       <c r="I173" t="n">
-        <v>6453</v>
+        <v>6408</v>
       </c>
       <c r="J173" t="n">
         <v>150</v>
@@ -14234,10 +14234,10 @@
         <v>312</v>
       </c>
       <c r="AA173" t="n">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="AB173" t="n">
-        <v>37822</v>
+        <v>37776</v>
       </c>
     </row>
     <row r="174">
@@ -14264,7 +14264,7 @@
         <v>1418</v>
       </c>
       <c r="I174" t="n">
-        <v>6480</v>
+        <v>6435</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
@@ -14302,10 +14302,10 @@
         <v>312</v>
       </c>
       <c r="AA174" t="n">
-        <v>5095</v>
+        <v>5094</v>
       </c>
       <c r="AB174" t="n">
-        <v>38029</v>
+        <v>37983</v>
       </c>
     </row>
     <row r="175">
@@ -14332,7 +14332,7 @@
         <v>1425</v>
       </c>
       <c r="I175" t="n">
-        <v>6499</v>
+        <v>6454</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
@@ -14372,10 +14372,10 @@
         <v>312</v>
       </c>
       <c r="AA175" t="n">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="AB175" t="n">
-        <v>38159</v>
+        <v>38113</v>
       </c>
     </row>
     <row r="176">
@@ -14404,7 +14404,7 @@
         <v>1428</v>
       </c>
       <c r="I176" t="n">
-        <v>6540</v>
+        <v>6495</v>
       </c>
       <c r="J176" t="n">
         <v>151</v>
@@ -14458,10 +14458,10 @@
         <v>315</v>
       </c>
       <c r="AA176" t="n">
-        <v>5168</v>
+        <v>5167</v>
       </c>
       <c r="AB176" t="n">
-        <v>38384</v>
+        <v>38338</v>
       </c>
     </row>
     <row r="177">
@@ -14492,7 +14492,7 @@
         <v>1434</v>
       </c>
       <c r="I177" t="n">
-        <v>6579</v>
+        <v>6534</v>
       </c>
       <c r="J177" t="n">
         <v>153</v>
@@ -14546,10 +14546,10 @@
         <v>317</v>
       </c>
       <c r="AA177" t="n">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="AB177" t="n">
-        <v>38652</v>
+        <v>38606</v>
       </c>
     </row>
     <row r="178">
@@ -14580,7 +14580,7 @@
         <v>1451</v>
       </c>
       <c r="I178" t="n">
-        <v>6609</v>
+        <v>6564</v>
       </c>
       <c r="J178" t="n">
         <v>154</v>
@@ -14634,10 +14634,10 @@
         <v>319</v>
       </c>
       <c r="AA178" t="n">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="AB178" t="n">
-        <v>38966</v>
+        <v>38920</v>
       </c>
     </row>
     <row r="179">
@@ -14664,7 +14664,7 @@
         <v>1464</v>
       </c>
       <c r="I179" t="n">
-        <v>6648</v>
+        <v>6603</v>
       </c>
       <c r="J179" t="n">
         <v>156</v>
@@ -14718,10 +14718,10 @@
         <v>321</v>
       </c>
       <c r="AA179" t="n">
-        <v>5380</v>
+        <v>5379</v>
       </c>
       <c r="AB179" t="n">
-        <v>39273</v>
+        <v>39227</v>
       </c>
     </row>
     <row r="180">
@@ -14752,7 +14752,7 @@
         <v>1487</v>
       </c>
       <c r="I180" t="n">
-        <v>6688</v>
+        <v>6643</v>
       </c>
       <c r="J180" t="n">
         <v>157</v>
@@ -14804,10 +14804,10 @@
         <v>323</v>
       </c>
       <c r="AA180" t="n">
-        <v>5463</v>
+        <v>5462</v>
       </c>
       <c r="AB180" t="n">
-        <v>39589</v>
+        <v>39543</v>
       </c>
     </row>
     <row r="181">
@@ -14834,7 +14834,7 @@
         <v>1516</v>
       </c>
       <c r="I181" t="n">
-        <v>6703</v>
+        <v>6658</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
@@ -14872,10 +14872,10 @@
         <v>323</v>
       </c>
       <c r="AA181" t="n">
-        <v>5507</v>
+        <v>5506</v>
       </c>
       <c r="AB181" t="n">
-        <v>39790</v>
+        <v>39744</v>
       </c>
     </row>
     <row r="182">
@@ -14902,7 +14902,7 @@
         <v>1550</v>
       </c>
       <c r="I182" t="n">
-        <v>6725</v>
+        <v>6680</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
@@ -14942,10 +14942,10 @@
         <v>323</v>
       </c>
       <c r="AA182" t="n">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="AB182" t="n">
-        <v>39975</v>
+        <v>39929</v>
       </c>
     </row>
     <row r="183">
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6751</v>
+        <v>6706</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15030,10 +15030,10 @@
         <v>334</v>
       </c>
       <c r="AA183" t="n">
-        <v>5580</v>
+        <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40213</v>
+        <v>40167</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6787</v>
+        <v>6741</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15116,10 +15116,10 @@
         <v>338</v>
       </c>
       <c r="AA184" t="n">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40489</v>
+        <v>40442</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6823</v>
+        <v>6781</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15202,10 +15202,10 @@
         <v>340</v>
       </c>
       <c r="AA185" t="n">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40831</v>
+        <v>40788</v>
       </c>
     </row>
     <row r="186">
@@ -15235,7 +15235,9 @@
       <c r="H186" t="n">
         <v>1613</v>
       </c>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>6829</v>
+      </c>
       <c r="J186" t="n">
         <v>163</v>
       </c>
@@ -15286,10 +15288,10 @@
         <v>341</v>
       </c>
       <c r="AA186" t="n">
-        <v>5844</v>
+        <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41045</v>
+        <v>41050</v>
       </c>
     </row>
     <row r="187">
@@ -15302,7 +15304,9 @@
       <c r="C187" t="n">
         <v>25</v>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>132</v>
+      </c>
       <c r="E187" t="n">
         <v>2487</v>
       </c>
@@ -15349,9 +15353,11 @@
       <c r="Z187" t="n">
         <v>344</v>
       </c>
-      <c r="AA187" t="inlineStr"/>
+      <c r="AA187" t="n">
+        <v>5932</v>
+      </c>
       <c r="AB187" t="n">
-        <v>41145</v>
+        <v>41240</v>
       </c>
     </row>
   </sheetData>
@@ -29918,7 +29924,9 @@
       <c r="H186" t="n">
         <v>85</v>
       </c>
-      <c r="I186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>297</v>
+      </c>
       <c r="J186" t="n">
         <v>13</v>
       </c>
@@ -29983,7 +29991,9 @@
       <c r="C187" t="n">
         <v>0</v>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>3</v>
+      </c>
       <c r="E187" t="n">
         <v>99</v>
       </c>
@@ -30030,7 +30040,9 @@
       <c r="Z187" t="n">
         <v>9</v>
       </c>
-      <c r="AA187" t="inlineStr"/>
+      <c r="AA187" t="n">
+        <v>141</v>
+      </c>
       <c r="AB187" t="n">
         <v>2004</v>
       </c>
@@ -43612,7 +43624,9 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
       <c r="E187" t="n">
         <v>4</v>
       </c>
@@ -43625,7 +43639,9 @@
       <c r="H187" t="n">
         <v>3</v>
       </c>
-      <c r="I187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>18</v>
+      </c>
       <c r="J187" t="n">
         <v>0</v>
       </c>
@@ -43659,7 +43675,9 @@
       <c r="Z187" t="n">
         <v>3</v>
       </c>
-      <c r="AA187" t="inlineStr"/>
+      <c r="AA187" t="n">
+        <v>19</v>
+      </c>
       <c r="AB187" t="n">
         <v>110</v>
       </c>
@@ -55857,7 +55875,9 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
       <c r="E187" t="n">
         <v>1</v>
       </c>
@@ -55870,7 +55890,9 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
@@ -65441,9 +65463,11 @@
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr"/>
-      <c r="AA187" t="inlineStr"/>
+      <c r="AA187" t="n">
+        <v>6</v>
+      </c>
       <c r="AB187" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15324,12 +15324,16 @@
         <v>163</v>
       </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>266</v>
+      </c>
       <c r="M187" t="n">
         <v>1045</v>
       </c>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
+      <c r="O187" t="n">
+        <v>133</v>
+      </c>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="n">
@@ -15347,7 +15351,9 @@
       <c r="V187" t="n">
         <v>3533</v>
       </c>
-      <c r="W187" t="inlineStr"/>
+      <c r="W187" t="n">
+        <v>137</v>
+      </c>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="n">
@@ -15357,7 +15363,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41240</v>
+        <v>41241</v>
       </c>
     </row>
   </sheetData>
@@ -30011,12 +30017,16 @@
         <v>13</v>
       </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>7</v>
+      </c>
       <c r="M187" t="n">
         <v>21</v>
       </c>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
+      <c r="O187" t="n">
+        <v>3</v>
+      </c>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="n">
@@ -30034,7 +30044,9 @@
       <c r="V187" t="n">
         <v>350</v>
       </c>
-      <c r="W187" t="inlineStr"/>
+      <c r="W187" t="n">
+        <v>7</v>
+      </c>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="n">
@@ -43646,12 +43658,16 @@
         <v>0</v>
       </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
       <c r="M187" t="n">
         <v>10</v>
       </c>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="n">
         <v>4</v>
@@ -43669,7 +43685,9 @@
       <c r="V187" t="n">
         <v>1</v>
       </c>
-      <c r="W187" t="inlineStr"/>
+      <c r="W187" t="n">
+        <v>0</v>
+      </c>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="n">
@@ -55895,12 +55913,16 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
       <c r="M187" t="n">
         <v>3</v>
       </c>
       <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="n">
         <v>3</v>
@@ -75598,7 +75620,9 @@
       <c r="V187" t="n">
         <v>926</v>
       </c>
-      <c r="W187" t="inlineStr"/>
+      <c r="W187" t="n">
+        <v>126</v>
+      </c>
       <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="n">
@@ -75606,7 +75630,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>6735</v>
+        <v>6738</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15334,7 +15334,9 @@
       <c r="O187" t="n">
         <v>133</v>
       </c>
-      <c r="P187" t="inlineStr"/>
+      <c r="P187" t="n">
+        <v>106</v>
+      </c>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="n">
         <v>162</v>
@@ -15363,7 +15365,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41241</v>
+        <v>41242</v>
       </c>
     </row>
   </sheetData>
@@ -30027,7 +30029,9 @@
       <c r="O187" t="n">
         <v>3</v>
       </c>
-      <c r="P187" t="inlineStr"/>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="n">
         <v>8</v>
@@ -43668,7 +43672,9 @@
       <c r="O187" t="n">
         <v>0</v>
       </c>
-      <c r="P187" t="inlineStr"/>
+      <c r="P187" t="n">
+        <v>3</v>
+      </c>
       <c r="Q187" t="n">
         <v>4</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15323,7 +15323,9 @@
       <c r="J187" t="n">
         <v>163</v>
       </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1000</v>
+      </c>
       <c r="L187" t="n">
         <v>266</v>
       </c>
@@ -15365,7 +15367,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41242</v>
+        <v>41248</v>
       </c>
     </row>
   </sheetData>
@@ -30018,7 +30020,9 @@
       <c r="J187" t="n">
         <v>13</v>
       </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>50</v>
+      </c>
       <c r="L187" t="n">
         <v>7</v>
       </c>
@@ -43661,7 +43665,9 @@
       <c r="J187" t="n">
         <v>0</v>
       </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -55918,7 +55924,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
       <c r="L187" t="n">
         <v>0</v>
       </c>
@@ -65471,7 +65479,9 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB187"/>
+  <dimension ref="A1:AB188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15370,6 +15370,42 @@
         <v>41248</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="n">
+        <v>41248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -15381,7 +15417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB187"/>
+  <dimension ref="A1:AB188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30067,6 +30103,42 @@
         <v>2004</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="n">
+        <v>2004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -30078,7 +30150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB187"/>
+  <dimension ref="A1:AB188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43712,6 +43784,42 @@
         <v>110</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="n">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -43723,7 +43831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB187"/>
+  <dimension ref="A1:AB188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55961,6 +56069,42 @@
         <v>18</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -55972,7 +56116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB187"/>
+  <dimension ref="A1:AB188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65508,6 +65652,42 @@
         <v>13</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -65519,7 +65699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB187"/>
+  <dimension ref="A1:AB188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75649,6 +75829,42 @@
         <v>6738</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="n">
+        <v>6738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -75660,7 +75876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB187"/>
+  <dimension ref="A1:AB188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82740,6 +82956,42 @@
         <v>67515</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="n">
+        <v>67515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15381,7 +15381,9 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>1210</v>
+      </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -15403,7 +15405,7 @@
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>41248</v>
+        <v>41253</v>
       </c>
     </row>
   </sheetData>
@@ -30114,7 +30116,9 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>54</v>
+      </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -30136,7 +30140,7 @@
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
   </sheetData>
@@ -75840,7 +75844,9 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>1106</v>
+      </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -75862,7 +75868,7 @@
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>6738</v>
+        <v>6749</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15379,7 +15379,9 @@
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>2506</v>
+      </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
         <v>1210</v>
@@ -15405,7 +15407,7 @@
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>41253</v>
+        <v>41272</v>
       </c>
     </row>
   </sheetData>
@@ -30114,7 +30116,9 @@
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>99</v>
+      </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
         <v>54</v>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15405,9 +15405,11 @@
       <c r="X188" t="inlineStr"/>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
-      <c r="AA188" t="inlineStr"/>
+      <c r="AA188" t="n">
+        <v>5995</v>
+      </c>
       <c r="AB188" t="n">
-        <v>41272</v>
+        <v>41335</v>
       </c>
     </row>
   </sheetData>
@@ -30142,7 +30144,9 @@
       <c r="X188" t="inlineStr"/>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
-      <c r="AA188" t="inlineStr"/>
+      <c r="AA188" t="n">
+        <v>141</v>
+      </c>
       <c r="AB188" t="n">
         <v>2005</v>
       </c>
@@ -43823,7 +43827,9 @@
       <c r="X188" t="inlineStr"/>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
-      <c r="AA188" t="inlineStr"/>
+      <c r="AA188" t="n">
+        <v>19</v>
+      </c>
       <c r="AB188" t="n">
         <v>110</v>
       </c>
@@ -65691,9 +65697,11 @@
       <c r="X188" t="inlineStr"/>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
-      <c r="AA188" t="inlineStr"/>
+      <c r="AA188" t="n">
+        <v>5</v>
+      </c>
       <c r="AB188" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15389,7 +15389,9 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1000</v>
+      </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
@@ -30128,7 +30130,9 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>50</v>
+      </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
@@ -43811,7 +43815,9 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
@@ -56098,7 +56104,9 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
@@ -65681,7 +65689,9 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AB189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15414,6 +15414,42 @@
         <v>41335</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="n">
+        <v>41335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -15425,7 +15461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AB189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30155,6 +30191,42 @@
         <v>2005</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="n">
+        <v>2005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -30166,7 +30238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AB189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43840,6 +43912,42 @@
         <v>110</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="n">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -43851,7 +43959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AB189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56127,6 +56235,42 @@
         <v>18</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -56138,7 +56282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AB189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65714,6 +65858,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -65725,7 +65905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AB189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75893,6 +76073,42 @@
         <v>6749</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="n">
+        <v>6749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -75904,7 +76120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AB189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83020,6 +83236,42 @@
         <v>67515</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="n">
+        <v>67515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15425,7 +15425,9 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>1213</v>
+      </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -15447,7 +15449,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>41335</v>
+        <v>41338</v>
       </c>
     </row>
   </sheetData>
@@ -30202,7 +30204,9 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>54</v>
+      </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -76084,7 +76088,9 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>1113</v>
+      </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -76106,7 +76112,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>6749</v>
+        <v>6756</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15423,7 +15423,9 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>2529</v>
+      </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="n">
         <v>1213</v>
@@ -15449,7 +15451,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>41338</v>
+        <v>41361</v>
       </c>
     </row>
   </sheetData>
@@ -30202,7 +30204,9 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="E189" t="n">
+        <v>99</v>
+      </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="n">
         <v>54</v>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15449,9 +15449,11 @@
       <c r="X189" t="inlineStr"/>
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
-      <c r="AA189" t="inlineStr"/>
+      <c r="AA189" t="n">
+        <v>6051</v>
+      </c>
       <c r="AB189" t="n">
-        <v>41361</v>
+        <v>41417</v>
       </c>
     </row>
   </sheetData>
@@ -30230,7 +30232,9 @@
       <c r="X189" t="inlineStr"/>
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
-      <c r="AA189" t="inlineStr"/>
+      <c r="AA189" t="n">
+        <v>141</v>
+      </c>
       <c r="AB189" t="n">
         <v>2005</v>
       </c>
@@ -43951,9 +43955,11 @@
       <c r="X189" t="inlineStr"/>
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
-      <c r="AA189" t="inlineStr"/>
+      <c r="AA189" t="n">
+        <v>21</v>
+      </c>
       <c r="AB189" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -65897,7 +65903,9 @@
       <c r="X189" t="inlineStr"/>
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
-      <c r="AA189" t="inlineStr"/>
+      <c r="AA189" t="n">
+        <v>5</v>
+      </c>
       <c r="AB189" t="n">
         <v>12</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15433,7 +15433,9 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1001</v>
+      </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
@@ -15453,7 +15455,7 @@
         <v>6051</v>
       </c>
       <c r="AB189" t="n">
-        <v>41417</v>
+        <v>41418</v>
       </c>
     </row>
   </sheetData>
@@ -30216,7 +30218,9 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>50</v>
+      </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
@@ -43939,7 +43943,9 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
@@ -56264,7 +56270,9 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
@@ -65887,7 +65895,9 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB189"/>
+  <dimension ref="A1:AB190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15386,7 +15386,9 @@
       <c r="G188" t="n">
         <v>1210</v>
       </c>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="n">
+        <v>1654</v>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -15411,7 +15413,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41335</v>
+        <v>41355</v>
       </c>
     </row>
     <row r="189">
@@ -15430,7 +15432,9 @@
       <c r="G189" t="n">
         <v>1213</v>
       </c>
-      <c r="H189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>1679</v>
+      </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -15441,7 +15445,9 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
+      <c r="Q189" t="n">
+        <v>1260</v>
+      </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
@@ -15455,7 +15461,47 @@
         <v>6051</v>
       </c>
       <c r="AB189" t="n">
-        <v>41418</v>
+        <v>41474</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>1686</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>164</v>
+      </c>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="n">
+        <v>41483</v>
       </c>
     </row>
   </sheetData>
@@ -15469,7 +15515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB189"/>
+  <dimension ref="A1:AB190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30171,7 +30217,9 @@
       <c r="G188" t="n">
         <v>54</v>
       </c>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="n">
+        <v>85</v>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -30215,7 +30263,9 @@
       <c r="G189" t="n">
         <v>54</v>
       </c>
-      <c r="H189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>85</v>
+      </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -30226,7 +30276,9 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
+      <c r="Q189" t="n">
+        <v>42</v>
+      </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
@@ -30243,6 +30295,46 @@
         <v>2005</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>85</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>8</v>
+      </c>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="n">
+        <v>2005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -30254,7 +30346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB189"/>
+  <dimension ref="A1:AB190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43900,7 +43992,9 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -43940,7 +44034,9 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>3</v>
+      </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -43951,7 +44047,9 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
+      <c r="Q189" t="n">
+        <v>6</v>
+      </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
@@ -43965,7 +44063,47 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>112</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>1</v>
+      </c>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="n">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -43979,7 +44117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB189"/>
+  <dimension ref="A1:AB190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56229,7 +56367,9 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -56267,7 +56407,9 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -56278,7 +56420,9 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
@@ -56290,7 +56434,47 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -56304,7 +56488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB189"/>
+  <dimension ref="A1:AB190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65903,7 +66087,9 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
+      <c r="Q189" t="n">
+        <v>2</v>
+      </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
@@ -65920,6 +66106,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -65931,7 +66153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB189"/>
+  <dimension ref="A1:AB190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76075,7 +76297,9 @@
       <c r="G188" t="n">
         <v>1106</v>
       </c>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="n">
+        <v>162</v>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -76096,7 +76320,7 @@
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>6749</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="189">
@@ -76113,7 +76337,9 @@
       <c r="G189" t="n">
         <v>1113</v>
       </c>
-      <c r="H189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>162</v>
+      </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
@@ -76134,7 +76360,45 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>6756</v>
+        <v>6758</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>162</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="n">
+        <v>6758</v>
       </c>
     </row>
   </sheetData>
@@ -76148,7 +76412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB189"/>
+  <dimension ref="A1:AB190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83300,6 +83564,42 @@
         <v>67515</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="n">
+        <v>67515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15251,7 +15251,7 @@
         <v>1034</v>
       </c>
       <c r="N186" t="n">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="O186" t="n">
         <v>133</v>
@@ -15291,7 +15291,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41050</v>
+        <v>41054</v>
       </c>
     </row>
     <row r="187">
@@ -15332,7 +15332,9 @@
       <c r="M187" t="n">
         <v>1045</v>
       </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>867</v>
+      </c>
       <c r="O187" t="n">
         <v>133</v>
       </c>
@@ -15367,7 +15369,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41248</v>
+        <v>41260</v>
       </c>
     </row>
     <row r="188">
@@ -15396,7 +15398,9 @@
       </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>869</v>
+      </c>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
@@ -15413,7 +15417,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41355</v>
+        <v>41369</v>
       </c>
     </row>
     <row r="189">
@@ -15461,7 +15465,7 @@
         <v>6051</v>
       </c>
       <c r="AB189" t="n">
-        <v>41474</v>
+        <v>41488</v>
       </c>
     </row>
     <row r="190">
@@ -15475,7 +15479,9 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>1215</v>
+      </c>
       <c r="H190" t="n">
         <v>1686</v>
       </c>
@@ -15494,14 +15500,16 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
+      <c r="V190" t="n">
+        <v>3541</v>
+      </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>41483</v>
+        <v>41507</v>
       </c>
     </row>
   </sheetData>
@@ -29913,7 +29921,9 @@
       <c r="M184" t="n">
         <v>21</v>
       </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>84</v>
+      </c>
       <c r="O184" t="n">
         <v>3</v>
       </c>
@@ -29997,7 +30007,9 @@
       <c r="M185" t="n">
         <v>21</v>
       </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>84</v>
+      </c>
       <c r="O185" t="n">
         <v>3</v>
       </c>
@@ -30083,7 +30095,9 @@
       <c r="M186" t="n">
         <v>21</v>
       </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>84</v>
+      </c>
       <c r="O186" t="n">
         <v>3</v>
       </c>
@@ -30306,7 +30320,9 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>54</v>
+      </c>
       <c r="H190" t="n">
         <v>85</v>
       </c>
@@ -30325,7 +30341,9 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
+      <c r="V190" t="n">
+        <v>350</v>
+      </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
@@ -43942,7 +43960,9 @@
       <c r="M187" t="n">
         <v>10</v>
       </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
       <c r="O187" t="n">
         <v>0</v>
       </c>
@@ -44002,7 +44022,9 @@
       </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
@@ -44019,7 +44041,7 @@
         <v>19</v>
       </c>
       <c r="AB188" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189">
@@ -44044,7 +44066,9 @@
       </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="n">
@@ -44063,7 +44087,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="190">
@@ -44096,14 +44120,16 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
+      <c r="V190" t="n">
+        <v>1</v>
+      </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -56327,7 +56353,9 @@
       <c r="M187" t="n">
         <v>3</v>
       </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
       <c r="O187" t="n">
         <v>0</v>
       </c>
@@ -56377,7 +56405,9 @@
       </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
@@ -56417,7 +56447,9 @@
       </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="n">
@@ -56434,7 +56466,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
@@ -56467,14 +56499,16 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
+      <c r="V190" t="n">
+        <v>0</v>
+      </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -66000,7 +66034,9 @@
       </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="n">
@@ -66044,7 +66080,9 @@
       </c>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
@@ -66084,7 +66122,9 @@
       </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="n">
@@ -66132,7 +66172,9 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
+      <c r="V190" t="n">
+        <v>0</v>
+      </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
@@ -76374,7 +76416,9 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>1115</v>
+      </c>
       <c r="H190" t="n">
         <v>162</v>
       </c>
@@ -76391,14 +76435,16 @@
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
+      <c r="V190" t="n">
+        <v>927</v>
+      </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>6758</v>
+        <v>6761</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15476,7 +15476,9 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="n">
+        <v>133</v>
+      </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
@@ -15486,10 +15488,14 @@
         <v>1686</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>164</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1060</v>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
@@ -15497,7 +15503,9 @@
       <c r="R190" t="n">
         <v>164</v>
       </c>
-      <c r="S190" t="inlineStr"/>
+      <c r="S190" t="n">
+        <v>701</v>
+      </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="n">
@@ -15509,7 +15517,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>41507</v>
+        <v>41538</v>
       </c>
     </row>
   </sheetData>
@@ -30317,7 +30325,9 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="n">
+        <v>3</v>
+      </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
@@ -30327,10 +30337,14 @@
         <v>85</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>13</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>21</v>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
@@ -30338,7 +30352,9 @@
       <c r="R190" t="n">
         <v>8</v>
       </c>
-      <c r="S190" t="inlineStr"/>
+      <c r="S190" t="n">
+        <v>18</v>
+      </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="n">
@@ -44098,7 +44114,9 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
@@ -44106,10 +44124,14 @@
         <v>5</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>10</v>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
@@ -44117,7 +44139,9 @@
       <c r="R190" t="n">
         <v>1</v>
       </c>
-      <c r="S190" t="inlineStr"/>
+      <c r="S190" t="n">
+        <v>1</v>
+      </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="n">
@@ -44129,7 +44153,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -56477,7 +56501,9 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
@@ -56488,7 +56514,9 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>4</v>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
@@ -56508,7 +56536,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15407,7 +15407,9 @@
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
+      <c r="U188" t="n">
+        <v>577</v>
+      </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
@@ -15417,7 +15419,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41369</v>
+        <v>41374</v>
       </c>
     </row>
     <row r="189">
@@ -15455,7 +15457,9 @@
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
+      <c r="U189" t="n">
+        <v>579</v>
+      </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
@@ -15465,7 +15469,7 @@
         <v>6051</v>
       </c>
       <c r="AB189" t="n">
-        <v>41488</v>
+        <v>41495</v>
       </c>
     </row>
     <row r="190">
@@ -15479,7 +15483,9 @@
       <c r="D190" t="n">
         <v>133</v>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>2536</v>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
         <v>1215</v>
@@ -15507,7 +15513,9 @@
         <v>701</v>
       </c>
       <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
+      <c r="U190" t="n">
+        <v>579</v>
+      </c>
       <c r="V190" t="n">
         <v>3541</v>
       </c>
@@ -15517,7 +15525,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>41538</v>
+        <v>41552</v>
       </c>
     </row>
   </sheetData>
@@ -30256,7 +30264,9 @@
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
+      <c r="U188" t="n">
+        <v>19</v>
+      </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
@@ -30304,7 +30314,9 @@
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
+      <c r="U189" t="n">
+        <v>19</v>
+      </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
@@ -30328,7 +30340,9 @@
       <c r="D190" t="n">
         <v>3</v>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>99</v>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="n">
         <v>54</v>
@@ -30356,7 +30370,9 @@
         <v>18</v>
       </c>
       <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
+      <c r="U190" t="n">
+        <v>19</v>
+      </c>
       <c r="V190" t="n">
         <v>350</v>
       </c>
@@ -44047,7 +44063,9 @@
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
+      <c r="U188" t="n">
+        <v>3</v>
+      </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
@@ -44093,7 +44111,9 @@
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
+      <c r="U189" t="n">
+        <v>3</v>
+      </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
@@ -44117,7 +44137,9 @@
       <c r="D190" t="n">
         <v>1</v>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>7</v>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
@@ -44143,7 +44165,9 @@
         <v>1</v>
       </c>
       <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
+      <c r="U190" t="n">
+        <v>3</v>
+      </c>
       <c r="V190" t="n">
         <v>1</v>
       </c>
@@ -44153,7 +44177,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -56438,7 +56462,9 @@
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
+      <c r="U188" t="n">
+        <v>1</v>
+      </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
@@ -56482,7 +56508,9 @@
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
+      <c r="U189" t="n">
+        <v>1</v>
+      </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
@@ -56504,7 +56532,9 @@
       <c r="D190" t="n">
         <v>0</v>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>2</v>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
@@ -56526,7 +56556,9 @@
       </c>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
+      <c r="U190" t="n">
+        <v>1</v>
+      </c>
       <c r="V190" t="n">
         <v>0</v>
       </c>
@@ -56536,7 +56568,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -66183,7 +66215,9 @@
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>2</v>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
@@ -66209,7 +66243,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -76382,7 +76416,9 @@
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr"/>
+      <c r="U188" t="n">
+        <v>79</v>
+      </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
@@ -76422,7 +76458,9 @@
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr"/>
+      <c r="U189" t="n">
+        <v>79</v>
+      </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
@@ -76462,7 +76500,9 @@
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr"/>
+      <c r="U190" t="n">
+        <v>79</v>
+      </c>
       <c r="V190" t="n">
         <v>927</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15300,7 +15300,9 @@
           <t>2020-08-28</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
+      <c r="B187" t="n">
+        <v>2069</v>
+      </c>
       <c r="C187" t="n">
         <v>25</v>
       </c>
@@ -15369,7 +15371,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41260</v>
+        <v>41283</v>
       </c>
     </row>
     <row r="188">
@@ -15378,13 +15380,17 @@
           <t>2020-08-29</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
+      <c r="B188" t="n">
+        <v>2092</v>
+      </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
         <v>2506</v>
       </c>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>1038</v>
+      </c>
       <c r="G188" t="n">
         <v>1210</v>
       </c>
@@ -15406,7 +15412,9 @@
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
+      <c r="T188" t="n">
+        <v>485</v>
+      </c>
       <c r="U188" t="n">
         <v>577</v>
       </c>
@@ -15419,7 +15427,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41374</v>
+        <v>41430</v>
       </c>
     </row>
     <row r="189">
@@ -15428,13 +15436,17 @@
           <t>2020-08-30</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
+      <c r="B189" t="n">
+        <v>2101</v>
+      </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
         <v>2529</v>
       </c>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>1039</v>
+      </c>
       <c r="G189" t="n">
         <v>1213</v>
       </c>
@@ -15456,7 +15468,9 @@
       </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
+      <c r="T189" t="n">
+        <v>485</v>
+      </c>
       <c r="U189" t="n">
         <v>579</v>
       </c>
@@ -15469,7 +15483,7 @@
         <v>6051</v>
       </c>
       <c r="AB189" t="n">
-        <v>41495</v>
+        <v>41561</v>
       </c>
     </row>
     <row r="190">
@@ -15486,7 +15500,9 @@
       <c r="E190" t="n">
         <v>2536</v>
       </c>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>1040</v>
+      </c>
       <c r="G190" t="n">
         <v>1215</v>
       </c>
@@ -15512,7 +15528,9 @@
       <c r="S190" t="n">
         <v>701</v>
       </c>
-      <c r="T190" t="inlineStr"/>
+      <c r="T190" t="n">
+        <v>492</v>
+      </c>
       <c r="U190" t="n">
         <v>579</v>
       </c>
@@ -15525,7 +15543,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>41552</v>
+        <v>41626</v>
       </c>
     </row>
   </sheetData>
@@ -30161,7 +30179,9 @@
           <t>2020-08-28</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
+      <c r="B187" t="n">
+        <v>52</v>
+      </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
@@ -30237,13 +30257,17 @@
           <t>2020-08-29</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
+      <c r="B188" t="n">
+        <v>52</v>
+      </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
         <v>99</v>
       </c>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>35</v>
+      </c>
       <c r="G188" t="n">
         <v>54</v>
       </c>
@@ -30263,7 +30287,9 @@
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
+      <c r="T188" t="n">
+        <v>25</v>
+      </c>
       <c r="U188" t="n">
         <v>19</v>
       </c>
@@ -30285,13 +30311,17 @@
           <t>2020-08-30</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
+      <c r="B189" t="n">
+        <v>52</v>
+      </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
         <v>99</v>
       </c>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>35</v>
+      </c>
       <c r="G189" t="n">
         <v>54</v>
       </c>
@@ -30313,7 +30343,9 @@
       </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
+      <c r="T189" t="n">
+        <v>25</v>
+      </c>
       <c r="U189" t="n">
         <v>19</v>
       </c>
@@ -30343,7 +30375,9 @@
       <c r="E190" t="n">
         <v>99</v>
       </c>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>35</v>
+      </c>
       <c r="G190" t="n">
         <v>54</v>
       </c>
@@ -30369,7 +30403,9 @@
       <c r="S190" t="n">
         <v>18</v>
       </c>
-      <c r="T190" t="inlineStr"/>
+      <c r="T190" t="n">
+        <v>25</v>
+      </c>
       <c r="U190" t="n">
         <v>19</v>
       </c>
@@ -44042,8 +44078,12 @@
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>3</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4</v>
+      </c>
       <c r="H188" t="n">
         <v>3</v>
       </c>
@@ -44075,7 +44115,7 @@
         <v>19</v>
       </c>
       <c r="AB188" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="189">
@@ -44088,8 +44128,12 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>3</v>
+      </c>
+      <c r="G189" t="n">
+        <v>4</v>
+      </c>
       <c r="H189" t="n">
         <v>3</v>
       </c>
@@ -44123,7 +44167,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="190">
@@ -44140,8 +44184,12 @@
       <c r="E190" t="n">
         <v>7</v>
       </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>2</v>
+      </c>
+      <c r="G190" t="n">
+        <v>3</v>
+      </c>
       <c r="H190" t="n">
         <v>5</v>
       </c>
@@ -44177,7 +44225,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -56441,8 +56489,12 @@
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
@@ -56472,7 +56524,7 @@
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189">
@@ -56485,8 +56537,12 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
       <c r="H189" t="n">
         <v>1</v>
       </c>
@@ -56518,7 +56574,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190">
@@ -56535,8 +56591,12 @@
       <c r="E190" t="n">
         <v>2</v>
       </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
       <c r="H190" t="n">
         <v>1</v>
       </c>
@@ -66130,7 +66190,9 @@
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
@@ -66172,7 +66234,9 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -66218,7 +66282,9 @@
       <c r="E190" t="n">
         <v>2</v>
       </c>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
@@ -76397,7 +76463,9 @@
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
+      <c r="F188" t="n">
+        <v>942</v>
+      </c>
       <c r="G188" t="n">
         <v>1106</v>
       </c>
@@ -76415,7 +76483,9 @@
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
+      <c r="T188" t="n">
+        <v>423</v>
+      </c>
       <c r="U188" t="n">
         <v>79</v>
       </c>
@@ -76426,7 +76496,7 @@
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>6751</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="189">
@@ -76439,7 +76509,9 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>950</v>
+      </c>
       <c r="G189" t="n">
         <v>1113</v>
       </c>
@@ -76457,7 +76529,9 @@
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
+      <c r="T189" t="n">
+        <v>423</v>
+      </c>
       <c r="U189" t="n">
         <v>79</v>
       </c>
@@ -76468,7 +76542,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>6758</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="190">
@@ -76481,7 +76555,9 @@
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>958</v>
+      </c>
       <c r="G190" t="n">
         <v>1115</v>
       </c>
@@ -76499,7 +76575,9 @@
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
-      <c r="T190" t="inlineStr"/>
+      <c r="T190" t="n">
+        <v>432</v>
+      </c>
       <c r="U190" t="n">
         <v>79</v>
       </c>
@@ -76512,7 +76590,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>6761</v>
+        <v>6790</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15424,10 +15424,10 @@
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="n">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41430</v>
+        <v>41429</v>
       </c>
     </row>
     <row r="189">
@@ -15480,10 +15480,10 @@
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="n">
-        <v>6051</v>
+        <v>6046</v>
       </c>
       <c r="AB189" t="n">
-        <v>41561</v>
+        <v>41556</v>
       </c>
     </row>
     <row r="190">
@@ -15541,9 +15541,11 @@
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
-      <c r="AA190" t="inlineStr"/>
+      <c r="AA190" t="n">
+        <v>6067</v>
+      </c>
       <c r="AB190" t="n">
-        <v>41626</v>
+        <v>41642</v>
       </c>
     </row>
   </sheetData>
@@ -30355,10 +30357,10 @@
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AB189" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="190">
@@ -30416,9 +30418,11 @@
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
-      <c r="AA190" t="inlineStr"/>
+      <c r="AA190" t="n">
+        <v>142</v>
+      </c>
       <c r="AB190" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
   </sheetData>
@@ -44223,9 +44227,11 @@
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
-      <c r="AA190" t="inlineStr"/>
+      <c r="AA190" t="n">
+        <v>22</v>
+      </c>
       <c r="AB190" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -66307,9 +66313,11 @@
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
-      <c r="AA190" t="inlineStr"/>
+      <c r="AA190" t="n">
+        <v>6</v>
+      </c>
       <c r="AB190" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15329,7 +15329,7 @@
         <v>1000</v>
       </c>
       <c r="L187" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M187" t="n">
         <v>1045</v>
@@ -15371,7 +15371,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41283</v>
+        <v>41284</v>
       </c>
     </row>
     <row r="188">
@@ -15402,12 +15402,16 @@
       <c r="K188" t="n">
         <v>1000</v>
       </c>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>268</v>
+      </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
         <v>869</v>
       </c>
-      <c r="O188" t="inlineStr"/>
+      <c r="O188" t="n">
+        <v>133</v>
+      </c>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
@@ -15427,7 +15431,7 @@
         <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41429</v>
+        <v>41431</v>
       </c>
     </row>
     <row r="189">
@@ -15458,10 +15462,14 @@
       <c r="K189" t="n">
         <v>1001</v>
       </c>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>268</v>
+      </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
+      <c r="O189" t="n">
+        <v>133</v>
+      </c>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="n">
         <v>1260</v>
@@ -15483,7 +15491,7 @@
         <v>6046</v>
       </c>
       <c r="AB189" t="n">
-        <v>41556</v>
+        <v>41558</v>
       </c>
     </row>
     <row r="190">
@@ -15514,7 +15522,9 @@
         <v>164</v>
       </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>268</v>
+      </c>
       <c r="M190" t="n">
         <v>1060</v>
       </c>
@@ -15537,7 +15547,9 @@
       <c r="V190" t="n">
         <v>3541</v>
       </c>
-      <c r="W190" t="inlineStr"/>
+      <c r="W190" t="n">
+        <v>137</v>
+      </c>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
@@ -15545,7 +15557,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>41642</v>
+        <v>41644</v>
       </c>
     </row>
   </sheetData>
@@ -30281,10 +30293,14 @@
       <c r="K188" t="n">
         <v>50</v>
       </c>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>7</v>
+      </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
+      <c r="O188" t="n">
+        <v>3</v>
+      </c>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
@@ -30335,10 +30351,14 @@
       <c r="K189" t="n">
         <v>50</v>
       </c>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>7</v>
+      </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
+      <c r="O189" t="n">
+        <v>3</v>
+      </c>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="n">
         <v>42</v>
@@ -30391,7 +30411,9 @@
         <v>13</v>
       </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>7</v>
+      </c>
       <c r="M190" t="n">
         <v>21</v>
       </c>
@@ -30414,7 +30436,9 @@
       <c r="V190" t="n">
         <v>350</v>
       </c>
-      <c r="W190" t="inlineStr"/>
+      <c r="W190" t="n">
+        <v>7</v>
+      </c>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
@@ -44096,12 +44120,16 @@
       <c r="K188" t="n">
         <v>0</v>
       </c>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
         <v>1</v>
       </c>
-      <c r="O188" t="inlineStr"/>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
@@ -44146,12 +44174,16 @@
       <c r="K189" t="n">
         <v>0</v>
       </c>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
         <v>2</v>
       </c>
-      <c r="O189" t="inlineStr"/>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="n">
         <v>6</v>
@@ -44202,7 +44234,9 @@
         <v>0</v>
       </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
       <c r="M190" t="n">
         <v>10</v>
       </c>
@@ -44223,7 +44257,9 @@
       <c r="V190" t="n">
         <v>1</v>
       </c>
-      <c r="W190" t="inlineStr"/>
+      <c r="W190" t="n">
+        <v>0</v>
+      </c>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
@@ -56509,12 +56545,16 @@
       <c r="K188" t="n">
         <v>0</v>
       </c>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
         <v>0</v>
       </c>
-      <c r="O188" t="inlineStr"/>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
@@ -56557,12 +56597,16 @@
       <c r="K189" t="n">
         <v>0</v>
       </c>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
         <v>1</v>
       </c>
-      <c r="O189" t="inlineStr"/>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
       <c r="P189" t="inlineStr"/>
       <c r="Q189" t="n">
         <v>3</v>
@@ -56609,7 +56653,9 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
       <c r="M190" t="n">
         <v>4</v>
       </c>
@@ -76592,7 +76638,9 @@
       <c r="V190" t="n">
         <v>927</v>
       </c>
-      <c r="W190" t="inlineStr"/>
+      <c r="W190" t="n">
+        <v>126</v>
+      </c>
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -3516,7 +3516,7 @@
         <v>689</v>
       </c>
       <c r="I43" t="n">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="J43" t="n">
         <v>63</v>
@@ -3573,7 +3573,7 @@
         <v>2594</v>
       </c>
       <c r="AB43" t="n">
-        <v>22699</v>
+        <v>22698</v>
       </c>
     </row>
     <row r="44">
@@ -3604,7 +3604,7 @@
         <v>729</v>
       </c>
       <c r="I44" t="n">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="J44" t="n">
         <v>63</v>
@@ -3661,7 +3661,7 @@
         <v>2677</v>
       </c>
       <c r="AB44" t="n">
-        <v>23364</v>
+        <v>23363</v>
       </c>
     </row>
     <row r="45">
@@ -3692,7 +3692,7 @@
         <v>756</v>
       </c>
       <c r="I45" t="n">
-        <v>4302</v>
+        <v>4299</v>
       </c>
       <c r="J45" t="n">
         <v>64</v>
@@ -3749,7 +3749,7 @@
         <v>2771</v>
       </c>
       <c r="AB45" t="n">
-        <v>24040</v>
+        <v>24037</v>
       </c>
     </row>
     <row r="46">
@@ -3780,7 +3780,7 @@
         <v>786</v>
       </c>
       <c r="I46" t="n">
-        <v>4394</v>
+        <v>4391</v>
       </c>
       <c r="J46" t="n">
         <v>67</v>
@@ -3837,7 +3837,7 @@
         <v>2868</v>
       </c>
       <c r="AB46" t="n">
-        <v>24708</v>
+        <v>24705</v>
       </c>
     </row>
     <row r="47">
@@ -3866,7 +3866,7 @@
         <v>796</v>
       </c>
       <c r="I47" t="n">
-        <v>4440</v>
+        <v>4437</v>
       </c>
       <c r="J47" t="n">
         <v>76</v>
@@ -3921,7 +3921,7 @@
         <v>2908</v>
       </c>
       <c r="AB47" t="n">
-        <v>25159</v>
+        <v>25156</v>
       </c>
     </row>
     <row r="48">
@@ -3952,7 +3952,7 @@
         <v>834</v>
       </c>
       <c r="I48" t="n">
-        <v>4497</v>
+        <v>4493</v>
       </c>
       <c r="J48" t="n">
         <v>91</v>
@@ -4007,7 +4007,7 @@
         <v>2966</v>
       </c>
       <c r="AB48" t="n">
-        <v>25630</v>
+        <v>25626</v>
       </c>
     </row>
     <row r="49">
@@ -4034,7 +4034,7 @@
         <v>846</v>
       </c>
       <c r="I49" t="n">
-        <v>4527</v>
+        <v>4523</v>
       </c>
       <c r="J49" t="n">
         <v>91</v>
@@ -4089,7 +4089,7 @@
         <v>2983</v>
       </c>
       <c r="AB49" t="n">
-        <v>25910</v>
+        <v>25906</v>
       </c>
     </row>
     <row r="50">
@@ -4120,7 +4120,7 @@
         <v>859</v>
       </c>
       <c r="I50" t="n">
-        <v>4575</v>
+        <v>4570</v>
       </c>
       <c r="J50" t="n">
         <v>92</v>
@@ -4175,7 +4175,7 @@
         <v>3000</v>
       </c>
       <c r="AB50" t="n">
-        <v>26158</v>
+        <v>26153</v>
       </c>
     </row>
     <row r="51">
@@ -4206,7 +4206,7 @@
         <v>879</v>
       </c>
       <c r="I51" t="n">
-        <v>4636</v>
+        <v>4631</v>
       </c>
       <c r="J51" t="n">
         <v>105</v>
@@ -4263,7 +4263,7 @@
         <v>3047</v>
       </c>
       <c r="AB51" t="n">
-        <v>26488</v>
+        <v>26483</v>
       </c>
     </row>
     <row r="52">
@@ -4294,7 +4294,7 @@
         <v>890</v>
       </c>
       <c r="I52" t="n">
-        <v>4702</v>
+        <v>4697</v>
       </c>
       <c r="J52" t="n">
         <v>105</v>
@@ -4351,7 +4351,7 @@
         <v>3094</v>
       </c>
       <c r="AB52" t="n">
-        <v>26808</v>
+        <v>26803</v>
       </c>
     </row>
     <row r="53">
@@ -4382,7 +4382,7 @@
         <v>907</v>
       </c>
       <c r="I53" t="n">
-        <v>4773</v>
+        <v>4768</v>
       </c>
       <c r="J53" t="n">
         <v>106</v>
@@ -4439,7 +4439,7 @@
         <v>3129</v>
       </c>
       <c r="AB53" t="n">
-        <v>27113</v>
+        <v>27108</v>
       </c>
     </row>
     <row r="54">
@@ -4470,7 +4470,7 @@
         <v>930</v>
       </c>
       <c r="I54" t="n">
-        <v>4819</v>
+        <v>4814</v>
       </c>
       <c r="J54" t="n">
         <v>108</v>
@@ -4527,7 +4527,7 @@
         <v>3152</v>
       </c>
       <c r="AB54" t="n">
-        <v>27422</v>
+        <v>27417</v>
       </c>
     </row>
     <row r="55">
@@ -4554,7 +4554,7 @@
         <v>956</v>
       </c>
       <c r="I55" t="n">
-        <v>4868</v>
+        <v>4863</v>
       </c>
       <c r="J55" t="n">
         <v>111</v>
@@ -4609,7 +4609,7 @@
         <v>3191</v>
       </c>
       <c r="AB55" t="n">
-        <v>27700</v>
+        <v>27695</v>
       </c>
     </row>
     <row r="56">
@@ -4638,7 +4638,7 @@
         <v>980</v>
       </c>
       <c r="I56" t="n">
-        <v>4879</v>
+        <v>4874</v>
       </c>
       <c r="J56" t="n">
         <v>111</v>
@@ -4693,7 +4693,7 @@
         <v>3218</v>
       </c>
       <c r="AB56" t="n">
-        <v>27877</v>
+        <v>27872</v>
       </c>
     </row>
     <row r="57">
@@ -4724,7 +4724,7 @@
         <v>989</v>
       </c>
       <c r="I57" t="n">
-        <v>4910</v>
+        <v>4905</v>
       </c>
       <c r="J57" t="n">
         <v>114</v>
@@ -4781,7 +4781,7 @@
         <v>3234</v>
       </c>
       <c r="AB57" t="n">
-        <v>28082</v>
+        <v>28077</v>
       </c>
     </row>
     <row r="58">
@@ -4812,7 +4812,7 @@
         <v>995</v>
       </c>
       <c r="I58" t="n">
-        <v>4949</v>
+        <v>4944</v>
       </c>
       <c r="J58" t="n">
         <v>115</v>
@@ -4869,7 +4869,7 @@
         <v>3259</v>
       </c>
       <c r="AB58" t="n">
-        <v>28252</v>
+        <v>28247</v>
       </c>
     </row>
     <row r="59">
@@ -4900,7 +4900,7 @@
         <v>1006</v>
       </c>
       <c r="I59" t="n">
-        <v>4982</v>
+        <v>4977</v>
       </c>
       <c r="J59" t="n">
         <v>117</v>
@@ -4957,7 +4957,7 @@
         <v>3299</v>
       </c>
       <c r="AB59" t="n">
-        <v>28461</v>
+        <v>28456</v>
       </c>
     </row>
     <row r="60">
@@ -4988,7 +4988,7 @@
         <v>1014</v>
       </c>
       <c r="I60" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="J60" t="n">
         <v>117</v>
@@ -5045,7 +5045,7 @@
         <v>3316</v>
       </c>
       <c r="AB60" t="n">
-        <v>28684</v>
+        <v>28679</v>
       </c>
     </row>
     <row r="61">
@@ -5076,7 +5076,7 @@
         <v>1021</v>
       </c>
       <c r="I61" t="n">
-        <v>5041</v>
+        <v>5036</v>
       </c>
       <c r="J61" t="n">
         <v>117</v>
@@ -5133,7 +5133,7 @@
         <v>3344</v>
       </c>
       <c r="AB61" t="n">
-        <v>28873</v>
+        <v>28868</v>
       </c>
     </row>
     <row r="62">
@@ -5160,7 +5160,7 @@
         <v>1029</v>
       </c>
       <c r="I62" t="n">
-        <v>5059</v>
+        <v>5054</v>
       </c>
       <c r="J62" t="n">
         <v>120</v>
@@ -5215,7 +5215,7 @@
         <v>3375</v>
       </c>
       <c r="AB62" t="n">
-        <v>29017</v>
+        <v>29012</v>
       </c>
     </row>
     <row r="63">
@@ -5240,7 +5240,7 @@
         <v>1033</v>
       </c>
       <c r="I63" t="n">
-        <v>5064</v>
+        <v>5059</v>
       </c>
       <c r="J63" t="n">
         <v>120</v>
@@ -5295,7 +5295,7 @@
         <v>3378</v>
       </c>
       <c r="AB63" t="n">
-        <v>29093</v>
+        <v>29088</v>
       </c>
     </row>
     <row r="64">
@@ -5326,7 +5326,7 @@
         <v>1040</v>
       </c>
       <c r="I64" t="n">
-        <v>5083</v>
+        <v>5078</v>
       </c>
       <c r="J64" t="n">
         <v>121</v>
@@ -5383,7 +5383,7 @@
         <v>3396</v>
       </c>
       <c r="AB64" t="n">
-        <v>29264</v>
+        <v>29259</v>
       </c>
     </row>
     <row r="65">
@@ -5414,7 +5414,7 @@
         <v>1044</v>
       </c>
       <c r="I65" t="n">
-        <v>5103</v>
+        <v>5098</v>
       </c>
       <c r="J65" t="n">
         <v>121</v>
@@ -5471,7 +5471,7 @@
         <v>3411</v>
       </c>
       <c r="AB65" t="n">
-        <v>29392</v>
+        <v>29387</v>
       </c>
     </row>
     <row r="66">
@@ -5502,7 +5502,7 @@
         <v>1057</v>
       </c>
       <c r="I66" t="n">
-        <v>5121</v>
+        <v>5116</v>
       </c>
       <c r="J66" t="n">
         <v>122</v>
@@ -5559,7 +5559,7 @@
         <v>3440</v>
       </c>
       <c r="AB66" t="n">
-        <v>29534</v>
+        <v>29529</v>
       </c>
     </row>
     <row r="67">
@@ -5590,7 +5590,7 @@
         <v>1070</v>
       </c>
       <c r="I67" t="n">
-        <v>5132</v>
+        <v>5126</v>
       </c>
       <c r="J67" t="n">
         <v>122</v>
@@ -5647,7 +5647,7 @@
         <v>3451</v>
       </c>
       <c r="AB67" t="n">
-        <v>29681</v>
+        <v>29675</v>
       </c>
     </row>
     <row r="68">
@@ -5678,7 +5678,7 @@
         <v>1078</v>
       </c>
       <c r="I68" t="n">
-        <v>5151</v>
+        <v>5145</v>
       </c>
       <c r="J68" t="n">
         <v>122</v>
@@ -5735,7 +5735,7 @@
         <v>3464</v>
       </c>
       <c r="AB68" t="n">
-        <v>29807</v>
+        <v>29801</v>
       </c>
     </row>
     <row r="69">
@@ -5764,7 +5764,7 @@
         <v>1092</v>
       </c>
       <c r="I69" t="n">
-        <v>5156</v>
+        <v>5150</v>
       </c>
       <c r="J69" t="n">
         <v>122</v>
@@ -5817,7 +5817,7 @@
         <v>3467</v>
       </c>
       <c r="AB69" t="n">
-        <v>29875</v>
+        <v>29869</v>
       </c>
     </row>
     <row r="70">
@@ -5846,7 +5846,7 @@
         <v>1097</v>
       </c>
       <c r="I70" t="n">
-        <v>5162</v>
+        <v>5156</v>
       </c>
       <c r="J70" t="n">
         <v>122</v>
@@ -5899,7 +5899,7 @@
         <v>3471</v>
       </c>
       <c r="AB70" t="n">
-        <v>29935</v>
+        <v>29929</v>
       </c>
     </row>
     <row r="71">
@@ -5930,7 +5930,7 @@
         <v>1102</v>
       </c>
       <c r="I71" t="n">
-        <v>5168</v>
+        <v>5162</v>
       </c>
       <c r="J71" t="n">
         <v>122</v>
@@ -5987,7 +5987,7 @@
         <v>3473</v>
       </c>
       <c r="AB71" t="n">
-        <v>29997</v>
+        <v>29991</v>
       </c>
     </row>
     <row r="72">
@@ -6018,7 +6018,7 @@
         <v>1104</v>
       </c>
       <c r="I72" t="n">
-        <v>5177</v>
+        <v>5171</v>
       </c>
       <c r="J72" t="n">
         <v>122</v>
@@ -6075,7 +6075,7 @@
         <v>3489</v>
       </c>
       <c r="AB72" t="n">
-        <v>30060</v>
+        <v>30054</v>
       </c>
     </row>
     <row r="73">
@@ -6106,7 +6106,7 @@
         <v>1107</v>
       </c>
       <c r="I73" t="n">
-        <v>5184</v>
+        <v>5178</v>
       </c>
       <c r="J73" t="n">
         <v>125</v>
@@ -6163,7 +6163,7 @@
         <v>3504</v>
       </c>
       <c r="AB73" t="n">
-        <v>30143</v>
+        <v>30137</v>
       </c>
     </row>
     <row r="74">
@@ -6192,7 +6192,7 @@
         <v>1115</v>
       </c>
       <c r="I74" t="n">
-        <v>5191</v>
+        <v>5185</v>
       </c>
       <c r="J74" t="n">
         <v>125</v>
@@ -6249,7 +6249,7 @@
         <v>3514</v>
       </c>
       <c r="AB74" t="n">
-        <v>30212</v>
+        <v>30206</v>
       </c>
     </row>
     <row r="75">
@@ -6278,7 +6278,7 @@
         <v>1117</v>
       </c>
       <c r="I75" t="n">
-        <v>5197</v>
+        <v>5191</v>
       </c>
       <c r="J75" t="n">
         <v>125</v>
@@ -6335,7 +6335,7 @@
         <v>3524</v>
       </c>
       <c r="AB75" t="n">
-        <v>30278</v>
+        <v>30272</v>
       </c>
     </row>
     <row r="76">
@@ -6364,7 +6364,7 @@
         <v>1121</v>
       </c>
       <c r="I76" t="n">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="J76" t="n">
         <v>126</v>
@@ -6415,7 +6415,7 @@
         <v>3529</v>
       </c>
       <c r="AB76" t="n">
-        <v>30322</v>
+        <v>30316</v>
       </c>
     </row>
     <row r="77">
@@ -6442,7 +6442,7 @@
         <v>1126</v>
       </c>
       <c r="I77" t="n">
-        <v>5207</v>
+        <v>5201</v>
       </c>
       <c r="J77" t="n">
         <v>126</v>
@@ -6491,7 +6491,7 @@
         <v>3532</v>
       </c>
       <c r="AB77" t="n">
-        <v>30354</v>
+        <v>30348</v>
       </c>
     </row>
     <row r="78">
@@ -6522,7 +6522,7 @@
         <v>1129</v>
       </c>
       <c r="I78" t="n">
-        <v>5212</v>
+        <v>5206</v>
       </c>
       <c r="J78" t="n">
         <v>127</v>
@@ -6579,7 +6579,7 @@
         <v>3537</v>
       </c>
       <c r="AB78" t="n">
-        <v>30418</v>
+        <v>30412</v>
       </c>
     </row>
     <row r="79">
@@ -6610,7 +6610,7 @@
         <v>1138</v>
       </c>
       <c r="I79" t="n">
-        <v>5222</v>
+        <v>5216</v>
       </c>
       <c r="J79" t="n">
         <v>127</v>
@@ -6667,7 +6667,7 @@
         <v>3539</v>
       </c>
       <c r="AB79" t="n">
-        <v>30466</v>
+        <v>30460</v>
       </c>
     </row>
     <row r="80">
@@ -6694,7 +6694,7 @@
         <v>1141</v>
       </c>
       <c r="I80" t="n">
-        <v>5226</v>
+        <v>5220</v>
       </c>
       <c r="J80" t="n">
         <v>127</v>
@@ -6751,7 +6751,7 @@
         <v>3545</v>
       </c>
       <c r="AB80" t="n">
-        <v>30507</v>
+        <v>30501</v>
       </c>
     </row>
     <row r="81">
@@ -6780,7 +6780,7 @@
         <v>1143</v>
       </c>
       <c r="I81" t="n">
-        <v>5233</v>
+        <v>5227</v>
       </c>
       <c r="J81" t="n">
         <v>128</v>
@@ -6837,7 +6837,7 @@
         <v>3550</v>
       </c>
       <c r="AB81" t="n">
-        <v>30548</v>
+        <v>30542</v>
       </c>
     </row>
     <row r="82">
@@ -6866,7 +6866,7 @@
         <v>1145</v>
       </c>
       <c r="I82" t="n">
-        <v>5238</v>
+        <v>5232</v>
       </c>
       <c r="J82" t="n">
         <v>128</v>
@@ -6921,7 +6921,7 @@
         <v>3552</v>
       </c>
       <c r="AB82" t="n">
-        <v>30593</v>
+        <v>30587</v>
       </c>
     </row>
     <row r="83">
@@ -6948,7 +6948,7 @@
         <v>1146</v>
       </c>
       <c r="I83" t="n">
-        <v>5240</v>
+        <v>5234</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -6997,7 +6997,7 @@
         <v>3557</v>
       </c>
       <c r="AB83" t="n">
-        <v>30623</v>
+        <v>30617</v>
       </c>
     </row>
     <row r="84">
@@ -7022,7 +7022,7 @@
         <v>1147</v>
       </c>
       <c r="I84" t="n">
-        <v>5241</v>
+        <v>5235</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -7071,7 +7071,7 @@
         <v>3559</v>
       </c>
       <c r="AB84" t="n">
-        <v>30639</v>
+        <v>30633</v>
       </c>
     </row>
     <row r="85">
@@ -7100,7 +7100,7 @@
         <v>1147</v>
       </c>
       <c r="I85" t="n">
-        <v>5242</v>
+        <v>5236</v>
       </c>
       <c r="J85" t="n">
         <v>128</v>
@@ -7157,7 +7157,7 @@
         <v>3563</v>
       </c>
       <c r="AB85" t="n">
-        <v>30673</v>
+        <v>30667</v>
       </c>
     </row>
     <row r="86">
@@ -7184,7 +7184,7 @@
         <v>1147</v>
       </c>
       <c r="I86" t="n">
-        <v>5244</v>
+        <v>5238</v>
       </c>
       <c r="J86" t="n">
         <v>128</v>
@@ -7241,7 +7241,7 @@
         <v>3567</v>
       </c>
       <c r="AB86" t="n">
-        <v>30701</v>
+        <v>30695</v>
       </c>
     </row>
     <row r="87">
@@ -7272,7 +7272,7 @@
         <v>1152</v>
       </c>
       <c r="I87" t="n">
-        <v>5251</v>
+        <v>5245</v>
       </c>
       <c r="J87" t="n">
         <v>128</v>
@@ -7329,7 +7329,7 @@
         <v>3570</v>
       </c>
       <c r="AB87" t="n">
-        <v>30739</v>
+        <v>30733</v>
       </c>
     </row>
     <row r="88">
@@ -7356,7 +7356,7 @@
         <v>1152</v>
       </c>
       <c r="I88" t="n">
-        <v>5256</v>
+        <v>5250</v>
       </c>
       <c r="J88" t="n">
         <v>128</v>
@@ -7407,7 +7407,7 @@
         <v>3571</v>
       </c>
       <c r="AB88" t="n">
-        <v>30766</v>
+        <v>30760</v>
       </c>
     </row>
     <row r="89">
@@ -7436,7 +7436,7 @@
         <v>1152</v>
       </c>
       <c r="I89" t="n">
-        <v>5258</v>
+        <v>5252</v>
       </c>
       <c r="J89" t="n">
         <v>128</v>
@@ -7487,7 +7487,7 @@
         <v>3573</v>
       </c>
       <c r="AB89" t="n">
-        <v>30786</v>
+        <v>30780</v>
       </c>
     </row>
     <row r="90">
@@ -7512,7 +7512,7 @@
         <v>1154</v>
       </c>
       <c r="I90" t="n">
-        <v>5260</v>
+        <v>5254</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -7559,7 +7559,7 @@
         <v>3575</v>
       </c>
       <c r="AB90" t="n">
-        <v>30806</v>
+        <v>30800</v>
       </c>
     </row>
     <row r="91">
@@ -7586,7 +7586,7 @@
         <v>1155</v>
       </c>
       <c r="I91" t="n">
-        <v>5260</v>
+        <v>5254</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
@@ -7633,7 +7633,7 @@
         <v>3576</v>
       </c>
       <c r="AB91" t="n">
-        <v>30816</v>
+        <v>30810</v>
       </c>
     </row>
     <row r="92">
@@ -7664,7 +7664,7 @@
         <v>1156</v>
       </c>
       <c r="I92" t="n">
-        <v>5260</v>
+        <v>5254</v>
       </c>
       <c r="J92" t="n">
         <v>128</v>
@@ -7721,7 +7721,7 @@
         <v>3578</v>
       </c>
       <c r="AB92" t="n">
-        <v>30823</v>
+        <v>30817</v>
       </c>
     </row>
     <row r="93">
@@ -7748,7 +7748,7 @@
         <v>1156</v>
       </c>
       <c r="I93" t="n">
-        <v>5263</v>
+        <v>5257</v>
       </c>
       <c r="J93" t="n">
         <v>128</v>
@@ -7805,7 +7805,7 @@
         <v>3584</v>
       </c>
       <c r="AB93" t="n">
-        <v>30845</v>
+        <v>30839</v>
       </c>
     </row>
     <row r="94">
@@ -7836,7 +7836,7 @@
         <v>1157</v>
       </c>
       <c r="I94" t="n">
-        <v>5266</v>
+        <v>5260</v>
       </c>
       <c r="J94" t="n">
         <v>128</v>
@@ -7893,7 +7893,7 @@
         <v>3587</v>
       </c>
       <c r="AB94" t="n">
-        <v>30859</v>
+        <v>30853</v>
       </c>
     </row>
     <row r="95">
@@ -7922,7 +7922,7 @@
         <v>1158</v>
       </c>
       <c r="I95" t="n">
-        <v>5268</v>
+        <v>5262</v>
       </c>
       <c r="J95" t="n">
         <v>128</v>
@@ -7979,7 +7979,7 @@
         <v>3592</v>
       </c>
       <c r="AB95" t="n">
-        <v>30878</v>
+        <v>30872</v>
       </c>
     </row>
     <row r="96">
@@ -8010,7 +8010,7 @@
         <v>1159</v>
       </c>
       <c r="I96" t="n">
-        <v>5272</v>
+        <v>5266</v>
       </c>
       <c r="J96" t="n">
         <v>128</v>
@@ -8067,7 +8067,7 @@
         <v>3598</v>
       </c>
       <c r="AB96" t="n">
-        <v>30908</v>
+        <v>30902</v>
       </c>
     </row>
     <row r="97">
@@ -8092,7 +8092,7 @@
         <v>1159</v>
       </c>
       <c r="I97" t="n">
-        <v>5277</v>
+        <v>5271</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
@@ -8139,7 +8139,7 @@
         <v>3604</v>
       </c>
       <c r="AB97" t="n">
-        <v>30949</v>
+        <v>30943</v>
       </c>
     </row>
     <row r="98">
@@ -8164,7 +8164,7 @@
         <v>1159</v>
       </c>
       <c r="I98" t="n">
-        <v>5277</v>
+        <v>5271</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -8211,7 +8211,7 @@
         <v>3604</v>
       </c>
       <c r="AB98" t="n">
-        <v>30956</v>
+        <v>30950</v>
       </c>
     </row>
     <row r="99">
@@ -8238,7 +8238,7 @@
         <v>1159</v>
       </c>
       <c r="I99" t="n">
-        <v>5278</v>
+        <v>5272</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
@@ -8285,7 +8285,7 @@
         <v>3604</v>
       </c>
       <c r="AB99" t="n">
-        <v>30962</v>
+        <v>30956</v>
       </c>
     </row>
     <row r="100">
@@ -8314,7 +8314,7 @@
         <v>1161</v>
       </c>
       <c r="I100" t="n">
-        <v>5281</v>
+        <v>5275</v>
       </c>
       <c r="J100" t="n">
         <v>128</v>
@@ -8369,7 +8369,7 @@
         <v>3606</v>
       </c>
       <c r="AB100" t="n">
-        <v>30979</v>
+        <v>30973</v>
       </c>
     </row>
     <row r="101">
@@ -8400,7 +8400,7 @@
         <v>1162</v>
       </c>
       <c r="I101" t="n">
-        <v>5283</v>
+        <v>5277</v>
       </c>
       <c r="J101" t="n">
         <v>128</v>
@@ -8455,7 +8455,7 @@
         <v>3609</v>
       </c>
       <c r="AB101" t="n">
-        <v>30998</v>
+        <v>30992</v>
       </c>
     </row>
     <row r="102">
@@ -8484,7 +8484,7 @@
         <v>1164</v>
       </c>
       <c r="I102" t="n">
-        <v>5284</v>
+        <v>5278</v>
       </c>
       <c r="J102" t="n">
         <v>128</v>
@@ -8537,7 +8537,7 @@
         <v>3617</v>
       </c>
       <c r="AB102" t="n">
-        <v>31021</v>
+        <v>31015</v>
       </c>
     </row>
     <row r="103">
@@ -8566,7 +8566,7 @@
         <v>1166</v>
       </c>
       <c r="I103" t="n">
-        <v>5285</v>
+        <v>5279</v>
       </c>
       <c r="J103" t="n">
         <v>128</v>
@@ -8619,7 +8619,7 @@
         <v>3623</v>
       </c>
       <c r="AB103" t="n">
-        <v>31042</v>
+        <v>31036</v>
       </c>
     </row>
     <row r="104">
@@ -8644,7 +8644,7 @@
         <v>1166</v>
       </c>
       <c r="I104" t="n">
-        <v>5288</v>
+        <v>5282</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -8687,7 +8687,7 @@
         <v>3627</v>
       </c>
       <c r="AB104" t="n">
-        <v>31054</v>
+        <v>31048</v>
       </c>
     </row>
     <row r="105">
@@ -8712,7 +8712,7 @@
         <v>1168</v>
       </c>
       <c r="I105" t="n">
-        <v>5288</v>
+        <v>5282</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
@@ -8757,7 +8757,7 @@
         <v>3627</v>
       </c>
       <c r="AB105" t="n">
-        <v>31062</v>
+        <v>31056</v>
       </c>
     </row>
     <row r="106">
@@ -8786,7 +8786,7 @@
         <v>1172</v>
       </c>
       <c r="I106" t="n">
-        <v>5289</v>
+        <v>5283</v>
       </c>
       <c r="J106" t="n">
         <v>128</v>
@@ -8839,7 +8839,7 @@
         <v>3627</v>
       </c>
       <c r="AB106" t="n">
-        <v>31080</v>
+        <v>31074</v>
       </c>
     </row>
     <row r="107">
@@ -8868,7 +8868,7 @@
         <v>1172</v>
       </c>
       <c r="I107" t="n">
-        <v>5289</v>
+        <v>5283</v>
       </c>
       <c r="J107" t="n">
         <v>128</v>
@@ -8921,7 +8921,7 @@
         <v>3627</v>
       </c>
       <c r="AB107" t="n">
-        <v>31090</v>
+        <v>31084</v>
       </c>
     </row>
     <row r="108">
@@ -8950,7 +8950,7 @@
         <v>1174</v>
       </c>
       <c r="I108" t="n">
-        <v>5291</v>
+        <v>5285</v>
       </c>
       <c r="J108" t="n">
         <v>128</v>
@@ -9003,7 +9003,7 @@
         <v>3630</v>
       </c>
       <c r="AB108" t="n">
-        <v>31107</v>
+        <v>31101</v>
       </c>
     </row>
     <row r="109">
@@ -9030,7 +9030,7 @@
         <v>1175</v>
       </c>
       <c r="I109" t="n">
-        <v>5291</v>
+        <v>5285</v>
       </c>
       <c r="J109" t="n">
         <v>128</v>
@@ -9079,7 +9079,7 @@
         <v>3632</v>
       </c>
       <c r="AB109" t="n">
-        <v>31129</v>
+        <v>31123</v>
       </c>
     </row>
     <row r="110">
@@ -9110,7 +9110,7 @@
         <v>1175</v>
       </c>
       <c r="I110" t="n">
-        <v>5295</v>
+        <v>5289</v>
       </c>
       <c r="J110" t="n">
         <v>128</v>
@@ -9157,7 +9157,7 @@
         <v>3634</v>
       </c>
       <c r="AB110" t="n">
-        <v>31157</v>
+        <v>31151</v>
       </c>
     </row>
     <row r="111">
@@ -9182,7 +9182,7 @@
         <v>1179</v>
       </c>
       <c r="I111" t="n">
-        <v>5295</v>
+        <v>5289</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
@@ -9225,7 +9225,7 @@
         <v>3637</v>
       </c>
       <c r="AB111" t="n">
-        <v>31167</v>
+        <v>31161</v>
       </c>
     </row>
     <row r="112">
@@ -9250,7 +9250,7 @@
         <v>1181</v>
       </c>
       <c r="I112" t="n">
-        <v>5295</v>
+        <v>5289</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
@@ -9297,7 +9297,7 @@
         <v>3642</v>
       </c>
       <c r="AB112" t="n">
-        <v>31183</v>
+        <v>31177</v>
       </c>
     </row>
     <row r="113">
@@ -9324,7 +9324,7 @@
         <v>1181</v>
       </c>
       <c r="I113" t="n">
-        <v>5297</v>
+        <v>5291</v>
       </c>
       <c r="J113" t="n">
         <v>128</v>
@@ -9375,7 +9375,7 @@
         <v>3649</v>
       </c>
       <c r="AB113" t="n">
-        <v>31206</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="114">
@@ -9402,7 +9402,7 @@
         <v>1182</v>
       </c>
       <c r="I114" t="n">
-        <v>5297</v>
+        <v>5291</v>
       </c>
       <c r="J114" t="n">
         <v>128</v>
@@ -9455,7 +9455,7 @@
         <v>3656</v>
       </c>
       <c r="AB114" t="n">
-        <v>31233</v>
+        <v>31227</v>
       </c>
     </row>
     <row r="115">
@@ -9482,7 +9482,7 @@
         <v>1183</v>
       </c>
       <c r="I115" t="n">
-        <v>5298</v>
+        <v>5292</v>
       </c>
       <c r="J115" t="n">
         <v>128</v>
@@ -9537,7 +9537,7 @@
         <v>3666</v>
       </c>
       <c r="AB115" t="n">
-        <v>31268</v>
+        <v>31262</v>
       </c>
     </row>
     <row r="116">
@@ -9562,7 +9562,7 @@
         <v>1185</v>
       </c>
       <c r="I116" t="n">
-        <v>5298</v>
+        <v>5292</v>
       </c>
       <c r="J116" t="n">
         <v>128</v>
@@ -9615,7 +9615,7 @@
         <v>3671</v>
       </c>
       <c r="AB116" t="n">
-        <v>31282</v>
+        <v>31276</v>
       </c>
     </row>
     <row r="117">
@@ -9644,7 +9644,7 @@
         <v>1186</v>
       </c>
       <c r="I117" t="n">
-        <v>5302</v>
+        <v>5296</v>
       </c>
       <c r="J117" t="n">
         <v>128</v>
@@ -9697,7 +9697,7 @@
         <v>3672</v>
       </c>
       <c r="AB117" t="n">
-        <v>31311</v>
+        <v>31305</v>
       </c>
     </row>
     <row r="118">
@@ -9720,7 +9720,7 @@
         <v>1191</v>
       </c>
       <c r="I118" t="n">
-        <v>5306</v>
+        <v>5300</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
@@ -9765,7 +9765,7 @@
         <v>3679</v>
       </c>
       <c r="AB118" t="n">
-        <v>31336</v>
+        <v>31330</v>
       </c>
     </row>
     <row r="119">
@@ -9788,7 +9788,7 @@
         <v>1191</v>
       </c>
       <c r="I119" t="n">
-        <v>5306</v>
+        <v>5300</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
@@ -9833,7 +9833,7 @@
         <v>3684</v>
       </c>
       <c r="AB119" t="n">
-        <v>31351</v>
+        <v>31345</v>
       </c>
     </row>
     <row r="120">
@@ -9860,7 +9860,7 @@
         <v>1191</v>
       </c>
       <c r="I120" t="n">
-        <v>5307</v>
+        <v>5301</v>
       </c>
       <c r="J120" t="n">
         <v>128</v>
@@ -9915,7 +9915,7 @@
         <v>3687</v>
       </c>
       <c r="AB120" t="n">
-        <v>31386</v>
+        <v>31380</v>
       </c>
     </row>
     <row r="121">
@@ -9942,7 +9942,7 @@
         <v>1195</v>
       </c>
       <c r="I121" t="n">
-        <v>5311</v>
+        <v>5305</v>
       </c>
       <c r="J121" t="n">
         <v>128</v>
@@ -9997,7 +9997,7 @@
         <v>3691</v>
       </c>
       <c r="AB121" t="n">
-        <v>31416</v>
+        <v>31410</v>
       </c>
     </row>
     <row r="122">
@@ -10024,7 +10024,7 @@
         <v>1203</v>
       </c>
       <c r="I122" t="n">
-        <v>5313</v>
+        <v>5307</v>
       </c>
       <c r="J122" t="n">
         <v>129</v>
@@ -10079,7 +10079,7 @@
         <v>3707</v>
       </c>
       <c r="AB122" t="n">
-        <v>31481</v>
+        <v>31475</v>
       </c>
     </row>
     <row r="123">
@@ -10106,7 +10106,7 @@
         <v>1206</v>
       </c>
       <c r="I123" t="n">
-        <v>5315</v>
+        <v>5309</v>
       </c>
       <c r="J123" t="n">
         <v>129</v>
@@ -10161,7 +10161,7 @@
         <v>3714</v>
       </c>
       <c r="AB123" t="n">
-        <v>31520</v>
+        <v>31514</v>
       </c>
     </row>
     <row r="124">
@@ -10192,7 +10192,7 @@
         <v>1211</v>
       </c>
       <c r="I124" t="n">
-        <v>5318</v>
+        <v>5312</v>
       </c>
       <c r="J124" t="n">
         <v>129</v>
@@ -10249,7 +10249,7 @@
         <v>3733</v>
       </c>
       <c r="AB124" t="n">
-        <v>31593</v>
+        <v>31587</v>
       </c>
     </row>
     <row r="125">
@@ -10274,7 +10274,7 @@
         <v>1215</v>
       </c>
       <c r="I125" t="n">
-        <v>5318</v>
+        <v>5312</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
@@ -10319,7 +10319,7 @@
         <v>3745</v>
       </c>
       <c r="AB125" t="n">
-        <v>31628</v>
+        <v>31622</v>
       </c>
     </row>
     <row r="126">
@@ -10344,7 +10344,7 @@
         <v>1220</v>
       </c>
       <c r="I126" t="n">
-        <v>5319</v>
+        <v>5313</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -10389,7 +10389,7 @@
         <v>3756</v>
       </c>
       <c r="AB126" t="n">
-        <v>31663</v>
+        <v>31657</v>
       </c>
     </row>
     <row r="127">
@@ -10418,7 +10418,7 @@
         <v>1220</v>
       </c>
       <c r="I127" t="n">
-        <v>5325</v>
+        <v>5319</v>
       </c>
       <c r="J127" t="n">
         <v>129</v>
@@ -10475,7 +10475,7 @@
         <v>3765</v>
       </c>
       <c r="AB127" t="n">
-        <v>31749</v>
+        <v>31743</v>
       </c>
     </row>
     <row r="128">
@@ -10504,7 +10504,7 @@
         <v>1220</v>
       </c>
       <c r="I128" t="n">
-        <v>5329</v>
+        <v>5323</v>
       </c>
       <c r="J128" t="n">
         <v>129</v>
@@ -10561,7 +10561,7 @@
         <v>3793</v>
       </c>
       <c r="AB128" t="n">
-        <v>31851</v>
+        <v>31845</v>
       </c>
     </row>
     <row r="129">
@@ -10592,7 +10592,7 @@
         <v>1231</v>
       </c>
       <c r="I129" t="n">
-        <v>5330</v>
+        <v>5324</v>
       </c>
       <c r="J129" t="n">
         <v>129</v>
@@ -10649,7 +10649,7 @@
         <v>3841</v>
       </c>
       <c r="AB129" t="n">
-        <v>31983</v>
+        <v>31977</v>
       </c>
     </row>
     <row r="130">
@@ -10678,7 +10678,7 @@
         <v>1238</v>
       </c>
       <c r="I130" t="n">
-        <v>5335</v>
+        <v>5329</v>
       </c>
       <c r="J130" t="n">
         <v>129</v>
@@ -10735,7 +10735,7 @@
         <v>3897</v>
       </c>
       <c r="AB130" t="n">
-        <v>32127</v>
+        <v>32121</v>
       </c>
     </row>
     <row r="131">
@@ -10764,7 +10764,7 @@
         <v>1243</v>
       </c>
       <c r="I131" t="n">
-        <v>5337</v>
+        <v>5331</v>
       </c>
       <c r="J131" t="n">
         <v>129</v>
@@ -10819,7 +10819,7 @@
         <v>3920</v>
       </c>
       <c r="AB131" t="n">
-        <v>32229</v>
+        <v>32223</v>
       </c>
     </row>
     <row r="132">
@@ -10844,7 +10844,7 @@
         <v>1246</v>
       </c>
       <c r="I132" t="n">
-        <v>5340</v>
+        <v>5334</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
@@ -10887,7 +10887,7 @@
         <v>3933</v>
       </c>
       <c r="AB132" t="n">
-        <v>32271</v>
+        <v>32265</v>
       </c>
     </row>
     <row r="133">
@@ -10912,7 +10912,7 @@
         <v>1251</v>
       </c>
       <c r="I133" t="n">
-        <v>5342</v>
+        <v>5336</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
@@ -10961,7 +10961,7 @@
         <v>3941</v>
       </c>
       <c r="AB133" t="n">
-        <v>32324</v>
+        <v>32318</v>
       </c>
     </row>
     <row r="134">
@@ -10992,7 +10992,7 @@
         <v>1253</v>
       </c>
       <c r="I134" t="n">
-        <v>5348</v>
+        <v>5342</v>
       </c>
       <c r="J134" t="n">
         <v>129</v>
@@ -11047,7 +11047,7 @@
         <v>3960</v>
       </c>
       <c r="AB134" t="n">
-        <v>32412</v>
+        <v>32406</v>
       </c>
     </row>
     <row r="135">
@@ -11076,7 +11076,7 @@
         <v>1255</v>
       </c>
       <c r="I135" t="n">
-        <v>5352</v>
+        <v>5346</v>
       </c>
       <c r="J135" t="n">
         <v>130</v>
@@ -11133,7 +11133,7 @@
         <v>3986</v>
       </c>
       <c r="AB135" t="n">
-        <v>32504</v>
+        <v>32498</v>
       </c>
     </row>
     <row r="136">
@@ -11162,7 +11162,7 @@
         <v>1258</v>
       </c>
       <c r="I136" t="n">
-        <v>5356</v>
+        <v>5350</v>
       </c>
       <c r="J136" t="n">
         <v>130</v>
@@ -11217,7 +11217,7 @@
         <v>4009</v>
       </c>
       <c r="AB136" t="n">
-        <v>32605</v>
+        <v>32599</v>
       </c>
     </row>
     <row r="137">
@@ -11246,7 +11246,7 @@
         <v>1259</v>
       </c>
       <c r="I137" t="n">
-        <v>5364</v>
+        <v>5358</v>
       </c>
       <c r="J137" t="n">
         <v>131</v>
@@ -11303,7 +11303,7 @@
         <v>4028</v>
       </c>
       <c r="AB137" t="n">
-        <v>32697</v>
+        <v>32691</v>
       </c>
     </row>
     <row r="138">
@@ -11334,7 +11334,7 @@
         <v>1263</v>
       </c>
       <c r="I138" t="n">
-        <v>5372</v>
+        <v>5366</v>
       </c>
       <c r="J138" t="n">
         <v>131</v>
@@ -11387,7 +11387,7 @@
         <v>4048</v>
       </c>
       <c r="AB138" t="n">
-        <v>32798</v>
+        <v>32792</v>
       </c>
     </row>
     <row r="139">
@@ -11412,7 +11412,7 @@
         <v>1266</v>
       </c>
       <c r="I139" t="n">
-        <v>5376</v>
+        <v>5370</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
@@ -11455,7 +11455,7 @@
         <v>4059</v>
       </c>
       <c r="AB139" t="n">
-        <v>32853</v>
+        <v>32847</v>
       </c>
     </row>
     <row r="140">
@@ -11480,7 +11480,7 @@
         <v>1271</v>
       </c>
       <c r="I140" t="n">
-        <v>5378</v>
+        <v>5372</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
@@ -11525,7 +11525,7 @@
         <v>4077</v>
       </c>
       <c r="AB140" t="n">
-        <v>32914</v>
+        <v>32908</v>
       </c>
     </row>
     <row r="141">
@@ -11556,7 +11556,7 @@
         <v>1274</v>
       </c>
       <c r="I141" t="n">
-        <v>5384</v>
+        <v>5378</v>
       </c>
       <c r="J141" t="n">
         <v>131</v>
@@ -11613,7 +11613,7 @@
         <v>4094</v>
       </c>
       <c r="AB141" t="n">
-        <v>33022</v>
+        <v>33016</v>
       </c>
     </row>
     <row r="142">
@@ -11644,7 +11644,7 @@
         <v>1274</v>
       </c>
       <c r="I142" t="n">
-        <v>5395</v>
+        <v>5389</v>
       </c>
       <c r="J142" t="n">
         <v>131</v>
@@ -11699,7 +11699,7 @@
         <v>4121</v>
       </c>
       <c r="AB142" t="n">
-        <v>33141</v>
+        <v>33135</v>
       </c>
     </row>
     <row r="143">
@@ -11728,7 +11728,7 @@
         <v>1278</v>
       </c>
       <c r="I143" t="n">
-        <v>5414</v>
+        <v>5408</v>
       </c>
       <c r="J143" t="n">
         <v>133</v>
@@ -11785,7 +11785,7 @@
         <v>4153</v>
       </c>
       <c r="AB143" t="n">
-        <v>33281</v>
+        <v>33275</v>
       </c>
     </row>
     <row r="144">
@@ -11814,7 +11814,7 @@
         <v>1282</v>
       </c>
       <c r="I144" t="n">
-        <v>5428</v>
+        <v>5422</v>
       </c>
       <c r="J144" t="n">
         <v>135</v>
@@ -11871,7 +11871,7 @@
         <v>4168</v>
       </c>
       <c r="AB144" t="n">
-        <v>33383</v>
+        <v>33377</v>
       </c>
     </row>
     <row r="145">
@@ -11902,7 +11902,7 @@
         <v>1284</v>
       </c>
       <c r="I145" t="n">
-        <v>5441</v>
+        <v>5435</v>
       </c>
       <c r="J145" t="n">
         <v>136</v>
@@ -11955,7 +11955,7 @@
         <v>4197</v>
       </c>
       <c r="AB145" t="n">
-        <v>33501</v>
+        <v>33495</v>
       </c>
     </row>
     <row r="146">
@@ -11980,7 +11980,7 @@
         <v>1292</v>
       </c>
       <c r="I146" t="n">
-        <v>5454</v>
+        <v>5448</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
@@ -12021,7 +12021,7 @@
         <v>4212</v>
       </c>
       <c r="AB146" t="n">
-        <v>33561</v>
+        <v>33555</v>
       </c>
     </row>
     <row r="147">
@@ -12046,7 +12046,7 @@
         <v>1297</v>
       </c>
       <c r="I147" t="n">
-        <v>5458</v>
+        <v>5452</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
@@ -12089,7 +12089,7 @@
         <v>4225</v>
       </c>
       <c r="AB147" t="n">
-        <v>33609</v>
+        <v>33603</v>
       </c>
     </row>
     <row r="148">
@@ -12120,7 +12120,7 @@
         <v>1304</v>
       </c>
       <c r="I148" t="n">
-        <v>5475</v>
+        <v>5469</v>
       </c>
       <c r="J148" t="n">
         <v>136</v>
@@ -12177,7 +12177,7 @@
         <v>4240</v>
       </c>
       <c r="AB148" t="n">
-        <v>33728</v>
+        <v>33722</v>
       </c>
     </row>
     <row r="149">
@@ -12208,7 +12208,7 @@
         <v>1305</v>
       </c>
       <c r="I149" t="n">
-        <v>5505</v>
+        <v>5499</v>
       </c>
       <c r="J149" t="n">
         <v>137</v>
@@ -12263,7 +12263,7 @@
         <v>4278</v>
       </c>
       <c r="AB149" t="n">
-        <v>33868</v>
+        <v>33862</v>
       </c>
     </row>
     <row r="150">
@@ -12292,7 +12292,7 @@
         <v>1311</v>
       </c>
       <c r="I150" t="n">
-        <v>5533</v>
+        <v>5527</v>
       </c>
       <c r="J150" t="n">
         <v>138</v>
@@ -12347,7 +12347,7 @@
         <v>4305</v>
       </c>
       <c r="AB150" t="n">
-        <v>33992</v>
+        <v>33986</v>
       </c>
     </row>
     <row r="151">
@@ -12376,7 +12376,7 @@
         <v>1312</v>
       </c>
       <c r="I151" t="n">
-        <v>5578</v>
+        <v>5572</v>
       </c>
       <c r="J151" t="n">
         <v>138</v>
@@ -12433,7 +12433,7 @@
         <v>4329</v>
       </c>
       <c r="AB151" t="n">
-        <v>34151</v>
+        <v>34145</v>
       </c>
     </row>
     <row r="152">
@@ -12464,7 +12464,7 @@
         <v>1315</v>
       </c>
       <c r="I152" t="n">
-        <v>5619</v>
+        <v>5613</v>
       </c>
       <c r="J152" t="n">
         <v>138</v>
@@ -12521,7 +12521,7 @@
         <v>4352</v>
       </c>
       <c r="AB152" t="n">
-        <v>34290</v>
+        <v>34284</v>
       </c>
     </row>
     <row r="153">
@@ -12544,7 +12544,7 @@
         <v>1319</v>
       </c>
       <c r="I153" t="n">
-        <v>5660</v>
+        <v>5654</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
@@ -12585,7 +12585,7 @@
         <v>4366</v>
       </c>
       <c r="AB153" t="n">
-        <v>34378</v>
+        <v>34372</v>
       </c>
     </row>
     <row r="154">
@@ -12610,7 +12610,7 @@
         <v>1320</v>
       </c>
       <c r="I154" t="n">
-        <v>5671</v>
+        <v>5665</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
@@ -12653,7 +12653,7 @@
         <v>4372</v>
       </c>
       <c r="AB154" t="n">
-        <v>34425</v>
+        <v>34419</v>
       </c>
     </row>
     <row r="155">
@@ -12684,7 +12684,7 @@
         <v>1321</v>
       </c>
       <c r="I155" t="n">
-        <v>5732</v>
+        <v>5726</v>
       </c>
       <c r="J155" t="n">
         <v>138</v>
@@ -12739,7 +12739,7 @@
         <v>4392</v>
       </c>
       <c r="AB155" t="n">
-        <v>34586</v>
+        <v>34580</v>
       </c>
     </row>
     <row r="156">
@@ -12768,7 +12768,7 @@
         <v>1325</v>
       </c>
       <c r="I156" t="n">
-        <v>5776</v>
+        <v>5770</v>
       </c>
       <c r="J156" t="n">
         <v>138</v>
@@ -12825,7 +12825,7 @@
         <v>4417</v>
       </c>
       <c r="AB156" t="n">
-        <v>34751</v>
+        <v>34745</v>
       </c>
     </row>
     <row r="157">
@@ -12856,7 +12856,7 @@
         <v>1332</v>
       </c>
       <c r="I157" t="n">
-        <v>5837</v>
+        <v>5831</v>
       </c>
       <c r="J157" t="n">
         <v>138</v>
@@ -12913,7 +12913,7 @@
         <v>4462</v>
       </c>
       <c r="AB157" t="n">
-        <v>34979</v>
+        <v>34973</v>
       </c>
     </row>
     <row r="158">
@@ -12944,7 +12944,7 @@
         <v>1342</v>
       </c>
       <c r="I158" t="n">
-        <v>5891</v>
+        <v>5885</v>
       </c>
       <c r="J158" t="n">
         <v>139</v>
@@ -13001,7 +13001,7 @@
         <v>4492</v>
       </c>
       <c r="AB158" t="n">
-        <v>35195</v>
+        <v>35189</v>
       </c>
     </row>
     <row r="159">
@@ -13032,7 +13032,7 @@
         <v>1350</v>
       </c>
       <c r="I159" t="n">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="J159" t="n">
         <v>141</v>
@@ -13089,7 +13089,7 @@
         <v>4523</v>
       </c>
       <c r="AB159" t="n">
-        <v>35353</v>
+        <v>35347</v>
       </c>
     </row>
     <row r="160">
@@ -13116,7 +13116,7 @@
         <v>1353</v>
       </c>
       <c r="I160" t="n">
-        <v>5952</v>
+        <v>5946</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
@@ -13159,7 +13159,7 @@
         <v>4546</v>
       </c>
       <c r="AB160" t="n">
-        <v>35496</v>
+        <v>35490</v>
       </c>
     </row>
     <row r="161">
@@ -13186,7 +13186,7 @@
         <v>1358</v>
       </c>
       <c r="I161" t="n">
-        <v>5974</v>
+        <v>5968</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
@@ -13227,7 +13227,7 @@
         <v>4557</v>
       </c>
       <c r="AB161" t="n">
-        <v>35576</v>
+        <v>35570</v>
       </c>
     </row>
     <row r="162">
@@ -13258,7 +13258,7 @@
         <v>1360</v>
       </c>
       <c r="I162" t="n">
-        <v>6009</v>
+        <v>6003</v>
       </c>
       <c r="J162" t="n">
         <v>141</v>
@@ -13315,7 +13315,7 @@
         <v>4569</v>
       </c>
       <c r="AB162" t="n">
-        <v>35702</v>
+        <v>35696</v>
       </c>
     </row>
     <row r="163">
@@ -13344,7 +13344,7 @@
         <v>1360</v>
       </c>
       <c r="I163" t="n">
-        <v>6041</v>
+        <v>6035</v>
       </c>
       <c r="J163" t="n">
         <v>142</v>
@@ -13401,7 +13401,7 @@
         <v>4587</v>
       </c>
       <c r="AB163" t="n">
-        <v>35834</v>
+        <v>35828</v>
       </c>
     </row>
     <row r="164">
@@ -13432,7 +13432,7 @@
         <v>1368</v>
       </c>
       <c r="I164" t="n">
-        <v>6072</v>
+        <v>6066</v>
       </c>
       <c r="J164" t="n">
         <v>144</v>
@@ -13489,7 +13489,7 @@
         <v>4638</v>
       </c>
       <c r="AB164" t="n">
-        <v>36036</v>
+        <v>36030</v>
       </c>
     </row>
     <row r="165">
@@ -13518,7 +13518,7 @@
         <v>1373</v>
       </c>
       <c r="I165" t="n">
-        <v>6107</v>
+        <v>6101</v>
       </c>
       <c r="J165" t="n">
         <v>145</v>
@@ -13575,7 +13575,7 @@
         <v>4673</v>
       </c>
       <c r="AB165" t="n">
-        <v>36201</v>
+        <v>36195</v>
       </c>
     </row>
     <row r="166">
@@ -13606,7 +13606,7 @@
         <v>1377</v>
       </c>
       <c r="I166" t="n">
-        <v>6152</v>
+        <v>6146</v>
       </c>
       <c r="J166" t="n">
         <v>145</v>
@@ -13663,7 +13663,7 @@
         <v>4705</v>
       </c>
       <c r="AB166" t="n">
-        <v>36368</v>
+        <v>36362</v>
       </c>
     </row>
     <row r="167">
@@ -13690,7 +13690,7 @@
         <v>1378</v>
       </c>
       <c r="I167" t="n">
-        <v>6178</v>
+        <v>6172</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
@@ -13733,7 +13733,7 @@
         <v>4746</v>
       </c>
       <c r="AB167" t="n">
-        <v>36489</v>
+        <v>36483</v>
       </c>
     </row>
     <row r="168">
@@ -13760,7 +13760,7 @@
         <v>1384</v>
       </c>
       <c r="I168" t="n">
-        <v>6211</v>
+        <v>6205</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
@@ -13803,7 +13803,7 @@
         <v>4762</v>
       </c>
       <c r="AB168" t="n">
-        <v>36579</v>
+        <v>36573</v>
       </c>
     </row>
     <row r="169">
@@ -13834,7 +13834,7 @@
         <v>1389</v>
       </c>
       <c r="I169" t="n">
-        <v>6247</v>
+        <v>6241</v>
       </c>
       <c r="J169" t="n">
         <v>146</v>
@@ -13891,7 +13891,7 @@
         <v>4801</v>
       </c>
       <c r="AB169" t="n">
-        <v>36773</v>
+        <v>36767</v>
       </c>
     </row>
     <row r="170">
@@ -13920,7 +13920,7 @@
         <v>1393</v>
       </c>
       <c r="I170" t="n">
-        <v>6303</v>
+        <v>6297</v>
       </c>
       <c r="J170" t="n">
         <v>147</v>
@@ -13977,7 +13977,7 @@
         <v>4865</v>
       </c>
       <c r="AB170" t="n">
-        <v>37037</v>
+        <v>37031</v>
       </c>
     </row>
     <row r="171">
@@ -14006,7 +14006,7 @@
         <v>1401</v>
       </c>
       <c r="I171" t="n">
-        <v>6335</v>
+        <v>6329</v>
       </c>
       <c r="J171" t="n">
         <v>149</v>
@@ -14063,7 +14063,7 @@
         <v>4917</v>
       </c>
       <c r="AB171" t="n">
-        <v>37266</v>
+        <v>37260</v>
       </c>
     </row>
     <row r="172">
@@ -14092,7 +14092,7 @@
         <v>1405</v>
       </c>
       <c r="I172" t="n">
-        <v>6378</v>
+        <v>6372</v>
       </c>
       <c r="J172" t="n">
         <v>150</v>
@@ -14149,7 +14149,7 @@
         <v>4973</v>
       </c>
       <c r="AB172" t="n">
-        <v>37541</v>
+        <v>37535</v>
       </c>
     </row>
     <row r="173">
@@ -14180,7 +14180,7 @@
         <v>1408</v>
       </c>
       <c r="I173" t="n">
-        <v>6408</v>
+        <v>6402</v>
       </c>
       <c r="J173" t="n">
         <v>150</v>
@@ -14237,7 +14237,7 @@
         <v>5033</v>
       </c>
       <c r="AB173" t="n">
-        <v>37776</v>
+        <v>37770</v>
       </c>
     </row>
     <row r="174">
@@ -14264,7 +14264,7 @@
         <v>1418</v>
       </c>
       <c r="I174" t="n">
-        <v>6435</v>
+        <v>6429</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
@@ -14305,7 +14305,7 @@
         <v>5094</v>
       </c>
       <c r="AB174" t="n">
-        <v>37983</v>
+        <v>37977</v>
       </c>
     </row>
     <row r="175">
@@ -14332,7 +14332,7 @@
         <v>1425</v>
       </c>
       <c r="I175" t="n">
-        <v>6454</v>
+        <v>6448</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
@@ -14375,7 +14375,7 @@
         <v>5123</v>
       </c>
       <c r="AB175" t="n">
-        <v>38113</v>
+        <v>38107</v>
       </c>
     </row>
     <row r="176">
@@ -14404,7 +14404,7 @@
         <v>1428</v>
       </c>
       <c r="I176" t="n">
-        <v>6495</v>
+        <v>6489</v>
       </c>
       <c r="J176" t="n">
         <v>151</v>
@@ -14461,7 +14461,7 @@
         <v>5167</v>
       </c>
       <c r="AB176" t="n">
-        <v>38338</v>
+        <v>38332</v>
       </c>
     </row>
     <row r="177">
@@ -14492,7 +14492,7 @@
         <v>1434</v>
       </c>
       <c r="I177" t="n">
-        <v>6534</v>
+        <v>6528</v>
       </c>
       <c r="J177" t="n">
         <v>153</v>
@@ -14549,7 +14549,7 @@
         <v>5234</v>
       </c>
       <c r="AB177" t="n">
-        <v>38606</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="178">
@@ -14580,7 +14580,7 @@
         <v>1451</v>
       </c>
       <c r="I178" t="n">
-        <v>6564</v>
+        <v>6558</v>
       </c>
       <c r="J178" t="n">
         <v>154</v>
@@ -14637,7 +14637,7 @@
         <v>5303</v>
       </c>
       <c r="AB178" t="n">
-        <v>38920</v>
+        <v>38914</v>
       </c>
     </row>
     <row r="179">
@@ -14664,7 +14664,7 @@
         <v>1464</v>
       </c>
       <c r="I179" t="n">
-        <v>6603</v>
+        <v>6597</v>
       </c>
       <c r="J179" t="n">
         <v>156</v>
@@ -14721,7 +14721,7 @@
         <v>5379</v>
       </c>
       <c r="AB179" t="n">
-        <v>39227</v>
+        <v>39221</v>
       </c>
     </row>
     <row r="180">
@@ -14752,7 +14752,7 @@
         <v>1487</v>
       </c>
       <c r="I180" t="n">
-        <v>6643</v>
+        <v>6637</v>
       </c>
       <c r="J180" t="n">
         <v>157</v>
@@ -14807,7 +14807,7 @@
         <v>5462</v>
       </c>
       <c r="AB180" t="n">
-        <v>39543</v>
+        <v>39537</v>
       </c>
     </row>
     <row r="181">
@@ -14834,7 +14834,7 @@
         <v>1516</v>
       </c>
       <c r="I181" t="n">
-        <v>6658</v>
+        <v>6652</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
@@ -14875,7 +14875,7 @@
         <v>5506</v>
       </c>
       <c r="AB181" t="n">
-        <v>39744</v>
+        <v>39738</v>
       </c>
     </row>
     <row r="182">
@@ -14902,7 +14902,7 @@
         <v>1550</v>
       </c>
       <c r="I182" t="n">
-        <v>6680</v>
+        <v>6674</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
@@ -14945,7 +14945,7 @@
         <v>5547</v>
       </c>
       <c r="AB182" t="n">
-        <v>39929</v>
+        <v>39923</v>
       </c>
     </row>
     <row r="183">
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6706</v>
+        <v>6700</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40167</v>
+        <v>40161</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6741</v>
+        <v>6735</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40442</v>
+        <v>40436</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6781</v>
+        <v>6774</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40788</v>
+        <v>40781</v>
       </c>
     </row>
     <row r="186">
@@ -15236,7 +15236,7 @@
         <v>1613</v>
       </c>
       <c r="I186" t="n">
-        <v>6829</v>
+        <v>6822</v>
       </c>
       <c r="J186" t="n">
         <v>163</v>
@@ -15291,7 +15291,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41054</v>
+        <v>41047</v>
       </c>
     </row>
     <row r="187">
@@ -15321,7 +15321,9 @@
       <c r="H187" t="n">
         <v>1634</v>
       </c>
-      <c r="I187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>6867</v>
+      </c>
       <c r="J187" t="n">
         <v>163</v>
       </c>
@@ -15371,7 +15373,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41284</v>
+        <v>41322</v>
       </c>
     </row>
     <row r="188">
@@ -15397,7 +15399,9 @@
       <c r="H188" t="n">
         <v>1654</v>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>6911</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>1000</v>
@@ -15431,7 +15435,7 @@
         <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41431</v>
+        <v>41513</v>
       </c>
     </row>
     <row r="189">
@@ -15457,7 +15461,9 @@
       <c r="H189" t="n">
         <v>1679</v>
       </c>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>6944</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>1001</v>
@@ -15491,7 +15497,7 @@
         <v>6046</v>
       </c>
       <c r="AB189" t="n">
-        <v>41558</v>
+        <v>41673</v>
       </c>
     </row>
     <row r="190">
@@ -15501,7 +15507,9 @@
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" t="n">
+        <v>25</v>
+      </c>
       <c r="D190" t="n">
         <v>133</v>
       </c>
@@ -15530,7 +15538,9 @@
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
+      <c r="P190" t="n">
+        <v>107</v>
+      </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
         <v>164</v>
@@ -15557,7 +15567,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>41644</v>
+        <v>41760</v>
       </c>
     </row>
   </sheetData>
@@ -30214,7 +30224,9 @@
       <c r="H187" t="n">
         <v>85</v>
       </c>
-      <c r="I187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>297</v>
+      </c>
       <c r="J187" t="n">
         <v>13</v>
       </c>
@@ -30288,7 +30300,9 @@
       <c r="H188" t="n">
         <v>85</v>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>297</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>50</v>
@@ -30346,7 +30360,9 @@
       <c r="H189" t="n">
         <v>85</v>
       </c>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>297</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>50</v>
@@ -30390,7 +30406,9 @@
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
       <c r="D190" t="n">
         <v>3</v>
       </c>
@@ -30419,7 +30437,9 @@
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
         <v>8</v>
@@ -44115,7 +44135,9 @@
       <c r="H188" t="n">
         <v>3</v>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>18</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>0</v>
@@ -44169,7 +44191,9 @@
       <c r="H189" t="n">
         <v>3</v>
       </c>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>18</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>0</v>
@@ -44229,7 +44253,9 @@
       <c r="H190" t="n">
         <v>5</v>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>12</v>
+      </c>
       <c r="J190" t="n">
         <v>0</v>
       </c>
@@ -44242,7 +44268,9 @@
       </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
+      <c r="P190" t="n">
+        <v>1</v>
+      </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
         <v>1</v>
@@ -44267,7 +44295,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -56540,7 +56568,9 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>0</v>
@@ -56592,7 +56622,9 @@
       <c r="H189" t="n">
         <v>1</v>
       </c>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>0</v>
@@ -56650,7 +56682,9 @@
       <c r="H190" t="n">
         <v>1</v>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15529,7 +15529,9 @@
       <c r="J190" t="n">
         <v>164</v>
       </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1001</v>
+      </c>
       <c r="L190" t="n">
         <v>268</v>
       </c>
@@ -30428,7 +30430,9 @@
       <c r="J190" t="n">
         <v>13</v>
       </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>50</v>
+      </c>
       <c r="L190" t="n">
         <v>7</v>
       </c>
@@ -44259,7 +44263,9 @@
       <c r="J190" t="n">
         <v>0</v>
       </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -56686,7 +56692,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
       <c r="L190" t="n">
         <v>0</v>
       </c>
@@ -66375,7 +66383,9 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB190"/>
+  <dimension ref="A1:AB191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15024,7 +15024,7 @@
         <v>6754</v>
       </c>
       <c r="Y183" t="n">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="Z183" t="n">
         <v>334</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40161</v>
+        <v>40162</v>
       </c>
     </row>
     <row r="184">
@@ -15110,7 +15110,7 @@
         <v>6819</v>
       </c>
       <c r="Y184" t="n">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="Z184" t="n">
         <v>338</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40436</v>
+        <v>40438</v>
       </c>
     </row>
     <row r="185">
@@ -15196,7 +15196,7 @@
         <v>6853</v>
       </c>
       <c r="Y185" t="n">
-        <v>2340</v>
+        <v>2345</v>
       </c>
       <c r="Z185" t="n">
         <v>340</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40781</v>
+        <v>40786</v>
       </c>
     </row>
     <row r="186">
@@ -15282,7 +15282,7 @@
       </c>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="n">
-        <v>2340</v>
+        <v>2353</v>
       </c>
       <c r="Z186" t="n">
         <v>341</v>
@@ -15291,7 +15291,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41047</v>
+        <v>41060</v>
       </c>
     </row>
     <row r="187">
@@ -15365,7 +15365,9 @@
         <v>137</v>
       </c>
       <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
+      <c r="Y187" t="n">
+        <v>2366</v>
+      </c>
       <c r="Z187" t="n">
         <v>344</v>
       </c>
@@ -15373,7 +15375,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41322</v>
+        <v>41348</v>
       </c>
     </row>
     <row r="188">
@@ -15429,13 +15431,17 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
+      <c r="Y188" t="n">
+        <v>2368</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>344</v>
+      </c>
       <c r="AA188" t="n">
         <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41513</v>
+        <v>41541</v>
       </c>
     </row>
     <row r="189">
@@ -15491,13 +15497,17 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
+      <c r="Y189" t="n">
+        <v>2369</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>344</v>
+      </c>
       <c r="AA189" t="n">
         <v>6046</v>
       </c>
       <c r="AB189" t="n">
-        <v>41673</v>
+        <v>41702</v>
       </c>
     </row>
     <row r="190">
@@ -15539,11 +15549,15 @@
         <v>1060</v>
       </c>
       <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
+      <c r="O190" t="n">
+        <v>133</v>
+      </c>
       <c r="P190" t="n">
         <v>107</v>
       </c>
-      <c r="Q190" t="inlineStr"/>
+      <c r="Q190" t="n">
+        <v>1262</v>
+      </c>
       <c r="R190" t="n">
         <v>164</v>
       </c>
@@ -15563,13 +15577,57 @@
         <v>137</v>
       </c>
       <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
-      <c r="Z190" t="inlineStr"/>
+      <c r="Y190" t="n">
+        <v>2369</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>344</v>
+      </c>
       <c r="AA190" t="n">
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>41760</v>
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>165</v>
+      </c>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="n">
+        <v>353</v>
+      </c>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="n">
+        <v>41801</v>
       </c>
     </row>
   </sheetData>
@@ -15583,7 +15641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB190"/>
+  <dimension ref="A1:AB191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30187,7 +30245,7 @@
       </c>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z186" t="n">
         <v>9</v>
@@ -30196,7 +30254,7 @@
         <v>141</v>
       </c>
       <c r="AB186" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="187">
@@ -30268,7 +30326,9 @@
         <v>7</v>
       </c>
       <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
+      <c r="Y187" t="n">
+        <v>155</v>
+      </c>
       <c r="Z187" t="n">
         <v>9</v>
       </c>
@@ -30276,7 +30336,7 @@
         <v>141</v>
       </c>
       <c r="AB187" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="188">
@@ -30330,13 +30390,17 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
+      <c r="Y188" t="n">
+        <v>155</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>9</v>
+      </c>
       <c r="AA188" t="n">
         <v>141</v>
       </c>
       <c r="AB188" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="189">
@@ -30392,13 +30456,17 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
+      <c r="Y189" t="n">
+        <v>155</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>9</v>
+      </c>
       <c r="AA189" t="n">
         <v>142</v>
       </c>
       <c r="AB189" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="190">
@@ -30440,11 +30508,15 @@
         <v>21</v>
       </c>
       <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
+      <c r="O190" t="n">
+        <v>3</v>
+      </c>
       <c r="P190" t="n">
         <v>0</v>
       </c>
-      <c r="Q190" t="inlineStr"/>
+      <c r="Q190" t="n">
+        <v>42</v>
+      </c>
       <c r="R190" t="n">
         <v>8</v>
       </c>
@@ -30464,13 +30536,57 @@
         <v>7</v>
       </c>
       <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
-      <c r="Z190" t="inlineStr"/>
+      <c r="Y190" t="n">
+        <v>155</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>9</v>
+      </c>
       <c r="AA190" t="n">
         <v>142</v>
       </c>
       <c r="AB190" t="n">
-        <v>2006</v>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>8</v>
+      </c>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="n">
+        <v>2007</v>
       </c>
     </row>
   </sheetData>
@@ -30484,7 +30600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB190"/>
+  <dimension ref="A1:AB191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44030,7 +44146,7 @@
       </c>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z186" t="n">
         <v>3</v>
@@ -44039,7 +44155,7 @@
         <v>18</v>
       </c>
       <c r="AB186" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="187">
@@ -44109,7 +44225,9 @@
         <v>0</v>
       </c>
       <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
+      <c r="Y187" t="n">
+        <v>3</v>
+      </c>
       <c r="Z187" t="n">
         <v>3</v>
       </c>
@@ -44117,7 +44235,7 @@
         <v>19</v>
       </c>
       <c r="AB187" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="188">
@@ -44167,13 +44285,17 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
+      <c r="Y188" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>3</v>
+      </c>
       <c r="AA188" t="n">
         <v>19</v>
       </c>
       <c r="AB188" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="189">
@@ -44225,13 +44347,17 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
+      <c r="Y189" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>3</v>
+      </c>
       <c r="AA189" t="n">
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="190">
@@ -44273,11 +44399,15 @@
         <v>10</v>
       </c>
       <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
       <c r="P190" t="n">
         <v>1</v>
       </c>
-      <c r="Q190" t="inlineStr"/>
+      <c r="Q190" t="n">
+        <v>5</v>
+      </c>
       <c r="R190" t="n">
         <v>1</v>
       </c>
@@ -44295,13 +44425,57 @@
         <v>0</v>
       </c>
       <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
-      <c r="Z190" t="inlineStr"/>
+      <c r="Y190" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>3</v>
+      </c>
       <c r="AA190" t="n">
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>108</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="n">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -44315,7 +44489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB190"/>
+  <dimension ref="A1:AB191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56481,12 +56655,12 @@
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187">
@@ -56548,11 +56722,13 @@
       </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
+      <c r="Y187" t="n">
+        <v>0</v>
+      </c>
       <c r="Z187" t="inlineStr"/>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188">
@@ -56602,11 +56778,13 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
+      <c r="Y188" t="n">
+        <v>0</v>
+      </c>
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
@@ -56658,11 +56836,13 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
+      <c r="Y189" t="n">
+        <v>0</v>
+      </c>
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
@@ -56702,9 +56882,13 @@
         <v>4</v>
       </c>
       <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
       <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
+      <c r="Q190" t="n">
+        <v>3</v>
+      </c>
       <c r="R190" t="n">
         <v>0</v>
       </c>
@@ -56718,11 +56902,51 @@
       </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
+      <c r="Y190" t="n">
+        <v>0</v>
+      </c>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -56736,7 +56960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB190"/>
+  <dimension ref="A1:AB191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66214,14 +66438,14 @@
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="inlineStr"/>
       <c r="Y186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="n">
         <v>5</v>
       </c>
       <c r="AB186" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
@@ -66265,13 +66489,15 @@
       </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
+      <c r="Y187" t="n">
+        <v>0</v>
+      </c>
       <c r="Z187" t="inlineStr"/>
       <c r="AA187" t="n">
         <v>6</v>
       </c>
       <c r="AB187" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -66309,13 +66535,15 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
+      <c r="Y188" t="n">
+        <v>0</v>
+      </c>
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="n">
         <v>5</v>
       </c>
       <c r="AB188" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
@@ -66355,13 +66583,15 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
+      <c r="Y189" t="n">
+        <v>0</v>
+      </c>
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="n">
         <v>5</v>
       </c>
       <c r="AB189" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
@@ -66391,7 +66621,9 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
+      <c r="Q190" t="n">
+        <v>2</v>
+      </c>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
@@ -66401,13 +66633,51 @@
       </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
+      <c r="Y190" t="n">
+        <v>0</v>
+      </c>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="n">
         <v>6</v>
       </c>
       <c r="AB190" t="n">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -66421,7 +66691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB190"/>
+  <dimension ref="A1:AB191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76542,7 +76812,9 @@
         <v>126</v>
       </c>
       <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
+      <c r="Y187" t="n">
+        <v>320</v>
+      </c>
       <c r="Z187" t="n">
         <v>301</v>
       </c>
@@ -76590,8 +76862,12 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
+      <c r="Y188" t="n">
+        <v>320</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>301</v>
+      </c>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
         <v>6755</v>
@@ -76636,8 +76912,12 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
+      <c r="Y189" t="n">
+        <v>320</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>301</v>
+      </c>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
         <v>6770</v>
@@ -76686,11 +76966,53 @@
         <v>126</v>
       </c>
       <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
-      <c r="Z190" t="inlineStr"/>
+      <c r="Y190" t="n">
+        <v>320</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>301</v>
+      </c>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
         <v>6790</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="n">
+        <v>311</v>
+      </c>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="n">
+        <v>6800</v>
       </c>
     </row>
   </sheetData>
@@ -76704,7 +77026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB190"/>
+  <dimension ref="A1:AB191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83892,6 +84214,42 @@
         <v>67515</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="n">
+        <v>67515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15337,7 +15337,7 @@
         <v>1045</v>
       </c>
       <c r="N187" t="n">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="O187" t="n">
         <v>133</v>
@@ -15375,7 +15375,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41348</v>
+        <v>41349</v>
       </c>
     </row>
     <row r="188">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="O188" t="n">
         <v>133</v>
@@ -15441,7 +15441,7 @@
         <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41541</v>
+        <v>41545</v>
       </c>
     </row>
     <row r="189">
@@ -15478,7 +15478,9 @@
         <v>268</v>
       </c>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>875</v>
+      </c>
       <c r="O189" t="n">
         <v>133</v>
       </c>
@@ -15507,7 +15509,7 @@
         <v>6046</v>
       </c>
       <c r="AB189" t="n">
-        <v>41702</v>
+        <v>41708</v>
       </c>
     </row>
     <row r="190">
@@ -15565,7 +15567,7 @@
         <v>701</v>
       </c>
       <c r="T190" t="n">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="U190" t="n">
         <v>579</v>
@@ -15587,7 +15589,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>41791</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="191">
@@ -15601,7 +15603,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>1219</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -15616,9 +15620,13 @@
         <v>165</v>
       </c>
       <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="n">
+        <v>491</v>
+      </c>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>3543</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -15627,7 +15635,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>41801</v>
+        <v>41812</v>
       </c>
     </row>
   </sheetData>
@@ -30299,7 +30307,9 @@
       <c r="M187" t="n">
         <v>21</v>
       </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>84</v>
+      </c>
       <c r="O187" t="n">
         <v>3</v>
       </c>
@@ -30373,7 +30383,9 @@
         <v>7</v>
       </c>
       <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>84</v>
+      </c>
       <c r="O188" t="n">
         <v>3</v>
       </c>
@@ -30560,7 +30572,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>54</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -30575,9 +30589,13 @@
         <v>8</v>
       </c>
       <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="n">
+        <v>25</v>
+      </c>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>350</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -44329,7 +44347,7 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O189" t="n">
         <v>0</v>
@@ -44357,7 +44375,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="190">
@@ -44398,7 +44416,9 @@
       <c r="M190" t="n">
         <v>10</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
       <c r="O190" t="n">
         <v>0</v>
       </c>
@@ -44435,7 +44455,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191">
@@ -44449,7 +44469,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>3</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -44466,7 +44488,9 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>1</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -44475,7 +44499,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -56818,7 +56842,7 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O189" t="n">
         <v>0</v>
@@ -56842,7 +56866,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190">
@@ -56881,7 +56905,9 @@
       <c r="M190" t="n">
         <v>4</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
       <c r="O190" t="n">
         <v>0</v>
       </c>
@@ -56908,7 +56934,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
@@ -56922,7 +56948,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -56939,14 +56967,16 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>0</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -66618,7 +66648,9 @@
       </c>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="n">
@@ -66670,7 +66702,9 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>0</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -76988,7 +77022,9 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>1126</v>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -77001,9 +77037,13 @@
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="n">
+        <v>436</v>
+      </c>
       <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
+      <c r="V191" t="n">
+        <v>928</v>
+      </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
@@ -77012,7 +77052,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>6800</v>
+        <v>6816</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15606,9 +15606,13 @@
       <c r="G191" t="n">
         <v>1219</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>1703</v>
+      </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>166</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
@@ -15635,7 +15639,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>41812</v>
+        <v>41831</v>
       </c>
     </row>
   </sheetData>
@@ -30575,9 +30579,13 @@
       <c r="G191" t="n">
         <v>54</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>85</v>
+      </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>13</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
@@ -44472,9 +44480,13 @@
       <c r="G191" t="n">
         <v>3</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
@@ -56951,7 +56963,9 @@
       <c r="G191" t="n">
         <v>0</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -56976,7 +56990,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -77025,7 +77039,9 @@
       <c r="G191" t="n">
         <v>1126</v>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>163</v>
+      </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -77052,7 +77068,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>6816</v>
+        <v>6817</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -12641,7 +12641,7 @@
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="n">
-        <v>5895</v>
+        <v>5896</v>
       </c>
       <c r="Y154" t="n">
         <v>2119</v>
@@ -12653,7 +12653,7 @@
         <v>4372</v>
       </c>
       <c r="AB154" t="n">
-        <v>34419</v>
+        <v>34420</v>
       </c>
     </row>
     <row r="155">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="n">
-        <v>5916</v>
+        <v>5918</v>
       </c>
       <c r="Y155" t="n">
         <v>2122</v>
@@ -12739,7 +12739,7 @@
         <v>4392</v>
       </c>
       <c r="AB155" t="n">
-        <v>34580</v>
+        <v>34582</v>
       </c>
     </row>
     <row r="156">
@@ -12813,7 +12813,7 @@
         <v>115</v>
       </c>
       <c r="X156" t="n">
-        <v>5943</v>
+        <v>5945</v>
       </c>
       <c r="Y156" t="n">
         <v>2127</v>
@@ -12825,7 +12825,7 @@
         <v>4417</v>
       </c>
       <c r="AB156" t="n">
-        <v>34745</v>
+        <v>34747</v>
       </c>
     </row>
     <row r="157">
@@ -12901,7 +12901,7 @@
         <v>116</v>
       </c>
       <c r="X157" t="n">
-        <v>5983</v>
+        <v>5985</v>
       </c>
       <c r="Y157" t="n">
         <v>2136</v>
@@ -12913,7 +12913,7 @@
         <v>4462</v>
       </c>
       <c r="AB157" t="n">
-        <v>34973</v>
+        <v>34975</v>
       </c>
     </row>
     <row r="158">
@@ -12989,7 +12989,7 @@
         <v>116</v>
       </c>
       <c r="X158" t="n">
-        <v>6005</v>
+        <v>6007</v>
       </c>
       <c r="Y158" t="n">
         <v>2145</v>
@@ -13001,7 +13001,7 @@
         <v>4492</v>
       </c>
       <c r="AB158" t="n">
-        <v>35189</v>
+        <v>35191</v>
       </c>
     </row>
     <row r="159">
@@ -13077,7 +13077,7 @@
         <v>116</v>
       </c>
       <c r="X159" t="n">
-        <v>6024</v>
+        <v>6026</v>
       </c>
       <c r="Y159" t="n">
         <v>2148</v>
@@ -13089,7 +13089,7 @@
         <v>4523</v>
       </c>
       <c r="AB159" t="n">
-        <v>35347</v>
+        <v>35349</v>
       </c>
     </row>
     <row r="160">
@@ -13147,7 +13147,7 @@
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="n">
-        <v>6049</v>
+        <v>6051</v>
       </c>
       <c r="Y160" t="n">
         <v>2151</v>
@@ -13159,7 +13159,7 @@
         <v>4546</v>
       </c>
       <c r="AB160" t="n">
-        <v>35490</v>
+        <v>35492</v>
       </c>
     </row>
     <row r="161">
@@ -13215,7 +13215,7 @@
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="n">
-        <v>6062</v>
+        <v>6064</v>
       </c>
       <c r="Y161" t="n">
         <v>2152</v>
@@ -13227,7 +13227,7 @@
         <v>4557</v>
       </c>
       <c r="AB161" t="n">
-        <v>35570</v>
+        <v>35572</v>
       </c>
     </row>
     <row r="162">
@@ -13303,7 +13303,7 @@
         <v>117</v>
       </c>
       <c r="X162" t="n">
-        <v>6081</v>
+        <v>6083</v>
       </c>
       <c r="Y162" t="n">
         <v>2155</v>
@@ -13315,7 +13315,7 @@
         <v>4569</v>
       </c>
       <c r="AB162" t="n">
-        <v>35696</v>
+        <v>35698</v>
       </c>
     </row>
     <row r="163">
@@ -13389,7 +13389,7 @@
         <v>117</v>
       </c>
       <c r="X163" t="n">
-        <v>6095</v>
+        <v>6097</v>
       </c>
       <c r="Y163" t="n">
         <v>2163</v>
@@ -13401,7 +13401,7 @@
         <v>4587</v>
       </c>
       <c r="AB163" t="n">
-        <v>35828</v>
+        <v>35830</v>
       </c>
     </row>
     <row r="164">
@@ -13477,7 +13477,7 @@
         <v>117</v>
       </c>
       <c r="X164" t="n">
-        <v>6114</v>
+        <v>6116</v>
       </c>
       <c r="Y164" t="n">
         <v>2167</v>
@@ -13489,7 +13489,7 @@
         <v>4638</v>
       </c>
       <c r="AB164" t="n">
-        <v>36030</v>
+        <v>36032</v>
       </c>
     </row>
     <row r="165">
@@ -13563,7 +13563,7 @@
         <v>117</v>
       </c>
       <c r="X165" t="n">
-        <v>6131</v>
+        <v>6133</v>
       </c>
       <c r="Y165" t="n">
         <v>2173</v>
@@ -13575,7 +13575,7 @@
         <v>4673</v>
       </c>
       <c r="AB165" t="n">
-        <v>36195</v>
+        <v>36197</v>
       </c>
     </row>
     <row r="166">
@@ -13651,7 +13651,7 @@
         <v>117</v>
       </c>
       <c r="X166" t="n">
-        <v>6153</v>
+        <v>6155</v>
       </c>
       <c r="Y166" t="n">
         <v>2180</v>
@@ -13663,7 +13663,7 @@
         <v>4705</v>
       </c>
       <c r="AB166" t="n">
-        <v>36362</v>
+        <v>36364</v>
       </c>
     </row>
     <row r="167">
@@ -13721,7 +13721,7 @@
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="n">
-        <v>6169</v>
+        <v>6171</v>
       </c>
       <c r="Y167" t="n">
         <v>2184</v>
@@ -13733,7 +13733,7 @@
         <v>4746</v>
       </c>
       <c r="AB167" t="n">
-        <v>36483</v>
+        <v>36485</v>
       </c>
     </row>
     <row r="168">
@@ -13791,7 +13791,7 @@
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="n">
-        <v>6176</v>
+        <v>6178</v>
       </c>
       <c r="Y168" t="n">
         <v>2187</v>
@@ -13803,7 +13803,7 @@
         <v>4762</v>
       </c>
       <c r="AB168" t="n">
-        <v>36573</v>
+        <v>36575</v>
       </c>
     </row>
     <row r="169">
@@ -13879,7 +13879,7 @@
         <v>117</v>
       </c>
       <c r="X169" t="n">
-        <v>6201</v>
+        <v>6203</v>
       </c>
       <c r="Y169" t="n">
         <v>2199</v>
@@ -13891,7 +13891,7 @@
         <v>4801</v>
       </c>
       <c r="AB169" t="n">
-        <v>36767</v>
+        <v>36769</v>
       </c>
     </row>
     <row r="170">
@@ -13965,7 +13965,7 @@
         <v>119</v>
       </c>
       <c r="X170" t="n">
-        <v>6225</v>
+        <v>6227</v>
       </c>
       <c r="Y170" t="n">
         <v>2207</v>
@@ -13977,7 +13977,7 @@
         <v>4865</v>
       </c>
       <c r="AB170" t="n">
-        <v>37031</v>
+        <v>37033</v>
       </c>
     </row>
     <row r="171">
@@ -14051,7 +14051,7 @@
         <v>120</v>
       </c>
       <c r="X171" t="n">
-        <v>6248</v>
+        <v>6250</v>
       </c>
       <c r="Y171" t="n">
         <v>2215</v>
@@ -14063,7 +14063,7 @@
         <v>4917</v>
       </c>
       <c r="AB171" t="n">
-        <v>37260</v>
+        <v>37262</v>
       </c>
     </row>
     <row r="172">
@@ -14137,7 +14137,7 @@
         <v>121</v>
       </c>
       <c r="X172" t="n">
-        <v>6284</v>
+        <v>6286</v>
       </c>
       <c r="Y172" t="n">
         <v>2222</v>
@@ -14149,7 +14149,7 @@
         <v>4973</v>
       </c>
       <c r="AB172" t="n">
-        <v>37535</v>
+        <v>37537</v>
       </c>
     </row>
     <row r="173">
@@ -14225,7 +14225,7 @@
         <v>123</v>
       </c>
       <c r="X173" t="n">
-        <v>6308</v>
+        <v>6310</v>
       </c>
       <c r="Y173" t="n">
         <v>2230</v>
@@ -14237,7 +14237,7 @@
         <v>5033</v>
       </c>
       <c r="AB173" t="n">
-        <v>37770</v>
+        <v>37772</v>
       </c>
     </row>
     <row r="174">
@@ -14293,7 +14293,7 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
-        <v>6333</v>
+        <v>6335</v>
       </c>
       <c r="Y174" t="n">
         <v>2236</v>
@@ -14305,7 +14305,7 @@
         <v>5094</v>
       </c>
       <c r="AB174" t="n">
-        <v>37977</v>
+        <v>37979</v>
       </c>
     </row>
     <row r="175">
@@ -14363,7 +14363,7 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>6351</v>
+        <v>6353</v>
       </c>
       <c r="Y175" t="n">
         <v>2241</v>
@@ -14375,7 +14375,7 @@
         <v>5123</v>
       </c>
       <c r="AB175" t="n">
-        <v>38107</v>
+        <v>38109</v>
       </c>
     </row>
     <row r="176">
@@ -14449,7 +14449,7 @@
         <v>126</v>
       </c>
       <c r="X176" t="n">
-        <v>6385</v>
+        <v>6387</v>
       </c>
       <c r="Y176" t="n">
         <v>2251</v>
@@ -14461,7 +14461,7 @@
         <v>5167</v>
       </c>
       <c r="AB176" t="n">
-        <v>38332</v>
+        <v>38334</v>
       </c>
     </row>
     <row r="177">
@@ -14537,7 +14537,7 @@
         <v>127</v>
       </c>
       <c r="X177" t="n">
-        <v>6428</v>
+        <v>6430</v>
       </c>
       <c r="Y177" t="n">
         <v>2261</v>
@@ -14549,7 +14549,7 @@
         <v>5234</v>
       </c>
       <c r="AB177" t="n">
-        <v>38600</v>
+        <v>38602</v>
       </c>
     </row>
     <row r="178">
@@ -14625,7 +14625,7 @@
         <v>129</v>
       </c>
       <c r="X178" t="n">
-        <v>6475</v>
+        <v>6477</v>
       </c>
       <c r="Y178" t="n">
         <v>2265</v>
@@ -14637,7 +14637,7 @@
         <v>5303</v>
       </c>
       <c r="AB178" t="n">
-        <v>38914</v>
+        <v>38916</v>
       </c>
     </row>
     <row r="179">
@@ -14709,7 +14709,7 @@
         <v>129</v>
       </c>
       <c r="X179" t="n">
-        <v>6550</v>
+        <v>6552</v>
       </c>
       <c r="Y179" t="n">
         <v>2272</v>
@@ -14721,7 +14721,7 @@
         <v>5379</v>
       </c>
       <c r="AB179" t="n">
-        <v>39221</v>
+        <v>39223</v>
       </c>
     </row>
     <row r="180">
@@ -14795,7 +14795,7 @@
         <v>129</v>
       </c>
       <c r="X180" t="n">
-        <v>6613</v>
+        <v>6615</v>
       </c>
       <c r="Y180" t="n">
         <v>2290</v>
@@ -14807,7 +14807,7 @@
         <v>5462</v>
       </c>
       <c r="AB180" t="n">
-        <v>39537</v>
+        <v>39539</v>
       </c>
     </row>
     <row r="181">
@@ -14863,7 +14863,7 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>6657</v>
+        <v>6659</v>
       </c>
       <c r="Y181" t="n">
         <v>2301</v>
@@ -14875,7 +14875,7 @@
         <v>5506</v>
       </c>
       <c r="AB181" t="n">
-        <v>39738</v>
+        <v>39740</v>
       </c>
     </row>
     <row r="182">
@@ -14933,7 +14933,7 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>6687</v>
+        <v>6690</v>
       </c>
       <c r="Y182" t="n">
         <v>2304</v>
@@ -14945,7 +14945,7 @@
         <v>5547</v>
       </c>
       <c r="AB182" t="n">
-        <v>39923</v>
+        <v>39926</v>
       </c>
     </row>
     <row r="183">
@@ -15021,7 +15021,7 @@
         <v>132</v>
       </c>
       <c r="X183" t="n">
-        <v>6754</v>
+        <v>6758</v>
       </c>
       <c r="Y183" t="n">
         <v>2319</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40162</v>
+        <v>40166</v>
       </c>
     </row>
     <row r="184">
@@ -15107,7 +15107,7 @@
         <v>134</v>
       </c>
       <c r="X184" t="n">
-        <v>6819</v>
+        <v>6824</v>
       </c>
       <c r="Y184" t="n">
         <v>2333</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40438</v>
+        <v>40443</v>
       </c>
     </row>
     <row r="185">
@@ -15193,7 +15193,7 @@
         <v>136</v>
       </c>
       <c r="X185" t="n">
-        <v>6853</v>
+        <v>6888</v>
       </c>
       <c r="Y185" t="n">
         <v>2345</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40786</v>
+        <v>40821</v>
       </c>
     </row>
     <row r="186">
@@ -15280,7 +15280,9 @@
       <c r="W186" t="n">
         <v>136</v>
       </c>
-      <c r="X186" t="inlineStr"/>
+      <c r="X186" t="n">
+        <v>6962</v>
+      </c>
       <c r="Y186" t="n">
         <v>2353</v>
       </c>
@@ -15291,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41060</v>
+        <v>41169</v>
       </c>
     </row>
     <row r="187">
@@ -15364,7 +15366,9 @@
       <c r="W187" t="n">
         <v>137</v>
       </c>
-      <c r="X187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>7042</v>
+      </c>
       <c r="Y187" t="n">
         <v>2366</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41349</v>
+        <v>41538</v>
       </c>
     </row>
     <row r="188">
@@ -15430,7 +15434,9 @@
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
+      <c r="X188" t="n">
+        <v>7102</v>
+      </c>
       <c r="Y188" t="n">
         <v>2368</v>
       </c>
@@ -15441,7 +15447,7 @@
         <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41545</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="189">
@@ -15498,7 +15504,9 @@
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="n">
+        <v>7149</v>
+      </c>
       <c r="Y189" t="n">
         <v>2369</v>
       </c>
@@ -15509,7 +15517,7 @@
         <v>6046</v>
       </c>
       <c r="AB189" t="n">
-        <v>41708</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="190">
@@ -15578,7 +15586,9 @@
       <c r="W190" t="n">
         <v>137</v>
       </c>
-      <c r="X190" t="inlineStr"/>
+      <c r="X190" t="n">
+        <v>7180</v>
+      </c>
       <c r="Y190" t="n">
         <v>2369</v>
       </c>
@@ -15589,7 +15599,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>41795</v>
+        <v>42122</v>
       </c>
     </row>
     <row r="191">
@@ -15615,7 +15625,9 @@
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1064</v>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -15639,7 +15651,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>41831</v>
+        <v>42162</v>
       </c>
     </row>
   </sheetData>
@@ -29512,7 +29524,7 @@
         <v>7</v>
       </c>
       <c r="X177" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y177" t="n">
         <v>154</v>
@@ -29524,7 +29536,7 @@
         <v>139</v>
       </c>
       <c r="AB177" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="178">
@@ -29600,7 +29612,7 @@
         <v>7</v>
       </c>
       <c r="X178" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y178" t="n">
         <v>154</v>
@@ -29612,7 +29624,7 @@
         <v>139</v>
       </c>
       <c r="AB178" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="179">
@@ -29684,7 +29696,7 @@
         <v>7</v>
       </c>
       <c r="X179" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y179" t="n">
         <v>154</v>
@@ -29696,7 +29708,7 @@
         <v>139</v>
       </c>
       <c r="AB179" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="180">
@@ -29770,7 +29782,7 @@
         <v>7</v>
       </c>
       <c r="X180" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y180" t="n">
         <v>154</v>
@@ -29782,7 +29794,7 @@
         <v>140</v>
       </c>
       <c r="AB180" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="181">
@@ -29838,7 +29850,7 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y181" t="n">
         <v>154</v>
@@ -29850,7 +29862,7 @@
         <v>140</v>
       </c>
       <c r="AB181" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="182">
@@ -29908,7 +29920,7 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y182" t="n">
         <v>154</v>
@@ -29920,7 +29932,7 @@
         <v>140</v>
       </c>
       <c r="AB182" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="183">
@@ -29996,7 +30008,7 @@
         <v>7</v>
       </c>
       <c r="X183" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y183" t="n">
         <v>154</v>
@@ -30008,7 +30020,7 @@
         <v>141</v>
       </c>
       <c r="AB183" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="184">
@@ -30082,7 +30094,7 @@
         <v>7</v>
       </c>
       <c r="X184" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Y184" t="n">
         <v>154</v>
@@ -30094,7 +30106,7 @@
         <v>141</v>
       </c>
       <c r="AB184" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="185">
@@ -30168,7 +30180,7 @@
         <v>7</v>
       </c>
       <c r="X185" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Y185" t="n">
         <v>154</v>
@@ -30180,7 +30192,7 @@
         <v>141</v>
       </c>
       <c r="AB185" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="186">
@@ -30255,7 +30267,9 @@
       <c r="W186" t="n">
         <v>7</v>
       </c>
-      <c r="X186" t="inlineStr"/>
+      <c r="X186" t="n">
+        <v>432</v>
+      </c>
       <c r="Y186" t="n">
         <v>155</v>
       </c>
@@ -30266,7 +30280,7 @@
         <v>141</v>
       </c>
       <c r="AB186" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="187">
@@ -30339,7 +30353,9 @@
       <c r="W187" t="n">
         <v>7</v>
       </c>
-      <c r="X187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>432</v>
+      </c>
       <c r="Y187" t="n">
         <v>155</v>
       </c>
@@ -30350,7 +30366,7 @@
         <v>141</v>
       </c>
       <c r="AB187" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="188">
@@ -30405,7 +30421,9 @@
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
+      <c r="X188" t="n">
+        <v>432</v>
+      </c>
       <c r="Y188" t="n">
         <v>155</v>
       </c>
@@ -30416,7 +30434,7 @@
         <v>141</v>
       </c>
       <c r="AB188" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="189">
@@ -30471,7 +30489,9 @@
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="n">
+        <v>432</v>
+      </c>
       <c r="Y189" t="n">
         <v>155</v>
       </c>
@@ -30482,7 +30502,7 @@
         <v>142</v>
       </c>
       <c r="AB189" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="190">
@@ -30551,7 +30571,9 @@
       <c r="W190" t="n">
         <v>7</v>
       </c>
-      <c r="X190" t="inlineStr"/>
+      <c r="X190" t="n">
+        <v>432</v>
+      </c>
       <c r="Y190" t="n">
         <v>155</v>
       </c>
@@ -30562,7 +30584,7 @@
         <v>142</v>
       </c>
       <c r="AB190" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="191">
@@ -30588,7 +30610,9 @@
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>21</v>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -30612,7 +30636,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -44170,7 +44194,9 @@
       <c r="W186" t="n">
         <v>0</v>
       </c>
-      <c r="X186" t="inlineStr"/>
+      <c r="X186" t="n">
+        <v>16</v>
+      </c>
       <c r="Y186" t="n">
         <v>3</v>
       </c>
@@ -44181,7 +44207,7 @@
         <v>18</v>
       </c>
       <c r="AB186" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187">
@@ -44250,7 +44276,9 @@
       <c r="W187" t="n">
         <v>0</v>
       </c>
-      <c r="X187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>14</v>
+      </c>
       <c r="Y187" t="n">
         <v>3</v>
       </c>
@@ -44261,7 +44289,7 @@
         <v>19</v>
       </c>
       <c r="AB187" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188">
@@ -44310,7 +44338,9 @@
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
+      <c r="X188" t="n">
+        <v>16</v>
+      </c>
       <c r="Y188" t="n">
         <v>3</v>
       </c>
@@ -44321,7 +44351,7 @@
         <v>19</v>
       </c>
       <c r="AB188" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189">
@@ -44372,7 +44402,9 @@
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="n">
+        <v>16</v>
+      </c>
       <c r="Y189" t="n">
         <v>3</v>
       </c>
@@ -44383,7 +44415,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="190">
@@ -44452,7 +44484,9 @@
       <c r="W190" t="n">
         <v>0</v>
       </c>
-      <c r="X190" t="inlineStr"/>
+      <c r="X190" t="n">
+        <v>16</v>
+      </c>
       <c r="Y190" t="n">
         <v>3</v>
       </c>
@@ -44463,7 +44497,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191">
@@ -44489,7 +44523,9 @@
       </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>10</v>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -44511,7 +44547,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -56689,14 +56725,16 @@
         <v>0</v>
       </c>
       <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr"/>
+      <c r="X186" t="n">
+        <v>5</v>
+      </c>
       <c r="Y186" t="n">
         <v>0</v>
       </c>
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
@@ -56757,14 +56795,16 @@
         <v>0</v>
       </c>
       <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
+      <c r="X187" t="n">
+        <v>5</v>
+      </c>
       <c r="Y187" t="n">
         <v>0</v>
       </c>
       <c r="Z187" t="inlineStr"/>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
@@ -56813,14 +56853,16 @@
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
+      <c r="X188" t="n">
+        <v>5</v>
+      </c>
       <c r="Y188" t="n">
         <v>0</v>
       </c>
       <c r="Z188" t="inlineStr"/>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
@@ -56871,14 +56913,16 @@
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="n">
+        <v>5</v>
+      </c>
       <c r="Y189" t="n">
         <v>0</v>
       </c>
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190">
@@ -56939,14 +56983,16 @@
         <v>0</v>
       </c>
       <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr"/>
+      <c r="X190" t="n">
+        <v>5</v>
+      </c>
       <c r="Y190" t="n">
         <v>0</v>
       </c>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
@@ -56970,7 +57016,9 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>3</v>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
@@ -56990,7 +57038,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15572,7 +15572,7 @@
         <v>164</v>
       </c>
       <c r="S190" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="T190" t="n">
         <v>490</v>
@@ -15599,7 +15599,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42122</v>
+        <v>42123</v>
       </c>
     </row>
     <row r="191">
@@ -15609,7 +15609,9 @@
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>25</v>
+      </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
@@ -15635,7 +15637,9 @@
       <c r="R191" t="n">
         <v>165</v>
       </c>
-      <c r="S191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>702</v>
+      </c>
       <c r="T191" t="n">
         <v>491</v>
       </c>
@@ -15651,7 +15655,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>42162</v>
+        <v>42163</v>
       </c>
     </row>
   </sheetData>
@@ -30594,7 +30598,9 @@
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
@@ -30620,7 +30626,9 @@
       <c r="R191" t="n">
         <v>8</v>
       </c>
-      <c r="S191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>18</v>
+      </c>
       <c r="T191" t="n">
         <v>25</v>
       </c>
@@ -44533,7 +44541,9 @@
       <c r="R191" t="n">
         <v>0</v>
       </c>
-      <c r="S191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>0</v>
+      </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="n">
@@ -44547,7 +44557,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6700</v>
+        <v>6701</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40166</v>
+        <v>40167</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6735</v>
+        <v>6736</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40443</v>
+        <v>40444</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6774</v>
+        <v>6775</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40821</v>
+        <v>40822</v>
       </c>
     </row>
     <row r="186">
@@ -15236,7 +15236,7 @@
         <v>1613</v>
       </c>
       <c r="I186" t="n">
-        <v>6822</v>
+        <v>6823</v>
       </c>
       <c r="J186" t="n">
         <v>163</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41169</v>
+        <v>41170</v>
       </c>
     </row>
     <row r="187">
@@ -15526,7 +15526,9 @@
           <t>2020-08-31</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>2107</v>
+      </c>
       <c r="C190" t="n">
         <v>25</v>
       </c>
@@ -15545,7 +15547,9 @@
       <c r="H190" t="n">
         <v>1686</v>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>6979</v>
+      </c>
       <c r="J190" t="n">
         <v>164</v>
       </c>
@@ -15599,7 +15603,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42123</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="191">
@@ -15613,7 +15617,9 @@
         <v>25</v>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>2552</v>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
         <v>1219</v>
@@ -15655,7 +15661,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>42163</v>
+        <v>42220</v>
       </c>
     </row>
   </sheetData>
@@ -30515,7 +30521,9 @@
           <t>2020-08-31</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>52</v>
+      </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
@@ -30534,7 +30542,9 @@
       <c r="H190" t="n">
         <v>85</v>
       </c>
-      <c r="I190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>298</v>
+      </c>
       <c r="J190" t="n">
         <v>13</v>
       </c>
@@ -30588,7 +30598,7 @@
         <v>142</v>
       </c>
       <c r="AB190" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="191">
@@ -30602,7 +30612,9 @@
         <v>0</v>
       </c>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>99</v>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
         <v>54</v>
@@ -30644,7 +30656,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -44525,7 +44537,9 @@
       <c r="H191" t="n">
         <v>5</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>11</v>
+      </c>
       <c r="J191" t="n">
         <v>0</v>
       </c>
@@ -44557,7 +44571,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -57022,7 +57036,9 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15444,10 +15444,10 @@
         <v>344</v>
       </c>
       <c r="AA188" t="n">
-        <v>5994</v>
+        <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41794</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="189">
@@ -15514,10 +15514,10 @@
         <v>344</v>
       </c>
       <c r="AA189" t="n">
-        <v>6046</v>
+        <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42004</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="190">
@@ -15620,7 +15620,9 @@
       <c r="E191" t="n">
         <v>2552</v>
       </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>1046</v>
+      </c>
       <c r="G191" t="n">
         <v>1219</v>
       </c>
@@ -15649,7 +15651,9 @@
       <c r="T191" t="n">
         <v>491</v>
       </c>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>580</v>
+      </c>
       <c r="V191" t="n">
         <v>3543</v>
       </c>
@@ -15659,9 +15663,11 @@
       <c r="Z191" t="n">
         <v>353</v>
       </c>
-      <c r="AA191" t="inlineStr"/>
+      <c r="AA191" t="n">
+        <v>6134</v>
+      </c>
       <c r="AB191" t="n">
-        <v>42220</v>
+        <v>42294</v>
       </c>
     </row>
   </sheetData>
@@ -30615,7 +30621,9 @@
       <c r="E191" t="n">
         <v>99</v>
       </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>35</v>
+      </c>
       <c r="G191" t="n">
         <v>54</v>
       </c>
@@ -30644,7 +30652,9 @@
       <c r="T191" t="n">
         <v>25</v>
       </c>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>19</v>
+      </c>
       <c r="V191" t="n">
         <v>350</v>
       </c>
@@ -30654,7 +30664,9 @@
       <c r="Z191" t="n">
         <v>9</v>
       </c>
-      <c r="AA191" t="inlineStr"/>
+      <c r="AA191" t="n">
+        <v>142</v>
+      </c>
       <c r="AB191" t="n">
         <v>2011</v>
       </c>
@@ -44046,7 +44058,7 @@
       </c>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V184" t="n">
         <v>1</v>
@@ -44067,7 +44079,7 @@
         <v>16</v>
       </c>
       <c r="AB184" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185">
@@ -44126,7 +44138,7 @@
       </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V185" t="n">
         <v>1</v>
@@ -44147,7 +44159,7 @@
         <v>19</v>
       </c>
       <c r="AB185" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="186">
@@ -44206,7 +44218,7 @@
       </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V186" t="n">
         <v>1</v>
@@ -44227,7 +44239,7 @@
         <v>18</v>
       </c>
       <c r="AB186" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187">
@@ -44288,7 +44300,7 @@
       </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V187" t="n">
         <v>1</v>
@@ -44309,7 +44321,7 @@
         <v>19</v>
       </c>
       <c r="AB187" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188">
@@ -44530,7 +44542,9 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
       <c r="G191" t="n">
         <v>3</v>
       </c>
@@ -44551,7 +44565,9 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>5</v>
+      </c>
       <c r="R191" t="n">
         <v>0</v>
       </c>
@@ -44559,7 +44575,9 @@
         <v>0</v>
       </c>
       <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>2</v>
+      </c>
       <c r="V191" t="n">
         <v>1</v>
       </c>
@@ -44569,9 +44587,11 @@
       <c r="Z191" t="n">
         <v>4</v>
       </c>
-      <c r="AA191" t="inlineStr"/>
+      <c r="AA191" t="n">
+        <v>26</v>
+      </c>
       <c r="AB191" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -57029,7 +57049,9 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
       <c r="G191" t="n">
         <v>0</v>
       </c>
@@ -57048,13 +57070,17 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>3</v>
+      </c>
       <c r="R191" t="n">
         <v>0</v>
       </c>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>1</v>
+      </c>
       <c r="V191" t="n">
         <v>0</v>
       </c>
@@ -57064,7 +57090,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -66774,7 +66800,9 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -66785,7 +66813,9 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>2</v>
+      </c>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
@@ -66797,9 +66827,11 @@
       <c r="X191" t="inlineStr"/>
       <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="inlineStr"/>
-      <c r="AA191" t="inlineStr"/>
+      <c r="AA191" t="n">
+        <v>6</v>
+      </c>
       <c r="AB191" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -76763,7 +76795,7 @@
         <v>416</v>
       </c>
       <c r="U184" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V184" t="n">
         <v>926</v>
@@ -76780,7 +76812,7 @@
       </c>
       <c r="AA184" t="inlineStr"/>
       <c r="AB184" t="n">
-        <v>6693</v>
+        <v>6694</v>
       </c>
     </row>
     <row r="185">
@@ -76817,7 +76849,7 @@
         <v>420</v>
       </c>
       <c r="U185" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V185" t="n">
         <v>926</v>
@@ -76834,7 +76866,7 @@
       </c>
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="n">
-        <v>6708</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="186">
@@ -76871,7 +76903,7 @@
         <v>421</v>
       </c>
       <c r="U186" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V186" t="n">
         <v>926</v>
@@ -76888,7 +76920,7 @@
       </c>
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="n">
-        <v>6720</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="187">
@@ -76925,7 +76957,7 @@
         <v>423</v>
       </c>
       <c r="U187" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V187" t="n">
         <v>926</v>
@@ -76942,7 +76974,7 @@
       </c>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="n">
-        <v>6738</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="188">
@@ -76979,7 +77011,7 @@
         <v>423</v>
       </c>
       <c r="U188" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
@@ -76992,7 +77024,7 @@
       </c>
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="n">
-        <v>6755</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="189">
@@ -77029,7 +77061,7 @@
         <v>423</v>
       </c>
       <c r="U189" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
@@ -77042,7 +77074,7 @@
       </c>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>6770</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="190">
@@ -77079,7 +77111,7 @@
         <v>432</v>
       </c>
       <c r="U190" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V190" t="n">
         <v>927</v>
@@ -77096,7 +77128,7 @@
       </c>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>6790</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="191">
@@ -77109,7 +77141,9 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
+      <c r="F191" t="n">
+        <v>964</v>
+      </c>
       <c r="G191" t="n">
         <v>1126</v>
       </c>
@@ -77130,7 +77164,9 @@
       <c r="T191" t="n">
         <v>436</v>
       </c>
-      <c r="U191" t="inlineStr"/>
+      <c r="U191" t="n">
+        <v>81</v>
+      </c>
       <c r="V191" t="n">
         <v>928</v>
       </c>
@@ -77142,7 +77178,7 @@
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>6817</v>
+        <v>6825</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15024,7 +15024,7 @@
         <v>6758</v>
       </c>
       <c r="Y183" t="n">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="Z183" t="n">
         <v>334</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40167</v>
+        <v>40168</v>
       </c>
     </row>
     <row r="184">
@@ -15508,7 +15508,7 @@
         <v>7149</v>
       </c>
       <c r="Y189" t="n">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="Z189" t="n">
         <v>344</v>
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42005</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="190">
@@ -15594,7 +15594,7 @@
         <v>7180</v>
       </c>
       <c r="Y190" t="n">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="Z190" t="n">
         <v>344</v>
@@ -15603,7 +15603,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42164</v>
+        <v>42166</v>
       </c>
     </row>
     <row r="191">
@@ -15640,7 +15640,9 @@
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
+      <c r="P191" t="n">
+        <v>107</v>
+      </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
         <v>165</v>
@@ -15657,9 +15659,13 @@
       <c r="V191" t="n">
         <v>3543</v>
       </c>
-      <c r="W191" t="inlineStr"/>
+      <c r="W191" t="n">
+        <v>137</v>
+      </c>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>2371</v>
+      </c>
       <c r="Z191" t="n">
         <v>353</v>
       </c>
@@ -15667,7 +15673,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42294</v>
+        <v>42296</v>
       </c>
     </row>
   </sheetData>
@@ -30641,7 +30647,9 @@
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
         <v>8</v>
@@ -30658,9 +30666,13 @@
       <c r="V191" t="n">
         <v>350</v>
       </c>
-      <c r="W191" t="inlineStr"/>
+      <c r="W191" t="n">
+        <v>7</v>
+      </c>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>155</v>
+      </c>
       <c r="Z191" t="n">
         <v>9</v>
       </c>
@@ -44564,7 +44576,9 @@
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
+      <c r="P191" t="n">
+        <v>1</v>
+      </c>
       <c r="Q191" t="n">
         <v>5</v>
       </c>
@@ -44581,9 +44595,13 @@
       <c r="V191" t="n">
         <v>1</v>
       </c>
-      <c r="W191" t="inlineStr"/>
+      <c r="W191" t="n">
+        <v>0</v>
+      </c>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>3</v>
+      </c>
       <c r="Z191" t="n">
         <v>4</v>
       </c>
@@ -57086,7 +57104,9 @@
       </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>0</v>
+      </c>
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
@@ -66825,7 +66845,9 @@
       </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>0</v>
+      </c>
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="n">
         <v>6</v>
@@ -77170,9 +77192,13 @@
       <c r="V191" t="n">
         <v>928</v>
       </c>
-      <c r="W191" t="inlineStr"/>
+      <c r="W191" t="n">
+        <v>126</v>
+      </c>
       <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
+      <c r="Y191" t="n">
+        <v>320</v>
+      </c>
       <c r="Z191" t="n">
         <v>311</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15634,12 +15634,16 @@
         <v>166</v>
       </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>269</v>
+      </c>
       <c r="M191" t="n">
         <v>1064</v>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>134</v>
+      </c>
       <c r="P191" t="n">
         <v>107</v>
       </c>
@@ -15673,7 +15677,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42296</v>
+        <v>42298</v>
       </c>
     </row>
   </sheetData>
@@ -30646,7 +30650,9 @@
         <v>21</v>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>3</v>
+      </c>
       <c r="P191" t="n">
         <v>0</v>
       </c>
@@ -44363,7 +44369,7 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
@@ -44395,7 +44401,7 @@
         <v>19</v>
       </c>
       <c r="AB188" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="189">
@@ -44425,7 +44431,7 @@
         <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
@@ -44459,7 +44465,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190">
@@ -44495,7 +44501,7 @@
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M190" t="n">
         <v>10</v>
@@ -44541,7 +44547,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191">
@@ -44570,12 +44576,16 @@
         <v>0</v>
       </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
       <c r="M191" t="n">
         <v>10</v>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
       <c r="P191" t="n">
         <v>1</v>
       </c>
@@ -44609,7 +44619,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -57081,12 +57091,16 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
       <c r="M191" t="n">
         <v>3</v>
       </c>
       <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="n">
         <v>3</v>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15633,7 +15633,9 @@
       <c r="J191" t="n">
         <v>166</v>
       </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1003</v>
+      </c>
       <c r="L191" t="n">
         <v>269</v>
       </c>
@@ -15677,7 +15679,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42298</v>
+        <v>42300</v>
       </c>
     </row>
   </sheetData>
@@ -30644,7 +30646,9 @@
       <c r="J191" t="n">
         <v>13</v>
       </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>50</v>
+      </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>21</v>
@@ -44575,7 +44579,9 @@
       <c r="J191" t="n">
         <v>0</v>
       </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
       <c r="L191" t="n">
         <v>2</v>
       </c>
@@ -44619,7 +44625,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -57090,7 +57096,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
       <c r="L191" t="n">
         <v>0</v>
       </c>
@@ -66841,7 +66849,9 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15649,7 +15649,9 @@
       <c r="P191" t="n">
         <v>107</v>
       </c>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>1270</v>
+      </c>
       <c r="R191" t="n">
         <v>165</v>
       </c>
@@ -15679,7 +15681,47 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42300</v>
+        <v>42308</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>1730</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="n">
+        <v>493</v>
+      </c>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
+        <v>42337</v>
       </c>
     </row>
   </sheetData>
@@ -15693,7 +15735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30660,7 +30702,9 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
-      <c r="Q191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>42</v>
+      </c>
       <c r="R191" t="n">
         <v>8</v>
       </c>
@@ -30690,6 +30734,46 @@
         <v>142</v>
       </c>
       <c r="AB191" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>85</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="n">
+        <v>25</v>
+      </c>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
         <v>2011</v>
       </c>
     </row>
@@ -30704,7 +30788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44520,7 +44604,7 @@
         <v>1</v>
       </c>
       <c r="Q190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R190" t="n">
         <v>1</v>
@@ -44551,7 +44635,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191">
@@ -44625,6 +44709,44 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
         <v>104</v>
       </c>
     </row>
@@ -44639,7 +44761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57047,7 +57169,7 @@
       </c>
       <c r="P190" t="inlineStr"/>
       <c r="Q190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R190" t="n">
         <v>0</v>
@@ -57070,7 +57192,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191">
@@ -57132,6 +57254,44 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
         <v>15</v>
       </c>
     </row>
@@ -57146,7 +57306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66880,6 +67040,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -66891,7 +67087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77231,6 +77427,46 @@
         <v>6825</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>163</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="n">
+        <v>441</v>
+      </c>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
+        <v>6830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -77242,7 +77478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84466,6 +84702,42 @@
         <v>67515</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="n">
+        <v>67515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15485,7 +15485,7 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="O189" t="n">
         <v>133</v>
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42004</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="190">
@@ -15562,7 +15562,9 @@
       <c r="M190" t="n">
         <v>1060</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>880</v>
+      </c>
       <c r="O190" t="n">
         <v>133</v>
       </c>
@@ -15597,13 +15599,13 @@
         <v>2371</v>
       </c>
       <c r="Z190" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AA190" t="n">
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42166</v>
+        <v>42176</v>
       </c>
     </row>
     <row r="191">
@@ -15642,7 +15644,9 @@
       <c r="M191" t="n">
         <v>1064</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>881</v>
+      </c>
       <c r="O191" t="n">
         <v>134</v>
       </c>
@@ -15681,7 +15685,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42308</v>
+        <v>42314</v>
       </c>
     </row>
     <row r="192">
@@ -15708,7 +15712,9 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>166</v>
+      </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="n">
         <v>493</v>
@@ -15718,10 +15724,12 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="Z192" t="n">
+        <v>354</v>
+      </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42337</v>
+        <v>42345</v>
       </c>
     </row>
   </sheetData>
@@ -30761,7 +30769,9 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>8</v>
+      </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="n">
         <v>25</v>
@@ -30771,7 +30781,9 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="Z192" t="n">
+        <v>9</v>
+      </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
         <v>2011</v>
@@ -44629,13 +44641,13 @@
         <v>3</v>
       </c>
       <c r="Z190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA190" t="n">
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191">
@@ -44672,7 +44684,9 @@
       <c r="M191" t="n">
         <v>10</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
       <c r="O191" t="n">
         <v>0</v>
       </c>
@@ -44709,7 +44723,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192">
@@ -44736,7 +44750,9 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
@@ -44744,10 +44760,12 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="Z192" t="n">
+        <v>3</v>
+      </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -57227,7 +57245,9 @@
       <c r="M191" t="n">
         <v>3</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
       <c r="O191" t="n">
         <v>0</v>
       </c>
@@ -57281,7 +57301,9 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
@@ -67014,7 +67036,9 @@
       </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
       <c r="Q191" t="n">
@@ -77366,11 +77390,11 @@
         <v>320</v>
       </c>
       <c r="Z190" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>6791</v>
+        <v>6801</v>
       </c>
     </row>
     <row r="191">
@@ -77461,10 +77485,12 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
+      <c r="Z192" t="n">
+        <v>314</v>
+      </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>6830</v>
+        <v>6833</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15699,15 +15699,21 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>1226</v>
+      </c>
       <c r="H192" t="n">
         <v>1730</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>166</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1067</v>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -15719,8 +15725,12 @@
       <c r="T192" t="n">
         <v>493</v>
       </c>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>583</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3548</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
@@ -15729,7 +15739,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42345</v>
+        <v>42363</v>
       </c>
     </row>
   </sheetData>
@@ -30756,15 +30766,21 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>54</v>
+      </c>
       <c r="H192" t="n">
         <v>85</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>13</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>21</v>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -30776,8 +30792,12 @@
       <c r="T192" t="n">
         <v>25</v>
       </c>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>19</v>
+      </c>
+      <c r="V192" t="n">
+        <v>350</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
@@ -44548,7 +44568,7 @@
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
@@ -44565,7 +44585,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190">
@@ -44626,7 +44646,7 @@
       </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V190" t="n">
         <v>1</v>
@@ -44647,7 +44667,7 @@
         <v>22</v>
       </c>
       <c r="AB190" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191">
@@ -44704,7 +44724,7 @@
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V191" t="n">
         <v>1</v>
@@ -44723,7 +44743,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192">
@@ -44742,10 +44762,14 @@
         <v>5</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>8</v>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -44755,8 +44779,12 @@
       </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>3</v>
+      </c>
+      <c r="V192" t="n">
+        <v>1</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
@@ -44765,7 +44793,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -57296,7 +57324,9 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
@@ -57306,15 +57336,19 @@
       </c>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>1</v>
+      </c>
+      <c r="V192" t="n">
+        <v>0</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -67090,7 +67124,9 @@
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="V192" t="n">
+        <v>0</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
@@ -77462,7 +77498,9 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>1126</v>
+      </c>
       <c r="H192" t="n">
         <v>163</v>
       </c>
@@ -77480,8 +77518,12 @@
       <c r="T192" t="n">
         <v>441</v>
       </c>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
+      <c r="U192" t="n">
+        <v>81</v>
+      </c>
+      <c r="V192" t="n">
+        <v>928</v>
+      </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15721,7 +15721,9 @@
       <c r="R192" t="n">
         <v>166</v>
       </c>
-      <c r="S192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>713</v>
+      </c>
       <c r="T192" t="n">
         <v>493</v>
       </c>
@@ -15739,7 +15741,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42363</v>
+        <v>42374</v>
       </c>
     </row>
   </sheetData>
@@ -30788,7 +30790,9 @@
       <c r="R192" t="n">
         <v>8</v>
       </c>
-      <c r="S192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>18</v>
+      </c>
       <c r="T192" t="n">
         <v>25</v>
       </c>
@@ -44777,7 +44781,9 @@
       <c r="R192" t="n">
         <v>0</v>
       </c>
-      <c r="S192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>0</v>
+      </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="n">
         <v>3</v>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C190" t="n">
         <v>25</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42176</v>
+        <v>42177</v>
       </c>
     </row>
     <row r="191">
@@ -15614,7 +15614,9 @@
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" t="n">
+        <v>2126</v>
+      </c>
       <c r="C191" t="n">
         <v>25</v>
       </c>
@@ -15685,7 +15687,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42314</v>
+        <v>42333</v>
       </c>
     </row>
     <row r="192">
@@ -15697,7 +15699,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>2561</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
         <v>1226</v>
@@ -15741,7 +15745,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42374</v>
+        <v>42402</v>
       </c>
     </row>
   </sheetData>
@@ -30687,7 +30691,9 @@
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" t="n">
+        <v>52</v>
+      </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
@@ -30766,7 +30772,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>99</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
         <v>54</v>
@@ -44759,7 +44767,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>5</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
@@ -44777,7 +44787,9 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>4</v>
+      </c>
       <c r="R192" t="n">
         <v>0</v>
       </c>
@@ -44799,7 +44811,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -57320,7 +57332,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
@@ -57336,7 +57350,9 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>2</v>
+      </c>
       <c r="R192" t="n">
         <v>0</v>
       </c>
@@ -57354,7 +57370,7 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -67113,7 +67129,9 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>1</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
@@ -67125,7 +67143,9 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>2</v>
+      </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
@@ -67139,7 +67159,7 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15697,12 +15697,16 @@
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="n">
+        <v>25</v>
+      </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
         <v>2561</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>1051</v>
+      </c>
       <c r="G192" t="n">
         <v>1226</v>
       </c>
@@ -15745,7 +15749,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>42402</v>
+        <v>42407</v>
       </c>
     </row>
   </sheetData>
@@ -30770,12 +30774,16 @@
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
         <v>99</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>35</v>
+      </c>
       <c r="G192" t="n">
         <v>54</v>
       </c>
@@ -44770,7 +44778,9 @@
       <c r="E192" t="n">
         <v>5</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
         <v>5</v>
@@ -57335,7 +57345,9 @@
       <c r="E192" t="n">
         <v>2</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
         <v>0</v>
@@ -67132,7 +67144,9 @@
       <c r="E192" t="n">
         <v>1</v>
       </c>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
@@ -77523,7 +77537,9 @@
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="n">
+        <v>966</v>
+      </c>
       <c r="G192" t="n">
         <v>1126</v>
       </c>
@@ -77558,7 +77574,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>6833</v>
+        <v>6835</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40168</v>
+        <v>40167</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40444</v>
+        <v>40443</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6775</v>
+        <v>6773</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40822</v>
+        <v>40820</v>
       </c>
     </row>
     <row r="186">
@@ -15236,7 +15236,7 @@
         <v>1613</v>
       </c>
       <c r="I186" t="n">
-        <v>6823</v>
+        <v>6821</v>
       </c>
       <c r="J186" t="n">
         <v>163</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41170</v>
+        <v>41168</v>
       </c>
     </row>
     <row r="187">
@@ -15324,7 +15324,7 @@
         <v>1634</v>
       </c>
       <c r="I187" t="n">
-        <v>6867</v>
+        <v>6865</v>
       </c>
       <c r="J187" t="n">
         <v>163</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41538</v>
+        <v>41536</v>
       </c>
     </row>
     <row r="188">
@@ -15406,7 +15406,7 @@
         <v>1654</v>
       </c>
       <c r="I188" t="n">
-        <v>6911</v>
+        <v>6909</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41795</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="189">
@@ -15474,7 +15474,7 @@
         <v>1679</v>
       </c>
       <c r="I189" t="n">
-        <v>6944</v>
+        <v>6942</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42008</v>
+        <v>42006</v>
       </c>
     </row>
     <row r="190">
@@ -15548,7 +15548,7 @@
         <v>1686</v>
       </c>
       <c r="I190" t="n">
-        <v>6979</v>
+        <v>6981</v>
       </c>
       <c r="J190" t="n">
         <v>164</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42177</v>
+        <v>42179</v>
       </c>
     </row>
     <row r="191">
@@ -15633,7 +15633,9 @@
       <c r="H191" t="n">
         <v>1703</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>7036</v>
+      </c>
       <c r="J191" t="n">
         <v>166</v>
       </c>
@@ -15687,7 +15689,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42333</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="192">
@@ -15747,9 +15749,11 @@
       <c r="Z192" t="n">
         <v>354</v>
       </c>
-      <c r="AA192" t="inlineStr"/>
+      <c r="AA192" t="n">
+        <v>6225</v>
+      </c>
       <c r="AB192" t="n">
-        <v>42407</v>
+        <v>42555</v>
       </c>
     </row>
   </sheetData>
@@ -30714,7 +30718,9 @@
       <c r="H191" t="n">
         <v>85</v>
       </c>
-      <c r="I191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>298</v>
+      </c>
       <c r="J191" t="n">
         <v>13</v>
       </c>
@@ -30824,7 +30830,9 @@
       <c r="Z192" t="n">
         <v>9</v>
       </c>
-      <c r="AA192" t="inlineStr"/>
+      <c r="AA192" t="n">
+        <v>142</v>
+      </c>
       <c r="AB192" t="n">
         <v>2011</v>
       </c>
@@ -44785,7 +44793,9 @@
       <c r="H192" t="n">
         <v>5</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>16</v>
+      </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
@@ -44819,9 +44829,11 @@
       <c r="Z192" t="n">
         <v>3</v>
       </c>
-      <c r="AA192" t="inlineStr"/>
+      <c r="AA192" t="n">
+        <v>27</v>
+      </c>
       <c r="AB192" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -57352,7 +57364,9 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
@@ -67171,9 +67185,11 @@
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
-      <c r="AA192" t="inlineStr"/>
+      <c r="AA192" t="n">
+        <v>7</v>
+      </c>
       <c r="AB192" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15725,7 +15725,9 @@
         <v>1067</v>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>134</v>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
@@ -15743,7 +15745,9 @@
       <c r="V192" t="n">
         <v>3548</v>
       </c>
-      <c r="W192" t="inlineStr"/>
+      <c r="W192" t="n">
+        <v>137</v>
+      </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
@@ -30806,7 +30810,9 @@
         <v>21</v>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>3</v>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
@@ -30824,7 +30830,9 @@
       <c r="V192" t="n">
         <v>350</v>
       </c>
-      <c r="W192" t="inlineStr"/>
+      <c r="W192" t="n">
+        <v>7</v>
+      </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
@@ -44805,7 +44813,9 @@
         <v>8</v>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">
         <v>4</v>
@@ -44823,7 +44833,9 @@
       <c r="V192" t="n">
         <v>1</v>
       </c>
-      <c r="W192" t="inlineStr"/>
+      <c r="W192" t="n">
+        <v>0</v>
+      </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
@@ -57374,7 +57386,9 @@
         <v>1</v>
       </c>
       <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">
         <v>2</v>
@@ -77582,7 +77596,9 @@
       <c r="V192" t="n">
         <v>928</v>
       </c>
-      <c r="W192" t="inlineStr"/>
+      <c r="W192" t="n">
+        <v>127</v>
+      </c>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
@@ -77590,7 +77606,7 @@
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>6835</v>
+        <v>6836</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15719,7 +15719,9 @@
       <c r="J192" t="n">
         <v>166</v>
       </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1005</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1067</v>
@@ -15728,7 +15730,9 @@
       <c r="O192" t="n">
         <v>134</v>
       </c>
-      <c r="P192" t="inlineStr"/>
+      <c r="P192" t="n">
+        <v>107</v>
+      </c>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
         <v>166</v>
@@ -15757,7 +15761,7 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42555</v>
+        <v>42557</v>
       </c>
     </row>
   </sheetData>
@@ -30804,7 +30808,9 @@
       <c r="J192" t="n">
         <v>13</v>
       </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>50</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>21</v>
@@ -30813,7 +30819,9 @@
       <c r="O192" t="n">
         <v>3</v>
       </c>
-      <c r="P192" t="inlineStr"/>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
         <v>8</v>
@@ -44807,7 +44815,9 @@
       <c r="J192" t="n">
         <v>0</v>
       </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>8</v>
@@ -44816,7 +44826,9 @@
       <c r="O192" t="n">
         <v>0</v>
       </c>
-      <c r="P192" t="inlineStr"/>
+      <c r="P192" t="n">
+        <v>1</v>
+      </c>
       <c r="Q192" t="n">
         <v>4</v>
       </c>
@@ -57380,7 +57392,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
@@ -67179,7 +67193,9 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15643,7 +15643,7 @@
         <v>1003</v>
       </c>
       <c r="L191" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M191" t="n">
         <v>1064</v>
@@ -15689,7 +15689,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42390</v>
+        <v>42391</v>
       </c>
     </row>
     <row r="192">
@@ -15722,7 +15722,9 @@
       <c r="K192" t="n">
         <v>1005</v>
       </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>270</v>
+      </c>
       <c r="M192" t="n">
         <v>1067</v>
       </c>
@@ -15761,7 +15763,7 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42557</v>
+        <v>42558</v>
       </c>
     </row>
   </sheetData>
@@ -30735,7 +30737,9 @@
       <c r="K191" t="n">
         <v>50</v>
       </c>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>7</v>
+      </c>
       <c r="M191" t="n">
         <v>21</v>
       </c>
@@ -30811,7 +30815,9 @@
       <c r="K192" t="n">
         <v>50</v>
       </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>7</v>
+      </c>
       <c r="M192" t="n">
         <v>21</v>
       </c>
@@ -44818,7 +44824,9 @@
       <c r="K192" t="n">
         <v>1</v>
       </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>2</v>
+      </c>
       <c r="M192" t="n">
         <v>8</v>
       </c>
@@ -57395,7 +57403,9 @@
       <c r="K192" t="n">
         <v>0</v>
       </c>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15735,7 +15735,9 @@
       <c r="P192" t="n">
         <v>107</v>
       </c>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>1280</v>
+      </c>
       <c r="R192" t="n">
         <v>166</v>
       </c>
@@ -15763,7 +15765,49 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42558</v>
+        <v>42568</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>1765</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="n">
+        <v>494</v>
+      </c>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="n">
+        <v>361</v>
+      </c>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>42611</v>
       </c>
     </row>
   </sheetData>
@@ -15777,7 +15821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30828,7 +30872,9 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>43</v>
+      </c>
       <c r="R192" t="n">
         <v>8</v>
       </c>
@@ -30856,7 +30902,49 @@
         <v>142</v>
       </c>
       <c r="AB192" t="n">
-        <v>2011</v>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>85</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="n">
+        <v>25</v>
+      </c>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
@@ -30870,7 +30958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44838,7 +44926,7 @@
         <v>1</v>
       </c>
       <c r="Q192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
@@ -44865,7 +44953,47 @@
         <v>27</v>
       </c>
       <c r="AB192" t="n">
-        <v>104</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>5</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -44879,7 +45007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57415,7 +57543,7 @@
       </c>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
@@ -57434,6 +57562,44 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
         <v>12</v>
       </c>
     </row>
@@ -57448,7 +57614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67212,7 +67378,7 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
@@ -67229,7 +67395,43 @@
         <v>7</v>
       </c>
       <c r="AB192" t="n">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -67243,7 +67445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77635,6 +77837,48 @@
         <v>6836</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>163</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="n">
+        <v>445</v>
+      </c>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="n">
+        <v>316</v>
+      </c>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>6842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -77646,7 +77890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB192"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84906,6 +85150,42 @@
         <v>67515</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-03</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="n">
+        <v>67515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15251,7 +15251,7 @@
         <v>1034</v>
       </c>
       <c r="N186" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="O186" t="n">
         <v>133</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41168</v>
+        <v>41169</v>
       </c>
     </row>
     <row r="187">
@@ -15339,7 +15339,7 @@
         <v>1045</v>
       </c>
       <c r="N187" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O187" t="n">
         <v>133</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41536</v>
+        <v>41537</v>
       </c>
     </row>
     <row r="188">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O188" t="n">
         <v>133</v>
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41793</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="189">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="O189" t="n">
         <v>133</v>
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42006</v>
+        <v>42007</v>
       </c>
     </row>
     <row r="190">
@@ -15563,7 +15563,7 @@
         <v>1060</v>
       </c>
       <c r="N190" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="O190" t="n">
         <v>133</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42179</v>
+        <v>42180</v>
       </c>
     </row>
     <row r="191">
@@ -15649,7 +15649,7 @@
         <v>1064</v>
       </c>
       <c r="N191" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O191" t="n">
         <v>134</v>
@@ -15689,7 +15689,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42391</v>
+        <v>42392</v>
       </c>
     </row>
     <row r="192">
@@ -15765,7 +15765,7 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42568</v>
+        <v>42569</v>
       </c>
     </row>
     <row r="193">
@@ -15792,7 +15792,9 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>166</v>
+      </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="n">
         <v>494</v>
@@ -15807,7 +15809,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42611</v>
+        <v>42612</v>
       </c>
     </row>
   </sheetData>
@@ -30929,7 +30931,9 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>8</v>
+      </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="n">
         <v>25</v>
@@ -44918,7 +44922,9 @@
       <c r="M192" t="n">
         <v>8</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
       <c r="O192" t="n">
         <v>0</v>
       </c>
@@ -44980,7 +44986,9 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
@@ -57537,7 +57545,9 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
       <c r="O192" t="n">
         <v>0</v>
       </c>
@@ -57589,7 +57599,9 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
@@ -67374,7 +67386,9 @@
       </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
       <c r="Q192" t="n">

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15779,7 +15779,9 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>1229</v>
+      </c>
       <c r="H193" t="n">
         <v>1765</v>
       </c>
@@ -15800,7 +15802,9 @@
         <v>494</v>
       </c>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>3551</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -15809,7 +15813,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42612</v>
+        <v>42618</v>
       </c>
     </row>
   </sheetData>
@@ -30918,7 +30922,9 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>54</v>
+      </c>
       <c r="H193" t="n">
         <v>85</v>
       </c>
@@ -30939,7 +30945,9 @@
         <v>25</v>
       </c>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>350</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -44992,7 +45000,9 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>1</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -57605,7 +57615,9 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>0</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -67438,7 +67450,9 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>0</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -77862,7 +77876,9 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>1127</v>
+      </c>
       <c r="H193" t="n">
         <v>163</v>
       </c>
@@ -77881,7 +77897,9 @@
         <v>445</v>
       </c>
       <c r="U193" t="inlineStr"/>
-      <c r="V193" t="inlineStr"/>
+      <c r="V193" t="n">
+        <v>928</v>
+      </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
@@ -77890,7 +77908,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>6842</v>
+        <v>6843</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15786,10 +15786,14 @@
         <v>1765</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>166</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1077</v>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -15797,7 +15801,9 @@
       <c r="R193" t="n">
         <v>166</v>
       </c>
-      <c r="S193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>718</v>
+      </c>
       <c r="T193" t="n">
         <v>494</v>
       </c>
@@ -15813,7 +15819,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42618</v>
+        <v>42633</v>
       </c>
     </row>
   </sheetData>
@@ -30929,10 +30935,14 @@
         <v>85</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>13</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>21</v>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -30940,7 +30950,9 @@
       <c r="R193" t="n">
         <v>8</v>
       </c>
-      <c r="S193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>18</v>
+      </c>
       <c r="T193" t="n">
         <v>25</v>
       </c>
@@ -44986,10 +44998,14 @@
         <v>5</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>7</v>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
@@ -44997,7 +45013,9 @@
       <c r="R193" t="n">
         <v>0</v>
       </c>
-      <c r="S193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>0</v>
+      </c>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="n">
@@ -45011,7 +45029,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -57604,7 +57622,9 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15775,7 +15775,9 @@
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>25</v>
+      </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
@@ -15807,7 +15809,9 @@
       <c r="T193" t="n">
         <v>494</v>
       </c>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>584</v>
+      </c>
       <c r="V193" t="n">
         <v>3551</v>
       </c>
@@ -15819,7 +15823,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42633</v>
+        <v>42634</v>
       </c>
     </row>
   </sheetData>
@@ -30924,7 +30928,9 @@
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
@@ -30956,7 +30962,9 @@
       <c r="T193" t="n">
         <v>25</v>
       </c>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>19</v>
+      </c>
       <c r="V193" t="n">
         <v>350</v>
       </c>
@@ -45017,7 +45025,9 @@
         <v>0</v>
       </c>
       <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>5</v>
+      </c>
       <c r="V193" t="n">
         <v>1</v>
       </c>
@@ -45029,7 +45039,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -57634,7 +57644,9 @@
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>2</v>
+      </c>
       <c r="V193" t="n">
         <v>0</v>
       </c>
@@ -57644,7 +57656,7 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -77916,7 +77928,9 @@
       <c r="T193" t="n">
         <v>445</v>
       </c>
-      <c r="U193" t="inlineStr"/>
+      <c r="U193" t="n">
+        <v>81</v>
+      </c>
       <c r="V193" t="n">
         <v>928</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -13147,7 +13147,7 @@
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="n">
-        <v>6051</v>
+        <v>6053</v>
       </c>
       <c r="Y160" t="n">
         <v>2151</v>
@@ -13159,7 +13159,7 @@
         <v>4546</v>
       </c>
       <c r="AB160" t="n">
-        <v>35492</v>
+        <v>35494</v>
       </c>
     </row>
     <row r="161">
@@ -13215,7 +13215,7 @@
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="n">
-        <v>6064</v>
+        <v>6066</v>
       </c>
       <c r="Y161" t="n">
         <v>2152</v>
@@ -13227,7 +13227,7 @@
         <v>4557</v>
       </c>
       <c r="AB161" t="n">
-        <v>35572</v>
+        <v>35574</v>
       </c>
     </row>
     <row r="162">
@@ -13303,7 +13303,7 @@
         <v>117</v>
       </c>
       <c r="X162" t="n">
-        <v>6083</v>
+        <v>6085</v>
       </c>
       <c r="Y162" t="n">
         <v>2155</v>
@@ -13315,7 +13315,7 @@
         <v>4569</v>
       </c>
       <c r="AB162" t="n">
-        <v>35698</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="163">
@@ -13389,7 +13389,7 @@
         <v>117</v>
       </c>
       <c r="X163" t="n">
-        <v>6097</v>
+        <v>6099</v>
       </c>
       <c r="Y163" t="n">
         <v>2163</v>
@@ -13401,7 +13401,7 @@
         <v>4587</v>
       </c>
       <c r="AB163" t="n">
-        <v>35830</v>
+        <v>35832</v>
       </c>
     </row>
     <row r="164">
@@ -13477,7 +13477,7 @@
         <v>117</v>
       </c>
       <c r="X164" t="n">
-        <v>6116</v>
+        <v>6118</v>
       </c>
       <c r="Y164" t="n">
         <v>2167</v>
@@ -13489,7 +13489,7 @@
         <v>4638</v>
       </c>
       <c r="AB164" t="n">
-        <v>36032</v>
+        <v>36034</v>
       </c>
     </row>
     <row r="165">
@@ -13563,7 +13563,7 @@
         <v>117</v>
       </c>
       <c r="X165" t="n">
-        <v>6133</v>
+        <v>6135</v>
       </c>
       <c r="Y165" t="n">
         <v>2173</v>
@@ -13575,7 +13575,7 @@
         <v>4673</v>
       </c>
       <c r="AB165" t="n">
-        <v>36197</v>
+        <v>36199</v>
       </c>
     </row>
     <row r="166">
@@ -13651,7 +13651,7 @@
         <v>117</v>
       </c>
       <c r="X166" t="n">
-        <v>6155</v>
+        <v>6157</v>
       </c>
       <c r="Y166" t="n">
         <v>2180</v>
@@ -13663,7 +13663,7 @@
         <v>4705</v>
       </c>
       <c r="AB166" t="n">
-        <v>36364</v>
+        <v>36366</v>
       </c>
     </row>
     <row r="167">
@@ -13721,7 +13721,7 @@
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="n">
-        <v>6171</v>
+        <v>6173</v>
       </c>
       <c r="Y167" t="n">
         <v>2184</v>
@@ -13733,7 +13733,7 @@
         <v>4746</v>
       </c>
       <c r="AB167" t="n">
-        <v>36485</v>
+        <v>36487</v>
       </c>
     </row>
     <row r="168">
@@ -13791,7 +13791,7 @@
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="n">
-        <v>6178</v>
+        <v>6180</v>
       </c>
       <c r="Y168" t="n">
         <v>2187</v>
@@ -13803,7 +13803,7 @@
         <v>4762</v>
       </c>
       <c r="AB168" t="n">
-        <v>36575</v>
+        <v>36577</v>
       </c>
     </row>
     <row r="169">
@@ -13879,7 +13879,7 @@
         <v>117</v>
       </c>
       <c r="X169" t="n">
-        <v>6203</v>
+        <v>6205</v>
       </c>
       <c r="Y169" t="n">
         <v>2199</v>
@@ -13891,7 +13891,7 @@
         <v>4801</v>
       </c>
       <c r="AB169" t="n">
-        <v>36769</v>
+        <v>36771</v>
       </c>
     </row>
     <row r="170">
@@ -13965,7 +13965,7 @@
         <v>119</v>
       </c>
       <c r="X170" t="n">
-        <v>6227</v>
+        <v>6229</v>
       </c>
       <c r="Y170" t="n">
         <v>2207</v>
@@ -13977,7 +13977,7 @@
         <v>4865</v>
       </c>
       <c r="AB170" t="n">
-        <v>37033</v>
+        <v>37035</v>
       </c>
     </row>
     <row r="171">
@@ -14051,7 +14051,7 @@
         <v>120</v>
       </c>
       <c r="X171" t="n">
-        <v>6250</v>
+        <v>6252</v>
       </c>
       <c r="Y171" t="n">
         <v>2215</v>
@@ -14063,7 +14063,7 @@
         <v>4917</v>
       </c>
       <c r="AB171" t="n">
-        <v>37262</v>
+        <v>37264</v>
       </c>
     </row>
     <row r="172">
@@ -14137,7 +14137,7 @@
         <v>121</v>
       </c>
       <c r="X172" t="n">
-        <v>6286</v>
+        <v>6288</v>
       </c>
       <c r="Y172" t="n">
         <v>2222</v>
@@ -14149,7 +14149,7 @@
         <v>4973</v>
       </c>
       <c r="AB172" t="n">
-        <v>37537</v>
+        <v>37539</v>
       </c>
     </row>
     <row r="173">
@@ -14225,7 +14225,7 @@
         <v>123</v>
       </c>
       <c r="X173" t="n">
-        <v>6310</v>
+        <v>6312</v>
       </c>
       <c r="Y173" t="n">
         <v>2230</v>
@@ -14237,7 +14237,7 @@
         <v>5033</v>
       </c>
       <c r="AB173" t="n">
-        <v>37772</v>
+        <v>37774</v>
       </c>
     </row>
     <row r="174">
@@ -14293,7 +14293,7 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
-        <v>6335</v>
+        <v>6337</v>
       </c>
       <c r="Y174" t="n">
         <v>2236</v>
@@ -14305,7 +14305,7 @@
         <v>5094</v>
       </c>
       <c r="AB174" t="n">
-        <v>37979</v>
+        <v>37981</v>
       </c>
     </row>
     <row r="175">
@@ -14363,7 +14363,7 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>6353</v>
+        <v>6355</v>
       </c>
       <c r="Y175" t="n">
         <v>2241</v>
@@ -14375,7 +14375,7 @@
         <v>5123</v>
       </c>
       <c r="AB175" t="n">
-        <v>38109</v>
+        <v>38111</v>
       </c>
     </row>
     <row r="176">
@@ -14449,7 +14449,7 @@
         <v>126</v>
       </c>
       <c r="X176" t="n">
-        <v>6387</v>
+        <v>6389</v>
       </c>
       <c r="Y176" t="n">
         <v>2251</v>
@@ -14461,7 +14461,7 @@
         <v>5167</v>
       </c>
       <c r="AB176" t="n">
-        <v>38334</v>
+        <v>38336</v>
       </c>
     </row>
     <row r="177">
@@ -14537,7 +14537,7 @@
         <v>127</v>
       </c>
       <c r="X177" t="n">
-        <v>6430</v>
+        <v>6432</v>
       </c>
       <c r="Y177" t="n">
         <v>2261</v>
@@ -14549,7 +14549,7 @@
         <v>5234</v>
       </c>
       <c r="AB177" t="n">
-        <v>38602</v>
+        <v>38604</v>
       </c>
     </row>
     <row r="178">
@@ -14625,7 +14625,7 @@
         <v>129</v>
       </c>
       <c r="X178" t="n">
-        <v>6477</v>
+        <v>6479</v>
       </c>
       <c r="Y178" t="n">
         <v>2265</v>
@@ -14637,7 +14637,7 @@
         <v>5303</v>
       </c>
       <c r="AB178" t="n">
-        <v>38916</v>
+        <v>38918</v>
       </c>
     </row>
     <row r="179">
@@ -14709,7 +14709,7 @@
         <v>129</v>
       </c>
       <c r="X179" t="n">
-        <v>6552</v>
+        <v>6554</v>
       </c>
       <c r="Y179" t="n">
         <v>2272</v>
@@ -14721,7 +14721,7 @@
         <v>5379</v>
       </c>
       <c r="AB179" t="n">
-        <v>39223</v>
+        <v>39225</v>
       </c>
     </row>
     <row r="180">
@@ -14795,7 +14795,7 @@
         <v>129</v>
       </c>
       <c r="X180" t="n">
-        <v>6615</v>
+        <v>6617</v>
       </c>
       <c r="Y180" t="n">
         <v>2290</v>
@@ -14807,7 +14807,7 @@
         <v>5462</v>
       </c>
       <c r="AB180" t="n">
-        <v>39539</v>
+        <v>39541</v>
       </c>
     </row>
     <row r="181">
@@ -14863,7 +14863,7 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="n">
-        <v>6659</v>
+        <v>6661</v>
       </c>
       <c r="Y181" t="n">
         <v>2301</v>
@@ -14875,7 +14875,7 @@
         <v>5506</v>
       </c>
       <c r="AB181" t="n">
-        <v>39740</v>
+        <v>39742</v>
       </c>
     </row>
     <row r="182">
@@ -14933,7 +14933,7 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>6690</v>
+        <v>6692</v>
       </c>
       <c r="Y182" t="n">
         <v>2304</v>
@@ -14945,7 +14945,7 @@
         <v>5547</v>
       </c>
       <c r="AB182" t="n">
-        <v>39926</v>
+        <v>39928</v>
       </c>
     </row>
     <row r="183">
@@ -15021,7 +15021,7 @@
         <v>132</v>
       </c>
       <c r="X183" t="n">
-        <v>6758</v>
+        <v>6760</v>
       </c>
       <c r="Y183" t="n">
         <v>2320</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40167</v>
+        <v>40169</v>
       </c>
     </row>
     <row r="184">
@@ -15107,7 +15107,7 @@
         <v>134</v>
       </c>
       <c r="X184" t="n">
-        <v>6824</v>
+        <v>6826</v>
       </c>
       <c r="Y184" t="n">
         <v>2333</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40443</v>
+        <v>40445</v>
       </c>
     </row>
     <row r="185">
@@ -15193,7 +15193,7 @@
         <v>136</v>
       </c>
       <c r="X185" t="n">
-        <v>6888</v>
+        <v>6890</v>
       </c>
       <c r="Y185" t="n">
         <v>2345</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40820</v>
+        <v>40822</v>
       </c>
     </row>
     <row r="186">
@@ -15281,7 +15281,7 @@
         <v>136</v>
       </c>
       <c r="X186" t="n">
-        <v>6962</v>
+        <v>6964</v>
       </c>
       <c r="Y186" t="n">
         <v>2353</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41169</v>
+        <v>41171</v>
       </c>
     </row>
     <row r="187">
@@ -15367,7 +15367,7 @@
         <v>137</v>
       </c>
       <c r="X187" t="n">
-        <v>7042</v>
+        <v>7043</v>
       </c>
       <c r="Y187" t="n">
         <v>2366</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41537</v>
+        <v>41538</v>
       </c>
     </row>
     <row r="188">
@@ -15435,7 +15435,7 @@
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="n">
-        <v>7102</v>
+        <v>7103</v>
       </c>
       <c r="Y188" t="n">
         <v>2368</v>
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41794</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="189">
@@ -15505,7 +15505,7 @@
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="n">
-        <v>7149</v>
+        <v>7150</v>
       </c>
       <c r="Y189" t="n">
         <v>2368</v>
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42007</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="190">
@@ -15593,7 +15593,7 @@
         <v>137</v>
       </c>
       <c r="X190" t="n">
-        <v>7180</v>
+        <v>7242</v>
       </c>
       <c r="Y190" t="n">
         <v>2371</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42180</v>
+        <v>42242</v>
       </c>
     </row>
     <row r="191">
@@ -15678,7 +15678,9 @@
       <c r="W191" t="n">
         <v>137</v>
       </c>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="n">
+        <v>7330</v>
+      </c>
       <c r="Y191" t="n">
         <v>2371</v>
       </c>
@@ -15689,7 +15691,7 @@
         <v>6134</v>
       </c>
       <c r="AB191" t="n">
-        <v>42392</v>
+        <v>42542</v>
       </c>
     </row>
     <row r="192">
@@ -15698,7 +15700,9 @@
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>2146</v>
+      </c>
       <c r="C192" t="n">
         <v>25</v>
       </c>
@@ -15756,7 +15760,9 @@
       <c r="W192" t="n">
         <v>137</v>
       </c>
-      <c r="X192" t="inlineStr"/>
+      <c r="X192" t="n">
+        <v>7380</v>
+      </c>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
         <v>354</v>
@@ -15765,7 +15771,7 @@
         <v>6225</v>
       </c>
       <c r="AB192" t="n">
-        <v>42569</v>
+        <v>42789</v>
       </c>
     </row>
     <row r="193">
@@ -15778,9 +15784,15 @@
       <c r="C193" t="n">
         <v>25</v>
       </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>135</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2584</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1058</v>
+      </c>
       <c r="G193" t="n">
         <v>1229</v>
       </c>
@@ -15823,7 +15835,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>42634</v>
+        <v>42886</v>
       </c>
     </row>
   </sheetData>
@@ -30831,7 +30843,9 @@
       <c r="W191" t="n">
         <v>7</v>
       </c>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="n">
+        <v>432</v>
+      </c>
       <c r="Y191" t="n">
         <v>155</v>
       </c>
@@ -30851,7 +30865,9 @@
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>52</v>
+      </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
@@ -30909,7 +30925,9 @@
       <c r="W192" t="n">
         <v>7</v>
       </c>
-      <c r="X192" t="inlineStr"/>
+      <c r="X192" t="n">
+        <v>432</v>
+      </c>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
         <v>9</v>
@@ -30931,9 +30949,15 @@
       <c r="C193" t="n">
         <v>0</v>
       </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>99</v>
+      </c>
+      <c r="F193" t="n">
+        <v>35</v>
+      </c>
       <c r="G193" t="n">
         <v>54</v>
       </c>
@@ -44902,7 +44926,9 @@
       <c r="W191" t="n">
         <v>0</v>
       </c>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="n">
+        <v>16</v>
+      </c>
       <c r="Y191" t="n">
         <v>3</v>
       </c>
@@ -44978,7 +45004,9 @@
       <c r="W192" t="n">
         <v>0</v>
       </c>
-      <c r="X192" t="inlineStr"/>
+      <c r="X192" t="n">
+        <v>13</v>
+      </c>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="n">
         <v>3</v>
@@ -44987,7 +45015,7 @@
         <v>27</v>
       </c>
       <c r="AB192" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193">
@@ -44998,9 +45026,13 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>3</v>
+      </c>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
         <v>5</v>
@@ -45039,7 +45071,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -57541,7 +57573,9 @@
         <v>0</v>
       </c>
       <c r="W191" t="inlineStr"/>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="n">
+        <v>5</v>
+      </c>
       <c r="Y191" t="n">
         <v>0</v>
       </c>
@@ -57605,12 +57639,14 @@
         <v>0</v>
       </c>
       <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
+      <c r="X192" t="n">
+        <v>4</v>
+      </c>
       <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -57621,9 +57657,13 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
         <v>1</v>
@@ -57656,7 +57696,7 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -67466,7 +67506,9 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
@@ -77907,7 +77949,9 @@
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>967</v>
+      </c>
       <c r="G193" t="n">
         <v>1127</v>
       </c>
@@ -77942,7 +77986,7 @@
       </c>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>6843</v>
+        <v>6844</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6700</v>
+        <v>6701</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40169</v>
+        <v>40170</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6735</v>
+        <v>6736</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40445</v>
+        <v>40446</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40822</v>
+        <v>40823</v>
       </c>
     </row>
     <row r="186">
@@ -15236,7 +15236,7 @@
         <v>1613</v>
       </c>
       <c r="I186" t="n">
-        <v>6821</v>
+        <v>6822</v>
       </c>
       <c r="J186" t="n">
         <v>163</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41171</v>
+        <v>41172</v>
       </c>
     </row>
     <row r="187">
@@ -15324,7 +15324,7 @@
         <v>1634</v>
       </c>
       <c r="I187" t="n">
-        <v>6865</v>
+        <v>6866</v>
       </c>
       <c r="J187" t="n">
         <v>163</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41538</v>
+        <v>41539</v>
       </c>
     </row>
     <row r="188">
@@ -15406,7 +15406,7 @@
         <v>1654</v>
       </c>
       <c r="I188" t="n">
-        <v>6909</v>
+        <v>6910</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41795</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="189">
@@ -15474,7 +15474,7 @@
         <v>1679</v>
       </c>
       <c r="I189" t="n">
-        <v>6942</v>
+        <v>6943</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -15517,7 +15517,7 @@
         <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42008</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="190">
@@ -15548,7 +15548,7 @@
         <v>1686</v>
       </c>
       <c r="I190" t="n">
-        <v>6981</v>
+        <v>6982</v>
       </c>
       <c r="J190" t="n">
         <v>164</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42242</v>
+        <v>42243</v>
       </c>
     </row>
     <row r="191">
@@ -15634,7 +15634,7 @@
         <v>1703</v>
       </c>
       <c r="I191" t="n">
-        <v>7036</v>
+        <v>7037</v>
       </c>
       <c r="J191" t="n">
         <v>166</v>
@@ -15688,10 +15688,10 @@
         <v>353</v>
       </c>
       <c r="AA191" t="n">
-        <v>6134</v>
+        <v>6135</v>
       </c>
       <c r="AB191" t="n">
-        <v>42542</v>
+        <v>42544</v>
       </c>
     </row>
     <row r="192">
@@ -15719,7 +15719,9 @@
       <c r="H192" t="n">
         <v>1730</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>7072</v>
+      </c>
       <c r="J192" t="n">
         <v>166</v>
       </c>
@@ -15768,10 +15770,10 @@
         <v>354</v>
       </c>
       <c r="AA192" t="n">
-        <v>6225</v>
+        <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42789</v>
+        <v>42826</v>
       </c>
     </row>
     <row r="193">
@@ -15810,7 +15812,9 @@
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
+      <c r="P193" t="n">
+        <v>107</v>
+      </c>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="n">
         <v>166</v>
@@ -15833,9 +15837,11 @@
       <c r="Z193" t="n">
         <v>361</v>
       </c>
-      <c r="AA193" t="inlineStr"/>
+      <c r="AA193" t="n">
+        <v>6298</v>
+      </c>
       <c r="AB193" t="n">
-        <v>42886</v>
+        <v>42995</v>
       </c>
     </row>
   </sheetData>
@@ -30884,7 +30890,9 @@
       <c r="H192" t="n">
         <v>85</v>
       </c>
-      <c r="I192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>299</v>
+      </c>
       <c r="J192" t="n">
         <v>13</v>
       </c>
@@ -30936,7 +30944,7 @@
         <v>142</v>
       </c>
       <c r="AB192" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="193">
@@ -30975,7 +30983,9 @@
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="n">
         <v>8</v>
@@ -30998,9 +31008,11 @@
       <c r="Z193" t="n">
         <v>9</v>
       </c>
-      <c r="AA193" t="inlineStr"/>
+      <c r="AA193" t="n">
+        <v>142</v>
+      </c>
       <c r="AB193" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
@@ -45037,7 +45049,9 @@
       <c r="H193" t="n">
         <v>5</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>21</v>
+      </c>
       <c r="J193" t="n">
         <v>0</v>
       </c>
@@ -45048,7 +45062,9 @@
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
+      <c r="P193" t="n">
+        <v>1</v>
+      </c>
       <c r="Q193" t="inlineStr"/>
       <c r="R193" t="n">
         <v>0</v>
@@ -45069,9 +45085,11 @@
       <c r="Z193" t="n">
         <v>2</v>
       </c>
-      <c r="AA193" t="inlineStr"/>
+      <c r="AA193" t="n">
+        <v>28</v>
+      </c>
       <c r="AB193" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -57668,7 +57686,9 @@
       <c r="H193" t="n">
         <v>1</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
@@ -67531,7 +67551,9 @@
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="inlineStr"/>
-      <c r="AA193" t="inlineStr"/>
+      <c r="AA193" t="n">
+        <v>7</v>
+      </c>
       <c r="AB193" t="n">
         <v>10</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15831,7 +15831,9 @@
       <c r="V193" t="n">
         <v>3551</v>
       </c>
-      <c r="W193" t="inlineStr"/>
+      <c r="W193" t="n">
+        <v>137</v>
+      </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">
@@ -31002,7 +31004,9 @@
       <c r="V193" t="n">
         <v>350</v>
       </c>
-      <c r="W193" t="inlineStr"/>
+      <c r="W193" t="n">
+        <v>7</v>
+      </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">
@@ -45079,7 +45083,9 @@
       <c r="V193" t="n">
         <v>1</v>
       </c>
-      <c r="W193" t="inlineStr"/>
+      <c r="W193" t="n">
+        <v>0</v>
+      </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">
@@ -78000,7 +78006,9 @@
       <c r="V193" t="n">
         <v>928</v>
       </c>
-      <c r="W193" t="inlineStr"/>
+      <c r="W193" t="n">
+        <v>127</v>
+      </c>
       <c r="X193" t="inlineStr"/>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="n">

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15729,7 +15729,7 @@
         <v>1005</v>
       </c>
       <c r="L192" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M192" t="n">
         <v>1067</v>
@@ -15773,7 +15773,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42826</v>
+        <v>42828</v>
       </c>
     </row>
     <row r="193">
@@ -15806,7 +15806,9 @@
         <v>166</v>
       </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>273</v>
+      </c>
       <c r="M193" t="n">
         <v>1077</v>
       </c>
@@ -15843,7 +15845,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>42995</v>
+        <v>42998</v>
       </c>
     </row>
   </sheetData>
@@ -30979,7 +30981,9 @@
         <v>13</v>
       </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>7</v>
+      </c>
       <c r="M193" t="n">
         <v>21</v>
       </c>
@@ -44748,7 +44752,7 @@
         <v>3</v>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
@@ -44795,7 +44799,7 @@
         <v>21</v>
       </c>
       <c r="AB189" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190">
@@ -44894,7 +44898,7 @@
         <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H191" t="n">
         <v>5</v>
@@ -44955,7 +44959,7 @@
         <v>26</v>
       </c>
       <c r="AB191" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="192">
@@ -44973,7 +44977,9 @@
       <c r="F192" t="n">
         <v>1</v>
       </c>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>4</v>
+      </c>
       <c r="H192" t="n">
         <v>5</v>
       </c>
@@ -44987,7 +44993,7 @@
         <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M192" t="n">
         <v>8</v>
@@ -45031,7 +45037,7 @@
         <v>27</v>
       </c>
       <c r="AB192" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193">
@@ -45049,7 +45055,9 @@
       <c r="F193" t="n">
         <v>0</v>
       </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>5</v>
+      </c>
       <c r="H193" t="n">
         <v>5</v>
       </c>
@@ -45060,7 +45068,9 @@
         <v>0</v>
       </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
       <c r="M193" t="n">
         <v>7</v>
       </c>
@@ -45095,7 +45105,7 @@
         <v>28</v>
       </c>
       <c r="AB193" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -57491,7 +57501,7 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>1</v>
@@ -57540,7 +57550,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
@@ -57557,7 +57567,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -57606,7 +57616,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192">
@@ -57624,7 +57634,9 @@
       <c r="F192" t="n">
         <v>0</v>
       </c>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>2</v>
+      </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
@@ -57670,7 +57682,7 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
@@ -57688,7 +57700,9 @@
       <c r="F193" t="n">
         <v>0</v>
       </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>2</v>
+      </c>
       <c r="H193" t="n">
         <v>1</v>
       </c>
@@ -57697,7 +57711,9 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -57722,7 +57738,7 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -85175,7 +85175,9 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>71961</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
@@ -85195,7 +85197,7 @@
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="190">
@@ -85231,7 +85233,7 @@
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="191">
@@ -85267,7 +85269,7 @@
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="192">
@@ -85303,7 +85305,7 @@
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
     <row r="193">
@@ -85339,7 +85341,7 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
-        <v>67515</v>
+        <v>72603</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15805,7 +15805,9 @@
       <c r="J193" t="n">
         <v>166</v>
       </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1009</v>
+      </c>
       <c r="L193" t="n">
         <v>273</v>
       </c>
@@ -15845,7 +15847,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>42998</v>
+        <v>43002</v>
       </c>
     </row>
   </sheetData>
@@ -30980,7 +30982,9 @@
       <c r="J193" t="n">
         <v>13</v>
       </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>50</v>
+      </c>
       <c r="L193" t="n">
         <v>7</v>
       </c>
@@ -45067,7 +45071,9 @@
       <c r="J193" t="n">
         <v>0</v>
       </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
       <c r="L193" t="n">
         <v>3</v>
       </c>
@@ -57710,7 +57716,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
       <c r="L193" t="n">
         <v>0</v>
       </c>
@@ -67555,7 +67563,9 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15819,7 +15819,9 @@
       <c r="P193" t="n">
         <v>107</v>
       </c>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>1294</v>
+      </c>
       <c r="R193" t="n">
         <v>166</v>
       </c>
@@ -15847,7 +15849,51 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43002</v>
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>1799</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>167</v>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="n">
+        <v>496</v>
+      </c>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="n">
+        <v>371</v>
+      </c>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
+        <v>43063</v>
       </c>
     </row>
   </sheetData>
@@ -15861,7 +15907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30996,7 +31042,9 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>43</v>
+      </c>
       <c r="R193" t="n">
         <v>8</v>
       </c>
@@ -31024,6 +31072,50 @@
         <v>142</v>
       </c>
       <c r="AB193" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>85</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>8</v>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="n">
+        <v>25</v>
+      </c>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
         <v>2013</v>
       </c>
     </row>
@@ -31038,7 +31130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45012,7 +45104,7 @@
         <v>1</v>
       </c>
       <c r="Q192" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
@@ -45041,7 +45133,7 @@
         <v>27</v>
       </c>
       <c r="AB192" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="193">
@@ -45085,7 +45177,9 @@
       <c r="P193" t="n">
         <v>1</v>
       </c>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>7</v>
+      </c>
       <c r="R193" t="n">
         <v>0</v>
       </c>
@@ -45111,7 +45205,49 @@
         <v>28</v>
       </c>
       <c r="AB193" t="n">
-        <v>110</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -45125,7 +45261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57728,7 +57864,9 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>1</v>
+      </c>
       <c r="R193" t="n">
         <v>0</v>
       </c>
@@ -57746,6 +57884,46 @@
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
         <v>14</v>
       </c>
     </row>
@@ -57760,7 +57938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67571,7 +67749,9 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
@@ -67587,6 +67767,42 @@
         <v>7</v>
       </c>
       <c r="AB193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
         <v>10</v>
       </c>
     </row>
@@ -67601,7 +67817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78045,6 +78261,48 @@
         <v>6844</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>163</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="n">
+        <v>454</v>
+      </c>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="n">
+        <v>317</v>
+      </c>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
+        <v>6854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -78056,7 +78314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AB194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85354,6 +85612,42 @@
         <v>72603</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-04</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="n">
+        <v>72603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15884,7 +15884,9 @@
         <v>496</v>
       </c>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>3556</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -15893,7 +15895,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43063</v>
+        <v>43068</v>
       </c>
     </row>
   </sheetData>
@@ -31107,7 +31109,9 @@
         <v>25</v>
       </c>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>350</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -45238,7 +45242,9 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>1</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -57917,7 +57923,9 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>0</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -67796,7 +67804,9 @@
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>0</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
@@ -78291,7 +78301,9 @@
         <v>454</v>
       </c>
       <c r="U194" t="inlineStr"/>
-      <c r="V194" t="inlineStr"/>
+      <c r="V194" t="n">
+        <v>928</v>
+      </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15649,7 +15649,7 @@
         <v>1064</v>
       </c>
       <c r="N191" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O191" t="n">
         <v>134</v>
@@ -15691,7 +15691,7 @@
         <v>6135</v>
       </c>
       <c r="AB191" t="n">
-        <v>42544</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="192">
@@ -15734,7 +15734,9 @@
       <c r="M192" t="n">
         <v>1067</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>886</v>
+      </c>
       <c r="O192" t="n">
         <v>134</v>
       </c>
@@ -15773,7 +15775,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42828</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="193">
@@ -15814,7 +15816,9 @@
       <c r="M193" t="n">
         <v>1077</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>887</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
         <v>107</v>
@@ -15849,7 +15853,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43016</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="194">
@@ -15863,7 +15867,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>1233</v>
+      </c>
       <c r="H194" t="n">
         <v>1799</v>
       </c>
@@ -15883,11 +15889,15 @@
       <c r="T194" t="n">
         <v>496</v>
       </c>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>587</v>
+      </c>
       <c r="V194" t="n">
         <v>3556</v>
       </c>
-      <c r="W194" t="inlineStr"/>
+      <c r="W194" t="n">
+        <v>137</v>
+      </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
@@ -15895,7 +15905,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43068</v>
+        <v>43080</v>
       </c>
     </row>
   </sheetData>
@@ -31088,7 +31098,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>54</v>
+      </c>
       <c r="H194" t="n">
         <v>85</v>
       </c>
@@ -31108,11 +31120,15 @@
       <c r="T194" t="n">
         <v>25</v>
       </c>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>19</v>
+      </c>
       <c r="V194" t="n">
         <v>350</v>
       </c>
-      <c r="W194" t="inlineStr"/>
+      <c r="W194" t="n">
+        <v>7</v>
+      </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
@@ -45176,7 +45192,9 @@
       <c r="M193" t="n">
         <v>7</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
         <v>1</v>
@@ -45223,7 +45241,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>5</v>
+      </c>
       <c r="H194" t="n">
         <v>6</v>
       </c>
@@ -45241,11 +45261,15 @@
       </c>
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>5</v>
+      </c>
       <c r="V194" t="n">
         <v>1</v>
       </c>
-      <c r="W194" t="inlineStr"/>
+      <c r="W194" t="n">
+        <v>0</v>
+      </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
@@ -57867,7 +57891,9 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="n">
@@ -57904,7 +57930,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>2</v>
+      </c>
       <c r="H194" t="n">
         <v>1</v>
       </c>
@@ -57922,7 +57950,9 @@
       </c>
       <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>2</v>
+      </c>
       <c r="V194" t="n">
         <v>0</v>
       </c>
@@ -67754,7 +67784,9 @@
       </c>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
       <c r="Q193" t="n">
@@ -78282,7 +78314,9 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>1130</v>
+      </c>
       <c r="H194" t="n">
         <v>163</v>
       </c>
@@ -78300,11 +78334,15 @@
       <c r="T194" t="n">
         <v>454</v>
       </c>
-      <c r="U194" t="inlineStr"/>
+      <c r="U194" t="n">
+        <v>81</v>
+      </c>
       <c r="V194" t="n">
         <v>928</v>
       </c>
-      <c r="W194" t="inlineStr"/>
+      <c r="W194" t="n">
+        <v>127</v>
+      </c>
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="n">
@@ -78312,7 +78350,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>6854</v>
+        <v>6857</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15877,7 +15877,9 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1083</v>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -15885,7 +15887,9 @@
       <c r="R194" t="n">
         <v>167</v>
       </c>
-      <c r="S194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>721</v>
+      </c>
       <c r="T194" t="n">
         <v>496</v>
       </c>
@@ -15905,7 +15909,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43080</v>
+        <v>43089</v>
       </c>
     </row>
   </sheetData>
@@ -31108,7 +31112,9 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>21</v>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -31116,7 +31122,9 @@
       <c r="R194" t="n">
         <v>8</v>
       </c>
-      <c r="S194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>18</v>
+      </c>
       <c r="T194" t="n">
         <v>25</v>
       </c>
@@ -45251,7 +45259,9 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>8</v>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
@@ -45259,7 +45269,9 @@
       <c r="R194" t="n">
         <v>0</v>
       </c>
-      <c r="S194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>0</v>
+      </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="n">
         <v>5</v>
@@ -45277,7 +45289,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -57940,7 +57952,9 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15865,7 +15865,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>2610</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
         <v>1233</v>
@@ -15874,7 +15876,9 @@
         <v>1799</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>166</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
@@ -15909,7 +15913,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43089</v>
+        <v>43115</v>
       </c>
     </row>
   </sheetData>
@@ -31100,7 +31104,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>99</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
         <v>54</v>
@@ -31109,7 +31115,9 @@
         <v>85</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>13</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
@@ -45247,7 +45255,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>4</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
         <v>5</v>
@@ -45256,7 +45266,9 @@
         <v>6</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
@@ -45289,7 +45301,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -57940,7 +57952,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>2</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
         <v>2</v>
@@ -67833,7 +67847,9 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>2</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
@@ -67859,7 +67875,7 @@
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15784,7 +15784,9 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="n">
+        <v>2173</v>
+      </c>
       <c r="C193" t="n">
         <v>25</v>
       </c>
@@ -15853,7 +15855,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43021</v>
+        <v>43048</v>
       </c>
     </row>
     <row r="194">
@@ -15863,7 +15865,9 @@
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>25</v>
+      </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
         <v>2610</v>
@@ -15913,7 +15917,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>43115</v>
+        <v>43142</v>
       </c>
     </row>
   </sheetData>
@@ -31025,7 +31029,9 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="n">
+        <v>52</v>
+      </c>
       <c r="C193" t="n">
         <v>0</v>
       </c>
@@ -31102,7 +31108,9 @@
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
         <v>99</v>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15514,10 +15514,10 @@
         <v>344</v>
       </c>
       <c r="AA189" t="n">
-        <v>6047</v>
+        <v>6048</v>
       </c>
       <c r="AB189" t="n">
-        <v>42009</v>
+        <v>42010</v>
       </c>
     </row>
     <row r="190">
@@ -15602,10 +15602,10 @@
         <v>349</v>
       </c>
       <c r="AA190" t="n">
-        <v>6067</v>
+        <v>6068</v>
       </c>
       <c r="AB190" t="n">
-        <v>42243</v>
+        <v>42244</v>
       </c>
     </row>
     <row r="191">
@@ -15688,10 +15688,10 @@
         <v>353</v>
       </c>
       <c r="AA191" t="n">
-        <v>6135</v>
+        <v>6136</v>
       </c>
       <c r="AB191" t="n">
-        <v>42545</v>
+        <v>42546</v>
       </c>
     </row>
     <row r="192">
@@ -15772,10 +15772,10 @@
         <v>354</v>
       </c>
       <c r="AA192" t="n">
-        <v>6226</v>
+        <v>6227</v>
       </c>
       <c r="AB192" t="n">
-        <v>42832</v>
+        <v>42833</v>
       </c>
     </row>
     <row r="193">
@@ -15852,10 +15852,10 @@
         <v>361</v>
       </c>
       <c r="AA193" t="n">
-        <v>6298</v>
+        <v>6299</v>
       </c>
       <c r="AB193" t="n">
-        <v>43048</v>
+        <v>43049</v>
       </c>
     </row>
     <row r="194">
@@ -15872,7 +15872,9 @@
       <c r="E194" t="n">
         <v>2610</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>1059</v>
+      </c>
       <c r="G194" t="n">
         <v>1233</v>
       </c>
@@ -15890,7 +15892,9 @@
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
+      <c r="P194" t="n">
+        <v>107</v>
+      </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="n">
         <v>167</v>
@@ -15915,9 +15919,11 @@
       <c r="Z194" t="n">
         <v>371</v>
       </c>
-      <c r="AA194" t="inlineStr"/>
+      <c r="AA194" t="n">
+        <v>6395</v>
+      </c>
       <c r="AB194" t="n">
-        <v>43142</v>
+        <v>43240</v>
       </c>
     </row>
   </sheetData>
@@ -31115,7 +31121,9 @@
       <c r="E194" t="n">
         <v>99</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>35</v>
+      </c>
       <c r="G194" t="n">
         <v>54</v>
       </c>
@@ -31133,7 +31141,9 @@
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="n">
         <v>8</v>
@@ -31158,7 +31168,9 @@
       <c r="Z194" t="n">
         <v>9</v>
       </c>
-      <c r="AA194" t="inlineStr"/>
+      <c r="AA194" t="n">
+        <v>142</v>
+      </c>
       <c r="AB194" t="n">
         <v>2013</v>
       </c>
@@ -45266,7 +45278,9 @@
       <c r="E194" t="n">
         <v>4</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
       <c r="G194" t="n">
         <v>5</v>
       </c>
@@ -45284,7 +45298,9 @@
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="n">
         <v>0</v>
@@ -45307,9 +45323,11 @@
       <c r="Z194" t="n">
         <v>2</v>
       </c>
-      <c r="AA194" t="inlineStr"/>
+      <c r="AA194" t="n">
+        <v>28</v>
+      </c>
       <c r="AB194" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -57963,7 +57981,9 @@
       <c r="E194" t="n">
         <v>2</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
       <c r="G194" t="n">
         <v>2</v>
       </c>
@@ -67858,7 +67878,9 @@
       <c r="E194" t="n">
         <v>2</v>
       </c>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
@@ -67881,7 +67903,9 @@
       <c r="X194" t="inlineStr"/>
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="inlineStr"/>
-      <c r="AA194" t="inlineStr"/>
+      <c r="AA194" t="n">
+        <v>7</v>
+      </c>
       <c r="AB194" t="n">
         <v>11</v>
       </c>
@@ -78351,7 +78375,9 @@
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="n">
+        <v>971</v>
+      </c>
       <c r="G194" t="n">
         <v>1130</v>
       </c>
@@ -78388,7 +78414,7 @@
       </c>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
-        <v>6857</v>
+        <v>6861</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -14976,7 +14976,7 @@
         <v>1561</v>
       </c>
       <c r="I183" t="n">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="J183" t="n">
         <v>161</v>
@@ -15033,7 +15033,7 @@
         <v>5579</v>
       </c>
       <c r="AB183" t="n">
-        <v>40170</v>
+        <v>40169</v>
       </c>
     </row>
     <row r="184">
@@ -15062,7 +15062,7 @@
         <v>1572</v>
       </c>
       <c r="I184" t="n">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="J184" t="n">
         <v>162</v>
@@ -15119,7 +15119,7 @@
         <v>5629</v>
       </c>
       <c r="AB184" t="n">
-        <v>40446</v>
+        <v>40445</v>
       </c>
     </row>
     <row r="185">
@@ -15148,7 +15148,7 @@
         <v>1595</v>
       </c>
       <c r="I185" t="n">
-        <v>6774</v>
+        <v>6773</v>
       </c>
       <c r="J185" t="n">
         <v>162</v>
@@ -15205,7 +15205,7 @@
         <v>5747</v>
       </c>
       <c r="AB185" t="n">
-        <v>40823</v>
+        <v>40822</v>
       </c>
     </row>
     <row r="186">
@@ -15236,7 +15236,7 @@
         <v>1613</v>
       </c>
       <c r="I186" t="n">
-        <v>6822</v>
+        <v>6821</v>
       </c>
       <c r="J186" t="n">
         <v>163</v>
@@ -15293,7 +15293,7 @@
         <v>5843</v>
       </c>
       <c r="AB186" t="n">
-        <v>41172</v>
+        <v>41171</v>
       </c>
     </row>
     <row r="187">
@@ -15324,7 +15324,7 @@
         <v>1634</v>
       </c>
       <c r="I187" t="n">
-        <v>6866</v>
+        <v>6865</v>
       </c>
       <c r="J187" t="n">
         <v>163</v>
@@ -15379,7 +15379,7 @@
         <v>5932</v>
       </c>
       <c r="AB187" t="n">
-        <v>41539</v>
+        <v>41538</v>
       </c>
     </row>
     <row r="188">
@@ -15406,7 +15406,7 @@
         <v>1654</v>
       </c>
       <c r="I188" t="n">
-        <v>6910</v>
+        <v>6909</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
@@ -15447,7 +15447,7 @@
         <v>5995</v>
       </c>
       <c r="AB188" t="n">
-        <v>41796</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="189">
@@ -15474,7 +15474,7 @@
         <v>1679</v>
       </c>
       <c r="I189" t="n">
-        <v>6943</v>
+        <v>6942</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
@@ -15517,7 +15517,7 @@
         <v>6048</v>
       </c>
       <c r="AB189" t="n">
-        <v>42010</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="190">
@@ -15548,7 +15548,7 @@
         <v>1686</v>
       </c>
       <c r="I190" t="n">
-        <v>6982</v>
+        <v>6981</v>
       </c>
       <c r="J190" t="n">
         <v>164</v>
@@ -15605,7 +15605,7 @@
         <v>6068</v>
       </c>
       <c r="AB190" t="n">
-        <v>42244</v>
+        <v>42243</v>
       </c>
     </row>
     <row r="191">
@@ -15720,7 +15720,7 @@
         <v>1730</v>
       </c>
       <c r="I192" t="n">
-        <v>7072</v>
+        <v>7084</v>
       </c>
       <c r="J192" t="n">
         <v>166</v>
@@ -15775,7 +15775,7 @@
         <v>6227</v>
       </c>
       <c r="AB192" t="n">
-        <v>42833</v>
+        <v>42845</v>
       </c>
     </row>
     <row r="193">
@@ -15805,7 +15805,9 @@
       <c r="H193" t="n">
         <v>1765</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>7136</v>
+      </c>
       <c r="J193" t="n">
         <v>166</v>
       </c>
@@ -15855,7 +15857,7 @@
         <v>6299</v>
       </c>
       <c r="AB193" t="n">
-        <v>43049</v>
+        <v>43113</v>
       </c>
     </row>
     <row r="194">
@@ -15886,7 +15888,9 @@
         <v>166</v>
       </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>274</v>
+      </c>
       <c r="M194" t="n">
         <v>1083</v>
       </c>
@@ -15923,7 +15927,7 @@
         <v>6395</v>
       </c>
       <c r="AB194" t="n">
-        <v>43240</v>
+        <v>43305</v>
       </c>
     </row>
   </sheetData>
@@ -31056,7 +31060,9 @@
       <c r="H193" t="n">
         <v>85</v>
       </c>
-      <c r="I193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>299</v>
+      </c>
       <c r="J193" t="n">
         <v>13</v>
       </c>
@@ -31135,7 +31141,9 @@
         <v>13</v>
       </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>7</v>
+      </c>
       <c r="M194" t="n">
         <v>21</v>
       </c>
@@ -45287,12 +45295,16 @@
       <c r="H194" t="n">
         <v>6</v>
       </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>16</v>
+      </c>
       <c r="J194" t="n">
         <v>0</v>
       </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
       <c r="M194" t="n">
         <v>8</v>
       </c>
@@ -45327,7 +45339,7 @@
         <v>28</v>
       </c>
       <c r="AB194" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -57990,10 +58002,14 @@
       <c r="H194" t="n">
         <v>1</v>
       </c>
-      <c r="I194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15887,7 +15887,9 @@
       <c r="J194" t="n">
         <v>166</v>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1009</v>
+      </c>
       <c r="L194" t="n">
         <v>274</v>
       </c>
@@ -31140,7 +31142,9 @@
       <c r="J194" t="n">
         <v>13</v>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>50</v>
+      </c>
       <c r="L194" t="n">
         <v>7</v>
       </c>
@@ -45301,7 +45305,9 @@
       <c r="J194" t="n">
         <v>0</v>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
       <c r="L194" t="n">
         <v>3</v>
       </c>
@@ -58006,7 +58012,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
       <c r="L194" t="n">
         <v>0</v>
       </c>
@@ -67901,7 +67909,9 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15932,6 +15932,42 @@
         <v>43305</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>43305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -15943,7 +15979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31187,6 +31223,42 @@
         <v>2013</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>2013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -31198,7 +31270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45348,6 +45420,42 @@
         <v>109</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -45359,7 +45467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58045,6 +58153,42 @@
         <v>14</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -58056,7 +58200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67936,6 +68080,42 @@
         <v>11</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -67947,7 +68127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78443,6 +78623,42 @@
         <v>6861</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>6861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -78454,7 +78670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB194"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85788,6 +86004,42 @@
         <v>72603</v>
       </c>
     </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="n">
+        <v>72603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15941,9 +15941,13 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>2650</v>
+      </c>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>1237</v>
+      </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -15965,7 +15969,7 @@
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>43305</v>
+        <v>43349</v>
       </c>
     </row>
   </sheetData>
@@ -31232,9 +31236,13 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>99</v>
+      </c>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>54</v>
+      </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -78634,7 +78642,9 @@
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>1137</v>
+      </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -78656,7 +78666,7 @@
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6861</v>
+        <v>6868</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15376,10 +15376,10 @@
         <v>344</v>
       </c>
       <c r="AA187" t="n">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="AB187" t="n">
-        <v>41538</v>
+        <v>41537</v>
       </c>
     </row>
     <row r="188">
@@ -15444,10 +15444,10 @@
         <v>344</v>
       </c>
       <c r="AA188" t="n">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="AB188" t="n">
-        <v>41795</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="189">
@@ -15514,10 +15514,10 @@
         <v>344</v>
       </c>
       <c r="AA189" t="n">
-        <v>6048</v>
+        <v>6047</v>
       </c>
       <c r="AB189" t="n">
-        <v>42009</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="190">
@@ -15602,10 +15602,10 @@
         <v>349</v>
       </c>
       <c r="AA190" t="n">
-        <v>6068</v>
+        <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42243</v>
+        <v>42242</v>
       </c>
     </row>
     <row r="191">
@@ -15688,10 +15688,10 @@
         <v>353</v>
       </c>
       <c r="AA191" t="n">
-        <v>6136</v>
+        <v>6135</v>
       </c>
       <c r="AB191" t="n">
-        <v>42546</v>
+        <v>42545</v>
       </c>
     </row>
     <row r="192">
@@ -15772,10 +15772,10 @@
         <v>354</v>
       </c>
       <c r="AA192" t="n">
-        <v>6227</v>
+        <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42845</v>
+        <v>42844</v>
       </c>
     </row>
     <row r="193">
@@ -15854,10 +15854,10 @@
         <v>361</v>
       </c>
       <c r="AA193" t="n">
-        <v>6299</v>
+        <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43113</v>
+        <v>43112</v>
       </c>
     </row>
     <row r="194">
@@ -15926,10 +15926,10 @@
         <v>371</v>
       </c>
       <c r="AA194" t="n">
-        <v>6395</v>
+        <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43305</v>
+        <v>43304</v>
       </c>
     </row>
     <row r="195">
@@ -15967,9 +15967,11 @@
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
+      <c r="AA195" t="n">
+        <v>6471</v>
+      </c>
       <c r="AB195" t="n">
-        <v>43349</v>
+        <v>43425</v>
       </c>
     </row>
   </sheetData>
@@ -31262,7 +31264,9 @@
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
+      <c r="AA195" t="n">
+        <v>142</v>
+      </c>
       <c r="AB195" t="n">
         <v>2013</v>
       </c>
@@ -45459,9 +45463,11 @@
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
+      <c r="AA195" t="n">
+        <v>30</v>
+      </c>
       <c r="AB195" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -68119,9 +68125,11 @@
       <c r="X195" t="inlineStr"/>
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
+      <c r="AA195" t="n">
+        <v>8</v>
+      </c>
       <c r="AB195" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15951,7 +15951,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1022</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
@@ -15971,7 +15973,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43425</v>
+        <v>43438</v>
       </c>
     </row>
   </sheetData>
@@ -31248,7 +31250,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>50</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
@@ -45447,7 +45451,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
@@ -58182,7 +58188,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
@@ -68109,7 +68117,9 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15976,6 +15976,42 @@
         <v>43438</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>43438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -15987,7 +16023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31275,6 +31311,42 @@
         <v>2013</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>2013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -31286,7 +31358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45476,6 +45548,42 @@
         <v>111</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -45487,7 +45595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58211,6 +58319,42 @@
         <v>14</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -58222,7 +58366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68142,6 +68286,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -68153,7 +68333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78687,6 +78867,42 @@
         <v>6868</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>6868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -78698,7 +78914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB195"/>
+  <dimension ref="A1:AB196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86068,6 +86284,42 @@
         <v>72603</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-06</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="n">
+        <v>72603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15985,9 +15985,13 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>2673</v>
+      </c>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>1241</v>
+      </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -16009,7 +16013,7 @@
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>43438</v>
+        <v>43465</v>
       </c>
     </row>
   </sheetData>
@@ -31320,9 +31324,13 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>99</v>
+      </c>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>54</v>
+      </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -78878,7 +78886,9 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>1148</v>
+      </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -78900,7 +78910,7 @@
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6868</v>
+        <v>6879</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -16011,9 +16011,11 @@
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
+      <c r="AA196" t="n">
+        <v>6513</v>
+      </c>
       <c r="AB196" t="n">
-        <v>43465</v>
+        <v>43507</v>
       </c>
     </row>
   </sheetData>
@@ -31350,7 +31352,9 @@
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
+      <c r="AA196" t="n">
+        <v>142</v>
+      </c>
       <c r="AB196" t="n">
         <v>2013</v>
       </c>
@@ -45587,9 +45591,11 @@
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
+      <c r="AA196" t="n">
+        <v>31</v>
+      </c>
       <c r="AB196" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -68325,7 +68331,9 @@
       <c r="X196" t="inlineStr"/>
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
+      <c r="AA196" t="n">
+        <v>8</v>
+      </c>
       <c r="AB196" t="n">
         <v>12</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15735,7 +15735,7 @@
         <v>1067</v>
       </c>
       <c r="N192" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="O192" t="n">
         <v>134</v>
@@ -15775,7 +15775,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42844</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="193">
@@ -15821,7 +15821,7 @@
         <v>1077</v>
       </c>
       <c r="N193" t="n">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
@@ -15857,7 +15857,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43112</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="194">
@@ -15896,7 +15896,9 @@
       <c r="M194" t="n">
         <v>1083</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>901</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
         <v>107</v>
@@ -15929,7 +15931,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43304</v>
+        <v>43318</v>
       </c>
     </row>
     <row r="195">
@@ -15948,7 +15950,9 @@
       <c r="G195" t="n">
         <v>1237</v>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>1820</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -15956,7 +15960,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>903</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -15977,7 +15983,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43442</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="196">
@@ -15998,7 +16004,9 @@
       <c r="G196" t="n">
         <v>1241</v>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>1874</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -16031,7 +16039,7 @@
         <v>6513</v>
       </c>
       <c r="AB196" t="n">
-        <v>43527</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="197">
@@ -16045,8 +16053,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>1247</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1898</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -16056,14 +16068,18 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>168</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="n">
         <v>508</v>
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>137</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -16071,7 +16087,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43541</v>
+        <v>43663</v>
       </c>
     </row>
   </sheetData>
@@ -30891,7 +30907,9 @@
         <v>7</v>
       </c>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>84</v>
+      </c>
       <c r="O189" t="n">
         <v>3</v>
       </c>
@@ -30967,7 +30985,9 @@
       <c r="M190" t="n">
         <v>21</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>84</v>
+      </c>
       <c r="O190" t="n">
         <v>3</v>
       </c>
@@ -31051,7 +31071,9 @@
       <c r="M191" t="n">
         <v>21</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>84</v>
+      </c>
       <c r="O191" t="n">
         <v>3</v>
       </c>
@@ -31135,7 +31157,9 @@
       <c r="M192" t="n">
         <v>21</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>84</v>
+      </c>
       <c r="O192" t="n">
         <v>3</v>
       </c>
@@ -31219,7 +31243,9 @@
       <c r="M193" t="n">
         <v>21</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>84</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
         <v>0</v>
@@ -31293,7 +31319,9 @@
       <c r="M194" t="n">
         <v>21</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>84</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
         <v>0</v>
@@ -31345,7 +31373,9 @@
       <c r="G195" t="n">
         <v>54</v>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>85</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -31395,7 +31425,9 @@
       <c r="G196" t="n">
         <v>54</v>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>87</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -31428,7 +31460,7 @@
         <v>142</v>
       </c>
       <c r="AB196" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="197">
@@ -31442,8 +31474,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>54</v>
+      </c>
+      <c r="H197" t="n">
+        <v>87</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -31453,14 +31489,18 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>9</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="n">
         <v>25</v>
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>7</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -31468,7 +31508,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
@@ -45598,7 +45638,9 @@
       <c r="M194" t="n">
         <v>8</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
         <v>0</v>
@@ -45629,7 +45671,7 @@
         <v>28</v>
       </c>
       <c r="AB194" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="195">
@@ -45644,7 +45686,9 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -45652,7 +45696,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -45686,7 +45732,9 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -45694,7 +45742,9 @@
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -45732,7 +45782,9 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>5</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -45742,12 +45794,16 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -58431,7 +58487,9 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
@@ -58467,7 +58525,9 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -58475,7 +58535,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -58505,7 +58567,9 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -58513,7 +58577,9 @@
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -58545,7 +58611,9 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -58555,7 +58623,9 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
@@ -68438,7 +68508,9 @@
       </c>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
@@ -68480,7 +68552,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -68520,7 +68594,9 @@
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -79099,7 +79175,9 @@
       <c r="G195" t="n">
         <v>1137</v>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>164</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -79124,7 +79202,7 @@
       </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6870</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="196">
@@ -79141,7 +79219,9 @@
       <c r="G196" t="n">
         <v>1148</v>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>164</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -79168,7 +79248,7 @@
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6881</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="197">
@@ -79182,8 +79262,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>1151</v>
+      </c>
+      <c r="H197" t="n">
+        <v>164</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -79200,7 +79284,9 @@
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>127</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -79208,7 +79294,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6886</v>
+        <v>6890</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15971,7 +15971,9 @@
       <c r="T195" t="n">
         <v>500</v>
       </c>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>592</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -15983,7 +15985,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43479</v>
+        <v>43484</v>
       </c>
     </row>
     <row r="196">
@@ -16025,7 +16027,9 @@
       <c r="T196" t="n">
         <v>500</v>
       </c>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>592</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>137</v>
@@ -16039,7 +16043,7 @@
         <v>6513</v>
       </c>
       <c r="AB196" t="n">
-        <v>43618</v>
+        <v>43623</v>
       </c>
     </row>
     <row r="197">
@@ -16063,7 +16067,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1092</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -16071,12 +16077,18 @@
       <c r="R197" t="n">
         <v>168</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>731</v>
+      </c>
       <c r="T197" t="n">
         <v>508</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>592</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3561</v>
+      </c>
       <c r="W197" t="n">
         <v>137</v>
       </c>
@@ -16087,7 +16099,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43663</v>
+        <v>43692</v>
       </c>
     </row>
   </sheetData>
@@ -31392,7 +31404,9 @@
       <c r="T195" t="n">
         <v>25</v>
       </c>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>19</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -31446,7 +31460,9 @@
       <c r="T196" t="n">
         <v>25</v>
       </c>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>19</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>7</v>
@@ -31484,7 +31500,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>21</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -31492,12 +31510,18 @@
       <c r="R197" t="n">
         <v>9</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>18</v>
+      </c>
       <c r="T197" t="n">
         <v>25</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>19</v>
+      </c>
+      <c r="V197" t="n">
+        <v>350</v>
+      </c>
       <c r="W197" t="n">
         <v>7</v>
       </c>
@@ -45705,7 +45729,9 @@
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>4</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -45717,7 +45743,7 @@
         <v>30</v>
       </c>
       <c r="AB195" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196">
@@ -45753,7 +45779,9 @@
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>4</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>0</v>
@@ -45767,7 +45795,7 @@
         <v>31</v>
       </c>
       <c r="AB196" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="197">
@@ -45789,7 +45817,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>8</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -45797,10 +45827,16 @@
       <c r="R197" t="n">
         <v>0</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>1</v>
+      </c>
       <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>4</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
       <c r="W197" t="n">
         <v>0</v>
       </c>
@@ -45811,7 +45847,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -58544,7 +58580,9 @@
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>2</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -58588,7 +58626,9 @@
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>2</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
@@ -58618,7 +58658,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>2</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -58628,15 +58670,19 @@
       </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>2</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -68644,7 +68690,9 @@
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
@@ -79192,7 +79240,9 @@
       <c r="T195" t="n">
         <v>456</v>
       </c>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>82</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -79202,7 +79252,7 @@
       </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6871</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="196">
@@ -79236,7 +79286,9 @@
       <c r="T196" t="n">
         <v>456</v>
       </c>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>82</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>127</v>
@@ -79248,7 +79300,7 @@
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6882</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="197">
@@ -79282,8 +79334,12 @@
       <c r="T197" t="n">
         <v>460</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>82</v>
+      </c>
+      <c r="V197" t="n">
+        <v>929</v>
+      </c>
       <c r="W197" t="n">
         <v>127</v>
       </c>
@@ -79294,7 +79350,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6890</v>
+        <v>6892</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -16053,9 +16053,13 @@
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>25</v>
+      </c>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>2681</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
         <v>1247</v>
@@ -16064,7 +16068,9 @@
         <v>1898</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>166</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
@@ -16099,7 +16105,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43692</v>
+        <v>43700</v>
       </c>
     </row>
   </sheetData>
@@ -31486,9 +31492,13 @@
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>99</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
         <v>54</v>
@@ -31497,7 +31507,9 @@
         <v>87</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>13</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
@@ -45807,14 +45819,18 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>3</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
         <v>5</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
@@ -45847,7 +45863,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -58648,7 +58664,9 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
@@ -68673,7 +68691,9 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
@@ -68699,7 +68719,7 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15866,7 +15866,9 @@
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>2200</v>
+      </c>
       <c r="C194" t="n">
         <v>25</v>
       </c>
@@ -15931,7 +15933,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43318</v>
+        <v>43345</v>
       </c>
     </row>
     <row r="195">
@@ -15940,7 +15942,9 @@
           <t>2020-09-05</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>2220</v>
+      </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
@@ -15985,7 +15989,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43484</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="196">
@@ -15994,7 +15998,9 @@
           <t>2020-09-06</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>2225</v>
+      </c>
       <c r="C196" t="n">
         <v>25</v>
       </c>
@@ -16043,7 +16049,7 @@
         <v>6513</v>
       </c>
       <c r="AB196" t="n">
-        <v>43623</v>
+        <v>43675</v>
       </c>
     </row>
     <row r="197">
@@ -16056,7 +16062,9 @@
       <c r="C197" t="n">
         <v>25</v>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>139</v>
+      </c>
       <c r="E197" t="n">
         <v>2681</v>
       </c>
@@ -16105,7 +16113,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43700</v>
+        <v>43756</v>
       </c>
     </row>
   </sheetData>
@@ -31307,7 +31315,9 @@
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>52</v>
+      </c>
       <c r="C194" t="n">
         <v>0</v>
       </c>
@@ -31433,7 +31443,9 @@
           <t>2020-09-06</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>52</v>
+      </c>
       <c r="C196" t="n">
         <v>0</v>
       </c>
@@ -31495,7 +31507,9 @@
       <c r="C197" t="n">
         <v>0</v>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>3</v>
+      </c>
       <c r="E197" t="n">
         <v>99</v>
       </c>
@@ -45818,7 +45832,9 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
       <c r="E197" t="n">
         <v>3</v>
       </c>
@@ -45863,7 +45879,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -58663,7 +58679,9 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
       <c r="E197" t="n">
         <v>2</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15950,7 +15950,9 @@
       <c r="E195" t="n">
         <v>2650</v>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>1063</v>
+      </c>
       <c r="G195" t="n">
         <v>1237</v>
       </c>
@@ -15986,10 +15988,10 @@
         <v>371</v>
       </c>
       <c r="AA195" t="n">
-        <v>6471</v>
+        <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43531</v>
+        <v>43536</v>
       </c>
     </row>
     <row r="196">
@@ -16008,7 +16010,9 @@
       <c r="E196" t="n">
         <v>2673</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>1067</v>
+      </c>
       <c r="G196" t="n">
         <v>1241</v>
       </c>
@@ -16046,10 +16050,10 @@
         <v>371</v>
       </c>
       <c r="AA196" t="n">
-        <v>6513</v>
+        <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43675</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="197">
@@ -16068,7 +16072,9 @@
       <c r="E197" t="n">
         <v>2681</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>1067</v>
+      </c>
       <c r="G197" t="n">
         <v>1247</v>
       </c>
@@ -16086,7 +16092,9 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>107</v>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
         <v>168</v>
@@ -16111,9 +16119,11 @@
       <c r="Z197" t="n">
         <v>377</v>
       </c>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>6558</v>
+      </c>
       <c r="AB197" t="n">
-        <v>43756</v>
+        <v>43809</v>
       </c>
     </row>
   </sheetData>
@@ -30708,9 +30718,7 @@
       <c r="P186" t="n">
         <v>0</v>
       </c>
-      <c r="Q186" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
         <v>8</v>
       </c>
@@ -30742,7 +30750,7 @@
         <v>141</v>
       </c>
       <c r="AB186" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="187">
@@ -30828,7 +30836,7 @@
         <v>141</v>
       </c>
       <c r="AB187" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="188">
@@ -30896,7 +30904,7 @@
         <v>141</v>
       </c>
       <c r="AB188" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="189">
@@ -30940,9 +30948,7 @@
         <v>3</v>
       </c>
       <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="n">
@@ -30966,7 +30972,7 @@
         <v>142</v>
       </c>
       <c r="AB189" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="190">
@@ -31020,9 +31026,7 @@
       <c r="P190" t="n">
         <v>0</v>
       </c>
-      <c r="Q190" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
         <v>8</v>
       </c>
@@ -31054,7 +31058,7 @@
         <v>142</v>
       </c>
       <c r="AB190" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="191">
@@ -31106,9 +31110,7 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
-      <c r="Q191" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
         <v>8</v>
       </c>
@@ -31140,7 +31142,7 @@
         <v>142</v>
       </c>
       <c r="AB191" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="192">
@@ -31192,9 +31194,7 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
-      <c r="Q192" t="n">
-        <v>43</v>
-      </c>
+      <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
         <v>8</v>
       </c>
@@ -31224,7 +31224,7 @@
         <v>142</v>
       </c>
       <c r="AB192" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="193">
@@ -31276,9 +31276,7 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
-      <c r="Q193" t="n">
-        <v>43</v>
-      </c>
+      <c r="Q193" t="inlineStr"/>
       <c r="R193" t="n">
         <v>8</v>
       </c>
@@ -31306,7 +31304,7 @@
         <v>142</v>
       </c>
       <c r="AB193" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="194">
@@ -31382,7 +31380,7 @@
         <v>142</v>
       </c>
       <c r="AB194" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="195">
@@ -31397,7 +31395,9 @@
       <c r="E195" t="n">
         <v>99</v>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>35</v>
+      </c>
       <c r="G195" t="n">
         <v>54</v>
       </c>
@@ -31434,7 +31434,7 @@
         <v>142</v>
       </c>
       <c r="AB195" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="196">
@@ -31453,7 +31453,9 @@
       <c r="E196" t="n">
         <v>99</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>35</v>
+      </c>
       <c r="G196" t="n">
         <v>54</v>
       </c>
@@ -31513,7 +31515,9 @@
       <c r="E197" t="n">
         <v>99</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>35</v>
+      </c>
       <c r="G197" t="n">
         <v>54</v>
       </c>
@@ -31531,7 +31535,9 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
         <v>9</v>
@@ -31556,7 +31562,9 @@
       <c r="Z197" t="n">
         <v>9</v>
       </c>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>142</v>
+      </c>
       <c r="AB197" t="n">
         <v>2014</v>
       </c>
@@ -45734,8 +45742,12 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>6</v>
+      </c>
       <c r="H195" t="n">
         <v>5</v>
       </c>
@@ -45769,7 +45781,7 @@
         <v>30</v>
       </c>
       <c r="AB195" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196">
@@ -45782,8 +45794,12 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>5</v>
+      </c>
       <c r="H196" t="n">
         <v>5</v>
       </c>
@@ -45838,8 +45854,12 @@
       <c r="E197" t="n">
         <v>3</v>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4</v>
+      </c>
       <c r="H197" t="n">
         <v>5</v>
       </c>
@@ -45854,7 +45874,9 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
         <v>0</v>
@@ -45877,9 +45899,11 @@
       <c r="Z197" t="n">
         <v>1</v>
       </c>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>34</v>
+      </c>
       <c r="AB197" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -58591,8 +58615,12 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2</v>
+      </c>
       <c r="H195" t="n">
         <v>1</v>
       </c>
@@ -58635,8 +58663,12 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
       <c r="H196" t="n">
         <v>1</v>
       </c>
@@ -58685,8 +58717,12 @@
       <c r="E197" t="n">
         <v>2</v>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
       <c r="H197" t="n">
         <v>1</v>
       </c>
@@ -58718,7 +58754,7 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -68624,7 +68660,9 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -68666,7 +68704,9 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -68712,7 +68752,9 @@
       <c r="E197" t="n">
         <v>1</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -68735,7 +68777,9 @@
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>8</v>
+      </c>
       <c r="AB197" t="n">
         <v>11</v>
       </c>
@@ -79257,7 +79301,9 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>977</v>
+      </c>
       <c r="G195" t="n">
         <v>1137</v>
       </c>
@@ -79290,7 +79336,7 @@
       </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6872</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="196">
@@ -79303,7 +79349,9 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>981</v>
+      </c>
       <c r="G196" t="n">
         <v>1148</v>
       </c>
@@ -79338,7 +79386,7 @@
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6883</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="197">
@@ -79351,7 +79399,9 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>987</v>
+      </c>
       <c r="G197" t="n">
         <v>1151</v>
       </c>
@@ -79388,7 +79438,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6892</v>
+        <v>6908</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -16112,7 +16112,7 @@
         <v>3561</v>
       </c>
       <c r="W197" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
@@ -16123,7 +16123,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
     </row>
   </sheetData>
@@ -79429,7 +79429,7 @@
         <v>929</v>
       </c>
       <c r="W197" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
@@ -79438,7 +79438,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6908</v>
+        <v>6909</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15596,7 +15596,7 @@
         <v>7242</v>
       </c>
       <c r="Y190" t="n">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="Z190" t="n">
         <v>349</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42242</v>
+        <v>42244</v>
       </c>
     </row>
     <row r="191">
@@ -15682,7 +15682,7 @@
         <v>7330</v>
       </c>
       <c r="Y191" t="n">
-        <v>2371</v>
+        <v>2387</v>
       </c>
       <c r="Z191" t="n">
         <v>353</v>
@@ -15691,7 +15691,7 @@
         <v>6135</v>
       </c>
       <c r="AB191" t="n">
-        <v>42545</v>
+        <v>42561</v>
       </c>
     </row>
     <row r="192">
@@ -15767,7 +15767,9 @@
       <c r="X192" t="n">
         <v>7380</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>2400</v>
+      </c>
       <c r="Z192" t="n">
         <v>354</v>
       </c>
@@ -15775,7 +15777,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42846</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="193">
@@ -15849,7 +15851,9 @@
         <v>137</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>2416</v>
+      </c>
       <c r="Z193" t="n">
         <v>361</v>
       </c>
@@ -15857,7 +15861,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43122</v>
+        <v>43167</v>
       </c>
     </row>
     <row r="194">
@@ -15925,7 +15929,9 @@
         <v>137</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>2428</v>
+      </c>
       <c r="Z194" t="n">
         <v>371</v>
       </c>
@@ -15933,7 +15939,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43345</v>
+        <v>43402</v>
       </c>
     </row>
     <row r="195">
@@ -15983,7 +15989,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>2437</v>
+      </c>
       <c r="Z195" t="n">
         <v>371</v>
       </c>
@@ -15991,7 +15999,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43536</v>
+        <v>43602</v>
       </c>
     </row>
     <row r="196">
@@ -16045,7 +16053,9 @@
         <v>137</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>2439</v>
+      </c>
       <c r="Z196" t="n">
         <v>371</v>
       </c>
@@ -16053,7 +16063,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43684</v>
+        <v>43752</v>
       </c>
     </row>
     <row r="197">
@@ -16115,7 +16125,9 @@
         <v>138</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>2439</v>
+      </c>
       <c r="Z197" t="n">
         <v>377</v>
       </c>
@@ -16123,7 +16135,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43810</v>
+        <v>43878</v>
       </c>
     </row>
   </sheetData>
@@ -31216,7 +31228,9 @@
       <c r="X192" t="n">
         <v>432</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>155</v>
+      </c>
       <c r="Z192" t="n">
         <v>9</v>
       </c>
@@ -31296,7 +31310,9 @@
         <v>7</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>155</v>
+      </c>
       <c r="Z193" t="n">
         <v>9</v>
       </c>
@@ -31372,7 +31388,9 @@
         <v>7</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>155</v>
+      </c>
       <c r="Z194" t="n">
         <v>9</v>
       </c>
@@ -31426,7 +31444,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>155</v>
+      </c>
       <c r="Z195" t="n">
         <v>9</v>
       </c>
@@ -31488,7 +31508,9 @@
         <v>7</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>155</v>
+      </c>
       <c r="Z196" t="n">
         <v>9</v>
       </c>
@@ -31558,7 +31580,9 @@
         <v>7</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>155</v>
+      </c>
       <c r="Z197" t="n">
         <v>9</v>
       </c>
@@ -45575,7 +45599,9 @@
       <c r="X192" t="n">
         <v>13</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>3</v>
+      </c>
       <c r="Z192" t="n">
         <v>3</v>
       </c>
@@ -45649,7 +45675,9 @@
         <v>0</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>3</v>
+      </c>
       <c r="Z193" t="n">
         <v>2</v>
       </c>
@@ -45721,7 +45749,9 @@
         <v>0</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>3</v>
+      </c>
       <c r="Z194" t="n">
         <v>2</v>
       </c>
@@ -45773,7 +45803,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>3</v>
+      </c>
       <c r="Z195" t="n">
         <v>2</v>
       </c>
@@ -45829,7 +45861,9 @@
         <v>0</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>3</v>
+      </c>
       <c r="Z196" t="n">
         <v>2</v>
       </c>
@@ -45895,7 +45929,9 @@
         <v>0</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>3</v>
+      </c>
       <c r="Z197" t="n">
         <v>1</v>
       </c>
@@ -58476,7 +58512,9 @@
       <c r="X192" t="n">
         <v>4</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>0</v>
+      </c>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
@@ -58538,7 +58576,9 @@
       </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>0</v>
+      </c>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
@@ -58598,7 +58638,9 @@
       </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
@@ -58646,7 +58688,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>0</v>
+      </c>
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
@@ -58696,7 +58740,9 @@
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
@@ -58750,7 +58796,9 @@
       </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
@@ -68545,7 +68593,9 @@
       </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>0</v>
+      </c>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="n">
         <v>7</v>
@@ -68593,7 +68643,9 @@
       </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>0</v>
+      </c>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="n">
         <v>7</v>
@@ -68641,7 +68693,9 @@
       </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="n">
         <v>7</v>
@@ -68685,7 +68739,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>0</v>
+      </c>
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="n">
         <v>8</v>
@@ -68731,7 +68787,9 @@
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="n">
         <v>8</v>
@@ -68775,7 +68833,9 @@
       </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="n">
         <v>8</v>
@@ -79178,7 +79238,9 @@
         <v>127</v>
       </c>
       <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>320</v>
+      </c>
       <c r="Z192" t="n">
         <v>314</v>
       </c>
@@ -79230,7 +79292,9 @@
         <v>127</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>320</v>
+      </c>
       <c r="Z193" t="n">
         <v>316</v>
       </c>
@@ -79282,7 +79346,9 @@
         <v>127</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>320</v>
+      </c>
       <c r="Z194" t="n">
         <v>317</v>
       </c>
@@ -79330,7 +79396,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>320</v>
+      </c>
       <c r="Z195" t="n">
         <v>317</v>
       </c>
@@ -79380,7 +79448,9 @@
         <v>127</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>320</v>
+      </c>
       <c r="Z196" t="n">
         <v>317</v>
       </c>
@@ -79432,7 +79502,9 @@
         <v>128</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>320</v>
+      </c>
       <c r="Z197" t="n">
         <v>318</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15897,7 +15897,7 @@
         <v>1009</v>
       </c>
       <c r="L194" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M194" t="n">
         <v>1083</v>
@@ -15939,7 +15939,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43402</v>
+        <v>43403</v>
       </c>
     </row>
     <row r="195">
@@ -15970,7 +15970,9 @@
       <c r="K195" t="n">
         <v>1022</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>277</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>903</v>
@@ -15999,7 +16001,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43602</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="196">
@@ -16032,7 +16034,9 @@
       <c r="K196" t="n">
         <v>1022</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>277</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -16063,7 +16067,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43752</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="197">
@@ -16096,7 +16100,9 @@
         <v>166</v>
       </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>279</v>
+      </c>
       <c r="M197" t="n">
         <v>1092</v>
       </c>
@@ -16135,7 +16141,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43878</v>
+        <v>43883</v>
       </c>
     </row>
   </sheetData>
@@ -31427,7 +31433,9 @@
       <c r="K195" t="n">
         <v>50</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>7</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -31487,7 +31495,9 @@
       <c r="K196" t="n">
         <v>50</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>7</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -31551,7 +31561,9 @@
         <v>13</v>
       </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>7</v>
+      </c>
       <c r="M197" t="n">
         <v>21</v>
       </c>
@@ -45643,7 +45655,7 @@
         <v>1</v>
       </c>
       <c r="L193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M193" t="n">
         <v>7</v>
@@ -45685,7 +45697,7 @@
         <v>28</v>
       </c>
       <c r="AB193" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="194">
@@ -45719,7 +45731,7 @@
         <v>1</v>
       </c>
       <c r="L194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M194" t="n">
         <v>8</v>
@@ -45759,7 +45771,7 @@
         <v>28</v>
       </c>
       <c r="AB194" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="195">
@@ -45786,7 +45798,9 @@
       <c r="K195" t="n">
         <v>1</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>4</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>1</v>
@@ -45813,7 +45827,7 @@
         <v>30</v>
       </c>
       <c r="AB195" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="196">
@@ -45840,7 +45854,9 @@
       <c r="K196" t="n">
         <v>1</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>4</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
         <v>1</v>
@@ -45871,7 +45887,7 @@
         <v>31</v>
       </c>
       <c r="AB196" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197">
@@ -45902,7 +45918,9 @@
         <v>0</v>
       </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>4</v>
+      </c>
       <c r="M197" t="n">
         <v>8</v>
       </c>
@@ -45939,7 +45957,7 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -58671,7 +58689,9 @@
       <c r="K195" t="n">
         <v>0</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>0</v>
@@ -58721,7 +58741,9 @@
       <c r="K196" t="n">
         <v>0</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
         <v>0</v>
@@ -58775,7 +58797,9 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
       <c r="M197" t="n">
         <v>2</v>
       </c>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15979,7 +15979,9 @@
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
+      <c r="Q195" t="n">
+        <v>1306</v>
+      </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="n">
@@ -16001,7 +16003,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43605</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="196">
@@ -16099,7 +16101,9 @@
       <c r="J197" t="n">
         <v>166</v>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1023</v>
+      </c>
       <c r="L197" t="n">
         <v>279</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43883</v>
+        <v>43884</v>
       </c>
     </row>
   </sheetData>
@@ -31440,7 +31444,9 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
+      <c r="Q195" t="n">
+        <v>41</v>
+      </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="n">
@@ -31560,7 +31566,9 @@
       <c r="J197" t="n">
         <v>13</v>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>50</v>
+      </c>
       <c r="L197" t="n">
         <v>7</v>
       </c>
@@ -45917,7 +45925,9 @@
       <c r="J197" t="n">
         <v>0</v>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
       <c r="L197" t="n">
         <v>4</v>
       </c>
@@ -58796,7 +58806,9 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
       <c r="L197" t="n">
         <v>0</v>
       </c>
@@ -68841,7 +68853,9 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16115,7 +16115,9 @@
       <c r="P197" t="n">
         <v>107</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>1321</v>
+      </c>
       <c r="R197" t="n">
         <v>168</v>
       </c>
@@ -16145,7 +16147,43 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43884</v>
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
+        <v>43895</v>
       </c>
     </row>
   </sheetData>
@@ -16159,7 +16197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31580,7 +31618,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>41</v>
+      </c>
       <c r="R197" t="n">
         <v>9</v>
       </c>
@@ -31610,6 +31650,42 @@
         <v>142</v>
       </c>
       <c r="AB197" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>2014</v>
       </c>
     </row>
@@ -31624,7 +31700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45939,7 +46015,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>8</v>
+      </c>
       <c r="R197" t="n">
         <v>0</v>
       </c>
@@ -45967,6 +46045,42 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>110</v>
       </c>
     </row>
@@ -45981,7 +46095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58818,7 +58932,9 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
       <c r="R197" t="n">
         <v>0</v>
       </c>
@@ -58838,6 +58954,42 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>14</v>
       </c>
     </row>
@@ -58852,7 +59004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68861,7 +69013,9 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
@@ -68879,6 +69033,42 @@
         <v>8</v>
       </c>
       <c r="AB197" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>11</v>
       </c>
     </row>
@@ -68893,7 +69083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79551,6 +79741,42 @@
         <v>6909</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
+        <v>6909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -79562,7 +79788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87004,6 +87230,42 @@
         <v>72603</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
+        <v>72603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202008210000..xlsx
+++ b/cache/daily/ch/202008210000..xlsx
@@ -15975,7 +15975,7 @@
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
@@ -16003,7 +16003,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43617</v>
+        <v>43619</v>
       </c>
     </row>
     <row r="196">
@@ -16040,7 +16040,9 @@
         <v>277</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>914</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -16069,7 +16071,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43755</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="197">
@@ -16110,7 +16112,9 @@
       <c r="M197" t="n">
         <v>1092</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>916</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
         <v>107</v>
@@ -16147,7 +16151,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43895</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="198">
@@ -16161,7 +16165,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1254</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -16172,18 +16178,26 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>171</v>
+      </c>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>511</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>3565</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>384</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
-        <v>43895</v>
+        <v>43932</v>
       </c>
     </row>
   </sheetData>
@@ -31479,7 +31493,9 @@
         <v>7</v>
       </c>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>84</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="n">
@@ -31543,7 +31559,9 @@
         <v>7</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>85</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -31572,7 +31590,7 @@
         <v>142</v>
       </c>
       <c r="AB196" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="197">
@@ -31622,7 +31640,7 @@
         <v>41</v>
       </c>
       <c r="R197" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S197" t="n">
         <v>18</v>
@@ -31664,7 +31682,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>54</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -31675,15 +31695,23 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>8</v>
+      </c>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>25</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>350</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>9</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
         <v>2014</v>
@@ -46010,7 +46038,9 @@
       <c r="M197" t="n">
         <v>8</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
         <v>0</v>
@@ -46045,7 +46075,7 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198">
@@ -46059,7 +46089,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>4</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -46070,15 +46102,21 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
         <v>110</v>
@@ -58929,7 +58967,9 @@
       <c r="M197" t="n">
         <v>2</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
@@ -58968,7 +59008,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -58979,11 +59021,15 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
@@ -69010,7 +69056,9 @@
       </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
@@ -69062,7 +69110,9 @@
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
@@ -79752,7 +79802,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1154</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -79765,16 +79817,22 @@
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>464</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>929</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>327</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
-        <v>6909</v>
+        <v>6925</v>
       </c>
     </row>
   </sheetData>
